--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,15 @@
     <t>['39', '41', '60']</t>
   </si>
   <si>
+    <t>['18', '50', '84']</t>
+  </si>
+  <si>
+    <t>['34', '45', '89']</t>
+  </si>
+  <si>
+    <t>['20', '40']</t>
+  </si>
+  <si>
     <t>['48', '51', '62']</t>
   </si>
   <si>
@@ -686,6 +695,9 @@
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1482,7 +1494,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1673,7 +1685,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -1760,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT4">
         <v>0.57</v>
@@ -1864,7 +1876,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2055,7 +2067,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2246,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2336,7 +2348,7 @@
         <v>1.17</v>
       </c>
       <c r="AT7">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2437,7 +2449,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2628,7 +2640,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2906,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3010,7 +3022,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3201,7 +3213,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3583,7 +3595,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3670,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3965,7 +3977,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4055,7 +4067,7 @@
         <v>0.6</v>
       </c>
       <c r="AT16">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4246,7 +4258,7 @@
         <v>2.6</v>
       </c>
       <c r="AT17">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4538,7 +4550,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4729,7 +4741,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4920,7 +4932,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5111,7 +5123,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5198,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
         <v>1.67</v>
@@ -5684,7 +5696,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5875,7 +5887,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5965,7 +5977,7 @@
         <v>0.83</v>
       </c>
       <c r="AT26">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU26">
         <v>1.17</v>
@@ -6066,7 +6078,7 @@
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6257,7 +6269,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6347,7 +6359,7 @@
         <v>0.83</v>
       </c>
       <c r="AT28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.02</v>
@@ -6830,7 +6842,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7021,7 +7033,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7403,7 +7415,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7490,7 +7502,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT34">
         <v>2.5</v>
@@ -7684,7 +7696,7 @@
         <v>3</v>
       </c>
       <c r="AT35">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU35">
         <v>1.82</v>
@@ -8063,10 +8075,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT37">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU37">
         <v>2.43</v>
@@ -8167,7 +8179,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8549,7 +8561,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8830,7 +8842,7 @@
         <v>2.14</v>
       </c>
       <c r="AT41">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU41">
         <v>1.12</v>
@@ -8931,7 +8943,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9122,7 +9134,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9313,7 +9325,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9400,7 +9412,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT44">
         <v>2.5</v>
@@ -9594,7 +9606,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU45">
         <v>1.85</v>
@@ -9695,7 +9707,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9886,7 +9898,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10077,7 +10089,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>13</v>
@@ -10931,7 +10943,7 @@
         <v>3</v>
       </c>
       <c r="AT52">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>2.55</v>
@@ -11032,7 +11044,7 @@
         <v>83</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11119,10 +11131,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT53">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU53">
         <v>2.15</v>
@@ -11223,7 +11235,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11310,7 +11322,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT54">
         <v>1.17</v>
@@ -11695,7 +11707,7 @@
         <v>1.33</v>
       </c>
       <c r="AT56">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU56">
         <v>1.41</v>
@@ -11796,7 +11808,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11886,7 +11898,7 @@
         <v>2.14</v>
       </c>
       <c r="AT57">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -11987,7 +11999,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12077,7 +12089,7 @@
         <v>0.83</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU58">
         <v>1.55</v>
@@ -12178,7 +12190,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>16</v>
@@ -12751,7 +12763,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>13</v>
@@ -12942,7 +12954,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13133,7 +13145,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13220,7 +13232,7 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT64">
         <v>2.5</v>
@@ -13411,7 +13423,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT65">
         <v>1.5</v>
@@ -13515,7 +13527,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13706,7 +13718,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14178,7 +14190,7 @@
         <v>1.17</v>
       </c>
       <c r="AT69">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU69">
         <v>1.7</v>
@@ -14279,7 +14291,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>8</v>
@@ -14470,7 +14482,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14661,7 +14673,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14939,7 +14951,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT73">
         <v>1.5</v>
@@ -15043,7 +15055,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15133,7 +15145,7 @@
         <v>1.17</v>
       </c>
       <c r="AT74">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>1.26</v>
@@ -15234,7 +15246,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15425,7 +15437,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16189,7 +16201,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16380,7 +16392,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16571,7 +16583,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16762,7 +16774,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -16849,10 +16861,10 @@
         <v>0.4</v>
       </c>
       <c r="AS83">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT83">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU83">
         <v>1.55</v>
@@ -17043,7 +17055,7 @@
         <v>1.17</v>
       </c>
       <c r="AT84">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.86</v>
@@ -17144,7 +17156,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17335,7 +17347,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17422,7 +17434,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT86">
         <v>1.2</v>
@@ -17616,7 +17628,7 @@
         <v>2.14</v>
       </c>
       <c r="AT87">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -17807,7 +17819,7 @@
         <v>3</v>
       </c>
       <c r="AT88">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU88">
         <v>2.01</v>
@@ -17908,7 +17920,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18099,7 +18111,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -18186,7 +18198,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT90">
         <v>2.17</v>
@@ -18290,7 +18302,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18481,7 +18493,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18672,7 +18684,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18863,7 +18875,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19245,7 +19257,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19332,7 +19344,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT96">
         <v>1.17</v>
@@ -19436,7 +19448,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19627,7 +19639,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20009,7 +20021,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20200,7 +20212,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20391,7 +20403,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20582,7 +20594,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20724,6 +20736,961 @@
       </c>
       <c r="BK103">
         <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2433090</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44864.34375</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" t="s">
+        <v>83</v>
+      </c>
+      <c r="P104" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q104">
+        <v>9</v>
+      </c>
+      <c r="R104">
+        <v>5</v>
+      </c>
+      <c r="S104">
+        <v>14</v>
+      </c>
+      <c r="T104">
+        <v>2.88</v>
+      </c>
+      <c r="U104">
+        <v>2.2</v>
+      </c>
+      <c r="V104">
+        <v>3.75</v>
+      </c>
+      <c r="W104">
+        <v>1.4</v>
+      </c>
+      <c r="X104">
+        <v>2.75</v>
+      </c>
+      <c r="Y104">
+        <v>2.75</v>
+      </c>
+      <c r="Z104">
+        <v>1.4</v>
+      </c>
+      <c r="AA104">
+        <v>8</v>
+      </c>
+      <c r="AB104">
+        <v>1.08</v>
+      </c>
+      <c r="AC104">
+        <v>2.28</v>
+      </c>
+      <c r="AD104">
+        <v>3.3</v>
+      </c>
+      <c r="AE104">
+        <v>3.2</v>
+      </c>
+      <c r="AF104">
+        <v>1.04</v>
+      </c>
+      <c r="AG104">
+        <v>10.06</v>
+      </c>
+      <c r="AH104">
+        <v>1.31</v>
+      </c>
+      <c r="AI104">
+        <v>3.35</v>
+      </c>
+      <c r="AJ104">
+        <v>1.93</v>
+      </c>
+      <c r="AK104">
+        <v>1.88</v>
+      </c>
+      <c r="AL104">
+        <v>1.75</v>
+      </c>
+      <c r="AM104">
+        <v>2</v>
+      </c>
+      <c r="AN104">
+        <v>1.35</v>
+      </c>
+      <c r="AO104">
+        <v>1.31</v>
+      </c>
+      <c r="AP104">
+        <v>1.61</v>
+      </c>
+      <c r="AQ104">
+        <v>1.2</v>
+      </c>
+      <c r="AR104">
+        <v>0.8</v>
+      </c>
+      <c r="AS104">
+        <v>1.17</v>
+      </c>
+      <c r="AT104">
+        <v>0.83</v>
+      </c>
+      <c r="AU104">
+        <v>1.63</v>
+      </c>
+      <c r="AV104">
+        <v>1.1</v>
+      </c>
+      <c r="AW104">
+        <v>2.73</v>
+      </c>
+      <c r="AX104">
+        <v>1.97</v>
+      </c>
+      <c r="AY104">
+        <v>7</v>
+      </c>
+      <c r="AZ104">
+        <v>2.17</v>
+      </c>
+      <c r="BA104">
+        <v>1.27</v>
+      </c>
+      <c r="BB104">
+        <v>1.46</v>
+      </c>
+      <c r="BC104">
+        <v>1.78</v>
+      </c>
+      <c r="BD104">
+        <v>2.25</v>
+      </c>
+      <c r="BE104">
+        <v>2.9</v>
+      </c>
+      <c r="BF104">
+        <v>5</v>
+      </c>
+      <c r="BG104">
+        <v>2</v>
+      </c>
+      <c r="BH104">
+        <v>10</v>
+      </c>
+      <c r="BI104">
+        <v>12</v>
+      </c>
+      <c r="BJ104">
+        <v>15</v>
+      </c>
+      <c r="BK104">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2433093</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44864.4375</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>68</v>
+      </c>
+      <c r="H105" t="s">
+        <v>72</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>163</v>
+      </c>
+      <c r="P105" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q105">
+        <v>5</v>
+      </c>
+      <c r="R105">
+        <v>4</v>
+      </c>
+      <c r="S105">
+        <v>9</v>
+      </c>
+      <c r="T105">
+        <v>1.62</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>8.5</v>
+      </c>
+      <c r="W105">
+        <v>1.2</v>
+      </c>
+      <c r="X105">
+        <v>4.33</v>
+      </c>
+      <c r="Y105">
+        <v>2</v>
+      </c>
+      <c r="Z105">
+        <v>1.73</v>
+      </c>
+      <c r="AA105">
+        <v>4</v>
+      </c>
+      <c r="AB105">
+        <v>1.22</v>
+      </c>
+      <c r="AC105">
+        <v>1.22</v>
+      </c>
+      <c r="AD105">
+        <v>6.5</v>
+      </c>
+      <c r="AE105">
+        <v>12.5</v>
+      </c>
+      <c r="AF105">
+        <v>1.01</v>
+      </c>
+      <c r="AG105">
+        <v>29</v>
+      </c>
+      <c r="AH105">
+        <v>1.1</v>
+      </c>
+      <c r="AI105">
+        <v>6.39</v>
+      </c>
+      <c r="AJ105">
+        <v>1.36</v>
+      </c>
+      <c r="AK105">
+        <v>3.1</v>
+      </c>
+      <c r="AL105">
+        <v>1.8</v>
+      </c>
+      <c r="AM105">
+        <v>1.95</v>
+      </c>
+      <c r="AN105">
+        <v>1.05</v>
+      </c>
+      <c r="AO105">
+        <v>1.11</v>
+      </c>
+      <c r="AP105">
+        <v>4.1</v>
+      </c>
+      <c r="AQ105">
+        <v>3</v>
+      </c>
+      <c r="AR105">
+        <v>1.2</v>
+      </c>
+      <c r="AS105">
+        <v>3</v>
+      </c>
+      <c r="AT105">
+        <v>1.29</v>
+      </c>
+      <c r="AU105">
+        <v>2.62</v>
+      </c>
+      <c r="AV105">
+        <v>1.35</v>
+      </c>
+      <c r="AW105">
+        <v>3.97</v>
+      </c>
+      <c r="AX105">
+        <v>1.14</v>
+      </c>
+      <c r="AY105">
+        <v>11</v>
+      </c>
+      <c r="AZ105">
+        <v>7</v>
+      </c>
+      <c r="BA105">
+        <v>1.2</v>
+      </c>
+      <c r="BB105">
+        <v>1.33</v>
+      </c>
+      <c r="BC105">
+        <v>1.57</v>
+      </c>
+      <c r="BD105">
+        <v>1.92</v>
+      </c>
+      <c r="BE105">
+        <v>2.4</v>
+      </c>
+      <c r="BF105">
+        <v>9</v>
+      </c>
+      <c r="BG105">
+        <v>4</v>
+      </c>
+      <c r="BH105">
+        <v>6</v>
+      </c>
+      <c r="BI105">
+        <v>7</v>
+      </c>
+      <c r="BJ105">
+        <v>15</v>
+      </c>
+      <c r="BK105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2433091</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44864.4375</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s">
+        <v>69</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>3</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P106" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q106">
+        <v>6</v>
+      </c>
+      <c r="R106">
+        <v>4</v>
+      </c>
+      <c r="S106">
+        <v>10</v>
+      </c>
+      <c r="T106">
+        <v>1.95</v>
+      </c>
+      <c r="U106">
+        <v>2.5</v>
+      </c>
+      <c r="V106">
+        <v>6</v>
+      </c>
+      <c r="W106">
+        <v>1.29</v>
+      </c>
+      <c r="X106">
+        <v>3.5</v>
+      </c>
+      <c r="Y106">
+        <v>2.25</v>
+      </c>
+      <c r="Z106">
+        <v>1.57</v>
+      </c>
+      <c r="AA106">
+        <v>5.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.14</v>
+      </c>
+      <c r="AC106">
+        <v>1.47</v>
+      </c>
+      <c r="AD106">
+        <v>4.7</v>
+      </c>
+      <c r="AE106">
+        <v>6.4</v>
+      </c>
+      <c r="AF106">
+        <v>1.02</v>
+      </c>
+      <c r="AG106">
+        <v>17</v>
+      </c>
+      <c r="AH106">
+        <v>1.18</v>
+      </c>
+      <c r="AI106">
+        <v>4.65</v>
+      </c>
+      <c r="AJ106">
+        <v>1.61</v>
+      </c>
+      <c r="AK106">
+        <v>2.33</v>
+      </c>
+      <c r="AL106">
+        <v>1.75</v>
+      </c>
+      <c r="AM106">
+        <v>2</v>
+      </c>
+      <c r="AN106">
+        <v>1.13</v>
+      </c>
+      <c r="AO106">
+        <v>1.2</v>
+      </c>
+      <c r="AP106">
+        <v>2.5</v>
+      </c>
+      <c r="AQ106">
+        <v>3</v>
+      </c>
+      <c r="AR106">
+        <v>1.2</v>
+      </c>
+      <c r="AS106">
+        <v>3</v>
+      </c>
+      <c r="AT106">
+        <v>1</v>
+      </c>
+      <c r="AU106">
+        <v>2.11</v>
+      </c>
+      <c r="AV106">
+        <v>1.47</v>
+      </c>
+      <c r="AW106">
+        <v>3.58</v>
+      </c>
+      <c r="AX106">
+        <v>1.24</v>
+      </c>
+      <c r="AY106">
+        <v>9</v>
+      </c>
+      <c r="AZ106">
+        <v>5</v>
+      </c>
+      <c r="BA106">
+        <v>1.2</v>
+      </c>
+      <c r="BB106">
+        <v>1.36</v>
+      </c>
+      <c r="BC106">
+        <v>1.62</v>
+      </c>
+      <c r="BD106">
+        <v>1.97</v>
+      </c>
+      <c r="BE106">
+        <v>2.5</v>
+      </c>
+      <c r="BF106">
+        <v>6</v>
+      </c>
+      <c r="BG106">
+        <v>0</v>
+      </c>
+      <c r="BH106">
+        <v>13</v>
+      </c>
+      <c r="BI106">
+        <v>10</v>
+      </c>
+      <c r="BJ106">
+        <v>19</v>
+      </c>
+      <c r="BK106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2433089</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44864.53125</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" t="s">
+        <v>79</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>165</v>
+      </c>
+      <c r="P107" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q107">
+        <v>5</v>
+      </c>
+      <c r="R107">
+        <v>9</v>
+      </c>
+      <c r="S107">
+        <v>14</v>
+      </c>
+      <c r="T107">
+        <v>1.57</v>
+      </c>
+      <c r="U107">
+        <v>3</v>
+      </c>
+      <c r="V107">
+        <v>8.5</v>
+      </c>
+      <c r="W107">
+        <v>1.2</v>
+      </c>
+      <c r="X107">
+        <v>4.33</v>
+      </c>
+      <c r="Y107">
+        <v>1.91</v>
+      </c>
+      <c r="Z107">
+        <v>1.8</v>
+      </c>
+      <c r="AA107">
+        <v>4</v>
+      </c>
+      <c r="AB107">
+        <v>1.22</v>
+      </c>
+      <c r="AC107">
+        <v>1.19</v>
+      </c>
+      <c r="AD107">
+        <v>7.2</v>
+      </c>
+      <c r="AE107">
+        <v>11.5</v>
+      </c>
+      <c r="AF107">
+        <v>1.02</v>
+      </c>
+      <c r="AG107">
+        <v>29</v>
+      </c>
+      <c r="AH107">
+        <v>1.09</v>
+      </c>
+      <c r="AI107">
+        <v>6.83</v>
+      </c>
+      <c r="AJ107">
+        <v>1.31</v>
+      </c>
+      <c r="AK107">
+        <v>3.35</v>
+      </c>
+      <c r="AL107">
+        <v>1.8</v>
+      </c>
+      <c r="AM107">
+        <v>1.95</v>
+      </c>
+      <c r="AN107">
+        <v>1.05</v>
+      </c>
+      <c r="AO107">
+        <v>1.1</v>
+      </c>
+      <c r="AP107">
+        <v>4.2</v>
+      </c>
+      <c r="AQ107">
+        <v>1.6</v>
+      </c>
+      <c r="AR107">
+        <v>0.5</v>
+      </c>
+      <c r="AS107">
+        <v>1.83</v>
+      </c>
+      <c r="AT107">
+        <v>0.43</v>
+      </c>
+      <c r="AU107">
+        <v>2.09</v>
+      </c>
+      <c r="AV107">
+        <v>1.46</v>
+      </c>
+      <c r="AW107">
+        <v>3.55</v>
+      </c>
+      <c r="AX107">
+        <v>1.16</v>
+      </c>
+      <c r="AY107">
+        <v>10.5</v>
+      </c>
+      <c r="AZ107">
+        <v>6.4</v>
+      </c>
+      <c r="BA107">
+        <v>1.2</v>
+      </c>
+      <c r="BB107">
+        <v>1.35</v>
+      </c>
+      <c r="BC107">
+        <v>1.6</v>
+      </c>
+      <c r="BD107">
+        <v>1.97</v>
+      </c>
+      <c r="BE107">
+        <v>2.5</v>
+      </c>
+      <c r="BF107">
+        <v>6</v>
+      </c>
+      <c r="BG107">
+        <v>9</v>
+      </c>
+      <c r="BH107">
+        <v>7</v>
+      </c>
+      <c r="BI107">
+        <v>9</v>
+      </c>
+      <c r="BJ107">
+        <v>13</v>
+      </c>
+      <c r="BK107">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2433103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F108">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s">
+        <v>67</v>
+      </c>
+      <c r="H108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>83</v>
+      </c>
+      <c r="P108" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q108">
+        <v>5</v>
+      </c>
+      <c r="R108">
+        <v>6</v>
+      </c>
+      <c r="S108">
+        <v>11</v>
+      </c>
+      <c r="T108">
+        <v>2.9</v>
+      </c>
+      <c r="U108">
+        <v>2.15</v>
+      </c>
+      <c r="V108">
+        <v>3.2</v>
+      </c>
+      <c r="W108">
+        <v>1.35</v>
+      </c>
+      <c r="X108">
+        <v>2.95</v>
+      </c>
+      <c r="Y108">
+        <v>2.55</v>
+      </c>
+      <c r="Z108">
+        <v>1.44</v>
+      </c>
+      <c r="AA108">
+        <v>6.25</v>
+      </c>
+      <c r="AB108">
+        <v>1.1</v>
+      </c>
+      <c r="AC108">
+        <v>2.4</v>
+      </c>
+      <c r="AD108">
+        <v>3.6</v>
+      </c>
+      <c r="AE108">
+        <v>2.6</v>
+      </c>
+      <c r="AF108">
+        <v>1.04</v>
+      </c>
+      <c r="AG108">
+        <v>13</v>
+      </c>
+      <c r="AH108">
+        <v>1.24</v>
+      </c>
+      <c r="AI108">
+        <v>3.89</v>
+      </c>
+      <c r="AJ108">
+        <v>1.75</v>
+      </c>
+      <c r="AK108">
+        <v>1.95</v>
+      </c>
+      <c r="AL108">
+        <v>1.62</v>
+      </c>
+      <c r="AM108">
+        <v>2.15</v>
+      </c>
+      <c r="AN108">
+        <v>1.42</v>
+      </c>
+      <c r="AO108">
+        <v>1.29</v>
+      </c>
+      <c r="AP108">
+        <v>1.53</v>
+      </c>
+      <c r="AQ108">
+        <v>0.5</v>
+      </c>
+      <c r="AR108">
+        <v>1</v>
+      </c>
+      <c r="AS108">
+        <v>0.43</v>
+      </c>
+      <c r="AT108">
+        <v>1.29</v>
+      </c>
+      <c r="AU108">
+        <v>1.62</v>
+      </c>
+      <c r="AV108">
+        <v>1.34</v>
+      </c>
+      <c r="AW108">
+        <v>2.96</v>
+      </c>
+      <c r="AX108">
+        <v>1.86</v>
+      </c>
+      <c r="AY108">
+        <v>7.5</v>
+      </c>
+      <c r="AZ108">
+        <v>2.28</v>
+      </c>
+      <c r="BA108">
+        <v>1.2</v>
+      </c>
+      <c r="BB108">
+        <v>1.35</v>
+      </c>
+      <c r="BC108">
+        <v>1.61</v>
+      </c>
+      <c r="BD108">
+        <v>2.02</v>
+      </c>
+      <c r="BE108">
+        <v>2.7</v>
+      </c>
+      <c r="BF108">
+        <v>7</v>
+      </c>
+      <c r="BG108">
+        <v>12</v>
+      </c>
+      <c r="BH108">
+        <v>10</v>
+      </c>
+      <c r="BI108">
+        <v>12</v>
+      </c>
+      <c r="BJ108">
+        <v>17</v>
+      </c>
+      <c r="BK108">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,42 @@
     <t>['20', '40']</t>
   </si>
   <si>
+    <t>['62', '84']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['32', '87', '90+2']</t>
+  </si>
+  <si>
+    <t>['6', '79']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['6', '58', '84']</t>
+  </si>
+  <si>
+    <t>['38', '50', '73', '78', '88', '90+2']</t>
+  </si>
+  <si>
+    <t>['36', '81']</t>
+  </si>
+  <si>
+    <t>['45', '90+1']</t>
+  </si>
+  <si>
+    <t>['11', '20', '50', '66', '78']</t>
+  </si>
+  <si>
+    <t>['8', '20']</t>
+  </si>
+  <si>
     <t>['48', '51', '62']</t>
   </si>
   <si>
@@ -599,9 +635,6 @@
   </si>
   <si>
     <t>['23', '77', '82']</t>
-  </si>
-  <si>
-    <t>['71']</t>
   </si>
   <si>
     <t>['81']</t>
@@ -698,6 +731,33 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['69', '72', '88', '90+1']</t>
+  </si>
+  <si>
+    <t>['16', '43']</t>
+  </si>
+  <si>
+    <t>['23', '50']</t>
+  </si>
+  <si>
+    <t>['25', '74']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['14', '73', '84', '90+2']</t>
+  </si>
+  <si>
+    <t>['8', '21', '25']</t>
+  </si>
+  <si>
+    <t>['78', '84', '90+5']</t>
+  </si>
+  <si>
+    <t>['49', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
+        <v>1.57</v>
+      </c>
+      <c r="AT2">
         <v>1.33</v>
-      </c>
-      <c r="AT2">
-        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1494,7 +1554,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1581,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1685,7 +1745,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -1775,7 +1835,7 @@
         <v>0.43</v>
       </c>
       <c r="AT4">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1876,7 +1936,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1963,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2067,7 +2127,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2154,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2258,7 +2318,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2345,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>0.43</v>
@@ -2449,7 +2509,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2536,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT8">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2640,7 +2700,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2727,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT9">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3022,7 +3082,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3109,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3213,7 +3273,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3300,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3491,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3595,7 +3655,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3682,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3873,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3977,7 +4037,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4064,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AT16">
         <v>1.29</v>
@@ -4255,10 +4315,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4446,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT18">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4550,7 +4610,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4637,10 +4697,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4741,7 +4801,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4828,10 +4888,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU20">
         <v>1.23</v>
@@ -4932,7 +4992,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5019,10 +5079,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU21">
         <v>1.25</v>
@@ -5123,7 +5183,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5210,10 +5270,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT22">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU22">
         <v>1.48</v>
@@ -5401,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5592,10 +5652,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU24">
         <v>1.06</v>
@@ -5696,7 +5756,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5783,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT25">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU25">
         <v>1.33</v>
@@ -5887,7 +5947,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5974,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT26">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU26">
         <v>1.17</v>
@@ -6078,7 +6138,7 @@
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6165,10 +6225,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU27">
         <v>1.3</v>
@@ -6269,7 +6329,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6356,10 +6416,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU28">
         <v>1.02</v>
@@ -6547,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU29">
         <v>2.62</v>
@@ -6738,10 +6798,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT30">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU30">
         <v>1.2</v>
@@ -6842,7 +6902,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6929,10 +6989,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT31">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU31">
         <v>1.79</v>
@@ -7033,7 +7093,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7120,10 +7180,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU32">
         <v>1.54</v>
@@ -7311,10 +7371,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AT33">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU33">
         <v>2.03</v>
@@ -7415,7 +7475,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7505,7 +7565,7 @@
         <v>0.43</v>
       </c>
       <c r="AT34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU34">
         <v>3.19</v>
@@ -7693,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT35">
         <v>0.43</v>
@@ -7884,10 +7944,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT36">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU36">
         <v>2.34</v>
@@ -8179,7 +8239,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8266,10 +8326,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT38">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU38">
         <v>1.65</v>
@@ -8457,10 +8517,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU39">
         <v>3.33</v>
@@ -8561,7 +8621,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8648,10 +8708,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU40">
         <v>1.94</v>
@@ -8839,7 +8899,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT41">
         <v>0.43</v>
@@ -8943,7 +9003,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9030,10 +9090,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT42">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU42">
         <v>1.45</v>
@@ -9134,7 +9194,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9221,10 +9281,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT43">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU43">
         <v>1.3</v>
@@ -9325,7 +9385,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9412,10 +9472,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU44">
         <v>1.58</v>
@@ -9603,7 +9663,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT45">
         <v>1.29</v>
@@ -9707,7 +9767,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9794,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU46">
         <v>1.53</v>
@@ -9898,7 +9958,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -9985,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10089,7 +10149,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="Q48">
         <v>13</v>
@@ -10176,10 +10236,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT48">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU48">
         <v>1.63</v>
@@ -10367,10 +10427,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU49">
         <v>3.04</v>
@@ -10558,10 +10618,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU50">
         <v>1.36</v>
@@ -10749,10 +10809,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT51">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU51">
         <v>1.31</v>
@@ -10940,10 +11000,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU52">
         <v>2.55</v>
@@ -11044,7 +11104,7 @@
         <v>83</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11134,7 +11194,7 @@
         <v>0.43</v>
       </c>
       <c r="AT53">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU53">
         <v>2.15</v>
@@ -11235,7 +11295,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11325,7 +11385,7 @@
         <v>1.83</v>
       </c>
       <c r="AT54">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU54">
         <v>2.99</v>
@@ -11513,10 +11573,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU55">
         <v>2.49</v>
@@ -11704,7 +11764,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT56">
         <v>1.29</v>
@@ -11808,7 +11868,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11895,10 +11955,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -11999,7 +12059,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12086,7 +12146,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT58">
         <v>0.43</v>
@@ -12190,7 +12250,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>16</v>
@@ -12277,10 +12337,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU59">
         <v>1.74</v>
@@ -12468,10 +12528,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU60">
         <v>1.75</v>
@@ -12659,10 +12719,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT61">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -12763,7 +12823,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>13</v>
@@ -12850,10 +12910,10 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT62">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU62">
         <v>2.81</v>
@@ -12954,7 +13014,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13041,10 +13101,10 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT63">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU63">
         <v>1.61</v>
@@ -13145,7 +13205,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13235,7 +13295,7 @@
         <v>1.83</v>
       </c>
       <c r="AT64">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU64">
         <v>2.46</v>
@@ -13426,7 +13486,7 @@
         <v>0.43</v>
       </c>
       <c r="AT65">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -13527,7 +13587,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13614,10 +13674,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT66">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU66">
         <v>1.22</v>
@@ -13718,7 +13778,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13805,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -13996,10 +14056,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT68">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU68">
         <v>1.96</v>
@@ -14187,7 +14247,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT69">
         <v>0.43</v>
@@ -14291,7 +14351,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>8</v>
@@ -14378,10 +14438,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU70">
         <v>1.52</v>
@@ -14482,7 +14542,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14569,10 +14629,10 @@
         <v>2.25</v>
       </c>
       <c r="AS71">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT71">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU71">
         <v>2.01</v>
@@ -14673,7 +14733,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14760,10 +14820,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
+        <v>1.57</v>
+      </c>
+      <c r="AT72">
         <v>1.33</v>
-      </c>
-      <c r="AT72">
-        <v>1</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -14951,10 +15011,10 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU73">
         <v>1.52</v>
@@ -15055,7 +15115,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15142,10 +15202,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU74">
         <v>1.26</v>
@@ -15246,7 +15306,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15333,10 +15393,10 @@
         <v>2.25</v>
       </c>
       <c r="AS75">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AT75">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU75">
         <v>1.85</v>
@@ -15437,7 +15497,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15524,10 +15584,10 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT76">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -15715,10 +15775,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT77">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU77">
         <v>1.77</v>
@@ -15906,10 +15966,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -16097,10 +16157,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AT79">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU79">
         <v>2.54</v>
@@ -16201,7 +16261,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16288,10 +16348,10 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU80">
         <v>1.61</v>
@@ -16392,7 +16452,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16479,10 +16539,10 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU81">
         <v>1.6</v>
@@ -16583,7 +16643,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16670,10 +16730,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT82">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU82">
         <v>1.65</v>
@@ -16774,7 +16834,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -16861,7 +16921,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT83">
         <v>0.43</v>
@@ -17052,10 +17112,10 @@
         <v>1.25</v>
       </c>
       <c r="AS84">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT84">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU84">
         <v>1.86</v>
@@ -17156,7 +17216,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17243,10 +17303,10 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT85">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU85">
         <v>1.74</v>
@@ -17347,7 +17407,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17437,7 +17497,7 @@
         <v>0.43</v>
       </c>
       <c r="AT86">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU86">
         <v>1.85</v>
@@ -17625,7 +17685,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT87">
         <v>1.29</v>
@@ -17816,10 +17876,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT88">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU88">
         <v>2.01</v>
@@ -17920,7 +17980,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18007,10 +18067,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT89">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU89">
         <v>2.84</v>
@@ -18111,7 +18171,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -18201,7 +18261,7 @@
         <v>1.83</v>
       </c>
       <c r="AT90">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU90">
         <v>2.32</v>
@@ -18302,7 +18362,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18389,10 +18449,10 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AT91">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU91">
         <v>2.88</v>
@@ -18493,7 +18553,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18580,10 +18640,10 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AT92">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU92">
         <v>2.48</v>
@@ -18684,7 +18744,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18771,10 +18831,10 @@
         <v>2.4</v>
       </c>
       <c r="AS93">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT93">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AU93">
         <v>1.68</v>
@@ -18875,7 +18935,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -18962,10 +19022,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT94">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AU94">
         <v>1.51</v>
@@ -19153,10 +19213,10 @@
         <v>3</v>
       </c>
       <c r="AS95">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU95">
         <v>1.62</v>
@@ -19257,7 +19317,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19347,7 +19407,7 @@
         <v>0.43</v>
       </c>
       <c r="AT96">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU96">
         <v>1.71</v>
@@ -19448,7 +19508,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19535,10 +19595,10 @@
         <v>1.8</v>
       </c>
       <c r="AS97">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT97">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU97">
         <v>1.39</v>
@@ -19639,7 +19699,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19726,7 +19786,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19917,10 +19977,10 @@
         <v>1.25</v>
       </c>
       <c r="AS99">
+        <v>1.57</v>
+      </c>
+      <c r="AT99">
         <v>1.33</v>
-      </c>
-      <c r="AT99">
-        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.55</v>
@@ -20021,7 +20081,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20108,10 +20168,10 @@
         <v>1.2</v>
       </c>
       <c r="AS100">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AT100">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU100">
         <v>1.83</v>
@@ -20212,7 +20272,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20299,10 +20359,10 @@
         <v>1.4</v>
       </c>
       <c r="AS101">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT101">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU101">
         <v>1.47</v>
@@ -20403,7 +20463,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20490,10 +20550,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT102">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU102">
         <v>1.56</v>
@@ -20594,7 +20654,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20681,10 +20741,10 @@
         <v>0.67</v>
       </c>
       <c r="AS103">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT103">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU103">
         <v>1.77</v>
@@ -20872,10 +20932,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT104">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU104">
         <v>1.63</v>
@@ -21063,7 +21123,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT105">
         <v>1.29</v>
@@ -21254,10 +21314,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU106">
         <v>2.11</v>
@@ -21549,7 +21609,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21691,6 +21751,3635 @@
       </c>
       <c r="BK108">
         <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2433104</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44870.52083333334</v>
+      </c>
+      <c r="F109">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>83</v>
+      </c>
+      <c r="P109" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q109">
+        <v>5</v>
+      </c>
+      <c r="R109">
+        <v>3</v>
+      </c>
+      <c r="S109">
+        <v>8</v>
+      </c>
+      <c r="T109">
+        <v>2.55</v>
+      </c>
+      <c r="U109">
+        <v>2.2</v>
+      </c>
+      <c r="V109">
+        <v>4.33</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>3</v>
+      </c>
+      <c r="Y109">
+        <v>2.85</v>
+      </c>
+      <c r="Z109">
+        <v>1.42</v>
+      </c>
+      <c r="AA109">
+        <v>7</v>
+      </c>
+      <c r="AB109">
+        <v>1.09</v>
+      </c>
+      <c r="AC109">
+        <v>2.03</v>
+      </c>
+      <c r="AD109">
+        <v>3.5</v>
+      </c>
+      <c r="AE109">
+        <v>3.15</v>
+      </c>
+      <c r="AF109">
+        <v>1.05</v>
+      </c>
+      <c r="AG109">
+        <v>11</v>
+      </c>
+      <c r="AH109">
+        <v>1.28</v>
+      </c>
+      <c r="AI109">
+        <v>3.52</v>
+      </c>
+      <c r="AJ109">
+        <v>1.93</v>
+      </c>
+      <c r="AK109">
+        <v>1.93</v>
+      </c>
+      <c r="AL109">
+        <v>1.78</v>
+      </c>
+      <c r="AM109">
+        <v>2</v>
+      </c>
+      <c r="AN109">
+        <v>1.26</v>
+      </c>
+      <c r="AO109">
+        <v>1.25</v>
+      </c>
+      <c r="AP109">
+        <v>1.92</v>
+      </c>
+      <c r="AQ109">
+        <v>0.83</v>
+      </c>
+      <c r="AR109">
+        <v>1</v>
+      </c>
+      <c r="AS109">
+        <v>0.71</v>
+      </c>
+      <c r="AT109">
+        <v>1.33</v>
+      </c>
+      <c r="AU109">
+        <v>1.56</v>
+      </c>
+      <c r="AV109">
+        <v>1.56</v>
+      </c>
+      <c r="AW109">
+        <v>3.12</v>
+      </c>
+      <c r="AX109">
+        <v>1.58</v>
+      </c>
+      <c r="AY109">
+        <v>7.5</v>
+      </c>
+      <c r="AZ109">
+        <v>2.88</v>
+      </c>
+      <c r="BA109">
+        <v>1.2</v>
+      </c>
+      <c r="BB109">
+        <v>1.5</v>
+      </c>
+      <c r="BC109">
+        <v>1.87</v>
+      </c>
+      <c r="BD109">
+        <v>2.45</v>
+      </c>
+      <c r="BE109">
+        <v>2.5</v>
+      </c>
+      <c r="BF109">
+        <v>6</v>
+      </c>
+      <c r="BG109">
+        <v>7</v>
+      </c>
+      <c r="BH109">
+        <v>10</v>
+      </c>
+      <c r="BI109">
+        <v>4</v>
+      </c>
+      <c r="BJ109">
+        <v>16</v>
+      </c>
+      <c r="BK109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2433101</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44870.61458333334</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>66</v>
+      </c>
+      <c r="H110" t="s">
+        <v>77</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>83</v>
+      </c>
+      <c r="P110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q110">
+        <v>8</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>11</v>
+      </c>
+      <c r="T110">
+        <v>2.7</v>
+      </c>
+      <c r="U110">
+        <v>2.15</v>
+      </c>
+      <c r="V110">
+        <v>3.5</v>
+      </c>
+      <c r="W110">
+        <v>1.35</v>
+      </c>
+      <c r="X110">
+        <v>2.95</v>
+      </c>
+      <c r="Y110">
+        <v>2.55</v>
+      </c>
+      <c r="Z110">
+        <v>1.44</v>
+      </c>
+      <c r="AA110">
+        <v>6.25</v>
+      </c>
+      <c r="AB110">
+        <v>1.1</v>
+      </c>
+      <c r="AC110">
+        <v>1.85</v>
+      </c>
+      <c r="AD110">
+        <v>3.7</v>
+      </c>
+      <c r="AE110">
+        <v>4.06</v>
+      </c>
+      <c r="AF110">
+        <v>1.05</v>
+      </c>
+      <c r="AG110">
+        <v>13.25</v>
+      </c>
+      <c r="AH110">
+        <v>1.25</v>
+      </c>
+      <c r="AI110">
+        <v>3.95</v>
+      </c>
+      <c r="AJ110">
+        <v>1.88</v>
+      </c>
+      <c r="AK110">
+        <v>1.93</v>
+      </c>
+      <c r="AL110">
+        <v>1.65</v>
+      </c>
+      <c r="AM110">
+        <v>2.1</v>
+      </c>
+      <c r="AN110">
+        <v>1.35</v>
+      </c>
+      <c r="AO110">
+        <v>1.29</v>
+      </c>
+      <c r="AP110">
+        <v>1.65</v>
+      </c>
+      <c r="AQ110">
+        <v>1.17</v>
+      </c>
+      <c r="AR110">
+        <v>0</v>
+      </c>
+      <c r="AS110">
+        <v>1</v>
+      </c>
+      <c r="AT110">
+        <v>0.43</v>
+      </c>
+      <c r="AU110">
+        <v>1.74</v>
+      </c>
+      <c r="AV110">
+        <v>1.08</v>
+      </c>
+      <c r="AW110">
+        <v>2.82</v>
+      </c>
+      <c r="AX110">
+        <v>1.79</v>
+      </c>
+      <c r="AY110">
+        <v>7</v>
+      </c>
+      <c r="AZ110">
+        <v>2.4</v>
+      </c>
+      <c r="BA110">
+        <v>1.2</v>
+      </c>
+      <c r="BB110">
+        <v>1.5</v>
+      </c>
+      <c r="BC110">
+        <v>1.87</v>
+      </c>
+      <c r="BD110">
+        <v>2.45</v>
+      </c>
+      <c r="BE110">
+        <v>2.5</v>
+      </c>
+      <c r="BF110">
+        <v>3</v>
+      </c>
+      <c r="BG110">
+        <v>7</v>
+      </c>
+      <c r="BH110">
+        <v>14</v>
+      </c>
+      <c r="BI110">
+        <v>9</v>
+      </c>
+      <c r="BJ110">
+        <v>17</v>
+      </c>
+      <c r="BK110">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2433097</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44870.70833333334</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>74</v>
+      </c>
+      <c r="H111" t="s">
+        <v>65</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>83</v>
+      </c>
+      <c r="P111" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q111">
+        <v>7</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>9</v>
+      </c>
+      <c r="T111">
+        <v>4.2</v>
+      </c>
+      <c r="U111">
+        <v>2.4</v>
+      </c>
+      <c r="V111">
+        <v>2.35</v>
+      </c>
+      <c r="W111">
+        <v>1.3</v>
+      </c>
+      <c r="X111">
+        <v>3.6</v>
+      </c>
+      <c r="Y111">
+        <v>2.35</v>
+      </c>
+      <c r="Z111">
+        <v>1.58</v>
+      </c>
+      <c r="AA111">
+        <v>5.5</v>
+      </c>
+      <c r="AB111">
+        <v>1.15</v>
+      </c>
+      <c r="AC111">
+        <v>3.88</v>
+      </c>
+      <c r="AD111">
+        <v>3.82</v>
+      </c>
+      <c r="AE111">
+        <v>1.86</v>
+      </c>
+      <c r="AF111">
+        <v>1.02</v>
+      </c>
+      <c r="AG111">
+        <v>17</v>
+      </c>
+      <c r="AH111">
+        <v>1.18</v>
+      </c>
+      <c r="AI111">
+        <v>4.65</v>
+      </c>
+      <c r="AJ111">
+        <v>1.72</v>
+      </c>
+      <c r="AK111">
+        <v>2.13</v>
+      </c>
+      <c r="AL111">
+        <v>1.56</v>
+      </c>
+      <c r="AM111">
+        <v>2.36</v>
+      </c>
+      <c r="AN111">
+        <v>2.05</v>
+      </c>
+      <c r="AO111">
+        <v>1.2</v>
+      </c>
+      <c r="AP111">
+        <v>1.25</v>
+      </c>
+      <c r="AQ111">
+        <v>1.8</v>
+      </c>
+      <c r="AR111">
+        <v>1.5</v>
+      </c>
+      <c r="AS111">
+        <v>1.5</v>
+      </c>
+      <c r="AT111">
+        <v>1.71</v>
+      </c>
+      <c r="AU111">
+        <v>1.49</v>
+      </c>
+      <c r="AV111">
+        <v>1.28</v>
+      </c>
+      <c r="AW111">
+        <v>2.77</v>
+      </c>
+      <c r="AX111">
+        <v>2.88</v>
+      </c>
+      <c r="AY111">
+        <v>7.5</v>
+      </c>
+      <c r="AZ111">
+        <v>1.58</v>
+      </c>
+      <c r="BA111">
+        <v>1.18</v>
+      </c>
+      <c r="BB111">
+        <v>1.42</v>
+      </c>
+      <c r="BC111">
+        <v>1.74</v>
+      </c>
+      <c r="BD111">
+        <v>2.23</v>
+      </c>
+      <c r="BE111">
+        <v>2.35</v>
+      </c>
+      <c r="BF111">
+        <v>4</v>
+      </c>
+      <c r="BG111">
+        <v>6</v>
+      </c>
+      <c r="BH111">
+        <v>11</v>
+      </c>
+      <c r="BI111">
+        <v>4</v>
+      </c>
+      <c r="BJ111">
+        <v>15</v>
+      </c>
+      <c r="BK111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2433099</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44871.34375</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s">
+        <v>70</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>166</v>
+      </c>
+      <c r="P112" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>5</v>
+      </c>
+      <c r="S112">
+        <v>11</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
+        <v>2.2</v>
+      </c>
+      <c r="V112">
+        <v>4.5</v>
+      </c>
+      <c r="W112">
+        <v>1.34</v>
+      </c>
+      <c r="X112">
+        <v>3</v>
+      </c>
+      <c r="Y112">
+        <v>2.5</v>
+      </c>
+      <c r="Z112">
+        <v>1.47</v>
+      </c>
+      <c r="AA112">
+        <v>6</v>
+      </c>
+      <c r="AB112">
+        <v>1.11</v>
+      </c>
+      <c r="AC112">
+        <v>1.67</v>
+      </c>
+      <c r="AD112">
+        <v>3.96</v>
+      </c>
+      <c r="AE112">
+        <v>4.62</v>
+      </c>
+      <c r="AF112">
+        <v>1.03</v>
+      </c>
+      <c r="AG112">
+        <v>13</v>
+      </c>
+      <c r="AH112">
+        <v>1.22</v>
+      </c>
+      <c r="AI112">
+        <v>4.08</v>
+      </c>
+      <c r="AJ112">
+        <v>1.65</v>
+      </c>
+      <c r="AK112">
+        <v>2.1</v>
+      </c>
+      <c r="AL112">
+        <v>1.71</v>
+      </c>
+      <c r="AM112">
+        <v>2</v>
+      </c>
+      <c r="AN112">
+        <v>1.19</v>
+      </c>
+      <c r="AO112">
+        <v>1.25</v>
+      </c>
+      <c r="AP112">
+        <v>2.05</v>
+      </c>
+      <c r="AQ112">
+        <v>1.33</v>
+      </c>
+      <c r="AR112">
+        <v>0.83</v>
+      </c>
+      <c r="AS112">
+        <v>1.57</v>
+      </c>
+      <c r="AT112">
+        <v>0.71</v>
+      </c>
+      <c r="AU112">
+        <v>1.6</v>
+      </c>
+      <c r="AV112">
+        <v>1.14</v>
+      </c>
+      <c r="AW112">
+        <v>2.74</v>
+      </c>
+      <c r="AX112">
+        <v>1.29</v>
+      </c>
+      <c r="AY112">
+        <v>9</v>
+      </c>
+      <c r="AZ112">
+        <v>4.35</v>
+      </c>
+      <c r="BA112">
+        <v>1.18</v>
+      </c>
+      <c r="BB112">
+        <v>1.32</v>
+      </c>
+      <c r="BC112">
+        <v>1.61</v>
+      </c>
+      <c r="BD112">
+        <v>2.02</v>
+      </c>
+      <c r="BE112">
+        <v>2.7</v>
+      </c>
+      <c r="BF112">
+        <v>6</v>
+      </c>
+      <c r="BG112">
+        <v>2</v>
+      </c>
+      <c r="BH112">
+        <v>8</v>
+      </c>
+      <c r="BI112">
+        <v>3</v>
+      </c>
+      <c r="BJ112">
+        <v>14</v>
+      </c>
+      <c r="BK112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2433098</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44871.4375</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>81</v>
+      </c>
+      <c r="H113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>167</v>
+      </c>
+      <c r="P113" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
+        <v>5</v>
+      </c>
+      <c r="S113">
+        <v>11</v>
+      </c>
+      <c r="T113">
+        <v>1.82</v>
+      </c>
+      <c r="U113">
+        <v>2.45</v>
+      </c>
+      <c r="V113">
+        <v>6.25</v>
+      </c>
+      <c r="W113">
+        <v>1.29</v>
+      </c>
+      <c r="X113">
+        <v>3.25</v>
+      </c>
+      <c r="Y113">
+        <v>2.35</v>
+      </c>
+      <c r="Z113">
+        <v>1.52</v>
+      </c>
+      <c r="AA113">
+        <v>5.5</v>
+      </c>
+      <c r="AB113">
+        <v>1.13</v>
+      </c>
+      <c r="AC113">
+        <v>1.32</v>
+      </c>
+      <c r="AD113">
+        <v>5.24</v>
+      </c>
+      <c r="AE113">
+        <v>8.51</v>
+      </c>
+      <c r="AF113">
+        <v>1.03</v>
+      </c>
+      <c r="AG113">
+        <v>15</v>
+      </c>
+      <c r="AH113">
+        <v>1.19</v>
+      </c>
+      <c r="AI113">
+        <v>4.45</v>
+      </c>
+      <c r="AJ113">
+        <v>1.6</v>
+      </c>
+      <c r="AK113">
+        <v>2.2</v>
+      </c>
+      <c r="AL113">
+        <v>1.9</v>
+      </c>
+      <c r="AM113">
+        <v>1.78</v>
+      </c>
+      <c r="AN113">
+        <v>1.09</v>
+      </c>
+      <c r="AO113">
+        <v>1.17</v>
+      </c>
+      <c r="AP113">
+        <v>3</v>
+      </c>
+      <c r="AQ113">
+        <v>3</v>
+      </c>
+      <c r="AR113">
+        <v>1</v>
+      </c>
+      <c r="AS113">
+        <v>2.71</v>
+      </c>
+      <c r="AT113">
+        <v>1</v>
+      </c>
+      <c r="AU113">
+        <v>2.1</v>
+      </c>
+      <c r="AV113">
+        <v>1.06</v>
+      </c>
+      <c r="AW113">
+        <v>3.16</v>
+      </c>
+      <c r="AX113">
+        <v>1.17</v>
+      </c>
+      <c r="AY113">
+        <v>10</v>
+      </c>
+      <c r="AZ113">
+        <v>6.4</v>
+      </c>
+      <c r="BA113">
+        <v>1.22</v>
+      </c>
+      <c r="BB113">
+        <v>1.47</v>
+      </c>
+      <c r="BC113">
+        <v>1.82</v>
+      </c>
+      <c r="BD113">
+        <v>2.38</v>
+      </c>
+      <c r="BE113">
+        <v>2.55</v>
+      </c>
+      <c r="BF113">
+        <v>5</v>
+      </c>
+      <c r="BG113">
+        <v>3</v>
+      </c>
+      <c r="BH113">
+        <v>15</v>
+      </c>
+      <c r="BI113">
+        <v>9</v>
+      </c>
+      <c r="BJ113">
+        <v>20</v>
+      </c>
+      <c r="BK113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2433100</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44871.4375</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s">
+        <v>78</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>83</v>
+      </c>
+      <c r="P114" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q114">
+        <v>6</v>
+      </c>
+      <c r="R114">
+        <v>8</v>
+      </c>
+      <c r="S114">
+        <v>14</v>
+      </c>
+      <c r="T114">
+        <v>5.3</v>
+      </c>
+      <c r="U114">
+        <v>2.74</v>
+      </c>
+      <c r="V114">
+        <v>1.83</v>
+      </c>
+      <c r="W114">
+        <v>1.2</v>
+      </c>
+      <c r="X114">
+        <v>4</v>
+      </c>
+      <c r="Y114">
+        <v>1.98</v>
+      </c>
+      <c r="Z114">
+        <v>1.87</v>
+      </c>
+      <c r="AA114">
+        <v>3.6</v>
+      </c>
+      <c r="AB114">
+        <v>1.25</v>
+      </c>
+      <c r="AC114">
+        <v>6.26</v>
+      </c>
+      <c r="AD114">
+        <v>5.39</v>
+      </c>
+      <c r="AE114">
+        <v>1.38</v>
+      </c>
+      <c r="AF114">
+        <v>1.01</v>
+      </c>
+      <c r="AG114">
+        <v>29</v>
+      </c>
+      <c r="AH114">
+        <v>1.09</v>
+      </c>
+      <c r="AI114">
+        <v>6.83</v>
+      </c>
+      <c r="AJ114">
+        <v>1.36</v>
+      </c>
+      <c r="AK114">
+        <v>2.9</v>
+      </c>
+      <c r="AL114">
+        <v>1.55</v>
+      </c>
+      <c r="AM114">
+        <v>2.41</v>
+      </c>
+      <c r="AN114">
+        <v>2.9</v>
+      </c>
+      <c r="AO114">
+        <v>1.16</v>
+      </c>
+      <c r="AP114">
+        <v>1.11</v>
+      </c>
+      <c r="AQ114">
+        <v>0.6</v>
+      </c>
+      <c r="AR114">
+        <v>2.17</v>
+      </c>
+      <c r="AS114">
+        <v>0.43</v>
+      </c>
+      <c r="AT114">
+        <v>2.29</v>
+      </c>
+      <c r="AU114">
+        <v>1.8</v>
+      </c>
+      <c r="AV114">
+        <v>2.11</v>
+      </c>
+      <c r="AW114">
+        <v>3.91</v>
+      </c>
+      <c r="AX114">
+        <v>6.75</v>
+      </c>
+      <c r="AY114">
+        <v>11</v>
+      </c>
+      <c r="AZ114">
+        <v>1.15</v>
+      </c>
+      <c r="BA114">
+        <v>1.12</v>
+      </c>
+      <c r="BB114">
+        <v>1.22</v>
+      </c>
+      <c r="BC114">
+        <v>1.43</v>
+      </c>
+      <c r="BD114">
+        <v>1.74</v>
+      </c>
+      <c r="BE114">
+        <v>2.2</v>
+      </c>
+      <c r="BF114">
+        <v>2</v>
+      </c>
+      <c r="BG114">
+        <v>9</v>
+      </c>
+      <c r="BH114">
+        <v>4</v>
+      </c>
+      <c r="BI114">
+        <v>7</v>
+      </c>
+      <c r="BJ114">
+        <v>6</v>
+      </c>
+      <c r="BK114">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2433096</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44871.53125</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>80</v>
+      </c>
+      <c r="H115" t="s">
+        <v>68</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>105</v>
+      </c>
+      <c r="P115" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q115">
+        <v>9</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>10</v>
+      </c>
+      <c r="T115">
+        <v>2.2</v>
+      </c>
+      <c r="U115">
+        <v>2.4</v>
+      </c>
+      <c r="V115">
+        <v>3.9</v>
+      </c>
+      <c r="W115">
+        <v>1.23</v>
+      </c>
+      <c r="X115">
+        <v>3.75</v>
+      </c>
+      <c r="Y115">
+        <v>2.05</v>
+      </c>
+      <c r="Z115">
+        <v>1.66</v>
+      </c>
+      <c r="AA115">
+        <v>4.5</v>
+      </c>
+      <c r="AB115">
+        <v>1.18</v>
+      </c>
+      <c r="AC115">
+        <v>1.89</v>
+      </c>
+      <c r="AD115">
+        <v>4.1</v>
+      </c>
+      <c r="AE115">
+        <v>3.6</v>
+      </c>
+      <c r="AF115">
+        <v>1.01</v>
+      </c>
+      <c r="AG115">
+        <v>21</v>
+      </c>
+      <c r="AH115">
+        <v>1.14</v>
+      </c>
+      <c r="AI115">
+        <v>5.38</v>
+      </c>
+      <c r="AJ115">
+        <v>1.4</v>
+      </c>
+      <c r="AK115">
+        <v>2.82</v>
+      </c>
+      <c r="AL115">
+        <v>1.46</v>
+      </c>
+      <c r="AM115">
+        <v>2.5</v>
+      </c>
+      <c r="AN115">
+        <v>1.18</v>
+      </c>
+      <c r="AO115">
+        <v>1.22</v>
+      </c>
+      <c r="AP115">
+        <v>2.1</v>
+      </c>
+      <c r="AQ115">
+        <v>2.6</v>
+      </c>
+      <c r="AR115">
+        <v>1.5</v>
+      </c>
+      <c r="AS115">
+        <v>2</v>
+      </c>
+      <c r="AT115">
+        <v>1.71</v>
+      </c>
+      <c r="AU115">
+        <v>3.11</v>
+      </c>
+      <c r="AV115">
+        <v>2.33</v>
+      </c>
+      <c r="AW115">
+        <v>5.44</v>
+      </c>
+      <c r="AX115">
+        <v>1.6</v>
+      </c>
+      <c r="AY115">
+        <v>7</v>
+      </c>
+      <c r="AZ115">
+        <v>2.88</v>
+      </c>
+      <c r="BA115">
+        <v>1.2</v>
+      </c>
+      <c r="BB115">
+        <v>1.58</v>
+      </c>
+      <c r="BC115">
+        <v>2.02</v>
+      </c>
+      <c r="BD115">
+        <v>2.7</v>
+      </c>
+      <c r="BE115">
+        <v>2.5</v>
+      </c>
+      <c r="BF115">
+        <v>6</v>
+      </c>
+      <c r="BG115">
+        <v>3</v>
+      </c>
+      <c r="BH115">
+        <v>9</v>
+      </c>
+      <c r="BI115">
+        <v>3</v>
+      </c>
+      <c r="BJ115">
+        <v>15</v>
+      </c>
+      <c r="BK115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2433102</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44871.53125</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>69</v>
+      </c>
+      <c r="H116" t="s">
+        <v>73</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>168</v>
+      </c>
+      <c r="P116" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q116">
+        <v>8</v>
+      </c>
+      <c r="R116">
+        <v>5</v>
+      </c>
+      <c r="S116">
+        <v>13</v>
+      </c>
+      <c r="T116">
+        <v>4.1</v>
+      </c>
+      <c r="U116">
+        <v>2.3</v>
+      </c>
+      <c r="V116">
+        <v>2.25</v>
+      </c>
+      <c r="W116">
+        <v>1.29</v>
+      </c>
+      <c r="X116">
+        <v>3.3</v>
+      </c>
+      <c r="Y116">
+        <v>2.3</v>
+      </c>
+      <c r="Z116">
+        <v>1.55</v>
+      </c>
+      <c r="AA116">
+        <v>5.25</v>
+      </c>
+      <c r="AB116">
+        <v>1.14</v>
+      </c>
+      <c r="AC116">
+        <v>4.15</v>
+      </c>
+      <c r="AD116">
+        <v>4.15</v>
+      </c>
+      <c r="AE116">
+        <v>1.76</v>
+      </c>
+      <c r="AF116">
+        <v>1.02</v>
+      </c>
+      <c r="AG116">
+        <v>19</v>
+      </c>
+      <c r="AH116">
+        <v>1.16</v>
+      </c>
+      <c r="AI116">
+        <v>4.87</v>
+      </c>
+      <c r="AJ116">
+        <v>1.57</v>
+      </c>
+      <c r="AK116">
+        <v>2.38</v>
+      </c>
+      <c r="AL116">
+        <v>1.55</v>
+      </c>
+      <c r="AM116">
+        <v>2.25</v>
+      </c>
+      <c r="AN116">
+        <v>1.98</v>
+      </c>
+      <c r="AO116">
+        <v>1.24</v>
+      </c>
+      <c r="AP116">
+        <v>1.23</v>
+      </c>
+      <c r="AQ116">
+        <v>1.33</v>
+      </c>
+      <c r="AR116">
+        <v>2.5</v>
+      </c>
+      <c r="AS116">
+        <v>1.57</v>
+      </c>
+      <c r="AT116">
+        <v>2.25</v>
+      </c>
+      <c r="AU116">
+        <v>1.66</v>
+      </c>
+      <c r="AV116">
+        <v>2.12</v>
+      </c>
+      <c r="AW116">
+        <v>3.78</v>
+      </c>
+      <c r="AX116">
+        <v>2.88</v>
+      </c>
+      <c r="AY116">
+        <v>7.5</v>
+      </c>
+      <c r="AZ116">
+        <v>1.58</v>
+      </c>
+      <c r="BA116">
+        <v>1.2</v>
+      </c>
+      <c r="BB116">
+        <v>1.42</v>
+      </c>
+      <c r="BC116">
+        <v>1.74</v>
+      </c>
+      <c r="BD116">
+        <v>2.23</v>
+      </c>
+      <c r="BE116">
+        <v>2.5</v>
+      </c>
+      <c r="BF116">
+        <v>8</v>
+      </c>
+      <c r="BG116">
+        <v>7</v>
+      </c>
+      <c r="BH116">
+        <v>9</v>
+      </c>
+      <c r="BI116">
+        <v>6</v>
+      </c>
+      <c r="BJ116">
+        <v>17</v>
+      </c>
+      <c r="BK116">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2433088</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44874.66666666666</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>80</v>
+      </c>
+      <c r="H117" t="s">
+        <v>71</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>169</v>
+      </c>
+      <c r="P117" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q117">
+        <v>8</v>
+      </c>
+      <c r="R117">
+        <v>7</v>
+      </c>
+      <c r="S117">
+        <v>15</v>
+      </c>
+      <c r="T117">
+        <v>1.37</v>
+      </c>
+      <c r="U117">
+        <v>3.5</v>
+      </c>
+      <c r="V117">
+        <v>11</v>
+      </c>
+      <c r="W117">
+        <v>1.15</v>
+      </c>
+      <c r="X117">
+        <v>5</v>
+      </c>
+      <c r="Y117">
+        <v>1.66</v>
+      </c>
+      <c r="Z117">
+        <v>2.05</v>
+      </c>
+      <c r="AA117">
+        <v>3</v>
+      </c>
+      <c r="AB117">
+        <v>1.33</v>
+      </c>
+      <c r="AC117">
+        <v>1.11</v>
+      </c>
+      <c r="AD117">
+        <v>9.4</v>
+      </c>
+      <c r="AE117">
+        <v>17</v>
+      </c>
+      <c r="AF117">
+        <v>1.01</v>
+      </c>
+      <c r="AG117">
+        <v>26</v>
+      </c>
+      <c r="AH117">
+        <v>1.06</v>
+      </c>
+      <c r="AI117">
+        <v>8.5</v>
+      </c>
+      <c r="AJ117">
+        <v>1.24</v>
+      </c>
+      <c r="AK117">
+        <v>3.8</v>
+      </c>
+      <c r="AL117">
+        <v>1.9</v>
+      </c>
+      <c r="AM117">
+        <v>1.77</v>
+      </c>
+      <c r="AN117">
+        <v>1.01</v>
+      </c>
+      <c r="AO117">
+        <v>1.05</v>
+      </c>
+      <c r="AP117">
+        <v>6.75</v>
+      </c>
+      <c r="AQ117">
+        <v>2.17</v>
+      </c>
+      <c r="AR117">
+        <v>1.2</v>
+      </c>
+      <c r="AS117">
+        <v>2</v>
+      </c>
+      <c r="AT117">
+        <v>1.14</v>
+      </c>
+      <c r="AU117">
+        <v>2.9</v>
+      </c>
+      <c r="AV117">
+        <v>1.79</v>
+      </c>
+      <c r="AW117">
+        <v>4.69</v>
+      </c>
+      <c r="AX117">
+        <v>1.04</v>
+      </c>
+      <c r="AY117">
+        <v>19</v>
+      </c>
+      <c r="AZ117">
+        <v>17</v>
+      </c>
+      <c r="BA117">
+        <v>1.22</v>
+      </c>
+      <c r="BB117">
+        <v>1.42</v>
+      </c>
+      <c r="BC117">
+        <v>1.74</v>
+      </c>
+      <c r="BD117">
+        <v>2.23</v>
+      </c>
+      <c r="BE117">
+        <v>3</v>
+      </c>
+      <c r="BF117">
+        <v>9</v>
+      </c>
+      <c r="BG117">
+        <v>8</v>
+      </c>
+      <c r="BH117">
+        <v>28</v>
+      </c>
+      <c r="BI117">
+        <v>3</v>
+      </c>
+      <c r="BJ117">
+        <v>37</v>
+      </c>
+      <c r="BK117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2437184</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44875.66666666666</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s">
+        <v>67</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>170</v>
+      </c>
+      <c r="P118" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q118">
+        <v>8</v>
+      </c>
+      <c r="R118">
+        <v>4</v>
+      </c>
+      <c r="S118">
+        <v>12</v>
+      </c>
+      <c r="T118">
+        <v>1.67</v>
+      </c>
+      <c r="U118">
+        <v>2.75</v>
+      </c>
+      <c r="V118">
+        <v>9</v>
+      </c>
+      <c r="W118">
+        <v>1.25</v>
+      </c>
+      <c r="X118">
+        <v>3.75</v>
+      </c>
+      <c r="Y118">
+        <v>2.2</v>
+      </c>
+      <c r="Z118">
+        <v>1.62</v>
+      </c>
+      <c r="AA118">
+        <v>5</v>
+      </c>
+      <c r="AB118">
+        <v>1.17</v>
+      </c>
+      <c r="AC118">
+        <v>1.22</v>
+      </c>
+      <c r="AD118">
+        <v>6</v>
+      </c>
+      <c r="AE118">
+        <v>13</v>
+      </c>
+      <c r="AF118">
+        <v>1.02</v>
+      </c>
+      <c r="AG118">
+        <v>23</v>
+      </c>
+      <c r="AH118">
+        <v>1.12</v>
+      </c>
+      <c r="AI118">
+        <v>5.78</v>
+      </c>
+      <c r="AJ118">
+        <v>1.38</v>
+      </c>
+      <c r="AK118">
+        <v>2.9</v>
+      </c>
+      <c r="AL118">
+        <v>2</v>
+      </c>
+      <c r="AM118">
+        <v>1.75</v>
+      </c>
+      <c r="AN118">
+        <v>1.04</v>
+      </c>
+      <c r="AO118">
+        <v>1.12</v>
+      </c>
+      <c r="AP118">
+        <v>4.2</v>
+      </c>
+      <c r="AQ118">
+        <v>2.2</v>
+      </c>
+      <c r="AR118">
+        <v>1</v>
+      </c>
+      <c r="AS118">
+        <v>2.43</v>
+      </c>
+      <c r="AT118">
+        <v>0.71</v>
+      </c>
+      <c r="AU118">
+        <v>2.69</v>
+      </c>
+      <c r="AV118">
+        <v>1.36</v>
+      </c>
+      <c r="AW118">
+        <v>4.05</v>
+      </c>
+      <c r="AX118">
+        <v>1.03</v>
+      </c>
+      <c r="AY118">
+        <v>21</v>
+      </c>
+      <c r="AZ118">
+        <v>18</v>
+      </c>
+      <c r="BA118">
+        <v>1.18</v>
+      </c>
+      <c r="BB118">
+        <v>1.33</v>
+      </c>
+      <c r="BC118">
+        <v>1.58</v>
+      </c>
+      <c r="BD118">
+        <v>2</v>
+      </c>
+      <c r="BE118">
+        <v>2.63</v>
+      </c>
+      <c r="BF118">
+        <v>6</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>15</v>
+      </c>
+      <c r="BI118">
+        <v>8</v>
+      </c>
+      <c r="BJ118">
+        <v>21</v>
+      </c>
+      <c r="BK118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2433113</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44876.66666666666</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>82</v>
+      </c>
+      <c r="H119" t="s">
+        <v>81</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>171</v>
+      </c>
+      <c r="P119" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q119">
+        <v>3</v>
+      </c>
+      <c r="R119">
+        <v>7</v>
+      </c>
+      <c r="S119">
+        <v>10</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>2.2</v>
+      </c>
+      <c r="V119">
+        <v>3.2</v>
+      </c>
+      <c r="W119">
+        <v>1.38</v>
+      </c>
+      <c r="X119">
+        <v>3.1</v>
+      </c>
+      <c r="Y119">
+        <v>2.7</v>
+      </c>
+      <c r="Z119">
+        <v>1.45</v>
+      </c>
+      <c r="AA119">
+        <v>6.5</v>
+      </c>
+      <c r="AB119">
+        <v>1.1</v>
+      </c>
+      <c r="AC119">
+        <v>3.1</v>
+      </c>
+      <c r="AD119">
+        <v>3.8</v>
+      </c>
+      <c r="AE119">
+        <v>2.12</v>
+      </c>
+      <c r="AF119">
+        <v>1.04</v>
+      </c>
+      <c r="AG119">
+        <v>13</v>
+      </c>
+      <c r="AH119">
+        <v>1.26</v>
+      </c>
+      <c r="AI119">
+        <v>3.67</v>
+      </c>
+      <c r="AJ119">
+        <v>1.6</v>
+      </c>
+      <c r="AK119">
+        <v>2.2</v>
+      </c>
+      <c r="AL119">
+        <v>1.53</v>
+      </c>
+      <c r="AM119">
+        <v>2.3</v>
+      </c>
+      <c r="AN119">
+        <v>1.68</v>
+      </c>
+      <c r="AO119">
+        <v>1.25</v>
+      </c>
+      <c r="AP119">
+        <v>1.38</v>
+      </c>
+      <c r="AQ119">
+        <v>2.14</v>
+      </c>
+      <c r="AR119">
+        <v>1.17</v>
+      </c>
+      <c r="AS119">
+        <v>2</v>
+      </c>
+      <c r="AT119">
+        <v>1.14</v>
+      </c>
+      <c r="AU119">
+        <v>1.64</v>
+      </c>
+      <c r="AV119">
+        <v>1.66</v>
+      </c>
+      <c r="AW119">
+        <v>3.3</v>
+      </c>
+      <c r="AX119">
+        <v>2.64</v>
+      </c>
+      <c r="AY119">
+        <v>7.9</v>
+      </c>
+      <c r="AZ119">
+        <v>1.74</v>
+      </c>
+      <c r="BA119">
+        <v>1.21</v>
+      </c>
+      <c r="BB119">
+        <v>1.42</v>
+      </c>
+      <c r="BC119">
+        <v>1.76</v>
+      </c>
+      <c r="BD119">
+        <v>2.22</v>
+      </c>
+      <c r="BE119">
+        <v>2.93</v>
+      </c>
+      <c r="BF119">
+        <v>3</v>
+      </c>
+      <c r="BG119">
+        <v>6</v>
+      </c>
+      <c r="BH119">
+        <v>9</v>
+      </c>
+      <c r="BI119">
+        <v>13</v>
+      </c>
+      <c r="BJ119">
+        <v>12</v>
+      </c>
+      <c r="BK119">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2433107</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44877.52083333334</v>
+      </c>
+      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>83</v>
+      </c>
+      <c r="P120" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>5</v>
+      </c>
+      <c r="S120">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>4</v>
+      </c>
+      <c r="U120">
+        <v>2.4</v>
+      </c>
+      <c r="V120">
+        <v>2.4</v>
+      </c>
+      <c r="W120">
+        <v>1.29</v>
+      </c>
+      <c r="X120">
+        <v>3.5</v>
+      </c>
+      <c r="Y120">
+        <v>2.25</v>
+      </c>
+      <c r="Z120">
+        <v>1.57</v>
+      </c>
+      <c r="AA120">
+        <v>5.5</v>
+      </c>
+      <c r="AB120">
+        <v>1.14</v>
+      </c>
+      <c r="AC120">
+        <v>3.34</v>
+      </c>
+      <c r="AD120">
+        <v>3.72</v>
+      </c>
+      <c r="AE120">
+        <v>2.04</v>
+      </c>
+      <c r="AF120">
+        <v>1.02</v>
+      </c>
+      <c r="AG120">
+        <v>12</v>
+      </c>
+      <c r="AH120">
+        <v>1.17</v>
+      </c>
+      <c r="AI120">
+        <v>4.5</v>
+      </c>
+      <c r="AJ120">
+        <v>1.61</v>
+      </c>
+      <c r="AK120">
+        <v>2.15</v>
+      </c>
+      <c r="AL120">
+        <v>1.53</v>
+      </c>
+      <c r="AM120">
+        <v>2.38</v>
+      </c>
+      <c r="AN120">
+        <v>1.92</v>
+      </c>
+      <c r="AO120">
+        <v>1.22</v>
+      </c>
+      <c r="AP120">
+        <v>1.28</v>
+      </c>
+      <c r="AQ120">
+        <v>0.5</v>
+      </c>
+      <c r="AR120">
+        <v>1.67</v>
+      </c>
+      <c r="AS120">
+        <v>0.43</v>
+      </c>
+      <c r="AT120">
+        <v>1.86</v>
+      </c>
+      <c r="AU120">
+        <v>1.66</v>
+      </c>
+      <c r="AV120">
+        <v>1.62</v>
+      </c>
+      <c r="AW120">
+        <v>3.28</v>
+      </c>
+      <c r="AX120">
+        <v>2.85</v>
+      </c>
+      <c r="AY120">
+        <v>8.4</v>
+      </c>
+      <c r="AZ120">
+        <v>1.64</v>
+      </c>
+      <c r="BA120">
+        <v>1.13</v>
+      </c>
+      <c r="BB120">
+        <v>1.23</v>
+      </c>
+      <c r="BC120">
+        <v>1.46</v>
+      </c>
+      <c r="BD120">
+        <v>1.79</v>
+      </c>
+      <c r="BE120">
+        <v>2.26</v>
+      </c>
+      <c r="BF120">
+        <v>3</v>
+      </c>
+      <c r="BG120">
+        <v>8</v>
+      </c>
+      <c r="BH120">
+        <v>9</v>
+      </c>
+      <c r="BI120">
+        <v>6</v>
+      </c>
+      <c r="BJ120">
+        <v>12</v>
+      </c>
+      <c r="BK120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2433105</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44877.61458333334</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>80</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>3</v>
+      </c>
+      <c r="K121">
+        <v>4</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>6</v>
+      </c>
+      <c r="O121" t="s">
+        <v>172</v>
+      </c>
+      <c r="P121" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q121">
+        <v>5</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>6</v>
+      </c>
+      <c r="T121">
+        <v>7.5</v>
+      </c>
+      <c r="U121">
+        <v>2.75</v>
+      </c>
+      <c r="V121">
+        <v>1.73</v>
+      </c>
+      <c r="W121">
+        <v>1.22</v>
+      </c>
+      <c r="X121">
+        <v>4</v>
+      </c>
+      <c r="Y121">
+        <v>2.1</v>
+      </c>
+      <c r="Z121">
+        <v>1.67</v>
+      </c>
+      <c r="AA121">
+        <v>4.5</v>
+      </c>
+      <c r="AB121">
+        <v>1.18</v>
+      </c>
+      <c r="AC121">
+        <v>10</v>
+      </c>
+      <c r="AD121">
+        <v>6</v>
+      </c>
+      <c r="AE121">
+        <v>1.25</v>
+      </c>
+      <c r="AF121">
+        <v>1.02</v>
+      </c>
+      <c r="AG121">
+        <v>13</v>
+      </c>
+      <c r="AH121">
+        <v>1.12</v>
+      </c>
+      <c r="AI121">
+        <v>5.5</v>
+      </c>
+      <c r="AJ121">
+        <v>1.44</v>
+      </c>
+      <c r="AK121">
+        <v>2.6</v>
+      </c>
+      <c r="AL121">
+        <v>1.75</v>
+      </c>
+      <c r="AM121">
+        <v>2</v>
+      </c>
+      <c r="AN121">
+        <v>3.6</v>
+      </c>
+      <c r="AO121">
+        <v>1.11</v>
+      </c>
+      <c r="AP121">
+        <v>1.03</v>
+      </c>
+      <c r="AQ121">
+        <v>1.17</v>
+      </c>
+      <c r="AR121">
+        <v>2.5</v>
+      </c>
+      <c r="AS121">
+        <v>1.14</v>
+      </c>
+      <c r="AT121">
+        <v>2.29</v>
+      </c>
+      <c r="AU121">
+        <v>1.65</v>
+      </c>
+      <c r="AV121">
+        <v>2.13</v>
+      </c>
+      <c r="AW121">
+        <v>3.78</v>
+      </c>
+      <c r="AX121">
+        <v>10</v>
+      </c>
+      <c r="AY121">
+        <v>13.5</v>
+      </c>
+      <c r="AZ121">
+        <v>1.1</v>
+      </c>
+      <c r="BA121">
+        <v>1.22</v>
+      </c>
+      <c r="BB121">
+        <v>1.45</v>
+      </c>
+      <c r="BC121">
+        <v>1.81</v>
+      </c>
+      <c r="BD121">
+        <v>2.3</v>
+      </c>
+      <c r="BE121">
+        <v>3.08</v>
+      </c>
+      <c r="BF121">
+        <v>6</v>
+      </c>
+      <c r="BG121">
+        <v>6</v>
+      </c>
+      <c r="BH121">
+        <v>10</v>
+      </c>
+      <c r="BI121">
+        <v>5</v>
+      </c>
+      <c r="BJ121">
+        <v>16</v>
+      </c>
+      <c r="BK121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2433111</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44877.70833333334</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>68</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>83</v>
+      </c>
+      <c r="P122" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q122">
+        <v>4</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>6</v>
+      </c>
+      <c r="T122">
+        <v>2.05</v>
+      </c>
+      <c r="U122">
+        <v>2.6</v>
+      </c>
+      <c r="V122">
+        <v>4.75</v>
+      </c>
+      <c r="W122">
+        <v>1.25</v>
+      </c>
+      <c r="X122">
+        <v>3.75</v>
+      </c>
+      <c r="Y122">
+        <v>2.1</v>
+      </c>
+      <c r="Z122">
+        <v>1.67</v>
+      </c>
+      <c r="AA122">
+        <v>4.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.18</v>
+      </c>
+      <c r="AC122">
+        <v>1.5</v>
+      </c>
+      <c r="AD122">
+        <v>4.5</v>
+      </c>
+      <c r="AE122">
+        <v>5.5</v>
+      </c>
+      <c r="AF122">
+        <v>1.01</v>
+      </c>
+      <c r="AG122">
+        <v>23</v>
+      </c>
+      <c r="AH122">
+        <v>1.14</v>
+      </c>
+      <c r="AI122">
+        <v>5.38</v>
+      </c>
+      <c r="AJ122">
+        <v>1.36</v>
+      </c>
+      <c r="AK122">
+        <v>2.9</v>
+      </c>
+      <c r="AL122">
+        <v>1.53</v>
+      </c>
+      <c r="AM122">
+        <v>2.38</v>
+      </c>
+      <c r="AN122">
+        <v>1.16</v>
+      </c>
+      <c r="AO122">
+        <v>1.17</v>
+      </c>
+      <c r="AP122">
+        <v>2.5</v>
+      </c>
+      <c r="AQ122">
+        <v>3</v>
+      </c>
+      <c r="AR122">
+        <v>2.14</v>
+      </c>
+      <c r="AS122">
+        <v>2.57</v>
+      </c>
+      <c r="AT122">
+        <v>2.25</v>
+      </c>
+      <c r="AU122">
+        <v>2.51</v>
+      </c>
+      <c r="AV122">
+        <v>2.05</v>
+      </c>
+      <c r="AW122">
+        <v>4.56</v>
+      </c>
+      <c r="AX122">
+        <v>1.45</v>
+      </c>
+      <c r="AY122">
+        <v>8.5</v>
+      </c>
+      <c r="AZ122">
+        <v>3.62</v>
+      </c>
+      <c r="BA122">
+        <v>1.24</v>
+      </c>
+      <c r="BB122">
+        <v>1.48</v>
+      </c>
+      <c r="BC122">
+        <v>1.86</v>
+      </c>
+      <c r="BD122">
+        <v>2.38</v>
+      </c>
+      <c r="BE122">
+        <v>3.2</v>
+      </c>
+      <c r="BF122">
+        <v>3</v>
+      </c>
+      <c r="BG122">
+        <v>4</v>
+      </c>
+      <c r="BH122">
+        <v>8</v>
+      </c>
+      <c r="BI122">
+        <v>7</v>
+      </c>
+      <c r="BJ122">
+        <v>11</v>
+      </c>
+      <c r="BK122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2433110</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44878.34375</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>72</v>
+      </c>
+      <c r="H123" t="s">
+        <v>69</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>6</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>7</v>
+      </c>
+      <c r="O123" t="s">
+        <v>173</v>
+      </c>
+      <c r="P123" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q123">
+        <v>7</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>10</v>
+      </c>
+      <c r="T123">
+        <v>2.6</v>
+      </c>
+      <c r="U123">
+        <v>2.3</v>
+      </c>
+      <c r="V123">
+        <v>3.75</v>
+      </c>
+      <c r="W123">
+        <v>1.33</v>
+      </c>
+      <c r="X123">
+        <v>3.25</v>
+      </c>
+      <c r="Y123">
+        <v>2.63</v>
+      </c>
+      <c r="Z123">
+        <v>1.44</v>
+      </c>
+      <c r="AA123">
+        <v>6.5</v>
+      </c>
+      <c r="AB123">
+        <v>1.11</v>
+      </c>
+      <c r="AC123">
+        <v>2.05</v>
+      </c>
+      <c r="AD123">
+        <v>3.75</v>
+      </c>
+      <c r="AE123">
+        <v>3.25</v>
+      </c>
+      <c r="AF123">
+        <v>1.03</v>
+      </c>
+      <c r="AG123">
+        <v>13</v>
+      </c>
+      <c r="AH123">
+        <v>1.24</v>
+      </c>
+      <c r="AI123">
+        <v>3.92</v>
+      </c>
+      <c r="AJ123">
+        <v>1.51</v>
+      </c>
+      <c r="AK123">
+        <v>2.33</v>
+      </c>
+      <c r="AL123">
+        <v>1.62</v>
+      </c>
+      <c r="AM123">
+        <v>2.2</v>
+      </c>
+      <c r="AN123">
+        <v>1.3</v>
+      </c>
+      <c r="AO123">
+        <v>1.28</v>
+      </c>
+      <c r="AP123">
+        <v>1.75</v>
+      </c>
+      <c r="AQ123">
+        <v>0.83</v>
+      </c>
+      <c r="AR123">
+        <v>1</v>
+      </c>
+      <c r="AS123">
+        <v>1.14</v>
+      </c>
+      <c r="AT123">
+        <v>0.86</v>
+      </c>
+      <c r="AU123">
+        <v>1.88</v>
+      </c>
+      <c r="AV123">
+        <v>1.37</v>
+      </c>
+      <c r="AW123">
+        <v>3.25</v>
+      </c>
+      <c r="AX123">
+        <v>1.78</v>
+      </c>
+      <c r="AY123">
+        <v>8.1</v>
+      </c>
+      <c r="AZ123">
+        <v>2.53</v>
+      </c>
+      <c r="BA123">
+        <v>1.16</v>
+      </c>
+      <c r="BB123">
+        <v>1.28</v>
+      </c>
+      <c r="BC123">
+        <v>1.55</v>
+      </c>
+      <c r="BD123">
+        <v>1.93</v>
+      </c>
+      <c r="BE123">
+        <v>2.5</v>
+      </c>
+      <c r="BF123">
+        <v>13</v>
+      </c>
+      <c r="BG123">
+        <v>5</v>
+      </c>
+      <c r="BH123">
+        <v>15</v>
+      </c>
+      <c r="BI123">
+        <v>3</v>
+      </c>
+      <c r="BJ123">
+        <v>28</v>
+      </c>
+      <c r="BK123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2433112</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44878.4375</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>65</v>
+      </c>
+      <c r="H124" t="s">
+        <v>67</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>174</v>
+      </c>
+      <c r="P124" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q124">
+        <v>7</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>9</v>
+      </c>
+      <c r="T124">
+        <v>2.3</v>
+      </c>
+      <c r="U124">
+        <v>2.38</v>
+      </c>
+      <c r="V124">
+        <v>4.33</v>
+      </c>
+      <c r="W124">
+        <v>1.3</v>
+      </c>
+      <c r="X124">
+        <v>3.4</v>
+      </c>
+      <c r="Y124">
+        <v>2.38</v>
+      </c>
+      <c r="Z124">
+        <v>1.53</v>
+      </c>
+      <c r="AA124">
+        <v>6</v>
+      </c>
+      <c r="AB124">
+        <v>1.13</v>
+      </c>
+      <c r="AC124">
+        <v>1.91</v>
+      </c>
+      <c r="AD124">
+        <v>3.75</v>
+      </c>
+      <c r="AE124">
+        <v>3.6</v>
+      </c>
+      <c r="AF124">
+        <v>1.04</v>
+      </c>
+      <c r="AG124">
+        <v>11.5</v>
+      </c>
+      <c r="AH124">
+        <v>1.2</v>
+      </c>
+      <c r="AI124">
+        <v>4.1</v>
+      </c>
+      <c r="AJ124">
+        <v>1.58</v>
+      </c>
+      <c r="AK124">
+        <v>2.18</v>
+      </c>
+      <c r="AL124">
+        <v>1.62</v>
+      </c>
+      <c r="AM124">
+        <v>2.2</v>
+      </c>
+      <c r="AN124">
+        <v>1.22</v>
+      </c>
+      <c r="AO124">
+        <v>1.25</v>
+      </c>
+      <c r="AP124">
+        <v>1.95</v>
+      </c>
+      <c r="AQ124">
+        <v>1.33</v>
+      </c>
+      <c r="AR124">
+        <v>0.83</v>
+      </c>
+      <c r="AS124">
+        <v>1.57</v>
+      </c>
+      <c r="AT124">
+        <v>0.71</v>
+      </c>
+      <c r="AU124">
+        <v>1.59</v>
+      </c>
+      <c r="AV124">
+        <v>1.25</v>
+      </c>
+      <c r="AW124">
+        <v>2.84</v>
+      </c>
+      <c r="AX124">
+        <v>1.36</v>
+      </c>
+      <c r="AY124">
+        <v>9.4</v>
+      </c>
+      <c r="AZ124">
+        <v>4.16</v>
+      </c>
+      <c r="BA124">
+        <v>1.17</v>
+      </c>
+      <c r="BB124">
+        <v>1.28</v>
+      </c>
+      <c r="BC124">
+        <v>1.54</v>
+      </c>
+      <c r="BD124">
+        <v>1.91</v>
+      </c>
+      <c r="BE124">
+        <v>2.47</v>
+      </c>
+      <c r="BF124">
+        <v>5</v>
+      </c>
+      <c r="BG124">
+        <v>3</v>
+      </c>
+      <c r="BH124">
+        <v>11</v>
+      </c>
+      <c r="BI124">
+        <v>5</v>
+      </c>
+      <c r="BJ124">
+        <v>16</v>
+      </c>
+      <c r="BK124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2433106</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44878.4375</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>66</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>175</v>
+      </c>
+      <c r="P125" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125">
+        <v>5</v>
+      </c>
+      <c r="S125">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>2.63</v>
+      </c>
+      <c r="U125">
+        <v>2.25</v>
+      </c>
+      <c r="V125">
+        <v>4</v>
+      </c>
+      <c r="W125">
+        <v>1.33</v>
+      </c>
+      <c r="X125">
+        <v>3.25</v>
+      </c>
+      <c r="Y125">
+        <v>2.63</v>
+      </c>
+      <c r="Z125">
+        <v>1.44</v>
+      </c>
+      <c r="AA125">
+        <v>6.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.11</v>
+      </c>
+      <c r="AC125">
+        <v>1.91</v>
+      </c>
+      <c r="AD125">
+        <v>3.75</v>
+      </c>
+      <c r="AE125">
+        <v>3.6</v>
+      </c>
+      <c r="AF125">
+        <v>1.04</v>
+      </c>
+      <c r="AG125">
+        <v>13</v>
+      </c>
+      <c r="AH125">
+        <v>1.26</v>
+      </c>
+      <c r="AI125">
+        <v>3.67</v>
+      </c>
+      <c r="AJ125">
+        <v>1.65</v>
+      </c>
+      <c r="AK125">
+        <v>2.07</v>
+      </c>
+      <c r="AL125">
+        <v>1.67</v>
+      </c>
+      <c r="AM125">
+        <v>2.1</v>
+      </c>
+      <c r="AN125">
+        <v>1.3</v>
+      </c>
+      <c r="AO125">
+        <v>1.25</v>
+      </c>
+      <c r="AP125">
+        <v>1.83</v>
+      </c>
+      <c r="AQ125">
+        <v>1.17</v>
+      </c>
+      <c r="AR125">
+        <v>0.83</v>
+      </c>
+      <c r="AS125">
+        <v>1</v>
+      </c>
+      <c r="AT125">
+        <v>1.14</v>
+      </c>
+      <c r="AU125">
+        <v>1.44</v>
+      </c>
+      <c r="AV125">
+        <v>1.03</v>
+      </c>
+      <c r="AW125">
+        <v>2.47</v>
+      </c>
+      <c r="AX125">
+        <v>1.44</v>
+      </c>
+      <c r="AY125">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ125">
+        <v>3.68</v>
+      </c>
+      <c r="BA125">
+        <v>1.2</v>
+      </c>
+      <c r="BB125">
+        <v>1.35</v>
+      </c>
+      <c r="BC125">
+        <v>1.65</v>
+      </c>
+      <c r="BD125">
+        <v>2.1</v>
+      </c>
+      <c r="BE125">
+        <v>2.77</v>
+      </c>
+      <c r="BF125">
+        <v>4</v>
+      </c>
+      <c r="BG125">
+        <v>7</v>
+      </c>
+      <c r="BH125">
+        <v>8</v>
+      </c>
+      <c r="BI125">
+        <v>9</v>
+      </c>
+      <c r="BJ125">
+        <v>12</v>
+      </c>
+      <c r="BK125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2433108</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44878.53125</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>5</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>6</v>
+      </c>
+      <c r="O126" t="s">
+        <v>176</v>
+      </c>
+      <c r="P126" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>7</v>
+      </c>
+      <c r="T126">
+        <v>1.44</v>
+      </c>
+      <c r="U126">
+        <v>3.4</v>
+      </c>
+      <c r="V126">
+        <v>11</v>
+      </c>
+      <c r="W126">
+        <v>1.17</v>
+      </c>
+      <c r="X126">
+        <v>5</v>
+      </c>
+      <c r="Y126">
+        <v>1.8</v>
+      </c>
+      <c r="Z126">
+        <v>1.91</v>
+      </c>
+      <c r="AA126">
+        <v>3.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.29</v>
+      </c>
+      <c r="AC126">
+        <v>1.15</v>
+      </c>
+      <c r="AD126">
+        <v>8</v>
+      </c>
+      <c r="AE126">
+        <v>15</v>
+      </c>
+      <c r="AF126">
+        <v>1.02</v>
+      </c>
+      <c r="AG126">
+        <v>34</v>
+      </c>
+      <c r="AH126">
+        <v>1.06</v>
+      </c>
+      <c r="AI126">
+        <v>8.27</v>
+      </c>
+      <c r="AJ126">
+        <v>1.5</v>
+      </c>
+      <c r="AK126">
+        <v>2.4</v>
+      </c>
+      <c r="AL126">
+        <v>1.95</v>
+      </c>
+      <c r="AM126">
+        <v>1.8</v>
+      </c>
+      <c r="AN126">
+        <v>1.02</v>
+      </c>
+      <c r="AO126">
+        <v>1.05</v>
+      </c>
+      <c r="AP126">
+        <v>5.5</v>
+      </c>
+      <c r="AQ126">
+        <v>2.33</v>
+      </c>
+      <c r="AR126">
+        <v>0.57</v>
+      </c>
+      <c r="AS126">
+        <v>2.43</v>
+      </c>
+      <c r="AT126">
+        <v>0.5</v>
+      </c>
+      <c r="AU126">
+        <v>2.62</v>
+      </c>
+      <c r="AV126">
+        <v>1.17</v>
+      </c>
+      <c r="AW126">
+        <v>3.79</v>
+      </c>
+      <c r="AX126">
+        <v>1.01</v>
+      </c>
+      <c r="AY126">
+        <v>22</v>
+      </c>
+      <c r="AZ126">
+        <v>21</v>
+      </c>
+      <c r="BA126">
+        <v>1.2</v>
+      </c>
+      <c r="BB126">
+        <v>1.35</v>
+      </c>
+      <c r="BC126">
+        <v>1.65</v>
+      </c>
+      <c r="BD126">
+        <v>2.1</v>
+      </c>
+      <c r="BE126">
+        <v>2.77</v>
+      </c>
+      <c r="BF126">
+        <v>13</v>
+      </c>
+      <c r="BG126">
+        <v>4</v>
+      </c>
+      <c r="BH126">
+        <v>10</v>
+      </c>
+      <c r="BI126">
+        <v>0</v>
+      </c>
+      <c r="BJ126">
+        <v>23</v>
+      </c>
+      <c r="BK126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2433109</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44878.66666666666</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>75</v>
+      </c>
+      <c r="H127" t="s">
+        <v>71</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>177</v>
+      </c>
+      <c r="P127" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>11</v>
+      </c>
+      <c r="S127">
+        <v>14</v>
+      </c>
+      <c r="T127">
+        <v>3.1</v>
+      </c>
+      <c r="U127">
+        <v>2.2</v>
+      </c>
+      <c r="V127">
+        <v>3.25</v>
+      </c>
+      <c r="W127">
+        <v>1.36</v>
+      </c>
+      <c r="X127">
+        <v>3</v>
+      </c>
+      <c r="Y127">
+        <v>2.63</v>
+      </c>
+      <c r="Z127">
+        <v>1.44</v>
+      </c>
+      <c r="AA127">
+        <v>7</v>
+      </c>
+      <c r="AB127">
+        <v>1.1</v>
+      </c>
+      <c r="AC127">
+        <v>2.38</v>
+      </c>
+      <c r="AD127">
+        <v>3.6</v>
+      </c>
+      <c r="AE127">
+        <v>2.76</v>
+      </c>
+      <c r="AF127">
+        <v>1.04</v>
+      </c>
+      <c r="AG127">
+        <v>10</v>
+      </c>
+      <c r="AH127">
+        <v>1.25</v>
+      </c>
+      <c r="AI127">
+        <v>3.75</v>
+      </c>
+      <c r="AJ127">
+        <v>1.87</v>
+      </c>
+      <c r="AK127">
+        <v>2.03</v>
+      </c>
+      <c r="AL127">
+        <v>1.67</v>
+      </c>
+      <c r="AM127">
+        <v>2.1</v>
+      </c>
+      <c r="AN127">
+        <v>1.44</v>
+      </c>
+      <c r="AO127">
+        <v>1.29</v>
+      </c>
+      <c r="AP127">
+        <v>1.53</v>
+      </c>
+      <c r="AQ127">
+        <v>1.14</v>
+      </c>
+      <c r="AR127">
+        <v>1.17</v>
+      </c>
+      <c r="AS127">
+        <v>1.13</v>
+      </c>
+      <c r="AT127">
+        <v>1.14</v>
+      </c>
+      <c r="AU127">
+        <v>1.81</v>
+      </c>
+      <c r="AV127">
+        <v>1.74</v>
+      </c>
+      <c r="AW127">
+        <v>3.55</v>
+      </c>
+      <c r="AX127">
+        <v>2.32</v>
+      </c>
+      <c r="AY127">
+        <v>7.8</v>
+      </c>
+      <c r="AZ127">
+        <v>1.92</v>
+      </c>
+      <c r="BA127">
+        <v>1.19</v>
+      </c>
+      <c r="BB127">
+        <v>1.39</v>
+      </c>
+      <c r="BC127">
+        <v>1.72</v>
+      </c>
+      <c r="BD127">
+        <v>2.15</v>
+      </c>
+      <c r="BE127">
+        <v>2.84</v>
+      </c>
+      <c r="BF127">
+        <v>3</v>
+      </c>
+      <c r="BG127">
+        <v>3</v>
+      </c>
+      <c r="BH127">
+        <v>1</v>
+      </c>
+      <c r="BI127">
+        <v>5</v>
+      </c>
+      <c r="BJ127">
+        <v>4</v>
+      </c>
+      <c r="BK127">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.43</v>
+        <v>0.79</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT7" t="n">
         <v>0.43</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.14</v>
+        <v>1.93</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>1.34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.14</v>
+        <v>0.93</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3127,16 +3127,16 @@
         <v>2.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3333,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3533,16 +3533,16 @@
         <v>3.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.43</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3939,16 +3939,16 @@
         <v>5.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4142,16 +4142,16 @@
         <v>2.65</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.71</v>
+        <v>1.93</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4345,16 +4345,16 @@
         <v>1.24</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4754,13 +4754,13 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -4954,16 +4954,16 @@
         <v>1.29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5157,16 +5157,16 @@
         <v>1.88</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -5360,16 +5360,16 @@
         <v>1.06</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR24" t="n">
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AU24" t="n">
         <v>1.06</v>
@@ -5566,13 +5566,13 @@
         <v>1</v>
       </c>
       <c r="AR25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AU25" t="n">
         <v>1.33</v>
@@ -5766,16 +5766,16 @@
         <v>1.61</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AU26" t="n">
         <v>1.17</v>
@@ -5972,13 +5972,13 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6175,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="AU28" t="n">
         <v>1.02</v>
@@ -6375,16 +6375,16 @@
         <v>3.75</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.43</v>
+        <v>0.79</v>
       </c>
       <c r="AU29" t="n">
         <v>2.62</v>
@@ -6578,16 +6578,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU30" t="n">
         <v>1.2</v>
@@ -6781,16 +6781,16 @@
         <v>1.12</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR31" t="n">
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AU32" t="n">
         <v>1.54</v>
@@ -7187,7 +7187,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR33" t="n">
         <v>3</v>
@@ -7196,7 +7196,7 @@
         <v>0.43</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.14</v>
+        <v>1.93</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7390,16 +7390,16 @@
         <v>1.21</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AR34" t="n">
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="AU34" t="n">
         <v>3.19</v>
@@ -7596,10 +7596,10 @@
         <v>3</v>
       </c>
       <c r="AR35" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="AT35" t="n">
         <v>0.43</v>
@@ -7796,16 +7796,16 @@
         <v>3</v>
       </c>
       <c r="AQ36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.71</v>
+        <v>1.93</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="AU36" t="n">
         <v>2.34</v>
@@ -8002,13 +8002,13 @@
         <v>3</v>
       </c>
       <c r="AR37" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AU38" t="n">
         <v>1.65</v>
@@ -8408,13 +8408,13 @@
         <v>3</v>
       </c>
       <c r="AR39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AU39" t="n">
         <v>3.33</v>
@@ -8608,16 +8608,16 @@
         <v>1.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR40" t="n">
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.71</v>
+        <v>1.93</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -8811,13 +8811,13 @@
         <v>2.15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT41" t="n">
         <v>0.43</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AU42" t="n">
         <v>1.45</v>
@@ -9217,16 +9217,16 @@
         <v>1.95</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AR43" t="n">
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="AU43" t="n">
         <v>1.3</v>
@@ -9420,16 +9420,16 @@
         <v>1.26</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -9626,13 +9626,13 @@
         <v>2</v>
       </c>
       <c r="AR45" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -9826,16 +9826,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AR46" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.14</v>
+        <v>0.93</v>
       </c>
       <c r="AU46" t="n">
         <v>1.53</v>
@@ -10029,7 +10029,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0.43</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10232,16 +10232,16 @@
         <v>1.85</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10438,13 +10438,13 @@
         <v>3</v>
       </c>
       <c r="AR49" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU49" t="n">
         <v>3.04</v>
@@ -10638,16 +10638,16 @@
         <v>1.41</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR50" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.43</v>
+        <v>0.79</v>
       </c>
       <c r="AU50" t="n">
         <v>1.36</v>
@@ -10841,16 +10841,16 @@
         <v>1.93</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.14</v>
+        <v>0.93</v>
       </c>
       <c r="AU51" t="n">
         <v>1.31</v>
@@ -11044,16 +11044,16 @@
         <v>5.25</v>
       </c>
       <c r="AQ52" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR52" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="AU52" t="n">
         <v>2.55</v>
@@ -11247,16 +11247,16 @@
         <v>1.58</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AR53" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -11450,16 +11450,16 @@
         <v>1.7</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.14</v>
+        <v>1.93</v>
       </c>
       <c r="AU54" t="n">
         <v>2.99</v>
@@ -11653,16 +11653,16 @@
         <v>3.6</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AR55" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AU55" t="n">
         <v>2.49</v>
@@ -11859,13 +11859,13 @@
         <v>1.33</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -12059,16 +12059,16 @@
         <v>1.7</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR57" t="n">
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12262,13 +12262,13 @@
         <v>2.7</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR58" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AT58" t="n">
         <v>0.43</v>
@@ -12465,16 +12465,16 @@
         <v>1.7</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AU59" t="n">
         <v>1.74</v>
@@ -12668,16 +12668,16 @@
         <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR60" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -12871,16 +12871,16 @@
         <v>1.57</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR61" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.43</v>
+        <v>0.79</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13074,16 +13074,16 @@
         <v>1.93</v>
       </c>
       <c r="AQ62" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR62" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AU62" t="n">
         <v>2.81</v>
@@ -13277,16 +13277,16 @@
         <v>1.43</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR63" t="n">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.14</v>
+        <v>1.93</v>
       </c>
       <c r="AU63" t="n">
         <v>1.61</v>
@@ -13480,16 +13480,16 @@
         <v>1.21</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AR64" t="n">
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AU64" t="n">
         <v>2.46</v>
@@ -13683,16 +13683,16 @@
         <v>1.06</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AR65" t="n">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AU65" t="n">
         <v>2</v>
@@ -13886,16 +13886,16 @@
         <v>1.19</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR66" t="n">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="AU66" t="n">
         <v>1.22</v>
@@ -14089,16 +14089,16 @@
         <v>8</v>
       </c>
       <c r="AQ67" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AR67" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AU67" t="n">
         <v>2.85</v>
@@ -14292,16 +14292,16 @@
         <v>2.1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="AR68" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.71</v>
+        <v>1.93</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.14</v>
+        <v>0.93</v>
       </c>
       <c r="AU68" t="n">
         <v>1.96</v>
@@ -14495,13 +14495,13 @@
         <v>1.98</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AR69" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AT69" t="n">
         <v>0.43</v>
@@ -14698,16 +14698,16 @@
         <v>1.23</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AU70" t="n">
         <v>1.52</v>
@@ -14901,16 +14901,16 @@
         <v>1.17</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.67</v>
+        <v>1.14</v>
       </c>
       <c r="AR71" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15104,16 +15104,16 @@
         <v>1.65</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15307,16 +15307,16 @@
         <v>1.38</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.33</v>
+        <v>0.57</v>
       </c>
       <c r="AR73" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU73" t="n">
         <v>1.52</v>
@@ -15513,13 +15513,13 @@
         <v>1</v>
       </c>
       <c r="AR74" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="AU74" t="n">
         <v>1.26</v>
@@ -15713,16 +15713,16 @@
         <v>1.03</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AR75" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AS75" t="n">
         <v>0.43</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AU75" t="n">
         <v>1.85</v>
@@ -15916,16 +15916,16 @@
         <v>1.77</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR76" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.43</v>
+        <v>0.79</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16119,16 +16119,16 @@
         <v>2.65</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AR77" t="n">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="AU77" t="n">
         <v>1.77</v>
@@ -16322,16 +16322,16 @@
         <v>1.65</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR78" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AU78" t="n">
         <v>1.63</v>
@@ -16525,16 +16525,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AR79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.14</v>
+        <v>1.93</v>
       </c>
       <c r="AU79" t="n">
         <v>2.54</v>
@@ -16728,16 +16728,16 @@
         <v>1.37</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR80" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="AU80" t="n">
         <v>1.61</v>
@@ -16931,16 +16931,16 @@
         <v>1.16</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AR81" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AU81" t="n">
         <v>1.6</v>
@@ -17134,16 +17134,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR82" t="n">
-        <v>0.33</v>
+        <v>0.88</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -17337,13 +17337,13 @@
         <v>2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR83" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="AT83" t="n">
         <v>0.43</v>
@@ -17540,16 +17540,16 @@
         <v>1.66</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AR84" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AS84" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="AU84" t="n">
         <v>1.86</v>
@@ -17743,16 +17743,16 @@
         <v>1.41</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR85" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -17946,16 +17946,16 @@
         <v>1.52</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AR86" t="n">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.14</v>
+        <v>0.93</v>
       </c>
       <c r="AU86" t="n">
         <v>1.85</v>
@@ -18149,16 +18149,16 @@
         <v>1.55</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18352,16 +18352,16 @@
         <v>2.6</v>
       </c>
       <c r="AQ88" t="n">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="AR88" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.71</v>
+        <v>1.93</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AU88" t="n">
         <v>2.01</v>
@@ -18555,16 +18555,16 @@
         <v>2.9</v>
       </c>
       <c r="AQ89" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR89" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AU89" t="n">
         <v>2.84</v>
@@ -18758,16 +18758,16 @@
         <v>1.52</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="AR90" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AU90" t="n">
         <v>2.32</v>
@@ -18961,16 +18961,16 @@
         <v>10</v>
       </c>
       <c r="AQ91" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AR91" t="n">
-        <v>0.8</v>
+        <v>1.11</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="AU91" t="n">
         <v>2.88</v>
@@ -19164,16 +19164,16 @@
         <v>4.5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AR92" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU92" t="n">
         <v>2.48</v>
@@ -19367,16 +19367,16 @@
         <v>1.08</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR93" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AU93" t="n">
         <v>1.68</v>
@@ -19570,16 +19570,16 @@
         <v>2.45</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR94" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.43</v>
+        <v>0.79</v>
       </c>
       <c r="AU94" t="n">
         <v>1.51</v>
@@ -19773,16 +19773,16 @@
         <v>1.09</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="AU95" t="n">
         <v>1.62</v>
@@ -19976,16 +19976,16 @@
         <v>1.21</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR96" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.14</v>
+        <v>1.93</v>
       </c>
       <c r="AU96" t="n">
         <v>1.71</v>
@@ -20182,13 +20182,13 @@
         <v>0.8</v>
       </c>
       <c r="AR97" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AU97" t="n">
         <v>1.39</v>
@@ -20382,16 +20382,16 @@
         <v>1.87</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR98" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -20585,16 +20585,16 @@
         <v>1.98</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR99" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20788,16 +20788,16 @@
         <v>1.35</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR100" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AS100" t="n">
         <v>0.43</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU100" t="n">
         <v>1.83</v>
@@ -20991,16 +20991,16 @@
         <v>1.58</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21194,16 +21194,16 @@
         <v>1.73</v>
       </c>
       <c r="AQ102" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AR102" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU102" t="n">
         <v>1.56</v>
@@ -21397,16 +21397,16 @@
         <v>2</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR103" t="n">
-        <v>0.67</v>
+        <v>1.18</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="AU103" t="n">
         <v>1.77</v>
@@ -21600,16 +21600,16 @@
         <v>1.61</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="AR104" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AU104" t="n">
         <v>1.63</v>
@@ -21803,16 +21803,16 @@
         <v>4.1</v>
       </c>
       <c r="AQ105" t="n">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="AR105" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.57</v>
+        <v>2.14</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AU105" t="n">
         <v>2.62</v>
@@ -22006,16 +22006,16 @@
         <v>2.5</v>
       </c>
       <c r="AQ106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR106" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.71</v>
+        <v>1.93</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="AU106" t="n">
         <v>2.11</v>
@@ -22209,13 +22209,13 @@
         <v>4.2</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.6</v>
+        <v>2.09</v>
       </c>
       <c r="AR107" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="AT107" t="n">
         <v>0.43</v>
@@ -22412,16 +22412,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR108" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22615,16 +22615,16 @@
         <v>1.92</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR109" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AU109" t="n">
         <v>1.56</v>
@@ -22818,16 +22818,16 @@
         <v>1.65</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR110" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AS110" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.43</v>
+        <v>0.79</v>
       </c>
       <c r="AU110" t="n">
         <v>1.74</v>
@@ -23021,16 +23021,16 @@
         <v>1.25</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
       <c r="AR111" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU111" t="n">
         <v>1.49</v>
@@ -23224,16 +23224,16 @@
         <v>2.05</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR112" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AU112" t="n">
         <v>1.6</v>
@@ -23427,16 +23427,16 @@
         <v>3</v>
       </c>
       <c r="AQ113" t="n">
-        <v>3</v>
+        <v>2.08</v>
       </c>
       <c r="AR113" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.71</v>
+        <v>1.93</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AU113" t="n">
         <v>2.1</v>
@@ -23630,16 +23630,16 @@
         <v>1.11</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR114" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="AS114" t="n">
         <v>0.43</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AU114" t="n">
         <v>1.8</v>
@@ -23833,16 +23833,16 @@
         <v>2.1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AR115" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AU115" t="n">
         <v>3.11</v>
@@ -24036,16 +24036,16 @@
         <v>1.23</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR116" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="AU116" t="n">
         <v>1.66</v>
@@ -24239,16 +24239,16 @@
         <v>6.75</v>
       </c>
       <c r="AQ117" t="n">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AR117" t="n">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="AS117" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.14</v>
+        <v>0.93</v>
       </c>
       <c r="AU117" t="n">
         <v>2.9</v>
@@ -24442,16 +24442,16 @@
         <v>4.2</v>
       </c>
       <c r="AQ118" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR118" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AU118" t="n">
         <v>2.69</v>
@@ -24645,16 +24645,16 @@
         <v>1.38</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.14</v>
+        <v>1.77</v>
       </c>
       <c r="AR119" t="n">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.14</v>
+        <v>1.93</v>
       </c>
       <c r="AU119" t="n">
         <v>1.64</v>
@@ -24848,16 +24848,16 @@
         <v>1.28</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR120" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AS120" t="n">
         <v>0.43</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AU120" t="n">
         <v>1.66</v>
@@ -25051,16 +25051,16 @@
         <v>1.03</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AR121" t="n">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AU121" t="n">
         <v>1.65</v>
@@ -25254,16 +25254,16 @@
         <v>2.5</v>
       </c>
       <c r="AQ122" t="n">
-        <v>3</v>
+        <v>2.31</v>
       </c>
       <c r="AR122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS122" t="n">
         <v>2.14</v>
       </c>
-      <c r="AS122" t="n">
-        <v>2.57</v>
-      </c>
       <c r="AT122" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="AU122" t="n">
         <v>2.51</v>
@@ -25457,16 +25457,16 @@
         <v>1.75</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR123" t="n">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="AU123" t="n">
         <v>1.88</v>
@@ -25660,16 +25660,16 @@
         <v>1.95</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AR124" t="n">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AU124" t="n">
         <v>1.59</v>
@@ -25863,16 +25863,16 @@
         <v>1.83</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="AR125" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AS125" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU125" t="n">
         <v>1.44</v>
@@ -26066,16 +26066,16 @@
         <v>5.5</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.33</v>
+        <v>2.31</v>
       </c>
       <c r="AR126" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="AU126" t="n">
         <v>2.62</v>
@@ -26269,16 +26269,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AR127" t="n">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.14</v>
+        <v>0.93</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>0.43</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>1.34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3127,16 +3127,16 @@
         <v>2.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3333,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.79</v>
+        <v>1.14</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3533,16 +3533,16 @@
         <v>3.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.43</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3939,16 +3939,16 @@
         <v>5.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4142,16 +4142,16 @@
         <v>2.65</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.93</v>
+        <v>2.71</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4345,16 +4345,16 @@
         <v>1.24</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4754,13 +4754,13 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -4954,16 +4954,16 @@
         <v>1.29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.79</v>
+        <v>1.14</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5157,16 +5157,16 @@
         <v>1.88</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -5360,16 +5360,16 @@
         <v>1.06</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AU24" t="n">
         <v>1.06</v>
@@ -5566,13 +5566,13 @@
         <v>1</v>
       </c>
       <c r="AR25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="AU25" t="n">
         <v>1.33</v>
@@ -5766,16 +5766,16 @@
         <v>1.61</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AU26" t="n">
         <v>1.17</v>
@@ -5972,13 +5972,13 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6175,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="AU28" t="n">
         <v>1.02</v>
@@ -6375,16 +6375,16 @@
         <v>3.75</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
       <c r="AU29" t="n">
         <v>2.62</v>
@@ -6578,16 +6578,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AU30" t="n">
         <v>1.2</v>
@@ -6781,16 +6781,16 @@
         <v>1.12</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AU32" t="n">
         <v>1.54</v>
@@ -7187,7 +7187,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AR33" t="n">
         <v>3</v>
@@ -7196,7 +7196,7 @@
         <v>0.43</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7390,16 +7390,16 @@
         <v>1.21</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AR34" t="n">
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AU34" t="n">
         <v>3.19</v>
@@ -7596,10 +7596,10 @@
         <v>3</v>
       </c>
       <c r="AR35" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="AT35" t="n">
         <v>0.43</v>
@@ -7796,16 +7796,16 @@
         <v>3</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.93</v>
+        <v>2.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>2.34</v>
@@ -8002,13 +8002,13 @@
         <v>3</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AU38" t="n">
         <v>1.65</v>
@@ -8408,13 +8408,13 @@
         <v>3</v>
       </c>
       <c r="AR39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AU39" t="n">
         <v>3.33</v>
@@ -8608,16 +8608,16 @@
         <v>1.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AR40" t="n">
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.93</v>
+        <v>2.71</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -8811,13 +8811,13 @@
         <v>2.15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="n">
         <v>0.43</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="AU42" t="n">
         <v>1.45</v>
@@ -9217,16 +9217,16 @@
         <v>1.95</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AR43" t="n">
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.3</v>
@@ -9420,16 +9420,16 @@
         <v>1.26</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR44" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.79</v>
+        <v>1.14</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -9626,13 +9626,13 @@
         <v>2</v>
       </c>
       <c r="AR45" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -9826,16 +9826,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AR46" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU46" t="n">
         <v>1.53</v>
@@ -10029,7 +10029,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0.43</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10232,16 +10232,16 @@
         <v>1.85</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10438,13 +10438,13 @@
         <v>3</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AU49" t="n">
         <v>3.04</v>
@@ -10638,16 +10638,16 @@
         <v>1.41</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR50" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
       <c r="AU50" t="n">
         <v>1.36</v>
@@ -10841,16 +10841,16 @@
         <v>1.93</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU51" t="n">
         <v>1.31</v>
@@ -11044,16 +11044,16 @@
         <v>5.25</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AR52" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="AU52" t="n">
         <v>2.55</v>
@@ -11247,16 +11247,16 @@
         <v>1.58</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AR53" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -11450,16 +11450,16 @@
         <v>1.7</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AR54" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU54" t="n">
         <v>2.99</v>
@@ -11653,16 +11653,16 @@
         <v>3.6</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>2.49</v>
@@ -11859,13 +11859,13 @@
         <v>1.33</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -12059,16 +12059,16 @@
         <v>1.7</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12262,13 +12262,13 @@
         <v>2.7</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AR58" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AT58" t="n">
         <v>0.43</v>
@@ -12465,16 +12465,16 @@
         <v>1.7</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR59" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AU59" t="n">
         <v>1.74</v>
@@ -12668,16 +12668,16 @@
         <v>2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AR60" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -12871,16 +12871,16 @@
         <v>1.57</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AR61" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13074,16 +13074,16 @@
         <v>1.93</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AR62" t="n">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="AU62" t="n">
         <v>2.81</v>
@@ -13277,16 +13277,16 @@
         <v>1.43</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR63" t="n">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU63" t="n">
         <v>1.61</v>
@@ -13480,16 +13480,16 @@
         <v>1.21</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AR64" t="n">
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AU64" t="n">
         <v>2.46</v>
@@ -13683,16 +13683,16 @@
         <v>1.06</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AR65" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AU65" t="n">
         <v>2</v>
@@ -13886,16 +13886,16 @@
         <v>1.19</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR66" t="n">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AU66" t="n">
         <v>1.22</v>
@@ -14089,16 +14089,16 @@
         <v>8</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="AR67" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>2.85</v>
@@ -14292,16 +14292,16 @@
         <v>2.1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="AR68" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.93</v>
+        <v>2.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU68" t="n">
         <v>1.96</v>
@@ -14495,13 +14495,13 @@
         <v>1.98</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="AR69" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT69" t="n">
         <v>0.43</v>
@@ -14698,16 +14698,16 @@
         <v>1.23</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AR70" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AU70" t="n">
         <v>1.52</v>
@@ -14901,16 +14901,16 @@
         <v>1.17</v>
       </c>
       <c r="AQ71" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS71" t="n">
         <v>1.14</v>
       </c>
-      <c r="AR71" t="n">
+      <c r="AT71" t="n">
         <v>2.29</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>2.36</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15104,16 +15104,16 @@
         <v>1.65</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15307,16 +15307,16 @@
         <v>1.38</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.57</v>
+        <v>1.33</v>
       </c>
       <c r="AR73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT73" t="n">
         <v>1.71</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>1.64</v>
       </c>
       <c r="AU73" t="n">
         <v>1.52</v>
@@ -15513,13 +15513,13 @@
         <v>1</v>
       </c>
       <c r="AR74" t="n">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="AS74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT74" t="n">
         <v>0.86</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>1.21</v>
       </c>
       <c r="AU74" t="n">
         <v>1.26</v>
@@ -15713,16 +15713,16 @@
         <v>1.03</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AR75" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AS75" t="n">
         <v>0.43</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AU75" t="n">
         <v>1.85</v>
@@ -15916,16 +15916,16 @@
         <v>1.77</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR76" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16119,16 +16119,16 @@
         <v>2.65</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AR77" t="n">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.77</v>
@@ -16322,16 +16322,16 @@
         <v>1.65</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AR78" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AU78" t="n">
         <v>1.63</v>
@@ -16525,16 +16525,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AR79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU79" t="n">
         <v>2.54</v>
@@ -16728,16 +16728,16 @@
         <v>1.37</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR80" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AU80" t="n">
         <v>1.61</v>
@@ -16931,16 +16931,16 @@
         <v>1.16</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AR81" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AU81" t="n">
         <v>1.6</v>
@@ -17134,16 +17134,16 @@
         <v>2.2</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AR82" t="n">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -17337,13 +17337,13 @@
         <v>2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="AR83" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.79</v>
+        <v>1.14</v>
       </c>
       <c r="AT83" t="n">
         <v>0.43</v>
@@ -17540,16 +17540,16 @@
         <v>1.66</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR84" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="AU84" t="n">
         <v>1.86</v>
@@ -17743,16 +17743,16 @@
         <v>1.41</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR85" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -17946,16 +17946,16 @@
         <v>1.52</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AR86" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU86" t="n">
         <v>1.85</v>
@@ -18149,16 +18149,16 @@
         <v>1.55</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18352,16 +18352,16 @@
         <v>2.6</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="AR88" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.93</v>
+        <v>2.71</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AU88" t="n">
         <v>2.01</v>
@@ -18555,16 +18555,16 @@
         <v>2.9</v>
       </c>
       <c r="AQ89" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AR89" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AU89" t="n">
         <v>2.84</v>
@@ -18758,16 +18758,16 @@
         <v>1.52</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2.56</v>
+        <v>2</v>
       </c>
       <c r="AR90" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="AU90" t="n">
         <v>2.32</v>
@@ -18961,16 +18961,16 @@
         <v>10</v>
       </c>
       <c r="AQ91" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR91" t="n">
-        <v>1.11</v>
+        <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="AU91" t="n">
         <v>2.88</v>
@@ -19164,16 +19164,16 @@
         <v>4.5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AR92" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AU92" t="n">
         <v>2.48</v>
@@ -19367,16 +19367,16 @@
         <v>1.08</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR93" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AU93" t="n">
         <v>1.68</v>
@@ -19570,16 +19570,16 @@
         <v>2.45</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AR94" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
       <c r="AU94" t="n">
         <v>1.51</v>
@@ -19773,16 +19773,16 @@
         <v>1.09</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR95" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AU95" t="n">
         <v>1.62</v>
@@ -19976,16 +19976,16 @@
         <v>1.21</v>
       </c>
       <c r="AQ96" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR96" t="n">
         <v>0.8</v>
       </c>
-      <c r="AR96" t="n">
-        <v>1.9</v>
-      </c>
       <c r="AS96" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU96" t="n">
         <v>1.71</v>
@@ -20182,13 +20182,13 @@
         <v>0.8</v>
       </c>
       <c r="AR97" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AU97" t="n">
         <v>1.39</v>
@@ -20382,16 +20382,16 @@
         <v>1.87</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR98" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -20585,16 +20585,16 @@
         <v>1.98</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR99" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20788,16 +20788,16 @@
         <v>1.35</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AR100" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AS100" t="n">
         <v>0.43</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AU100" t="n">
         <v>1.83</v>
@@ -20991,16 +20991,16 @@
         <v>1.58</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21194,16 +21194,16 @@
         <v>1.73</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AU102" t="n">
         <v>1.56</v>
@@ -21397,16 +21397,16 @@
         <v>2</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR103" t="n">
-        <v>1.18</v>
+        <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.77</v>
@@ -21600,16 +21600,16 @@
         <v>1.61</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="AR104" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.79</v>
+        <v>1.14</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AU104" t="n">
         <v>1.63</v>
@@ -21803,16 +21803,16 @@
         <v>4.1</v>
       </c>
       <c r="AQ105" t="n">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="AR105" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AU105" t="n">
         <v>2.62</v>
@@ -22006,16 +22006,16 @@
         <v>2.5</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR106" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.93</v>
+        <v>2.71</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="AU106" t="n">
         <v>2.11</v>
@@ -22209,13 +22209,13 @@
         <v>4.2</v>
       </c>
       <c r="AQ107" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="AR107" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="AT107" t="n">
         <v>0.43</v>
@@ -22412,16 +22412,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="AR108" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22615,16 +22615,16 @@
         <v>1.92</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR109" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AU109" t="n">
         <v>1.56</v>
@@ -22818,16 +22818,16 @@
         <v>1.65</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR110" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.79</v>
+        <v>0.43</v>
       </c>
       <c r="AU110" t="n">
         <v>1.74</v>
@@ -23021,16 +23021,16 @@
         <v>1.25</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="AR111" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AU111" t="n">
         <v>1.49</v>
@@ -23224,16 +23224,16 @@
         <v>2.05</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR112" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AU112" t="n">
         <v>1.6</v>
@@ -23427,16 +23427,16 @@
         <v>3</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="AR113" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.93</v>
+        <v>2.71</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>2.1</v>
@@ -23630,16 +23630,16 @@
         <v>1.11</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR114" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="AS114" t="n">
         <v>0.43</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="AU114" t="n">
         <v>1.8</v>
@@ -23833,16 +23833,16 @@
         <v>2.1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AR115" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AU115" t="n">
         <v>3.11</v>
@@ -24036,16 +24036,16 @@
         <v>1.23</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR116" t="n">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AU116" t="n">
         <v>1.66</v>
@@ -24239,16 +24239,16 @@
         <v>6.75</v>
       </c>
       <c r="AQ117" t="n">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AR117" t="n">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU117" t="n">
         <v>2.9</v>
@@ -24442,16 +24442,16 @@
         <v>4.2</v>
       </c>
       <c r="AQ118" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AR118" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AU118" t="n">
         <v>2.69</v>
@@ -24645,16 +24645,16 @@
         <v>1.38</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="AR119" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU119" t="n">
         <v>1.64</v>
@@ -24848,16 +24848,16 @@
         <v>1.28</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR120" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AS120" t="n">
         <v>0.43</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AU120" t="n">
         <v>1.66</v>
@@ -25051,16 +25051,16 @@
         <v>1.03</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AR121" t="n">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.79</v>
+        <v>1.14</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AU121" t="n">
         <v>1.65</v>
@@ -25254,16 +25254,16 @@
         <v>2.5</v>
       </c>
       <c r="AQ122" t="n">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="AR122" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AU122" t="n">
         <v>2.51</v>
@@ -25457,16 +25457,16 @@
         <v>1.75</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="AR123" t="n">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="AU123" t="n">
         <v>1.88</v>
@@ -25660,16 +25660,16 @@
         <v>1.95</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="AR124" t="n">
-        <v>0.62</v>
+        <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AU124" t="n">
         <v>1.59</v>
@@ -25863,16 +25863,16 @@
         <v>1.83</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="AR125" t="n">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AU125" t="n">
         <v>1.44</v>
@@ -26066,16 +26066,16 @@
         <v>5.5</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="AR126" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="AU126" t="n">
         <v>2.62</v>
@@ -26269,16 +26269,16 @@
         <v>1.53</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AR127" t="n">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.57</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT18" t="n">
         <v>1.14</v>
@@ -6384,7 +6384,7 @@
         <v>2.43</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU29" t="n">
         <v>2.62</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT36" t="n">
         <v>0.5</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT40" t="n">
         <v>1.71</v>
@@ -10647,7 +10647,7 @@
         <v>1.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU50" t="n">
         <v>1.36</v>
@@ -12880,7 +12880,7 @@
         <v>1.13</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT68" t="n">
         <v>1.14</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT88" t="n">
         <v>0.71</v>
@@ -19579,7 +19579,7 @@
         <v>0.71</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU94" t="n">
         <v>1.51</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT106" t="n">
         <v>0.86</v>
@@ -22827,7 +22827,7 @@
         <v>1</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU110" t="n">
         <v>1.74</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -26330,6 +26330,209 @@
       </c>
       <c r="BK127" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2433114</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['5', '67']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>11</v>
+      </c>
+      <c r="R128" t="n">
+        <v>3</v>
+      </c>
+      <c r="S128" t="n">
+        <v>14</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V128" t="n">
+        <v>6</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.57</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT3" t="n">
         <v>2.29</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT5" t="n">
         <v>0.38</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>1.86</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0.71</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT21" t="n">
         <v>0.71</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT25" t="n">
         <v>2.29</v>
@@ -5978,7 +5978,7 @@
         <v>1.13</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT35" t="n">
         <v>0.43</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT37" t="n">
         <v>1.29</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT38" t="n">
         <v>1.86</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>0.5</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU46" t="n">
         <v>1.53</v>
@@ -10038,7 +10038,7 @@
         <v>0.43</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU49" t="n">
         <v>3.04</v>
@@ -10850,7 +10850,7 @@
         <v>1.57</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU51" t="n">
         <v>1.31</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT52" t="n">
         <v>0.86</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT54" t="n">
         <v>1.14</v>
@@ -11662,7 +11662,7 @@
         <v>2.43</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU55" t="n">
         <v>2.49</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
         <v>0.71</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT60" t="n">
         <v>0.5</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT62" t="n">
         <v>2.29</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT64" t="n">
         <v>2.29</v>
@@ -14098,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU67" t="n">
         <v>2.85</v>
@@ -14301,7 +14301,7 @@
         <v>2.75</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU68" t="n">
         <v>1.96</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT69" t="n">
         <v>0.43</v>
@@ -15110,10 +15110,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15316,7 +15316,7 @@
         <v>1.14</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU73" t="n">
         <v>1.52</v>
@@ -17546,7 +17546,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT84" t="n">
         <v>0.86</v>
@@ -17752,7 +17752,7 @@
         <v>1.13</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -17955,7 +17955,7 @@
         <v>0.43</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU86" t="n">
         <v>1.85</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT89" t="n">
         <v>1.86</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT90" t="n">
         <v>2.29</v>
@@ -19373,7 +19373,7 @@
         <v>2.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT93" t="n">
         <v>2.29</v>
@@ -20391,7 +20391,7 @@
         <v>1.14</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -20594,7 +20594,7 @@
         <v>1.57</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20797,7 +20797,7 @@
         <v>0.43</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU100" t="n">
         <v>1.83</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT105" t="n">
         <v>1.29</v>
@@ -22215,7 +22215,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT107" t="n">
         <v>0.43</v>
@@ -22624,7 +22624,7 @@
         <v>0.71</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU109" t="n">
         <v>1.56</v>
@@ -22824,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="AS110" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT110" t="n">
         <v>0.38</v>
@@ -23030,7 +23030,7 @@
         <v>1.5</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU111" t="n">
         <v>1.49</v>
@@ -23436,7 +23436,7 @@
         <v>2.75</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU113" t="n">
         <v>2.1</v>
@@ -24042,7 +24042,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>2.25</v>
@@ -24248,7 +24248,7 @@
         <v>2</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU117" t="n">
         <v>2.9</v>
@@ -25260,7 +25260,7 @@
         <v>2.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AT122" t="n">
         <v>2.25</v>
@@ -26278,7 +26278,7 @@
         <v>1.13</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26533,6 +26533,818 @@
       </c>
       <c r="BK128" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2433115</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44933.52083333334</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>3</v>
+      </c>
+      <c r="R129" t="n">
+        <v>7</v>
+      </c>
+      <c r="S129" t="n">
+        <v>10</v>
+      </c>
+      <c r="T129" t="n">
+        <v>3</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2433116</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44933.61458333334</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>7</v>
+      </c>
+      <c r="R130" t="n">
+        <v>4</v>
+      </c>
+      <c r="S130" t="n">
+        <v>11</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V130" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2433117</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44933.66666666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['21', '44']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>4</v>
+      </c>
+      <c r="R131" t="n">
+        <v>10</v>
+      </c>
+      <c r="S131" t="n">
+        <v>14</v>
+      </c>
+      <c r="T131" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X131" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2433118</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44933.70833333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>5</v>
+      </c>
+      <c r="R132" t="n">
+        <v>4</v>
+      </c>
+      <c r="S132" t="n">
+        <v>9</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V132" t="n">
+        <v>9</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X132" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK132"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.88</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.71</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT9" t="n">
         <v>1.14</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT11" t="n">
         <v>1.13</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>0.71</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU24" t="n">
         <v>1.06</v>
@@ -5572,7 +5572,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU25" t="n">
         <v>1.33</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU26" t="n">
         <v>1.17</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT32" t="n">
         <v>1.71</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT34" t="n">
         <v>2.25</v>
@@ -7602,7 +7602,7 @@
         <v>2.38</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU35" t="n">
         <v>1.82</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU41" t="n">
         <v>1.12</v>
@@ -9023,7 +9023,7 @@
         <v>1.13</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU42" t="n">
         <v>1.45</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT48" t="n">
         <v>1.14</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT50" t="n">
         <v>0.38</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
         <v>1.13</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -11862,7 +11862,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>1.29</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12271,7 +12271,7 @@
         <v>0.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU58" t="n">
         <v>1.55</v>
@@ -13083,7 +13083,7 @@
         <v>2.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU62" t="n">
         <v>2.81</v>
@@ -13489,7 +13489,7 @@
         <v>1.71</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU64" t="n">
         <v>2.46</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT65" t="n">
         <v>1.71</v>
@@ -14504,7 +14504,7 @@
         <v>0.88</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU69" t="n">
         <v>1.7</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT70" t="n">
         <v>1.86</v>
@@ -14907,10 +14907,10 @@
         <v>2.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15722,7 +15722,7 @@
         <v>0.43</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU75" t="n">
         <v>1.85</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT77" t="n">
         <v>0.5</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT80" t="n">
         <v>2.25</v>
@@ -17346,7 +17346,7 @@
         <v>1.14</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU83" t="n">
         <v>1.55</v>
@@ -17952,7 +17952,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT86" t="n">
         <v>1.13</v>
@@ -18361,7 +18361,7 @@
         <v>2.75</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU88" t="n">
         <v>2.01</v>
@@ -18767,7 +18767,7 @@
         <v>1.71</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU90" t="n">
         <v>2.32</v>
@@ -19376,7 +19376,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU93" t="n">
         <v>1.68</v>
@@ -19779,7 +19779,7 @@
         <v>3</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT95" t="n">
         <v>2.25</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT96" t="n">
         <v>1.14</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT98" t="n">
         <v>1.29</v>
@@ -20591,7 +20591,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT99" t="n">
         <v>1.29</v>
@@ -21609,7 +21609,7 @@
         <v>1.14</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU104" t="n">
         <v>1.63</v>
@@ -22218,7 +22218,7 @@
         <v>1.71</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU107" t="n">
         <v>2.09</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT108" t="n">
         <v>1.29</v>
@@ -23027,7 +23027,7 @@
         <v>1.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT111" t="n">
         <v>1.63</v>
@@ -23230,10 +23230,10 @@
         <v>0.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU112" t="n">
         <v>1.6</v>
@@ -23639,7 +23639,7 @@
         <v>0.43</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU114" t="n">
         <v>1.8</v>
@@ -25060,7 +25060,7 @@
         <v>1.14</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU121" t="n">
         <v>1.65</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT123" t="n">
         <v>0.86</v>
@@ -27345,6 +27345,818 @@
       </c>
       <c r="BK132" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2433119</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44934.34375</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>5</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2</v>
+      </c>
+      <c r="S133" t="n">
+        <v>7</v>
+      </c>
+      <c r="T133" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2433120</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44934.4375</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>1</v>
+      </c>
+      <c r="R134" t="n">
+        <v>9</v>
+      </c>
+      <c r="S134" t="n">
+        <v>10</v>
+      </c>
+      <c r="T134" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2433121</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44934.4375</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['8', '9', '74']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>7</v>
+      </c>
+      <c r="R135" t="n">
+        <v>4</v>
+      </c>
+      <c r="S135" t="n">
+        <v>11</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2433122</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44934.53125</v>
+      </c>
+      <c r="F136" t="n">
+        <v>15</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>4</v>
+      </c>
+      <c r="R136" t="n">
+        <v>6</v>
+      </c>
+      <c r="S136" t="n">
+        <v>10</v>
+      </c>
+      <c r="T136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT2" t="n">
         <v>1.29</v>
@@ -1309,7 +1309,7 @@
         <v>0.38</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT8" t="n">
         <v>2.13</v>
@@ -2324,7 +2324,7 @@
         <v>1.13</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.14</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT17" t="n">
         <v>0.63</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT20" t="n">
         <v>1.63</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT24" t="n">
         <v>2.13</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU28" t="n">
         <v>1.02</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT30" t="n">
         <v>1.14</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7399,7 +7399,7 @@
         <v>0.38</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU34" t="n">
         <v>3.19</v>
@@ -7805,7 +7805,7 @@
         <v>2.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU36" t="n">
         <v>2.34</v>
@@ -8008,7 +8008,7 @@
         <v>1.71</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT39" t="n">
         <v>0.71</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT41" t="n">
         <v>0.75</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU43" t="n">
         <v>1.3</v>
@@ -9429,7 +9429,7 @@
         <v>1.14</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT47" t="n">
         <v>1.29</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT49" t="n">
         <v>1.63</v>
@@ -11053,7 +11053,7 @@
         <v>2.38</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU52" t="n">
         <v>2.55</v>
@@ -11459,7 +11459,7 @@
         <v>1.71</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU54" t="n">
         <v>2.99</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT57" t="n">
         <v>0.63</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT58" t="n">
         <v>0.75</v>
@@ -12677,7 +12677,7 @@
         <v>0.88</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -13283,10 +13283,10 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU63" t="n">
         <v>1.61</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU66" t="n">
         <v>1.22</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT67" t="n">
         <v>1.29</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU74" t="n">
         <v>1.26</v>
@@ -15719,7 +15719,7 @@
         <v>2.25</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT75" t="n">
         <v>2.13</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT76" t="n">
         <v>0.38</v>
@@ -16128,7 +16128,7 @@
         <v>1.13</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU77" t="n">
         <v>1.77</v>
@@ -16534,7 +16534,7 @@
         <v>2.43</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU79" t="n">
         <v>2.54</v>
@@ -16737,7 +16737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.61</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT81" t="n">
         <v>1.71</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT82" t="n">
         <v>1.14</v>
@@ -17549,7 +17549,7 @@
         <v>0.88</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU84" t="n">
         <v>1.86</v>
@@ -18155,10 +18155,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18967,10 +18967,10 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU91" t="n">
         <v>2.88</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT94" t="n">
         <v>0.38</v>
@@ -19782,7 +19782,7 @@
         <v>1.71</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.62</v>
@@ -19985,7 +19985,7 @@
         <v>0.38</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU96" t="n">
         <v>1.71</v>
@@ -20794,7 +20794,7 @@
         <v>1.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT100" t="n">
         <v>1.63</v>
@@ -20997,7 +20997,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT101" t="n">
         <v>1.86</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT102" t="n">
         <v>1.14</v>
@@ -21406,7 +21406,7 @@
         <v>1.13</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU103" t="n">
         <v>1.77</v>
@@ -21812,7 +21812,7 @@
         <v>2.38</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU105" t="n">
         <v>2.62</v>
@@ -22015,7 +22015,7 @@
         <v>2.75</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU106" t="n">
         <v>2.11</v>
@@ -22421,7 +22421,7 @@
         <v>0.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT109" t="n">
         <v>1.29</v>
@@ -23636,7 +23636,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT114" t="n">
         <v>2.13</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT115" t="n">
         <v>1.71</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU116" t="n">
         <v>1.66</v>
@@ -24245,7 +24245,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT117" t="n">
         <v>1.13</v>
@@ -24651,10 +24651,10 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU119" t="n">
         <v>1.64</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT120" t="n">
         <v>1.86</v>
@@ -25263,7 +25263,7 @@
         <v>2.38</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU122" t="n">
         <v>2.51</v>
@@ -25466,7 +25466,7 @@
         <v>1.13</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU123" t="n">
         <v>1.88</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT124" t="n">
         <v>0.71</v>
@@ -26075,7 +26075,7 @@
         <v>2.43</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU126" t="n">
         <v>2.62</v>
@@ -28157,6 +28157,1021 @@
       </c>
       <c r="BK136" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2433127</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44940.61458333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['69', '81']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>9</v>
+      </c>
+      <c r="R137" t="n">
+        <v>4</v>
+      </c>
+      <c r="S137" t="n">
+        <v>13</v>
+      </c>
+      <c r="T137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2433123</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44940.61458333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['33', '46']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>3</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1</v>
+      </c>
+      <c r="S138" t="n">
+        <v>4</v>
+      </c>
+      <c r="T138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2433125</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44940.70833333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>6</v>
+      </c>
+      <c r="R139" t="n">
+        <v>3</v>
+      </c>
+      <c r="S139" t="n">
+        <v>9</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2433126</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44940.70833333334</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>3</v>
+      </c>
+      <c r="R140" t="n">
+        <v>5</v>
+      </c>
+      <c r="S140" t="n">
+        <v>8</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V140" t="n">
+        <v>7</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X140" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2433128</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44941.34375</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>11</v>
+      </c>
+      <c r="R141" t="n">
+        <v>4</v>
+      </c>
+      <c r="S141" t="n">
+        <v>15</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT3" t="n">
         <v>2.13</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT7" t="n">
         <v>0.75</v>
@@ -2121,7 +2121,7 @@
         <v>0.75</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT23" t="n">
         <v>1.29</v>
@@ -5572,7 +5572,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU25" t="n">
         <v>1.33</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT27" t="n">
         <v>1.29</v>
@@ -6993,7 +6993,7 @@
         <v>1.71</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU32" t="n">
         <v>1.54</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU38" t="n">
         <v>1.65</v>
@@ -8414,7 +8414,7 @@
         <v>1.88</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>3.33</v>
@@ -8617,7 +8617,7 @@
         <v>2.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU42" t="n">
         <v>1.45</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT44" t="n">
         <v>2.33</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT46" t="n">
         <v>1.13</v>
@@ -12474,7 +12474,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU59" t="n">
         <v>1.74</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT60" t="n">
         <v>0.44</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT61" t="n">
         <v>0.38</v>
@@ -13083,7 +13083,7 @@
         <v>2.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU62" t="n">
         <v>2.81</v>
@@ -13692,7 +13692,7 @@
         <v>0.38</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU65" t="n">
         <v>2</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT66" t="n">
         <v>2.33</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT69" t="n">
         <v>0.75</v>
@@ -14707,7 +14707,7 @@
         <v>1.71</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU70" t="n">
         <v>1.52</v>
@@ -14910,7 +14910,7 @@
         <v>1.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT73" t="n">
         <v>1.63</v>
@@ -15516,7 +15516,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT74" t="n">
         <v>0.75</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU78" t="n">
         <v>1.63</v>
@@ -16940,7 +16940,7 @@
         <v>1.38</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU81" t="n">
         <v>1.6</v>
@@ -17343,7 +17343,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT83" t="n">
         <v>0.75</v>
@@ -17546,7 +17546,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT84" t="n">
         <v>0.75</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT85" t="n">
         <v>1.63</v>
@@ -18564,7 +18564,7 @@
         <v>2.38</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU89" t="n">
         <v>2.84</v>
@@ -18767,7 +18767,7 @@
         <v>1.71</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU90" t="n">
         <v>2.32</v>
@@ -20185,10 +20185,10 @@
         <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU97" t="n">
         <v>1.39</v>
@@ -21000,7 +21000,7 @@
         <v>1.38</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21403,7 +21403,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT103" t="n">
         <v>0.44</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT104" t="n">
         <v>0.63</v>
@@ -22824,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT110" t="n">
         <v>0.38</v>
@@ -23639,7 +23639,7 @@
         <v>0.75</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU114" t="n">
         <v>1.8</v>
@@ -23842,7 +23842,7 @@
         <v>1.88</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU115" t="n">
         <v>3.11</v>
@@ -24451,7 +24451,7 @@
         <v>2.43</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU118" t="n">
         <v>2.69</v>
@@ -24857,7 +24857,7 @@
         <v>0.75</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU120" t="n">
         <v>1.66</v>
@@ -25057,7 +25057,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT121" t="n">
         <v>2.13</v>
@@ -25669,7 +25669,7 @@
         <v>1.38</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU124" t="n">
         <v>1.59</v>
@@ -25869,7 +25869,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT125" t="n">
         <v>1.14</v>
@@ -26275,7 +26275,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT127" t="n">
         <v>1.13</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT131" t="n">
         <v>1.29</v>
@@ -27496,7 +27496,7 @@
         <v>1.5</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU133" t="n">
         <v>1.59</v>
@@ -29162,16 +29162,828 @@
         <v>5</v>
       </c>
       <c r="BH141" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2433129</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44941.4375</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['45+1', '90+9']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['65', '76']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>1</v>
+      </c>
+      <c r="R142" t="n">
+        <v>10</v>
+      </c>
+      <c r="S142" t="n">
+        <v>11</v>
+      </c>
+      <c r="T142" t="n">
+        <v>7</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2433130</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44941.4375</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['10', '90']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['3', '13']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>5</v>
+      </c>
+      <c r="R143" t="n">
+        <v>7</v>
+      </c>
+      <c r="S143" t="n">
+        <v>12</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG143" t="n">
         <v>8</v>
       </c>
-      <c r="BI141" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ141" t="n">
+      <c r="BH143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2433131</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44941.53125</v>
+      </c>
+      <c r="F144" t="n">
         <v>16</v>
       </c>
-      <c r="BK141" t="n">
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>6</v>
+      </c>
+      <c r="R144" t="n">
+        <v>7</v>
+      </c>
+      <c r="S144" t="n">
+        <v>13</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2433124</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44941.53125</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['19', '30', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>2</v>
+      </c>
+      <c r="R145" t="n">
+        <v>13</v>
+      </c>
+      <c r="S145" t="n">
+        <v>15</v>
+      </c>
+      <c r="T145" t="n">
+        <v>6</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC145" t="n">
         <v>5</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>0.88</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT11" t="n">
         <v>1.13</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT32" t="n">
         <v>1.63</v>
@@ -7602,7 +7602,7 @@
         <v>2.38</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU35" t="n">
         <v>1.82</v>
@@ -8820,7 +8820,7 @@
         <v>2.11</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.12</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT50" t="n">
         <v>0.38</v>
@@ -12271,7 +12271,7 @@
         <v>0.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU58" t="n">
         <v>1.55</v>
@@ -14504,7 +14504,7 @@
         <v>0.89</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU69" t="n">
         <v>1.7</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT70" t="n">
         <v>1.75</v>
@@ -17346,7 +17346,7 @@
         <v>1.13</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU83" t="n">
         <v>1.55</v>
@@ -19779,7 +19779,7 @@
         <v>3</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT95" t="n">
         <v>2.33</v>
@@ -22218,7 +22218,7 @@
         <v>1.71</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU107" t="n">
         <v>2.09</v>
@@ -23027,7 +23027,7 @@
         <v>1.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT111" t="n">
         <v>1.63</v>
@@ -27902,7 +27902,7 @@
         <v>0.38</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28102,7 +28102,7 @@
         <v>0.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT136" t="n">
         <v>0.63</v>
@@ -29984,6 +29984,209 @@
       </c>
       <c r="BK145" t="n">
         <v>29</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2433132</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44946.66666666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['18', '80']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>7</v>
+      </c>
+      <c r="R146" t="n">
+        <v>4</v>
+      </c>
+      <c r="S146" t="n">
+        <v>11</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.89</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT4" t="n">
         <v>0.44</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
         <v>1.13</v>
@@ -2730,7 +2730,7 @@
         <v>1.88</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT15" t="n">
         <v>1.63</v>
@@ -3948,7 +3948,7 @@
         <v>1.88</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT18" t="n">
         <v>1.14</v>
@@ -4963,7 +4963,7 @@
         <v>1.13</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5369,7 +5369,7 @@
         <v>2.11</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.06</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU26" t="n">
         <v>1.17</v>
@@ -5978,7 +5978,7 @@
         <v>1.11</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU29" t="n">
         <v>2.62</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT30" t="n">
         <v>1.14</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT34" t="n">
         <v>2.33</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT35" t="n">
         <v>0.67</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT36" t="n">
         <v>0.44</v>
@@ -8211,7 +8211,7 @@
         <v>0.89</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU38" t="n">
         <v>1.65</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT40" t="n">
         <v>1.63</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT45" t="n">
         <v>1.25</v>
@@ -9835,7 +9835,7 @@
         <v>0.88</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.53</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT48" t="n">
         <v>1.14</v>
@@ -10647,7 +10647,7 @@
         <v>1.88</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU50" t="n">
         <v>1.36</v>
@@ -10850,7 +10850,7 @@
         <v>1.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.31</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT52" t="n">
         <v>0.75</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -11659,10 +11659,10 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>2.49</v>
@@ -12068,7 +12068,7 @@
         <v>2.11</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12880,7 +12880,7 @@
         <v>1.11</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT62" t="n">
         <v>2.22</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT63" t="n">
         <v>1.13</v>
@@ -13489,7 +13489,7 @@
         <v>1.71</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>2.46</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT65" t="n">
         <v>1.63</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.96</v>
@@ -14707,7 +14707,7 @@
         <v>1.88</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU70" t="n">
         <v>1.52</v>
@@ -14907,7 +14907,7 @@
         <v>2.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT71" t="n">
         <v>2.22</v>
@@ -15113,7 +15113,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15722,7 +15722,7 @@
         <v>0.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU75" t="n">
         <v>1.85</v>
@@ -15925,7 +15925,7 @@
         <v>2.11</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT77" t="n">
         <v>0.44</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT79" t="n">
         <v>1.13</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT81" t="n">
         <v>1.63</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.85</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU88" t="n">
         <v>2.01</v>
@@ -18561,10 +18561,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU89" t="n">
         <v>2.84</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT92" t="n">
         <v>1.14</v>
@@ -19376,7 +19376,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU93" t="n">
         <v>1.68</v>
@@ -19579,7 +19579,7 @@
         <v>0.75</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU94" t="n">
         <v>1.51</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT96" t="n">
         <v>1.13</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT98" t="n">
         <v>1.29</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20997,10 +20997,10 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21609,7 +21609,7 @@
         <v>1.13</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU104" t="n">
         <v>1.63</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT105" t="n">
         <v>1.25</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT106" t="n">
         <v>0.75</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT108" t="n">
         <v>1.25</v>
@@ -22624,7 +22624,7 @@
         <v>0.75</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.56</v>
@@ -22827,7 +22827,7 @@
         <v>0.89</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.74</v>
@@ -23233,7 +23233,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU112" t="n">
         <v>1.6</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT113" t="n">
         <v>1.29</v>
@@ -24248,7 +24248,7 @@
         <v>1.88</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU117" t="n">
         <v>2.9</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT118" t="n">
         <v>0.75</v>
@@ -24857,7 +24857,7 @@
         <v>0.75</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU120" t="n">
         <v>1.66</v>
@@ -25060,7 +25060,7 @@
         <v>1.13</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU121" t="n">
         <v>1.65</v>
@@ -25260,7 +25260,7 @@
         <v>2.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT122" t="n">
         <v>2.33</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT123" t="n">
         <v>0.75</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT124" t="n">
         <v>0.75</v>
@@ -26072,7 +26072,7 @@
         <v>0.57</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT126" t="n">
         <v>0.44</v>
@@ -26278,7 +26278,7 @@
         <v>1.11</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26478,10 +26478,10 @@
         <v>0.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU128" t="n">
         <v>2.1</v>
@@ -26887,7 +26887,7 @@
         <v>1.71</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.98</v>
@@ -27290,10 +27290,10 @@
         <v>1.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU132" t="n">
         <v>2.35</v>
@@ -27696,10 +27696,10 @@
         <v>2.29</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU134" t="n">
         <v>2.06</v>
@@ -27899,7 +27899,7 @@
         <v>0.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT135" t="n">
         <v>0.67</v>
@@ -28105,7 +28105,7 @@
         <v>1.88</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU136" t="n">
         <v>1.5</v>
@@ -28508,7 +28508,7 @@
         <v>2.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT138" t="n">
         <v>2.33</v>
@@ -29526,7 +29526,7 @@
         <v>1.11</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU143" t="n">
         <v>1.65</v>
@@ -30187,6 +30187,1224 @@
       </c>
       <c r="BK146" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2433133</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44947.61458333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>4</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['12', '35', '52']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>9</v>
+      </c>
+      <c r="R147" t="n">
+        <v>5</v>
+      </c>
+      <c r="S147" t="n">
+        <v>14</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V147" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2433134</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44947.66666666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>3</v>
+      </c>
+      <c r="R148" t="n">
+        <v>4</v>
+      </c>
+      <c r="S148" t="n">
+        <v>7</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V148" t="n">
+        <v>8</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X148" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2433135</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44947.66666666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['9', '18', '51']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>6</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>8</v>
+      </c>
+      <c r="T149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V149" t="n">
+        <v>3</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2433137</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44948.34375</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2</v>
+      </c>
+      <c r="L150" t="n">
+        <v>3</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>4</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['5', '81', '82']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>7</v>
+      </c>
+      <c r="R150" t="n">
+        <v>5</v>
+      </c>
+      <c r="S150" t="n">
+        <v>12</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V150" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2433138</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44948.4375</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>2</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['45+1', '64']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>4</v>
+      </c>
+      <c r="R151" t="n">
+        <v>4</v>
+      </c>
+      <c r="S151" t="n">
+        <v>8</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2433139</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44948.4375</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>7</v>
+      </c>
+      <c r="R152" t="n">
+        <v>6</v>
+      </c>
+      <c r="S152" t="n">
+        <v>13</v>
+      </c>
+      <c r="T152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT10" t="n">
         <v>1.29</v>
@@ -4151,7 +4151,7 @@
         <v>2.78</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.56</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.2</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT37" t="n">
         <v>1.25</v>
@@ -10241,7 +10241,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT54" t="n">
         <v>1.13</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT64" t="n">
         <v>2</v>
@@ -17143,7 +17143,7 @@
         <v>0.75</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT90" t="n">
         <v>2.22</v>
@@ -19173,7 +19173,7 @@
         <v>2.25</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>2.48</v>
@@ -21203,7 +21203,7 @@
         <v>2.11</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.56</v>
@@ -22215,7 +22215,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT107" t="n">
         <v>0.67</v>
@@ -25872,7 +25872,7 @@
         <v>0.88</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.44</v>
@@ -26884,7 +26884,7 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -31405,6 +31405,209 @@
       </c>
       <c r="BK152" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2433140</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44948.53125</v>
+      </c>
+      <c r="F153" t="n">
+        <v>17</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3</v>
+      </c>
+      <c r="L153" t="n">
+        <v>3</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>4</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['4', '24', '56']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>6</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2</v>
+      </c>
+      <c r="S153" t="n">
+        <v>8</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V153" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>1.11</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
         <v>2.33</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT22" t="n">
         <v>1.56</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -6181,7 +6181,7 @@
         <v>0.75</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU28" t="n">
         <v>1.02</v>
@@ -6993,7 +6993,7 @@
         <v>1.88</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU32" t="n">
         <v>1.54</v>
@@ -8617,7 +8617,7 @@
         <v>2.78</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="n">
         <v>0.67</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT44" t="n">
         <v>2.33</v>
@@ -11053,7 +11053,7 @@
         <v>2.44</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU52" t="n">
         <v>2.55</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
         <v>0.5600000000000001</v>
@@ -13692,7 +13692,7 @@
         <v>0.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU65" t="n">
         <v>2</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT73" t="n">
         <v>1.63</v>
@@ -15519,7 +15519,7 @@
         <v>0.88</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU74" t="n">
         <v>1.26</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
         <v>0.33</v>
@@ -16940,7 +16940,7 @@
         <v>1.56</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU81" t="n">
         <v>1.6</v>
@@ -17343,7 +17343,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT83" t="n">
         <v>0.67</v>
@@ -17549,7 +17549,7 @@
         <v>0.89</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU84" t="n">
         <v>1.86</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>1.25</v>
@@ -20188,7 +20188,7 @@
         <v>0.88</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU97" t="n">
         <v>1.39</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT104" t="n">
         <v>0.5600000000000001</v>
@@ -22015,7 +22015,7 @@
         <v>2.78</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU106" t="n">
         <v>2.11</v>
@@ -23842,7 +23842,7 @@
         <v>1.88</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU115" t="n">
         <v>3.11</v>
@@ -24651,7 +24651,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT119" t="n">
         <v>1.13</v>
@@ -25057,7 +25057,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT121" t="n">
         <v>2</v>
@@ -25466,7 +25466,7 @@
         <v>1.33</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU123" t="n">
         <v>1.88</v>
@@ -25525,7 +25525,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>2433112</v>
+        <v>2433106</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -25545,77 +25545,77 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
         <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N124" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>['36', '81']</t>
+          <t>['45', '90+1']</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['78', '84', '90+5']</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R124" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S124" t="n">
         <v>9</v>
       </c>
       <c r="T124" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="U124" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V124" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W124" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X124" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y124" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="Z124" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AA124" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB124" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC124" t="n">
         <v>1.91</v>
@@ -25630,97 +25630,97 @@
         <v>1.04</v>
       </c>
       <c r="AG124" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH124" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AI124" t="n">
-        <v>4.1</v>
+        <v>3.67</v>
       </c>
       <c r="AJ124" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AK124" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="AL124" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AM124" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AN124" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AO124" t="n">
         <v>1.25</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR124" t="n">
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.56</v>
+        <v>0.88</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="AV124" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="AW124" t="n">
-        <v>2.84</v>
+        <v>2.47</v>
       </c>
       <c r="AX124" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AY124" t="n">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ124" t="n">
-        <v>4.16</v>
+        <v>3.68</v>
       </c>
       <c r="BA124" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BB124" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BC124" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="BD124" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BE124" t="n">
-        <v>2.47</v>
+        <v>2.77</v>
       </c>
       <c r="BF124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG124" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH124" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BI124" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ124" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK124" t="n">
         <v>16</v>
-      </c>
-      <c r="BK124" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -25728,7 +25728,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>2433106</v>
+        <v>2433112</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -25748,77 +25748,77 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L125" t="n">
         <v>2</v>
       </c>
       <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
         <v>3</v>
       </c>
-      <c r="N125" t="n">
-        <v>5</v>
-      </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>['45', '90+1']</t>
+          <t>['36', '81']</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>['78', '84', '90+5']</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R125" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S125" t="n">
         <v>9</v>
       </c>
       <c r="T125" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="U125" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V125" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W125" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X125" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y125" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Z125" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AA125" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB125" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AC125" t="n">
         <v>1.91</v>
@@ -25833,97 +25833,97 @@
         <v>1.04</v>
       </c>
       <c r="AG125" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH125" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AI125" t="n">
-        <v>3.67</v>
+        <v>4.1</v>
       </c>
       <c r="AJ125" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AK125" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="AL125" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AM125" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AN125" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AO125" t="n">
         <v>1.25</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR125" t="n">
         <v>0.83</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.88</v>
+        <v>1.56</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU125" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="AV125" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AW125" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE125" t="n">
         <v>2.47</v>
       </c>
-      <c r="AX125" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AY125" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ125" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="BA125" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB125" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BC125" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BD125" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE125" t="n">
-        <v>2.77</v>
-      </c>
       <c r="BF125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG125" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH125" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK125" t="n">
         <v>8</v>
-      </c>
-      <c r="BI125" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ125" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK125" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="126">
@@ -28308,7 +28308,7 @@
         <v>0.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU137" t="n">
         <v>1.6</v>
@@ -28570,7 +28570,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>2433125</v>
+        <v>2433126</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -28590,12 +28590,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -28608,17 +28608,17 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -28627,67 +28627,67 @@
         </is>
       </c>
       <c r="Q139" t="n">
+        <v>3</v>
+      </c>
+      <c r="R139" t="n">
+        <v>5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>8</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V139" t="n">
+        <v>7</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X139" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD139" t="n">
         <v>6</v>
       </c>
-      <c r="R139" t="n">
-        <v>3</v>
-      </c>
-      <c r="S139" t="n">
-        <v>9</v>
-      </c>
-      <c r="T139" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U139" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V139" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W139" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X139" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y139" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z139" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA139" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB139" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC139" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD139" t="n">
-        <v>4.1</v>
-      </c>
       <c r="AE139" t="n">
-        <v>4.7</v>
+        <v>13</v>
       </c>
       <c r="AF139" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG139" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AH139" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AI139" t="n">
-        <v>4.65</v>
+        <v>6.28</v>
       </c>
       <c r="AJ139" t="n">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="AK139" t="n">
-        <v>2.38</v>
+        <v>3.33</v>
       </c>
       <c r="AL139" t="n">
         <v>1.7</v>
@@ -28696,43 +28696,43 @@
         <v>2.05</v>
       </c>
       <c r="AN139" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR139" t="n">
         <v>1.14</v>
       </c>
-      <c r="AO139" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AP139" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AQ139" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR139" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AS139" t="n">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.44</v>
+        <v>1.13</v>
       </c>
       <c r="AU139" t="n">
-        <v>1.58</v>
+        <v>3.01</v>
       </c>
       <c r="AV139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AX139" t="n">
         <v>1.11</v>
       </c>
-      <c r="AW139" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AX139" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AY139" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ139" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="BA139" t="n">
         <v>1.2</v>
@@ -28753,19 +28753,19 @@
         <v>6</v>
       </c>
       <c r="BG139" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH139" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BI139" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BJ139" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BK139" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140">
@@ -28773,7 +28773,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>2433126</v>
+        <v>2433125</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -28793,12 +28793,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -28811,86 +28811,86 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M140" t="n">
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q140" t="n">
+        <v>6</v>
+      </c>
+      <c r="R140" t="n">
         <v>3</v>
       </c>
-      <c r="R140" t="n">
-        <v>5</v>
-      </c>
       <c r="S140" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T140" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="U140" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="V140" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="W140" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="X140" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Y140" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="Z140" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AA140" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AB140" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AC140" t="n">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AD140" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="AE140" t="n">
-        <v>13</v>
+        <v>4.7</v>
       </c>
       <c r="AF140" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG140" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AH140" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AI140" t="n">
-        <v>6.28</v>
+        <v>4.65</v>
       </c>
       <c r="AJ140" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="AK140" t="n">
-        <v>3.33</v>
+        <v>2.38</v>
       </c>
       <c r="AL140" t="n">
         <v>1.7</v>
@@ -28899,43 +28899,43 @@
         <v>2.05</v>
       </c>
       <c r="AN140" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AO140" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AP140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ140" t="n">
         <v>3.5</v>
-      </c>
-      <c r="AQ140" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR140" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AS140" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AT140" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU140" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AV140" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AW140" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="AX140" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AY140" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ140" t="n">
-        <v>8.5</v>
       </c>
       <c r="BA140" t="n">
         <v>1.2</v>
@@ -28956,19 +28956,19 @@
         <v>6</v>
       </c>
       <c r="BG140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI140" t="n">
         <v>6</v>
       </c>
-      <c r="BH140" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI140" t="n">
-        <v>16</v>
-      </c>
       <c r="BJ140" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BK140" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
@@ -29323,7 +29323,7 @@
         <v>0.89</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -29585,7 +29585,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>2433131</v>
+        <v>2433124</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -29605,31 +29605,31 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -29638,149 +29638,149 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19', '30', '90+1']</t>
         </is>
       </c>
       <c r="Q144" t="n">
+        <v>2</v>
+      </c>
+      <c r="R144" t="n">
+        <v>13</v>
+      </c>
+      <c r="S144" t="n">
+        <v>15</v>
+      </c>
+      <c r="T144" t="n">
         <v>6</v>
       </c>
-      <c r="R144" t="n">
-        <v>7</v>
-      </c>
-      <c r="S144" t="n">
+      <c r="U144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG144" t="n">
         <v>13</v>
       </c>
-      <c r="T144" t="n">
+      <c r="AH144" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE144" t="n">
         <v>2.75</v>
       </c>
-      <c r="U144" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V144" t="n">
+      <c r="BF144" t="n">
         <v>4</v>
       </c>
-      <c r="W144" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X144" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y144" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z144" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA144" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB144" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC144" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AD144" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AE144" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AF144" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG144" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH144" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI144" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ144" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK144" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AL144" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM144" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN144" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO144" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP144" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AQ144" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AR144" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AS144" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AT144" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AU144" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AV144" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AW144" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AX144" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AY144" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ144" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BA144" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB144" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BC144" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="BD144" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BE144" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BF144" t="n">
-        <v>6</v>
-      </c>
       <c r="BG144" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BH144" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI144" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BJ144" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BK144" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
@@ -29788,7 +29788,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>2433124</v>
+        <v>2433131</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -29808,182 +29808,182 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
       </c>
       <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>6</v>
+      </c>
+      <c r="R145" t="n">
+        <v>7</v>
+      </c>
+      <c r="S145" t="n">
+        <v>13</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V145" t="n">
+        <v>4</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG145" t="n">
         <v>3</v>
       </c>
-      <c r="N145" t="n">
-        <v>3</v>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>['19', '30', '90+1']</t>
-        </is>
-      </c>
-      <c r="Q145" t="n">
-        <v>2</v>
-      </c>
-      <c r="R145" t="n">
-        <v>13</v>
-      </c>
-      <c r="S145" t="n">
-        <v>15</v>
-      </c>
-      <c r="T145" t="n">
-        <v>6</v>
-      </c>
-      <c r="U145" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V145" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W145" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X145" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z145" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA145" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB145" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC145" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD145" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AE145" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AF145" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG145" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH145" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI145" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AJ145" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AK145" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AL145" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM145" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN145" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AO145" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP145" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AQ145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR145" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AS145" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AT145" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU145" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AV145" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AW145" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AX145" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AY145" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ145" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BA145" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB145" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BC145" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BD145" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="BE145" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BF145" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG145" t="n">
+      <c r="BH145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK145" t="n">
         <v>11</v>
-      </c>
-      <c r="BH145" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI145" t="n">
-        <v>18</v>
-      </c>
-      <c r="BJ145" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK145" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="146">
@@ -31006,7 +31006,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>2433138</v>
+        <v>2433139</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -31026,12 +31026,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -31044,71 +31044,71 @@
         <v>1</v>
       </c>
       <c r="L151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151" t="n">
         <v>2</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>['45+1', '64']</t>
+          <t>['34']</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['71']</t>
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R151" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S151" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T151" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="U151" t="n">
         <v>2.38</v>
       </c>
       <c r="V151" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="W151" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X151" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y151" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z151" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA151" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB151" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AC151" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="AD151" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="AE151" t="n">
-        <v>4.05</v>
+        <v>2.09</v>
       </c>
       <c r="AF151" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG151" t="n">
         <v>12</v>
@@ -31117,91 +31117,91 @@
         <v>1.18</v>
       </c>
       <c r="AI151" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AJ151" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AK151" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR151" t="n">
         <v>2.13</v>
       </c>
-      <c r="AL151" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM151" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN151" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO151" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP151" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ151" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AR151" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AS151" t="n">
-        <v>2.78</v>
+        <v>2.25</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AU151" t="n">
-        <v>2.11</v>
+        <v>2.65</v>
       </c>
       <c r="AV151" t="n">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="AW151" t="n">
-        <v>3.75</v>
+        <v>4.73</v>
       </c>
       <c r="AX151" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AY151" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ151" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="BA151" t="n">
         <v>1.2</v>
       </c>
       <c r="BB151" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="BC151" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="BD151" t="n">
-        <v>1.99</v>
+        <v>2.17</v>
       </c>
       <c r="BE151" t="n">
-        <v>2.59</v>
+        <v>2.89</v>
       </c>
       <c r="BF151" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG151" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH151" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI151" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ151" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BK151" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -31209,7 +31209,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>2433139</v>
+        <v>2433138</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -31229,12 +31229,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="I152" t="n">
@@ -31247,71 +31247,71 @@
         <v>1</v>
       </c>
       <c r="L152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152" t="n">
         <v>2</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>['34']</t>
+          <t>['45+1', '64']</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>['71']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R152" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S152" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T152" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="U152" t="n">
         <v>2.38</v>
       </c>
       <c r="V152" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="W152" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X152" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y152" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z152" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA152" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB152" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC152" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="AD152" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AE152" t="n">
-        <v>2.09</v>
+        <v>4.05</v>
       </c>
       <c r="AF152" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG152" t="n">
         <v>12</v>
@@ -31320,91 +31320,91 @@
         <v>1.18</v>
       </c>
       <c r="AI152" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ152" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="AK152" t="n">
-        <v>2.39</v>
+        <v>2.13</v>
       </c>
       <c r="AL152" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AM152" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AN152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT152" t="n">
         <v>1.56</v>
       </c>
-      <c r="AO152" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP152" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AQ152" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AR152" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AS152" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AT152" t="n">
-        <v>2</v>
-      </c>
       <c r="AU152" t="n">
-        <v>2.65</v>
+        <v>2.11</v>
       </c>
       <c r="AV152" t="n">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="AW152" t="n">
-        <v>4.73</v>
+        <v>3.75</v>
       </c>
       <c r="AX152" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AY152" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ152" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="BA152" t="n">
         <v>1.2</v>
       </c>
       <c r="BB152" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="BC152" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="BD152" t="n">
-        <v>2.17</v>
+        <v>1.99</v>
       </c>
       <c r="BE152" t="n">
-        <v>2.89</v>
+        <v>2.59</v>
       </c>
       <c r="BF152" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI152" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ152" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BK152" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
@@ -31608,6 +31608,412 @@
       </c>
       <c r="BK153" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2433141</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44950.61458333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>5</v>
+      </c>
+      <c r="R154" t="n">
+        <v>6</v>
+      </c>
+      <c r="S154" t="n">
+        <v>11</v>
+      </c>
+      <c r="T154" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V154" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2433142</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44950.70833333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>2</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>5</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V155" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT3" t="n">
         <v>2</v>
@@ -1309,7 +1309,7 @@
         <v>0.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT8" t="n">
         <v>2.22</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1.44</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>0.75</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT28" t="n">
         <v>0.78</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT29" t="n">
         <v>0.33</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -7196,7 +7196,7 @@
         <v>0.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7399,7 +7399,7 @@
         <v>0.33</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU34" t="n">
         <v>3.19</v>
@@ -7805,7 +7805,7 @@
         <v>2.78</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU36" t="n">
         <v>2.34</v>
@@ -8008,7 +8008,7 @@
         <v>1.88</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT38" t="n">
         <v>1.56</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
         <v>2.22</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU43" t="n">
         <v>1.3</v>
@@ -9429,7 +9429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -9632,7 +9632,7 @@
         <v>1.56</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -10444,7 +10444,7 @@
         <v>1.88</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU49" t="n">
         <v>3.04</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>1.88</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU54" t="n">
         <v>2.99</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT55" t="n">
         <v>1.5</v>
@@ -11862,10 +11862,10 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT58" t="n">
         <v>0.67</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
         <v>0.33</v>
@@ -13286,7 +13286,7 @@
         <v>1.56</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU63" t="n">
         <v>1.61</v>
@@ -13895,7 +13895,7 @@
         <v>0.88</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU66" t="n">
         <v>1.22</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT69" t="n">
         <v>0.67</v>
@@ -15316,7 +15316,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU73" t="n">
         <v>1.52</v>
@@ -16128,7 +16128,7 @@
         <v>1.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU77" t="n">
         <v>1.77</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
         <v>0.75</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU79" t="n">
         <v>2.54</v>
@@ -16734,10 +16734,10 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU80" t="n">
         <v>1.61</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17546,7 +17546,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT84" t="n">
         <v>0.78</v>
@@ -17749,10 +17749,10 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18970,7 +18970,7 @@
         <v>1.88</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU91" t="n">
         <v>2.88</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT92" t="n">
         <v>1</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT94" t="n">
         <v>0.33</v>
@@ -19782,7 +19782,7 @@
         <v>1.88</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU95" t="n">
         <v>1.62</v>
@@ -19985,7 +19985,7 @@
         <v>0.33</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU96" t="n">
         <v>1.71</v>
@@ -20591,7 +20591,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT99" t="n">
         <v>1.5</v>
@@ -20797,7 +20797,7 @@
         <v>0.75</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU100" t="n">
         <v>1.83</v>
@@ -21403,10 +21403,10 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU103" t="n">
         <v>1.77</v>
@@ -21812,7 +21812,7 @@
         <v>2.44</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU105" t="n">
         <v>2.62</v>
@@ -22421,7 +22421,7 @@
         <v>0.33</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT109" t="n">
         <v>1.5</v>
@@ -22824,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT110" t="n">
         <v>0.33</v>
@@ -23030,7 +23030,7 @@
         <v>1.88</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU111" t="n">
         <v>1.49</v>
@@ -23230,7 +23230,7 @@
         <v>0.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
         <v>0.5600000000000001</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU116" t="n">
         <v>1.66</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT118" t="n">
         <v>0.75</v>
@@ -24654,7 +24654,7 @@
         <v>2</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU119" t="n">
         <v>1.64</v>
@@ -25263,7 +25263,7 @@
         <v>2.44</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU122" t="n">
         <v>2.51</v>
@@ -26072,10 +26072,10 @@
         <v>0.57</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU126" t="n">
         <v>2.62</v>
@@ -26275,7 +26275,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU129" t="n">
         <v>1.71</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT131" t="n">
         <v>1.29</v>
@@ -27493,7 +27493,7 @@
         <v>2.29</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT133" t="n">
         <v>2.22</v>
@@ -28511,7 +28511,7 @@
         <v>1.56</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU138" t="n">
         <v>1.63</v>
@@ -28714,7 +28714,7 @@
         <v>1.88</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU139" t="n">
         <v>3.01</v>
@@ -28917,7 +28917,7 @@
         <v>2</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU140" t="n">
         <v>1.58</v>
@@ -29117,10 +29117,10 @@
         <v>1.29</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU141" t="n">
         <v>1.59</v>
@@ -29320,7 +29320,7 @@
         <v>1.71</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT142" t="n">
         <v>1.44</v>
@@ -29523,7 +29523,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT143" t="n">
         <v>1.56</v>
@@ -31147,7 +31147,7 @@
         <v>2.13</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT151" t="n">
         <v>2</v>
@@ -32014,6 +32014,1021 @@
       </c>
       <c r="BK155" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2433143</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44951.61458333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>4</v>
+      </c>
+      <c r="N156" t="n">
+        <v>5</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['38', '57', '87', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>6</v>
+      </c>
+      <c r="R156" t="n">
+        <v>7</v>
+      </c>
+      <c r="S156" t="n">
+        <v>13</v>
+      </c>
+      <c r="T156" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2433144</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44951.61458333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>4</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['44', '52']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['33', '59']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>6</v>
+      </c>
+      <c r="R157" t="n">
+        <v>8</v>
+      </c>
+      <c r="S157" t="n">
+        <v>14</v>
+      </c>
+      <c r="T157" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2433145</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44951.66666666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['58', '90+8']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>7</v>
+      </c>
+      <c r="R158" t="n">
+        <v>8</v>
+      </c>
+      <c r="S158" t="n">
+        <v>15</v>
+      </c>
+      <c r="T158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2433146</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44951.70833333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>6</v>
+      </c>
+      <c r="R159" t="n">
+        <v>3</v>
+      </c>
+      <c r="S159" t="n">
+        <v>9</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2433147</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44951.70833333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['9', '45+3']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>12</v>
+      </c>
+      <c r="R160" t="n">
+        <v>4</v>
+      </c>
+      <c r="S160" t="n">
+        <v>16</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V160" t="n">
+        <v>8</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT17" t="n">
         <v>0.5600000000000001</v>
@@ -4760,7 +4760,7 @@
         <v>1.1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT23" t="n">
         <v>1.29</v>
@@ -7602,7 +7602,7 @@
         <v>2.44</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU35" t="n">
         <v>1.82</v>
@@ -8411,10 +8411,10 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>3.33</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU41" t="n">
         <v>1.12</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT49" t="n">
         <v>1.44</v>
@@ -12271,7 +12271,7 @@
         <v>0.78</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU58" t="n">
         <v>1.55</v>
@@ -12474,7 +12474,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.74</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT66" t="n">
         <v>2.4</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT67" t="n">
         <v>1.29</v>
@@ -14504,7 +14504,7 @@
         <v>1.1</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU69" t="n">
         <v>1.7</v>
@@ -15516,7 +15516,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT74" t="n">
         <v>0.78</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.63</v>
@@ -17346,7 +17346,7 @@
         <v>1.33</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU83" t="n">
         <v>1.55</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT91" t="n">
         <v>0.4</v>
@@ -20185,7 +20185,7 @@
         <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT97" t="n">
         <v>1.44</v>
@@ -22218,7 +22218,7 @@
         <v>1.88</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU107" t="n">
         <v>2.09</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT115" t="n">
         <v>1.44</v>
@@ -24245,7 +24245,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT117" t="n">
         <v>1</v>
@@ -24451,7 +24451,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>2.69</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>1.56</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.59</v>
@@ -27902,7 +27902,7 @@
         <v>0.33</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28711,7 +28711,7 @@
         <v>1.14</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT139" t="n">
         <v>1.11</v>
@@ -29726,7 +29726,7 @@
         <v>2.13</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT144" t="n">
         <v>2.22</v>
@@ -29932,7 +29932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.65</v>
@@ -30135,7 +30135,7 @@
         <v>1.88</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU146" t="n">
         <v>1.41</v>
@@ -33029,6 +33029,412 @@
       </c>
       <c r="BK160" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2433148</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44952.61458333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>9</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1</v>
+      </c>
+      <c r="S161" t="n">
+        <v>10</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2433149</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44952.70833333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>13</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>13</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V162" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X162" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT6" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1.56</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT9" t="n">
         <v>1.11</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.88</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5166,7 +5166,7 @@
         <v>0.78</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
         <v>2.22</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5600000000000001</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6384,7 +6384,7 @@
         <v>2.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU29" t="n">
         <v>2.62</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT35" t="n">
         <v>0.7</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT37" t="n">
         <v>1.11</v>
@@ -8211,7 +8211,7 @@
         <v>1.1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.65</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>0.4</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT45" t="n">
         <v>1.11</v>
@@ -9835,7 +9835,7 @@
         <v>0.78</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.53</v>
@@ -10038,7 +10038,7 @@
         <v>0.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>1.88</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU50" t="n">
         <v>1.36</v>
@@ -10850,7 +10850,7 @@
         <v>1.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU51" t="n">
         <v>1.31</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT52" t="n">
         <v>0.78</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT54" t="n">
         <v>1.11</v>
@@ -11662,7 +11662,7 @@
         <v>2.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU55" t="n">
         <v>2.49</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT62" t="n">
         <v>2.22</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT63" t="n">
         <v>1.11</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT64" t="n">
         <v>2</v>
@@ -14098,7 +14098,7 @@
         <v>1.78</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU67" t="n">
         <v>2.85</v>
@@ -14301,7 +14301,7 @@
         <v>2.78</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU68" t="n">
         <v>1.96</v>
@@ -14707,7 +14707,7 @@
         <v>1.88</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.52</v>
@@ -14907,7 +14907,7 @@
         <v>2.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT71" t="n">
         <v>2.22</v>
@@ -15110,10 +15110,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT77" t="n">
         <v>0.4</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT81" t="n">
         <v>1.44</v>
@@ -17955,7 +17955,7 @@
         <v>0.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU86" t="n">
         <v>1.85</v>
@@ -18561,10 +18561,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU89" t="n">
         <v>2.84</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT90" t="n">
         <v>2.22</v>
@@ -19373,7 +19373,7 @@
         <v>2.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT93" t="n">
         <v>2</v>
@@ -19579,7 +19579,7 @@
         <v>0.78</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU94" t="n">
         <v>1.51</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -20594,7 +20594,7 @@
         <v>1.67</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20997,10 +20997,10 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1.11</v>
@@ -22215,7 +22215,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT107" t="n">
         <v>0.7</v>
@@ -22624,7 +22624,7 @@
         <v>0.78</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU109" t="n">
         <v>1.56</v>
@@ -22827,7 +22827,7 @@
         <v>1.1</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU110" t="n">
         <v>1.74</v>
@@ -23436,7 +23436,7 @@
         <v>2.78</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU113" t="n">
         <v>2.1</v>
@@ -24042,7 +24042,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT116" t="n">
         <v>2.4</v>
@@ -24248,7 +24248,7 @@
         <v>1.78</v>
       </c>
       <c r="AT117" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU117" t="n">
         <v>2.9</v>
@@ -24857,7 +24857,7 @@
         <v>0.75</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU120" t="n">
         <v>1.66</v>
@@ -25260,7 +25260,7 @@
         <v>2.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT122" t="n">
         <v>2.4</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT123" t="n">
         <v>0.78</v>
@@ -25869,7 +25869,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26481,7 +26481,7 @@
         <v>2.78</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU128" t="n">
         <v>2.1</v>
@@ -26681,7 +26681,7 @@
         <v>1.71</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT129" t="n">
         <v>1.44</v>
@@ -26884,10 +26884,10 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU130" t="n">
         <v>1.98</v>
@@ -27090,7 +27090,7 @@
         <v>1.1</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU131" t="n">
         <v>1.73</v>
@@ -27290,10 +27290,10 @@
         <v>1.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU132" t="n">
         <v>2.35</v>
@@ -27696,7 +27696,7 @@
         <v>2.29</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT134" t="n">
         <v>2</v>
@@ -28508,7 +28508,7 @@
         <v>2.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT138" t="n">
         <v>2.4</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU143" t="n">
         <v>1.65</v>
@@ -30335,10 +30335,10 @@
         <v>0.38</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU147" t="n">
         <v>1.9</v>
@@ -30538,10 +30538,10 @@
         <v>1.13</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT148" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU148" t="n">
         <v>2.29</v>
@@ -30744,7 +30744,7 @@
         <v>0.33</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU149" t="n">
         <v>1.61</v>
@@ -30944,7 +30944,7 @@
         <v>0.63</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT150" t="n">
         <v>0.5600000000000001</v>
@@ -31353,7 +31353,7 @@
         <v>2.78</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU152" t="n">
         <v>2.11</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -33435,6 +33435,1021 @@
       </c>
       <c r="BK162" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2433151</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44954.52083333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>19</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['14', '64']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>9</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2</v>
+      </c>
+      <c r="S163" t="n">
+        <v>11</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V163" t="n">
+        <v>8</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X163" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2433150</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44954.61458333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['3', '28']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>3</v>
+      </c>
+      <c r="R164" t="n">
+        <v>6</v>
+      </c>
+      <c r="S164" t="n">
+        <v>9</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2433152</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44954.66666666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>2</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>11</v>
+      </c>
+      <c r="R165" t="n">
+        <v>3</v>
+      </c>
+      <c r="S165" t="n">
+        <v>14</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2433153</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44954.66666666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K166" t="n">
+        <v>3</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>3</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['32', '45', '47']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>6</v>
+      </c>
+      <c r="R166" t="n">
+        <v>6</v>
+      </c>
+      <c r="S166" t="n">
+        <v>12</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X166" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2433154</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44954.70833333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J167" t="n">
+        <v>3</v>
+      </c>
+      <c r="K167" t="n">
+        <v>6</v>
+      </c>
+      <c r="L167" t="n">
+        <v>5</v>
+      </c>
+      <c r="M167" t="n">
+        <v>5</v>
+      </c>
+      <c r="N167" t="n">
+        <v>10</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['20', '31', '34', '70', '78']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['12', '16', '41', '65', '80']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3</v>
+      </c>
+      <c r="R167" t="n">
+        <v>7</v>
+      </c>
+      <c r="S167" t="n">
+        <v>10</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V167" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X167" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.1</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT4" t="n">
         <v>0.4</v>
@@ -2121,7 +2121,7 @@
         <v>0.78</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT11" t="n">
         <v>1.2</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>1.11</v>
@@ -3948,7 +3948,7 @@
         <v>1.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.06</v>
@@ -5572,7 +5572,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.33</v>
@@ -5775,7 +5775,7 @@
         <v>1.3</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.17</v>
@@ -6587,7 +6587,7 @@
         <v>1.4</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU30" t="n">
         <v>1.2</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT32" t="n">
         <v>1.44</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>1.11</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT34" t="n">
         <v>2.4</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT36" t="n">
         <v>0.4</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT40" t="n">
         <v>1.44</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.45</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
         <v>1.13</v>
@@ -10241,7 +10241,7 @@
         <v>1.3</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT50" t="n">
         <v>0.3</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -13083,7 +13083,7 @@
         <v>2.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU62" t="n">
         <v>2.81</v>
@@ -13489,7 +13489,7 @@
         <v>1.78</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU64" t="n">
         <v>2.46</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT65" t="n">
         <v>1.44</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT68" t="n">
         <v>1.2</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT70" t="n">
         <v>1.5</v>
@@ -14910,7 +14910,7 @@
         <v>1.3</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15719,10 +15719,10 @@
         <v>2.25</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.85</v>
@@ -17143,7 +17143,7 @@
         <v>0.78</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -17952,7 +17952,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT86" t="n">
         <v>1.2</v>
@@ -18358,10 +18358,10 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU88" t="n">
         <v>2.01</v>
@@ -18767,7 +18767,7 @@
         <v>1.78</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU90" t="n">
         <v>2.32</v>
@@ -19173,7 +19173,7 @@
         <v>2.33</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU92" t="n">
         <v>2.48</v>
@@ -19376,7 +19376,7 @@
         <v>1.67</v>
       </c>
       <c r="AT93" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.68</v>
@@ -19779,7 +19779,7 @@
         <v>3</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT95" t="n">
         <v>2.4</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT96" t="n">
         <v>1.11</v>
@@ -20794,7 +20794,7 @@
         <v>1.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT100" t="n">
         <v>1.44</v>
@@ -21203,7 +21203,7 @@
         <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU102" t="n">
         <v>1.56</v>
@@ -21609,7 +21609,7 @@
         <v>1.33</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU104" t="n">
         <v>1.63</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT106" t="n">
         <v>0.78</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT108" t="n">
         <v>1.11</v>
@@ -23027,7 +23027,7 @@
         <v>1.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT111" t="n">
         <v>1.44</v>
@@ -23233,7 +23233,7 @@
         <v>1.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU112" t="n">
         <v>1.6</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT113" t="n">
         <v>1.13</v>
@@ -23636,10 +23636,10 @@
         <v>2.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.8</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
         <v>1.5</v>
@@ -25060,7 +25060,7 @@
         <v>1.33</v>
       </c>
       <c r="AT121" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU121" t="n">
         <v>1.65</v>
@@ -25669,7 +25669,7 @@
         <v>0.78</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU124" t="n">
         <v>1.44</v>
@@ -26478,7 +26478,7 @@
         <v>0.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT128" t="n">
         <v>0.3</v>
@@ -27496,7 +27496,7 @@
         <v>1.67</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.59</v>
@@ -27699,7 +27699,7 @@
         <v>1.3</v>
       </c>
       <c r="AT134" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU134" t="n">
         <v>2.06</v>
@@ -27899,7 +27899,7 @@
         <v>0.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT135" t="n">
         <v>0.7</v>
@@ -28102,10 +28102,10 @@
         <v>0.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU136" t="n">
         <v>1.5</v>
@@ -28305,7 +28305,7 @@
         <v>0.86</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT137" t="n">
         <v>0.78</v>
@@ -29729,7 +29729,7 @@
         <v>0.78</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.44</v>
@@ -30132,7 +30132,7 @@
         <v>0.75</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT146" t="n">
         <v>0.7</v>
@@ -30741,7 +30741,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AT149" t="n">
         <v>1.44</v>
@@ -30947,7 +30947,7 @@
         <v>1.4</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU150" t="n">
         <v>1.68</v>
@@ -31150,7 +31150,7 @@
         <v>2.33</v>
       </c>
       <c r="AT151" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU151" t="n">
         <v>2.65</v>
@@ -31350,7 +31350,7 @@
         <v>1.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT152" t="n">
         <v>1.5</v>
@@ -31556,7 +31556,7 @@
         <v>1.78</v>
       </c>
       <c r="AT153" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU153" t="n">
         <v>1.98</v>
@@ -34450,6 +34450,818 @@
       </c>
       <c r="BK167" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2433155</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44955.34375</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2</v>
+      </c>
+      <c r="R168" t="n">
+        <v>6</v>
+      </c>
+      <c r="S168" t="n">
+        <v>8</v>
+      </c>
+      <c r="T168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2433156</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44955.4375</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2</v>
+      </c>
+      <c r="K169" t="n">
+        <v>3</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>4</v>
+      </c>
+      <c r="N169" t="n">
+        <v>5</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['15', '45', '61', '83']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>6</v>
+      </c>
+      <c r="R169" t="n">
+        <v>7</v>
+      </c>
+      <c r="S169" t="n">
+        <v>13</v>
+      </c>
+      <c r="T169" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2433157</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44955.4375</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>3</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" t="n">
+        <v>5</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['21', '55', '78']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['50', '73']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>5</v>
+      </c>
+      <c r="R170" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" t="n">
+        <v>8</v>
+      </c>
+      <c r="T170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2433158</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44955.53125</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['75', '84']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>6</v>
+      </c>
+      <c r="R171" t="n">
+        <v>4</v>
+      </c>
+      <c r="S171" t="n">
+        <v>10</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -35249,19 +35249,19 @@
         <v>2</v>
       </c>
       <c r="BG171" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH171" t="n">
         <v>8</v>
       </c>
-      <c r="BH171" t="n">
-        <v>4</v>
-      </c>
       <c r="BI171" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BJ171" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BK171" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT6" t="n">
         <v>1.5</v>
@@ -2527,7 +2527,7 @@
         <v>1.78</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>0.78</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT25" t="n">
         <v>2.1</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT43" t="n">
         <v>0.4</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>1.78</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>2.85</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT72" t="n">
         <v>1.44</v>
@@ -19373,7 +19373,7 @@
         <v>2.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT93" t="n">
         <v>2.1</v>
@@ -20391,7 +20391,7 @@
         <v>1.3</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -23436,7 +23436,7 @@
         <v>2.6</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>2.1</v>
@@ -24042,7 +24042,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT116" t="n">
         <v>2.4</v>
@@ -26681,7 +26681,7 @@
         <v>1.71</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT129" t="n">
         <v>1.44</v>
@@ -27090,7 +27090,7 @@
         <v>1.1</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.73</v>
@@ -33586,7 +33586,7 @@
         <v>2.5</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>2.27</v>
@@ -33786,7 +33786,7 @@
         <v>0.33</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT164" t="n">
         <v>0.3</v>
@@ -35262,6 +35262,209 @@
       </c>
       <c r="BK171" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2433136</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44958.66666666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>17</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2</v>
+      </c>
+      <c r="L172" t="n">
+        <v>3</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['23', '71', '78']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R172" t="n">
+        <v>4</v>
+      </c>
+      <c r="S172" t="n">
+        <v>5</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT3" t="n">
         <v>2.1</v>
@@ -4354,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -7399,7 +7399,7 @@
         <v>0.3</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU34" t="n">
         <v>3.19</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT38" t="n">
         <v>1.5</v>
@@ -9429,7 +9429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -11662,7 +11662,7 @@
         <v>2.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU55" t="n">
         <v>2.49</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT60" t="n">
         <v>0.4</v>
@@ -13895,7 +13895,7 @@
         <v>0.78</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU66" t="n">
         <v>1.22</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT69" t="n">
         <v>0.7</v>
@@ -15113,7 +15113,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -16737,7 +16737,7 @@
         <v>1.67</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU80" t="n">
         <v>1.61</v>
@@ -17546,7 +17546,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT84" t="n">
         <v>0.78</v>
@@ -19782,7 +19782,7 @@
         <v>1.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU95" t="n">
         <v>1.62</v>
@@ -20594,7 +20594,7 @@
         <v>1.67</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -22624,7 +22624,7 @@
         <v>0.78</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU109" t="n">
         <v>1.56</v>
@@ -22824,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT110" t="n">
         <v>0.3</v>
@@ -24045,7 +24045,7 @@
         <v>1.8</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU116" t="n">
         <v>1.66</v>
@@ -25263,7 +25263,7 @@
         <v>2.5</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU122" t="n">
         <v>2.51</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT131" t="n">
         <v>1</v>
@@ -27293,7 +27293,7 @@
         <v>2.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU132" t="n">
         <v>2.35</v>
@@ -28511,7 +28511,7 @@
         <v>1.4</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU138" t="n">
         <v>1.63</v>
@@ -29320,7 +29320,7 @@
         <v>1.71</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT142" t="n">
         <v>1.44</v>
@@ -30744,7 +30744,7 @@
         <v>0.3</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU149" t="n">
         <v>1.61</v>
@@ -32165,7 +32165,7 @@
         <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU156" t="n">
         <v>1.64</v>
@@ -32568,7 +32568,7 @@
         <v>1.63</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT158" t="n">
         <v>1.44</v>
@@ -33992,7 +33992,7 @@
         <v>1.3</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU165" t="n">
         <v>1.91</v>
@@ -35465,6 +35465,412 @@
       </c>
       <c r="BK172" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2433159</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>3</v>
+      </c>
+      <c r="R173" t="n">
+        <v>3</v>
+      </c>
+      <c r="S173" t="n">
+        <v>6</v>
+      </c>
+      <c r="T173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2433160</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44961.61458333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>1</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2</v>
+      </c>
+      <c r="S174" t="n">
+        <v>3</v>
+      </c>
+      <c r="T174" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK174"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.09</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT4" t="n">
         <v>0.4</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT7" t="n">
         <v>0.7</v>
@@ -2324,7 +2324,7 @@
         <v>1.3</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0.78</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT22" t="n">
         <v>1.5</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU24" t="n">
         <v>1.06</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT27" t="n">
         <v>1.4</v>
@@ -6181,7 +6181,7 @@
         <v>0.78</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU28" t="n">
         <v>1.02</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT29" t="n">
         <v>0.3</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU32" t="n">
         <v>1.54</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT34" t="n">
         <v>2.27</v>
@@ -8008,7 +8008,7 @@
         <v>1.78</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8617,7 +8617,7 @@
         <v>2.6</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT42" t="n">
         <v>2.1</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT44" t="n">
         <v>2.27</v>
@@ -9632,7 +9632,7 @@
         <v>1.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU46" t="n">
         <v>1.53</v>
@@ -10444,7 +10444,7 @@
         <v>1.78</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU49" t="n">
         <v>3.04</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT50" t="n">
         <v>0.3</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU51" t="n">
         <v>1.31</v>
@@ -11053,7 +11053,7 @@
         <v>2.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU52" t="n">
         <v>2.55</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5</v>
@@ -11459,7 +11459,7 @@
         <v>1.78</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU54" t="n">
         <v>2.99</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT55" t="n">
         <v>1.4</v>
@@ -11862,10 +11862,10 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT61" t="n">
         <v>0.3</v>
@@ -13286,7 +13286,7 @@
         <v>1.4</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.61</v>
@@ -13489,7 +13489,7 @@
         <v>1.78</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU64" t="n">
         <v>2.46</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU65" t="n">
         <v>2</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT66" t="n">
         <v>2.27</v>
@@ -14301,7 +14301,7 @@
         <v>2.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU68" t="n">
         <v>1.96</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT70" t="n">
         <v>1.5</v>
@@ -15313,10 +15313,10 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU73" t="n">
         <v>1.52</v>
@@ -15516,10 +15516,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU74" t="n">
         <v>1.26</v>
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU75" t="n">
         <v>1.85</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU79" t="n">
         <v>2.54</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT80" t="n">
         <v>2.27</v>
@@ -16940,7 +16940,7 @@
         <v>1.4</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU81" t="n">
         <v>1.6</v>
@@ -17343,7 +17343,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT83" t="n">
         <v>0.7</v>
@@ -17549,7 +17549,7 @@
         <v>1.09</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU84" t="n">
         <v>1.86</v>
@@ -17749,10 +17749,10 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU86" t="n">
         <v>1.85</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT92" t="n">
         <v>1.22</v>
@@ -19376,7 +19376,7 @@
         <v>1.8</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU93" t="n">
         <v>1.68</v>
@@ -19779,7 +19779,7 @@
         <v>3</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT95" t="n">
         <v>2.27</v>
@@ -19982,10 +19982,10 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.71</v>
@@ -20185,10 +20185,10 @@
         <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU97" t="n">
         <v>1.39</v>
@@ -20591,7 +20591,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT99" t="n">
         <v>1.4</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU100" t="n">
         <v>1.83</v>
@@ -21403,7 +21403,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT103" t="n">
         <v>0.4</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT104" t="n">
         <v>0.5</v>
@@ -21812,7 +21812,7 @@
         <v>2.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU105" t="n">
         <v>2.62</v>
@@ -22015,7 +22015,7 @@
         <v>2.6</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU106" t="n">
         <v>2.11</v>
@@ -22418,10 +22418,10 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -23027,10 +23027,10 @@
         <v>1.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU111" t="n">
         <v>1.49</v>
@@ -23230,7 +23230,7 @@
         <v>0.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT112" t="n">
         <v>0.5</v>
@@ -23842,7 +23842,7 @@
         <v>1.78</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU115" t="n">
         <v>3.11</v>
@@ -24248,7 +24248,7 @@
         <v>1.78</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU117" t="n">
         <v>2.9</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -24654,7 +24654,7 @@
         <v>2</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.64</v>
@@ -25057,10 +25057,10 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU121" t="n">
         <v>1.65</v>
@@ -25466,7 +25466,7 @@
         <v>1.3</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU123" t="n">
         <v>1.88</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT124" t="n">
         <v>1.22</v>
@@ -26072,7 +26072,7 @@
         <v>0.57</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT126" t="n">
         <v>0.4</v>
@@ -26275,10 +26275,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26684,7 +26684,7 @@
         <v>1.8</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU129" t="n">
         <v>1.71</v>
@@ -26887,7 +26887,7 @@
         <v>1.78</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU130" t="n">
         <v>1.98</v>
@@ -27493,7 +27493,7 @@
         <v>2.29</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT133" t="n">
         <v>2.1</v>
@@ -27699,7 +27699,7 @@
         <v>1.3</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU134" t="n">
         <v>2.06</v>
@@ -27899,7 +27899,7 @@
         <v>0.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT135" t="n">
         <v>0.7</v>
@@ -28102,7 +28102,7 @@
         <v>0.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT136" t="n">
         <v>0.5</v>
@@ -28308,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU137" t="n">
         <v>1.6</v>
@@ -28714,7 +28714,7 @@
         <v>1.78</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU139" t="n">
         <v>3.01</v>
@@ -29120,7 +29120,7 @@
         <v>0.78</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.59</v>
@@ -29323,7 +29323,7 @@
         <v>1.09</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -29523,7 +29523,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT143" t="n">
         <v>1.5</v>
@@ -29726,7 +29726,7 @@
         <v>2.13</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT144" t="n">
         <v>2.1</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT145" t="n">
         <v>1</v>
@@ -30132,7 +30132,7 @@
         <v>0.75</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT146" t="n">
         <v>0.7</v>
@@ -30541,7 +30541,7 @@
         <v>2.5</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU148" t="n">
         <v>2.29</v>
@@ -30741,7 +30741,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT149" t="n">
         <v>1.4</v>
@@ -31147,10 +31147,10 @@
         <v>2.13</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU151" t="n">
         <v>2.65</v>
@@ -31756,10 +31756,10 @@
         <v>1.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU154" t="n">
         <v>1.69</v>
@@ -31962,7 +31962,7 @@
         <v>2</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU155" t="n">
         <v>1.61</v>
@@ -32162,7 +32162,7 @@
         <v>2.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT156" t="n">
         <v>2.27</v>
@@ -32368,7 +32368,7 @@
         <v>0.78</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.74</v>
@@ -32571,7 +32571,7 @@
         <v>1.09</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU158" t="n">
         <v>1.57</v>
@@ -32771,7 +32771,7 @@
         <v>0.44</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT159" t="n">
         <v>0.4</v>
@@ -32974,10 +32974,10 @@
         <v>1.25</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU160" t="n">
         <v>2.52</v>
@@ -33177,7 +33177,7 @@
         <v>0.75</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT161" t="n">
         <v>1</v>
@@ -34195,7 +34195,7 @@
         <v>1.4</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU166" t="n">
         <v>1.73</v>
@@ -34801,10 +34801,10 @@
         <v>2</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU169" t="n">
         <v>1.49</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AT171" t="n">
         <v>1.22</v>
@@ -35732,13 +35732,13 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R174" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S174" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T174" t="n">
         <v>4.6</v>
@@ -35855,22 +35855,1443 @@
         <v>2.9</v>
       </c>
       <c r="BF174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG174" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2433161</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44961.66666666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2</v>
+      </c>
+      <c r="K175" t="n">
+        <v>3</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" t="n">
+        <v>2</v>
+      </c>
+      <c r="N175" t="n">
         <v>4</v>
       </c>
-      <c r="BI174" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ174" t="n">
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['43', '87']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['33', '38']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>6</v>
+      </c>
+      <c r="R175" t="n">
         <v>4</v>
       </c>
-      <c r="BK174" t="n">
+      <c r="S175" t="n">
+        <v>10</v>
+      </c>
+      <c r="T175" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH175" t="n">
         <v>4</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2433162</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44961.66666666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>20</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>4</v>
+      </c>
+      <c r="R176" t="n">
+        <v>3</v>
+      </c>
+      <c r="S176" t="n">
+        <v>7</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2433163</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44961.70833333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>10</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
+      <c r="S177" t="n">
+        <v>10</v>
+      </c>
+      <c r="T177" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X177" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2433164</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44962.34375</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>5</v>
+      </c>
+      <c r="N178" t="n">
+        <v>5</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['16', '36', '64', '79', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>3</v>
+      </c>
+      <c r="R178" t="n">
+        <v>6</v>
+      </c>
+      <c r="S178" t="n">
+        <v>9</v>
+      </c>
+      <c r="T178" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2433165</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44962.4375</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['81', '90+6']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['8', '68']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>12</v>
+      </c>
+      <c r="R179" t="n">
+        <v>1</v>
+      </c>
+      <c r="S179" t="n">
+        <v>13</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>30</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>38</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2433166</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44962.4375</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>2</v>
+      </c>
+      <c r="R180" t="n">
+        <v>6</v>
+      </c>
+      <c r="S180" t="n">
+        <v>8</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2433167</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44962.53125</v>
+      </c>
+      <c r="F181" t="n">
+        <v>20</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>5</v>
+      </c>
+      <c r="R181" t="n">
+        <v>5</v>
+      </c>
+      <c r="S181" t="n">
+        <v>10</v>
+      </c>
+      <c r="T181" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,27 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['20', '27', '30', '35', '38']</t>
+  </si>
+  <si>
+    <t>['27', '46', '69', '73', '84', '88']</t>
+  </si>
+  <si>
+    <t>['4', '58']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['63', '90+4']</t>
+  </si>
+  <si>
+    <t>['16', '17', '20']</t>
+  </si>
+  <si>
+    <t>['50', '78', '81']</t>
+  </si>
+  <si>
     <t>['48', '51', '62']</t>
   </si>
   <si>
@@ -683,9 +704,6 @@
   </si>
   <si>
     <t>['10', '34']</t>
-  </si>
-  <si>
-    <t>['75']</t>
   </si>
   <si>
     <t>['18']</t>
@@ -893,6 +911,15 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['22', '34']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT2">
         <v>1.4</v>
@@ -1689,7 +1716,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1880,7 +1907,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -1970,7 +1997,7 @@
         <v>0.27</v>
       </c>
       <c r="AT4">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2158,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT5">
         <v>0.3</v>
@@ -2262,7 +2289,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2352,7 +2379,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2453,7 +2480,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2543,7 +2570,7 @@
         <v>0.8</v>
       </c>
       <c r="AT7">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2644,7 +2671,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2731,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2922,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT9">
         <v>1.1</v>
@@ -3113,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3217,7 +3244,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3408,7 +3435,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3790,7 +3817,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3877,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT14">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4172,7 +4199,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4450,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT17">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4641,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT18">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4745,7 +4772,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4832,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT19">
         <v>2.27</v>
@@ -4936,7 +4963,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5023,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT20">
         <v>1.3</v>
@@ -5127,7 +5154,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5318,7 +5345,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5405,10 +5432,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU22">
         <v>1.48</v>
@@ -5599,7 +5626,7 @@
         <v>0.8</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU23">
         <v>1.81</v>
@@ -5787,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT24">
         <v>2.18</v>
@@ -5981,7 +6008,7 @@
         <v>1.8</v>
       </c>
       <c r="AT25">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU25">
         <v>1.33</v>
@@ -6082,7 +6109,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6169,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU26">
         <v>1.17</v>
@@ -6273,7 +6300,7 @@
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6464,7 +6491,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6551,10 +6578,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT28">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU28">
         <v>1.02</v>
@@ -6933,10 +6960,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
+        <v>1.27</v>
+      </c>
+      <c r="AT30">
         <v>1.4</v>
-      </c>
-      <c r="AT30">
-        <v>1.22</v>
       </c>
       <c r="AU30">
         <v>1.2</v>
@@ -7037,7 +7064,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7228,7 +7255,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7610,7 +7637,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7888,10 +7915,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT35">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU35">
         <v>1.82</v>
@@ -8079,10 +8106,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT36">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU36">
         <v>2.34</v>
@@ -8270,7 +8297,7 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8374,7 +8401,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8464,7 +8491,7 @@
         <v>1.09</v>
       </c>
       <c r="AT38">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU38">
         <v>1.65</v>
@@ -8652,7 +8679,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8756,7 +8783,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8843,7 +8870,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT40">
         <v>1.4</v>
@@ -9034,10 +9061,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT41">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU41">
         <v>1.12</v>
@@ -9138,7 +9165,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9228,7 +9255,7 @@
         <v>1.18</v>
       </c>
       <c r="AT42">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU42">
         <v>1.45</v>
@@ -9329,7 +9356,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9419,7 +9446,7 @@
         <v>1.8</v>
       </c>
       <c r="AT43">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU43">
         <v>1.3</v>
@@ -9520,7 +9547,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9607,7 +9634,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT44">
         <v>2.27</v>
@@ -9798,7 +9825,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -10093,7 +10120,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10183,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU47">
         <v>1.81</v>
@@ -10371,10 +10398,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT48">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU48">
         <v>1.63</v>
@@ -10562,7 +10589,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT49">
         <v>1.3</v>
@@ -11135,10 +11162,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT52">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU52">
         <v>2.55</v>
@@ -11329,7 +11356,7 @@
         <v>0.27</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU53">
         <v>2.15</v>
@@ -11430,7 +11457,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11517,7 +11544,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT54">
         <v>1.1</v>
@@ -12003,7 +12030,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12090,10 +12117,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT57">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -12281,10 +12308,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT58">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU58">
         <v>1.55</v>
@@ -12385,7 +12412,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>16</v>
@@ -12666,7 +12693,7 @@
         <v>1.09</v>
       </c>
       <c r="AT60">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU60">
         <v>1.75</v>
@@ -12958,7 +12985,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q62">
         <v>13</v>
@@ -13045,10 +13072,10 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT62">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU62">
         <v>2.81</v>
@@ -13149,7 +13176,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13236,7 +13263,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT63">
         <v>1.1</v>
@@ -13340,7 +13367,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13427,7 +13454,7 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT64">
         <v>2.18</v>
@@ -13722,7 +13749,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13913,7 +13940,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14000,10 +14027,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU67">
         <v>2.85</v>
@@ -14191,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT68">
         <v>1.18</v>
@@ -14385,7 +14412,7 @@
         <v>1.09</v>
       </c>
       <c r="AT69">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU69">
         <v>1.7</v>
@@ -14576,7 +14603,7 @@
         <v>1.6</v>
       </c>
       <c r="AT70">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU70">
         <v>1.52</v>
@@ -14677,7 +14704,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14764,10 +14791,10 @@
         <v>2.25</v>
       </c>
       <c r="AS71">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT71">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU71">
         <v>2.01</v>
@@ -14868,7 +14895,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15146,7 +15173,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT73">
         <v>1.3</v>
@@ -15250,7 +15277,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15340,7 +15367,7 @@
         <v>0.8</v>
       </c>
       <c r="AT74">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU74">
         <v>1.26</v>
@@ -15441,7 +15468,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15632,7 +15659,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15719,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT76">
         <v>0.3</v>
@@ -15910,10 +15937,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT77">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU77">
         <v>1.77</v>
@@ -16396,7 +16423,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16587,7 +16614,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16674,7 +16701,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT81">
         <v>1.4</v>
@@ -16778,7 +16805,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16865,10 +16892,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT82">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU82">
         <v>1.65</v>
@@ -16969,7 +16996,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17056,10 +17083,10 @@
         <v>0.4</v>
       </c>
       <c r="AS83">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT83">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU83">
         <v>1.55</v>
@@ -17250,7 +17277,7 @@
         <v>1.09</v>
       </c>
       <c r="AT84">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU84">
         <v>1.86</v>
@@ -17542,7 +17569,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17820,7 +17847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT87">
         <v>1</v>
@@ -18011,10 +18038,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT88">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU88">
         <v>2.01</v>
@@ -18202,10 +18229,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT89">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU89">
         <v>2.84</v>
@@ -18306,7 +18333,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -18393,10 +18420,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT90">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU90">
         <v>2.32</v>
@@ -18497,7 +18524,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18584,10 +18611,10 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT91">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU91">
         <v>2.88</v>
@@ -18688,7 +18715,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18778,7 +18805,7 @@
         <v>2.2</v>
       </c>
       <c r="AT92">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU92">
         <v>2.48</v>
@@ -18879,7 +18906,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19157,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT94">
         <v>0.3</v>
@@ -19452,7 +19479,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19643,7 +19670,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19834,7 +19861,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19921,10 +19948,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU98">
         <v>1.88</v>
@@ -20216,7 +20243,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20407,7 +20434,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20494,10 +20521,10 @@
         <v>1.4</v>
       </c>
       <c r="AS101">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT101">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU101">
         <v>1.47</v>
@@ -20598,7 +20625,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20685,10 +20712,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT102">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU102">
         <v>1.56</v>
@@ -20789,7 +20816,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20879,7 +20906,7 @@
         <v>1.18</v>
       </c>
       <c r="AT103">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU103">
         <v>1.77</v>
@@ -21067,10 +21094,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU104">
         <v>1.63</v>
@@ -21258,7 +21285,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT105">
         <v>1</v>
@@ -21449,10 +21476,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT106">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU106">
         <v>2.11</v>
@@ -21640,10 +21667,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT107">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU107">
         <v>2.09</v>
@@ -21744,7 +21771,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21935,7 +21962,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22022,7 +22049,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT109">
         <v>1.4</v>
@@ -22598,7 +22625,7 @@
         <v>1.8</v>
       </c>
       <c r="AT112">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU112">
         <v>1.6</v>
@@ -22786,10 +22813,10 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT113">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU113">
         <v>2.1</v>
@@ -22890,7 +22917,7 @@
         <v>83</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22980,7 +23007,7 @@
         <v>1</v>
       </c>
       <c r="AT114">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU114">
         <v>1.8</v>
@@ -23081,7 +23108,7 @@
         <v>105</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23168,7 +23195,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT115">
         <v>1.4</v>
@@ -23272,7 +23299,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23463,7 +23490,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23550,7 +23577,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT117">
         <v>1.18</v>
@@ -23845,7 +23872,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23932,7 +23959,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT119">
         <v>1.1</v>
@@ -24036,7 +24063,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24126,7 +24153,7 @@
         <v>1</v>
       </c>
       <c r="AT120">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24227,7 +24254,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24314,7 +24341,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT121">
         <v>2.18</v>
@@ -24418,7 +24445,7 @@
         <v>83</v>
       </c>
       <c r="P122" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24505,7 +24532,7 @@
         <v>2.14</v>
       </c>
       <c r="AS122">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT122">
         <v>2.27</v>
@@ -24696,10 +24723,10 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT123">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU123">
         <v>1.88</v>
@@ -24800,7 +24827,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -24890,7 +24917,7 @@
         <v>0.8</v>
       </c>
       <c r="AT124">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU124">
         <v>1.44</v>
@@ -25078,7 +25105,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25272,7 +25299,7 @@
         <v>2.2</v>
       </c>
       <c r="AT126">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU126">
         <v>2.62</v>
@@ -25373,7 +25400,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25651,7 +25678,7 @@
         <v>0.43</v>
       </c>
       <c r="AS128">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT128">
         <v>0.3</v>
@@ -26033,7 +26060,7 @@
         <v>1.14</v>
       </c>
       <c r="AS130">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT130">
         <v>1.18</v>
@@ -26137,7 +26164,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26227,7 +26254,7 @@
         <v>1.09</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU131">
         <v>1.73</v>
@@ -26415,7 +26442,7 @@
         <v>1.33</v>
       </c>
       <c r="AS132">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT132">
         <v>1.4</v>
@@ -26519,7 +26546,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26609,7 +26636,7 @@
         <v>1.8</v>
       </c>
       <c r="AT133">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU133">
         <v>1.59</v>
@@ -26710,7 +26737,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26797,7 +26824,7 @@
         <v>2.29</v>
       </c>
       <c r="AS134">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT134">
         <v>2.18</v>
@@ -26901,7 +26928,7 @@
         <v>83</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -26991,7 +27018,7 @@
         <v>0.27</v>
       </c>
       <c r="AT135">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU135">
         <v>1.67</v>
@@ -27182,7 +27209,7 @@
         <v>1.6</v>
       </c>
       <c r="AT136">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27283,7 +27310,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27373,7 +27400,7 @@
         <v>1</v>
       </c>
       <c r="AT137">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU137">
         <v>1.6</v>
@@ -27474,7 +27501,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27561,7 +27588,7 @@
         <v>2.25</v>
       </c>
       <c r="AS138">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT138">
         <v>2.27</v>
@@ -27752,7 +27779,7 @@
         <v>1.14</v>
       </c>
       <c r="AS139">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT139">
         <v>1.1</v>
@@ -27943,10 +27970,10 @@
         <v>0.5</v>
       </c>
       <c r="AS140">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT140">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU140">
         <v>1.58</v>
@@ -28134,7 +28161,7 @@
         <v>1.29</v>
       </c>
       <c r="AS141">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT141">
         <v>1</v>
@@ -28238,7 +28265,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28429,7 +28456,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28519,7 +28546,7 @@
         <v>1.18</v>
       </c>
       <c r="AT143">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU143">
         <v>1.65</v>
@@ -28620,7 +28647,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28710,7 +28737,7 @@
         <v>0.8</v>
       </c>
       <c r="AT144">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU144">
         <v>1.44</v>
@@ -28898,7 +28925,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT145">
         <v>1</v>
@@ -29092,7 +29119,7 @@
         <v>1.6</v>
       </c>
       <c r="AT146">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU146">
         <v>1.41</v>
@@ -29193,7 +29220,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29280,7 +29307,7 @@
         <v>0.38</v>
       </c>
       <c r="AS147">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT147">
         <v>0.3</v>
@@ -29471,7 +29498,7 @@
         <v>1.13</v>
       </c>
       <c r="AS148">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT148">
         <v>1.18</v>
@@ -29575,7 +29602,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29853,10 +29880,10 @@
         <v>0.63</v>
       </c>
       <c r="AS150">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT150">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU150">
         <v>1.68</v>
@@ -30235,10 +30262,10 @@
         <v>1.75</v>
       </c>
       <c r="AS152">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT152">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU152">
         <v>2.11</v>
@@ -30426,10 +30453,10 @@
         <v>1.14</v>
       </c>
       <c r="AS153">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT153">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU153">
         <v>1.98</v>
@@ -30617,7 +30644,7 @@
         <v>1.63</v>
       </c>
       <c r="AS154">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT154">
         <v>1.4</v>
@@ -30808,10 +30835,10 @@
         <v>0.75</v>
       </c>
       <c r="AS155">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT155">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU155">
         <v>1.61</v>
@@ -30912,7 +30939,7 @@
         <v>146</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31103,7 +31130,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31190,7 +31217,7 @@
         <v>1.13</v>
       </c>
       <c r="AS157">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT157">
         <v>1.1</v>
@@ -31575,7 +31602,7 @@
         <v>1.8</v>
       </c>
       <c r="AT159">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU159">
         <v>1.54</v>
@@ -32145,10 +32172,10 @@
         <v>0.67</v>
       </c>
       <c r="AS162">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT162">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU162">
         <v>2.77</v>
@@ -32336,10 +32363,10 @@
         <v>1.29</v>
       </c>
       <c r="AS163">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT163">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU163">
         <v>2.27</v>
@@ -32718,7 +32745,7 @@
         <v>1.5</v>
       </c>
       <c r="AS165">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT165">
         <v>1.4</v>
@@ -32822,7 +32849,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -32909,7 +32936,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT166">
         <v>1.18</v>
@@ -33013,7 +33040,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33100,10 +33127,10 @@
         <v>1.56</v>
       </c>
       <c r="AS167">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT167">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU167">
         <v>1.99</v>
@@ -33204,7 +33231,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33291,10 +33318,10 @@
         <v>2.22</v>
       </c>
       <c r="AS168">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT168">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU168">
         <v>2.1</v>
@@ -33395,7 +33422,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33586,7 +33613,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33676,7 +33703,7 @@
         <v>1</v>
       </c>
       <c r="AT170">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU170">
         <v>1.63</v>
@@ -33777,7 +33804,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33867,7 +33894,7 @@
         <v>0.27</v>
       </c>
       <c r="AT171">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU171">
         <v>1.61</v>
@@ -33968,7 +33995,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -34058,7 +34085,7 @@
         <v>1.8</v>
       </c>
       <c r="AT172">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU172">
         <v>1.57</v>
@@ -34541,7 +34568,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34628,7 +34655,7 @@
         <v>1.2</v>
       </c>
       <c r="AS175">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT175">
         <v>1.18</v>
@@ -35013,7 +35040,7 @@
         <v>1.6</v>
       </c>
       <c r="AT177">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU177">
         <v>1.47</v>
@@ -35114,7 +35141,7 @@
         <v>83</v>
       </c>
       <c r="P178" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35305,7 +35332,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q179">
         <v>12</v>
@@ -35687,7 +35714,7 @@
         <v>181</v>
       </c>
       <c r="P181" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -35829,6 +35856,1725 @@
       </c>
       <c r="BK181">
         <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2433169</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44967.66666666666</v>
+      </c>
+      <c r="F182">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>73</v>
+      </c>
+      <c r="H182" t="s">
+        <v>74</v>
+      </c>
+      <c r="I182">
+        <v>5</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>5</v>
+      </c>
+      <c r="L182">
+        <v>5</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>5</v>
+      </c>
+      <c r="O182" t="s">
+        <v>210</v>
+      </c>
+      <c r="P182" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q182">
+        <v>10</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>10</v>
+      </c>
+      <c r="T182">
+        <v>1.58</v>
+      </c>
+      <c r="U182">
+        <v>2.8</v>
+      </c>
+      <c r="V182">
+        <v>7.75</v>
+      </c>
+      <c r="W182">
+        <v>1.22</v>
+      </c>
+      <c r="X182">
+        <v>3.8</v>
+      </c>
+      <c r="Y182">
+        <v>2</v>
+      </c>
+      <c r="Z182">
+        <v>1.7</v>
+      </c>
+      <c r="AA182">
+        <v>4.2</v>
+      </c>
+      <c r="AB182">
+        <v>1.19</v>
+      </c>
+      <c r="AC182">
+        <v>1.22</v>
+      </c>
+      <c r="AD182">
+        <v>5.75</v>
+      </c>
+      <c r="AE182">
+        <v>10.25</v>
+      </c>
+      <c r="AF182">
+        <v>1.02</v>
+      </c>
+      <c r="AG182">
+        <v>23</v>
+      </c>
+      <c r="AH182">
+        <v>1.12</v>
+      </c>
+      <c r="AI182">
+        <v>5.87</v>
+      </c>
+      <c r="AJ182">
+        <v>1.43</v>
+      </c>
+      <c r="AK182">
+        <v>2.55</v>
+      </c>
+      <c r="AL182">
+        <v>1.91</v>
+      </c>
+      <c r="AM182">
+        <v>1.8</v>
+      </c>
+      <c r="AN182">
+        <v>1.05</v>
+      </c>
+      <c r="AO182">
+        <v>1.11</v>
+      </c>
+      <c r="AP182">
+        <v>4.1</v>
+      </c>
+      <c r="AQ182">
+        <v>1.78</v>
+      </c>
+      <c r="AR182">
+        <v>0.4</v>
+      </c>
+      <c r="AS182">
+        <v>1.9</v>
+      </c>
+      <c r="AT182">
+        <v>0.36</v>
+      </c>
+      <c r="AU182">
+        <v>1.98</v>
+      </c>
+      <c r="AV182">
+        <v>1.09</v>
+      </c>
+      <c r="AW182">
+        <v>3.07</v>
+      </c>
+      <c r="AX182">
+        <v>1.2</v>
+      </c>
+      <c r="AY182">
+        <v>12</v>
+      </c>
+      <c r="AZ182">
+        <v>6.1</v>
+      </c>
+      <c r="BA182">
+        <v>1.24</v>
+      </c>
+      <c r="BB182">
+        <v>1.4</v>
+      </c>
+      <c r="BC182">
+        <v>1.64</v>
+      </c>
+      <c r="BD182">
+        <v>1.98</v>
+      </c>
+      <c r="BE182">
+        <v>2.5</v>
+      </c>
+      <c r="BF182">
+        <v>12</v>
+      </c>
+      <c r="BG182">
+        <v>2</v>
+      </c>
+      <c r="BH182">
+        <v>9</v>
+      </c>
+      <c r="BI182">
+        <v>2</v>
+      </c>
+      <c r="BJ182">
+        <v>21</v>
+      </c>
+      <c r="BK182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2433172</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44968.61458333334</v>
+      </c>
+      <c r="F183">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>72</v>
+      </c>
+      <c r="H183" t="s">
+        <v>67</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183" t="s">
+        <v>83</v>
+      </c>
+      <c r="P183" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q183">
+        <v>14</v>
+      </c>
+      <c r="R183">
+        <v>4</v>
+      </c>
+      <c r="S183">
+        <v>18</v>
+      </c>
+      <c r="T183">
+        <v>2.25</v>
+      </c>
+      <c r="U183">
+        <v>2.1</v>
+      </c>
+      <c r="V183">
+        <v>4.8</v>
+      </c>
+      <c r="W183">
+        <v>1.39</v>
+      </c>
+      <c r="X183">
+        <v>2.75</v>
+      </c>
+      <c r="Y183">
+        <v>2.75</v>
+      </c>
+      <c r="Z183">
+        <v>1.39</v>
+      </c>
+      <c r="AA183">
+        <v>7</v>
+      </c>
+      <c r="AB183">
+        <v>1.08</v>
+      </c>
+      <c r="AC183">
+        <v>1.63</v>
+      </c>
+      <c r="AD183">
+        <v>3.68</v>
+      </c>
+      <c r="AE183">
+        <v>4.45</v>
+      </c>
+      <c r="AF183">
+        <v>1.05</v>
+      </c>
+      <c r="AG183">
+        <v>11</v>
+      </c>
+      <c r="AH183">
+        <v>1.31</v>
+      </c>
+      <c r="AI183">
+        <v>3.35</v>
+      </c>
+      <c r="AJ183">
+        <v>1.94</v>
+      </c>
+      <c r="AK183">
+        <v>1.76</v>
+      </c>
+      <c r="AL183">
+        <v>1.87</v>
+      </c>
+      <c r="AM183">
+        <v>1.8</v>
+      </c>
+      <c r="AN183">
+        <v>1.18</v>
+      </c>
+      <c r="AO183">
+        <v>1.27</v>
+      </c>
+      <c r="AP183">
+        <v>2.1</v>
+      </c>
+      <c r="AQ183">
+        <v>1.3</v>
+      </c>
+      <c r="AR183">
+        <v>1</v>
+      </c>
+      <c r="AS183">
+        <v>1.27</v>
+      </c>
+      <c r="AT183">
+        <v>1</v>
+      </c>
+      <c r="AU183">
+        <v>2</v>
+      </c>
+      <c r="AV183">
+        <v>1.21</v>
+      </c>
+      <c r="AW183">
+        <v>3.21</v>
+      </c>
+      <c r="AX183">
+        <v>1.48</v>
+      </c>
+      <c r="AY183">
+        <v>8.5</v>
+      </c>
+      <c r="AZ183">
+        <v>3.2</v>
+      </c>
+      <c r="BA183">
+        <v>1.24</v>
+      </c>
+      <c r="BB183">
+        <v>1.4</v>
+      </c>
+      <c r="BC183">
+        <v>1.65</v>
+      </c>
+      <c r="BD183">
+        <v>2.02</v>
+      </c>
+      <c r="BE183">
+        <v>2.55</v>
+      </c>
+      <c r="BF183">
+        <v>7</v>
+      </c>
+      <c r="BG183">
+        <v>5</v>
+      </c>
+      <c r="BH183">
+        <v>10</v>
+      </c>
+      <c r="BI183">
+        <v>9</v>
+      </c>
+      <c r="BJ183">
+        <v>17</v>
+      </c>
+      <c r="BK183">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2433173</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44968.66666666666</v>
+      </c>
+      <c r="F184">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>68</v>
+      </c>
+      <c r="H184" t="s">
+        <v>70</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>6</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>6</v>
+      </c>
+      <c r="O184" t="s">
+        <v>211</v>
+      </c>
+      <c r="P184" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q184">
+        <v>18</v>
+      </c>
+      <c r="R184">
+        <v>1</v>
+      </c>
+      <c r="S184">
+        <v>19</v>
+      </c>
+      <c r="T184">
+        <v>1.49</v>
+      </c>
+      <c r="U184">
+        <v>2.9</v>
+      </c>
+      <c r="V184">
+        <v>10.5</v>
+      </c>
+      <c r="W184">
+        <v>1.23</v>
+      </c>
+      <c r="X184">
+        <v>3.75</v>
+      </c>
+      <c r="Y184">
+        <v>2</v>
+      </c>
+      <c r="Z184">
+        <v>1.7</v>
+      </c>
+      <c r="AA184">
+        <v>4.2</v>
+      </c>
+      <c r="AB184">
+        <v>1.19</v>
+      </c>
+      <c r="AC184">
+        <v>1.17</v>
+      </c>
+      <c r="AD184">
+        <v>7.7</v>
+      </c>
+      <c r="AE184">
+        <v>15</v>
+      </c>
+      <c r="AF184">
+        <v>1.01</v>
+      </c>
+      <c r="AG184">
+        <v>16.5</v>
+      </c>
+      <c r="AH184">
+        <v>1.13</v>
+      </c>
+      <c r="AI184">
+        <v>5.25</v>
+      </c>
+      <c r="AJ184">
+        <v>1.39</v>
+      </c>
+      <c r="AK184">
+        <v>2.7</v>
+      </c>
+      <c r="AL184">
+        <v>2.2</v>
+      </c>
+      <c r="AM184">
+        <v>1.58</v>
+      </c>
+      <c r="AN184">
+        <v>1.04</v>
+      </c>
+      <c r="AO184">
+        <v>1.05</v>
+      </c>
+      <c r="AP184">
+        <v>5.5</v>
+      </c>
+      <c r="AQ184">
+        <v>2.5</v>
+      </c>
+      <c r="AR184">
+        <v>0.5</v>
+      </c>
+      <c r="AS184">
+        <v>2.55</v>
+      </c>
+      <c r="AT184">
+        <v>0.45</v>
+      </c>
+      <c r="AU184">
+        <v>2.24</v>
+      </c>
+      <c r="AV184">
+        <v>1.12</v>
+      </c>
+      <c r="AW184">
+        <v>3.36</v>
+      </c>
+      <c r="AX184">
+        <v>1.13</v>
+      </c>
+      <c r="AY184">
+        <v>15</v>
+      </c>
+      <c r="AZ184">
+        <v>9</v>
+      </c>
+      <c r="BA184">
+        <v>1.2</v>
+      </c>
+      <c r="BB184">
+        <v>1.3</v>
+      </c>
+      <c r="BC184">
+        <v>1.49</v>
+      </c>
+      <c r="BD184">
+        <v>1.76</v>
+      </c>
+      <c r="BE184">
+        <v>2.16</v>
+      </c>
+      <c r="BF184">
+        <v>14</v>
+      </c>
+      <c r="BG184">
+        <v>2</v>
+      </c>
+      <c r="BH184">
+        <v>22</v>
+      </c>
+      <c r="BI184">
+        <v>3</v>
+      </c>
+      <c r="BJ184">
+        <v>36</v>
+      </c>
+      <c r="BK184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2433170</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44968.70833333334</v>
+      </c>
+      <c r="F185">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>77</v>
+      </c>
+      <c r="H185" t="s">
+        <v>66</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>83</v>
+      </c>
+      <c r="P185" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q185">
+        <v>3</v>
+      </c>
+      <c r="R185">
+        <v>6</v>
+      </c>
+      <c r="S185">
+        <v>9</v>
+      </c>
+      <c r="T185">
+        <v>2.6</v>
+      </c>
+      <c r="U185">
+        <v>2.1</v>
+      </c>
+      <c r="V185">
+        <v>3.8</v>
+      </c>
+      <c r="W185">
+        <v>1.4</v>
+      </c>
+      <c r="X185">
+        <v>2.7</v>
+      </c>
+      <c r="Y185">
+        <v>2.87</v>
+      </c>
+      <c r="Z185">
+        <v>1.36</v>
+      </c>
+      <c r="AA185">
+        <v>7.5</v>
+      </c>
+      <c r="AB185">
+        <v>1.07</v>
+      </c>
+      <c r="AC185">
+        <v>2.18</v>
+      </c>
+      <c r="AD185">
+        <v>3.45</v>
+      </c>
+      <c r="AE185">
+        <v>3.3</v>
+      </c>
+      <c r="AF185">
+        <v>1.04</v>
+      </c>
+      <c r="AG185">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH185">
+        <v>1.32</v>
+      </c>
+      <c r="AI185">
+        <v>3.26</v>
+      </c>
+      <c r="AJ185">
+        <v>2.05</v>
+      </c>
+      <c r="AK185">
+        <v>1.75</v>
+      </c>
+      <c r="AL185">
+        <v>1.83</v>
+      </c>
+      <c r="AM185">
+        <v>1.85</v>
+      </c>
+      <c r="AN185">
+        <v>1.3</v>
+      </c>
+      <c r="AO185">
+        <v>1.29</v>
+      </c>
+      <c r="AP185">
+        <v>1.72</v>
+      </c>
+      <c r="AQ185">
+        <v>1.3</v>
+      </c>
+      <c r="AR185">
+        <v>1.22</v>
+      </c>
+      <c r="AS185">
+        <v>1.18</v>
+      </c>
+      <c r="AT185">
+        <v>1.4</v>
+      </c>
+      <c r="AU185">
+        <v>1.61</v>
+      </c>
+      <c r="AV185">
+        <v>1.25</v>
+      </c>
+      <c r="AW185">
+        <v>2.86</v>
+      </c>
+      <c r="AX185">
+        <v>1.63</v>
+      </c>
+      <c r="AY185">
+        <v>8</v>
+      </c>
+      <c r="AZ185">
+        <v>2.65</v>
+      </c>
+      <c r="BA185">
+        <v>1.25</v>
+      </c>
+      <c r="BB185">
+        <v>1.42</v>
+      </c>
+      <c r="BC185">
+        <v>1.68</v>
+      </c>
+      <c r="BD185">
+        <v>2.06</v>
+      </c>
+      <c r="BE185">
+        <v>2.63</v>
+      </c>
+      <c r="BF185">
+        <v>3</v>
+      </c>
+      <c r="BG185">
+        <v>5</v>
+      </c>
+      <c r="BH185">
+        <v>8</v>
+      </c>
+      <c r="BI185">
+        <v>11</v>
+      </c>
+      <c r="BJ185">
+        <v>11</v>
+      </c>
+      <c r="BK185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2433175</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44969.34375</v>
+      </c>
+      <c r="F186">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>82</v>
+      </c>
+      <c r="H186" t="s">
+        <v>75</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>212</v>
+      </c>
+      <c r="P186" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q186">
+        <v>7</v>
+      </c>
+      <c r="R186">
+        <v>4</v>
+      </c>
+      <c r="S186">
+        <v>11</v>
+      </c>
+      <c r="T186">
+        <v>2.63</v>
+      </c>
+      <c r="U186">
+        <v>2.05</v>
+      </c>
+      <c r="V186">
+        <v>4.5</v>
+      </c>
+      <c r="W186">
+        <v>1.44</v>
+      </c>
+      <c r="X186">
+        <v>2.63</v>
+      </c>
+      <c r="Y186">
+        <v>3.25</v>
+      </c>
+      <c r="Z186">
+        <v>1.33</v>
+      </c>
+      <c r="AA186">
+        <v>10</v>
+      </c>
+      <c r="AB186">
+        <v>1.06</v>
+      </c>
+      <c r="AC186">
+        <v>1.99</v>
+      </c>
+      <c r="AD186">
+        <v>3.3</v>
+      </c>
+      <c r="AE186">
+        <v>3.85</v>
+      </c>
+      <c r="AF186">
+        <v>1.05</v>
+      </c>
+      <c r="AG186">
+        <v>8.91</v>
+      </c>
+      <c r="AH186">
+        <v>1.38</v>
+      </c>
+      <c r="AI186">
+        <v>2.94</v>
+      </c>
+      <c r="AJ186">
+        <v>2.09</v>
+      </c>
+      <c r="AK186">
+        <v>1.69</v>
+      </c>
+      <c r="AL186">
+        <v>1.95</v>
+      </c>
+      <c r="AM186">
+        <v>1.8</v>
+      </c>
+      <c r="AN186">
+        <v>1.27</v>
+      </c>
+      <c r="AO186">
+        <v>1.31</v>
+      </c>
+      <c r="AP186">
+        <v>1.75</v>
+      </c>
+      <c r="AQ186">
+        <v>2</v>
+      </c>
+      <c r="AR186">
+        <v>1</v>
+      </c>
+      <c r="AS186">
+        <v>2.09</v>
+      </c>
+      <c r="AT186">
+        <v>0.9</v>
+      </c>
+      <c r="AU186">
+        <v>1.59</v>
+      </c>
+      <c r="AV186">
+        <v>1.2</v>
+      </c>
+      <c r="AW186">
+        <v>2.79</v>
+      </c>
+      <c r="AX186">
+        <v>1.76</v>
+      </c>
+      <c r="AY186">
+        <v>7.5</v>
+      </c>
+      <c r="AZ186">
+        <v>2.38</v>
+      </c>
+      <c r="BA186">
+        <v>1.26</v>
+      </c>
+      <c r="BB186">
+        <v>1.44</v>
+      </c>
+      <c r="BC186">
+        <v>1.72</v>
+      </c>
+      <c r="BD186">
+        <v>2.12</v>
+      </c>
+      <c r="BE186">
+        <v>2.75</v>
+      </c>
+      <c r="BF186">
+        <v>7</v>
+      </c>
+      <c r="BG186">
+        <v>5</v>
+      </c>
+      <c r="BH186">
+        <v>14</v>
+      </c>
+      <c r="BI186">
+        <v>13</v>
+      </c>
+      <c r="BJ186">
+        <v>21</v>
+      </c>
+      <c r="BK186">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2433174</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44969.4375</v>
+      </c>
+      <c r="F187">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>65</v>
+      </c>
+      <c r="H187" t="s">
+        <v>78</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>2</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>213</v>
+      </c>
+      <c r="P187" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q187">
+        <v>5</v>
+      </c>
+      <c r="R187">
+        <v>7</v>
+      </c>
+      <c r="S187">
+        <v>12</v>
+      </c>
+      <c r="T187">
+        <v>5</v>
+      </c>
+      <c r="U187">
+        <v>2.25</v>
+      </c>
+      <c r="V187">
+        <v>2.3</v>
+      </c>
+      <c r="W187">
+        <v>1.36</v>
+      </c>
+      <c r="X187">
+        <v>3</v>
+      </c>
+      <c r="Y187">
+        <v>2.63</v>
+      </c>
+      <c r="Z187">
+        <v>1.44</v>
+      </c>
+      <c r="AA187">
+        <v>7</v>
+      </c>
+      <c r="AB187">
+        <v>1.1</v>
+      </c>
+      <c r="AC187">
+        <v>4.61</v>
+      </c>
+      <c r="AD187">
+        <v>3.75</v>
+      </c>
+      <c r="AE187">
+        <v>1.72</v>
+      </c>
+      <c r="AF187">
+        <v>1.04</v>
+      </c>
+      <c r="AG187">
+        <v>13</v>
+      </c>
+      <c r="AH187">
+        <v>1.26</v>
+      </c>
+      <c r="AI187">
+        <v>3.67</v>
+      </c>
+      <c r="AJ187">
+        <v>1.8</v>
+      </c>
+      <c r="AK187">
+        <v>1.95</v>
+      </c>
+      <c r="AL187">
+        <v>1.8</v>
+      </c>
+      <c r="AM187">
+        <v>1.95</v>
+      </c>
+      <c r="AN187">
+        <v>2.05</v>
+      </c>
+      <c r="AO187">
+        <v>1.26</v>
+      </c>
+      <c r="AP187">
+        <v>1.19</v>
+      </c>
+      <c r="AQ187">
+        <v>1.4</v>
+      </c>
+      <c r="AR187">
+        <v>2.1</v>
+      </c>
+      <c r="AS187">
+        <v>1.27</v>
+      </c>
+      <c r="AT187">
+        <v>2.18</v>
+      </c>
+      <c r="AU187">
+        <v>1.67</v>
+      </c>
+      <c r="AV187">
+        <v>2.16</v>
+      </c>
+      <c r="AW187">
+        <v>3.83</v>
+      </c>
+      <c r="AX187">
+        <v>2.85</v>
+      </c>
+      <c r="AY187">
+        <v>8.5</v>
+      </c>
+      <c r="AZ187">
+        <v>1.56</v>
+      </c>
+      <c r="BA187">
+        <v>1.23</v>
+      </c>
+      <c r="BB187">
+        <v>1.38</v>
+      </c>
+      <c r="BC187">
+        <v>1.63</v>
+      </c>
+      <c r="BD187">
+        <v>1.98</v>
+      </c>
+      <c r="BE187">
+        <v>2.5</v>
+      </c>
+      <c r="BF187">
+        <v>6</v>
+      </c>
+      <c r="BG187">
+        <v>5</v>
+      </c>
+      <c r="BH187">
+        <v>8</v>
+      </c>
+      <c r="BI187">
+        <v>9</v>
+      </c>
+      <c r="BJ187">
+        <v>14</v>
+      </c>
+      <c r="BK187">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>2433176</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44969.4375</v>
+      </c>
+      <c r="F188">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>71</v>
+      </c>
+      <c r="H188" t="s">
+        <v>76</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>214</v>
+      </c>
+      <c r="P188" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q188">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>8</v>
+      </c>
+      <c r="S188">
+        <v>11</v>
+      </c>
+      <c r="T188">
+        <v>3.1</v>
+      </c>
+      <c r="U188">
+        <v>2.2</v>
+      </c>
+      <c r="V188">
+        <v>3.4</v>
+      </c>
+      <c r="W188">
+        <v>1.36</v>
+      </c>
+      <c r="X188">
+        <v>3</v>
+      </c>
+      <c r="Y188">
+        <v>2.75</v>
+      </c>
+      <c r="Z188">
+        <v>1.4</v>
+      </c>
+      <c r="AA188">
+        <v>7</v>
+      </c>
+      <c r="AB188">
+        <v>1.1</v>
+      </c>
+      <c r="AC188">
+        <v>2.43</v>
+      </c>
+      <c r="AD188">
+        <v>3.4</v>
+      </c>
+      <c r="AE188">
+        <v>2.78</v>
+      </c>
+      <c r="AF188">
+        <v>1.05</v>
+      </c>
+      <c r="AG188">
+        <v>12</v>
+      </c>
+      <c r="AH188">
+        <v>1.28</v>
+      </c>
+      <c r="AI188">
+        <v>3.52</v>
+      </c>
+      <c r="AJ188">
+        <v>1.83</v>
+      </c>
+      <c r="AK188">
+        <v>1.91</v>
+      </c>
+      <c r="AL188">
+        <v>1.67</v>
+      </c>
+      <c r="AM188">
+        <v>2.1</v>
+      </c>
+      <c r="AN188">
+        <v>1.41</v>
+      </c>
+      <c r="AO188">
+        <v>1.31</v>
+      </c>
+      <c r="AP188">
+        <v>1.53</v>
+      </c>
+      <c r="AQ188">
+        <v>0.78</v>
+      </c>
+      <c r="AR188">
+        <v>1.5</v>
+      </c>
+      <c r="AS188">
+        <v>1</v>
+      </c>
+      <c r="AT188">
+        <v>1.36</v>
+      </c>
+      <c r="AU188">
+        <v>1.76</v>
+      </c>
+      <c r="AV188">
+        <v>1.64</v>
+      </c>
+      <c r="AW188">
+        <v>3.4</v>
+      </c>
+      <c r="AX188">
+        <v>1.85</v>
+      </c>
+      <c r="AY188">
+        <v>8</v>
+      </c>
+      <c r="AZ188">
+        <v>2.2</v>
+      </c>
+      <c r="BA188">
+        <v>1.22</v>
+      </c>
+      <c r="BB188">
+        <v>1.37</v>
+      </c>
+      <c r="BC188">
+        <v>1.6</v>
+      </c>
+      <c r="BD188">
+        <v>1.93</v>
+      </c>
+      <c r="BE188">
+        <v>2.43</v>
+      </c>
+      <c r="BF188">
+        <v>5</v>
+      </c>
+      <c r="BG188">
+        <v>4</v>
+      </c>
+      <c r="BH188">
+        <v>9</v>
+      </c>
+      <c r="BI188">
+        <v>7</v>
+      </c>
+      <c r="BJ188">
+        <v>14</v>
+      </c>
+      <c r="BK188">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>2433171</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44969.53125</v>
+      </c>
+      <c r="F189">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>81</v>
+      </c>
+      <c r="H189" t="s">
+        <v>79</v>
+      </c>
+      <c r="I189">
+        <v>3</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>3</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189" t="s">
+        <v>215</v>
+      </c>
+      <c r="P189" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q189">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>5</v>
+      </c>
+      <c r="T189">
+        <v>1.61</v>
+      </c>
+      <c r="U189">
+        <v>2.75</v>
+      </c>
+      <c r="V189">
+        <v>7.75</v>
+      </c>
+      <c r="W189">
+        <v>1.23</v>
+      </c>
+      <c r="X189">
+        <v>3.75</v>
+      </c>
+      <c r="Y189">
+        <v>2.05</v>
+      </c>
+      <c r="Z189">
+        <v>1.68</v>
+      </c>
+      <c r="AA189">
+        <v>4.33</v>
+      </c>
+      <c r="AB189">
+        <v>1.19</v>
+      </c>
+      <c r="AC189">
+        <v>1.23</v>
+      </c>
+      <c r="AD189">
+        <v>6.3</v>
+      </c>
+      <c r="AE189">
+        <v>9.68</v>
+      </c>
+      <c r="AF189">
+        <v>1.01</v>
+      </c>
+      <c r="AG189">
+        <v>23</v>
+      </c>
+      <c r="AH189">
+        <v>1.12</v>
+      </c>
+      <c r="AI189">
+        <v>5.87</v>
+      </c>
+      <c r="AJ189">
+        <v>1.43</v>
+      </c>
+      <c r="AK189">
+        <v>2.7</v>
+      </c>
+      <c r="AL189">
+        <v>1.9</v>
+      </c>
+      <c r="AM189">
+        <v>1.78</v>
+      </c>
+      <c r="AN189">
+        <v>1.05</v>
+      </c>
+      <c r="AO189">
+        <v>1.12</v>
+      </c>
+      <c r="AP189">
+        <v>4</v>
+      </c>
+      <c r="AQ189">
+        <v>2.6</v>
+      </c>
+      <c r="AR189">
+        <v>0.7</v>
+      </c>
+      <c r="AS189">
+        <v>2.64</v>
+      </c>
+      <c r="AT189">
+        <v>0.64</v>
+      </c>
+      <c r="AU189">
+        <v>2.06</v>
+      </c>
+      <c r="AV189">
+        <v>1.38</v>
+      </c>
+      <c r="AW189">
+        <v>3.44</v>
+      </c>
+      <c r="AX189">
+        <v>1.19</v>
+      </c>
+      <c r="AY189">
+        <v>13</v>
+      </c>
+      <c r="AZ189">
+        <v>6.4</v>
+      </c>
+      <c r="BA189">
+        <v>1.12</v>
+      </c>
+      <c r="BB189">
+        <v>1.26</v>
+      </c>
+      <c r="BC189">
+        <v>1.43</v>
+      </c>
+      <c r="BD189">
+        <v>1.67</v>
+      </c>
+      <c r="BE189">
+        <v>2.02</v>
+      </c>
+      <c r="BF189">
+        <v>2</v>
+      </c>
+      <c r="BG189">
+        <v>2</v>
+      </c>
+      <c r="BH189">
+        <v>1</v>
+      </c>
+      <c r="BI189">
+        <v>1</v>
+      </c>
+      <c r="BJ189">
+        <v>3</v>
+      </c>
+      <c r="BK189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2433168</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44969.53125</v>
+      </c>
+      <c r="F190">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>80</v>
+      </c>
+      <c r="H190" t="s">
+        <v>69</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190" t="s">
+        <v>216</v>
+      </c>
+      <c r="P190" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q190">
+        <v>7</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>7</v>
+      </c>
+      <c r="T190">
+        <v>1.42</v>
+      </c>
+      <c r="U190">
+        <v>3.3</v>
+      </c>
+      <c r="V190">
+        <v>9.5</v>
+      </c>
+      <c r="W190">
+        <v>1.17</v>
+      </c>
+      <c r="X190">
+        <v>4.6</v>
+      </c>
+      <c r="Y190">
+        <v>1.8</v>
+      </c>
+      <c r="Z190">
+        <v>1.88</v>
+      </c>
+      <c r="AA190">
+        <v>3.5</v>
+      </c>
+      <c r="AB190">
+        <v>1.26</v>
+      </c>
+      <c r="AC190">
+        <v>1.12</v>
+      </c>
+      <c r="AD190">
+        <v>8.9</v>
+      </c>
+      <c r="AE190">
+        <v>16.73</v>
+      </c>
+      <c r="AF190">
+        <v>1.02</v>
+      </c>
+      <c r="AG190">
+        <v>29</v>
+      </c>
+      <c r="AH190">
+        <v>1.07</v>
+      </c>
+      <c r="AI190">
+        <v>7.77</v>
+      </c>
+      <c r="AJ190">
+        <v>1.28</v>
+      </c>
+      <c r="AK190">
+        <v>3.47</v>
+      </c>
+      <c r="AL190">
+        <v>1.98</v>
+      </c>
+      <c r="AM190">
+        <v>1.73</v>
+      </c>
+      <c r="AN190">
+        <v>1.02</v>
+      </c>
+      <c r="AO190">
+        <v>1.06</v>
+      </c>
+      <c r="AP190">
+        <v>6</v>
+      </c>
+      <c r="AQ190">
+        <v>1.78</v>
+      </c>
+      <c r="AR190">
+        <v>0.8</v>
+      </c>
+      <c r="AS190">
+        <v>1.9</v>
+      </c>
+      <c r="AT190">
+        <v>0.73</v>
+      </c>
+      <c r="AU190">
+        <v>2.82</v>
+      </c>
+      <c r="AV190">
+        <v>1.42</v>
+      </c>
+      <c r="AW190">
+        <v>4.24</v>
+      </c>
+      <c r="AX190">
+        <v>1.14</v>
+      </c>
+      <c r="AY190">
+        <v>15</v>
+      </c>
+      <c r="AZ190">
+        <v>8</v>
+      </c>
+      <c r="BA190">
+        <v>1.11</v>
+      </c>
+      <c r="BB190">
+        <v>1.22</v>
+      </c>
+      <c r="BC190">
+        <v>1.35</v>
+      </c>
+      <c r="BD190">
+        <v>1.55</v>
+      </c>
+      <c r="BE190">
+        <v>1.83</v>
+      </c>
+      <c r="BF190">
+        <v>2</v>
+      </c>
+      <c r="BG190">
+        <v>2</v>
+      </c>
+      <c r="BH190">
+        <v>5</v>
+      </c>
+      <c r="BI190">
+        <v>0</v>
+      </c>
+      <c r="BJ190">
+        <v>7</v>
+      </c>
+      <c r="BK190">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -37245,13 +37245,13 @@
         <v>83</v>
       </c>
       <c r="Q189">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R189">
         <v>2</v>
       </c>
       <c r="S189">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T189">
         <v>1.61</v>
@@ -37368,22 +37368,22 @@
         <v>2.02</v>
       </c>
       <c r="BF189">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BG189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH189">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BI189">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ189">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="BK189">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:63">
@@ -37436,13 +37436,13 @@
         <v>243</v>
       </c>
       <c r="Q190">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T190">
         <v>1.42</v>
@@ -37559,22 +37559,22 @@
         <v>1.83</v>
       </c>
       <c r="BF190">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH190">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BI190">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ190">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BK190">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,9 @@
     <t>['50', '78', '81']</t>
   </si>
   <si>
+    <t>['76', '86', '90']</t>
+  </si>
+  <si>
     <t>['48', '51', '62']</t>
   </si>
   <si>
@@ -920,6 +923,9 @@
   </si>
   <si>
     <t>['22', '34']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,7 +1722,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1907,7 +1913,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -2289,7 +2295,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2376,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT6">
         <v>1.36</v>
@@ -2480,7 +2486,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2671,7 +2677,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3244,7 +3250,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3435,7 +3441,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3817,7 +3823,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4199,7 +4205,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4671,7 +4677,7 @@
         <v>2.64</v>
       </c>
       <c r="AT18">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4772,7 +4778,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4963,7 +4969,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5154,7 +5160,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5345,7 +5351,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -6005,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT25">
         <v>2.18</v>
@@ -6300,7 +6306,7 @@
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6491,7 +6497,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6963,7 +6969,7 @@
         <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU30">
         <v>1.2</v>
@@ -7064,7 +7070,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7255,7 +7261,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7637,7 +7643,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8401,7 +8407,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8783,7 +8789,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9165,7 +9171,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9356,7 +9362,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9443,7 +9449,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT43">
         <v>0.36</v>
@@ -9547,7 +9553,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -10120,7 +10126,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10401,7 +10407,7 @@
         <v>1.27</v>
       </c>
       <c r="AT48">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU48">
         <v>1.63</v>
@@ -11457,7 +11463,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -12030,7 +12036,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12412,7 +12418,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>16</v>
@@ -12499,7 +12505,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12985,7 +12991,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>13</v>
@@ -13176,7 +13182,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13367,7 +13373,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13749,7 +13755,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13940,7 +13946,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14704,7 +14710,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14895,7 +14901,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14982,7 +14988,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT72">
         <v>1.4</v>
@@ -15277,7 +15283,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15468,7 +15474,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15659,7 +15665,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16423,7 +16429,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16805,7 +16811,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16895,7 +16901,7 @@
         <v>1</v>
       </c>
       <c r="AT82">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU82">
         <v>1.65</v>
@@ -16996,7 +17002,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17569,7 +17575,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18333,7 +18339,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -18524,7 +18530,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18715,7 +18721,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18805,7 +18811,7 @@
         <v>2.2</v>
       </c>
       <c r="AT92">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU92">
         <v>2.48</v>
@@ -18906,7 +18912,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18993,7 +18999,7 @@
         <v>2.4</v>
       </c>
       <c r="AS93">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT93">
         <v>2.18</v>
@@ -19479,7 +19485,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19670,7 +19676,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19861,7 +19867,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20243,7 +20249,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20434,7 +20440,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20625,7 +20631,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20715,7 +20721,7 @@
         <v>2.09</v>
       </c>
       <c r="AT102">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU102">
         <v>1.56</v>
@@ -20816,7 +20822,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -21771,7 +21777,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21962,7 +21968,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22917,7 +22923,7 @@
         <v>83</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23108,7 +23114,7 @@
         <v>105</v>
       </c>
       <c r="P115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23299,7 +23305,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23386,7 +23392,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT116">
         <v>2.27</v>
@@ -23490,7 +23496,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23872,7 +23878,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24063,7 +24069,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24254,7 +24260,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24445,7 +24451,7 @@
         <v>83</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24827,7 +24833,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -24917,7 +24923,7 @@
         <v>0.8</v>
       </c>
       <c r="AT124">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU124">
         <v>1.44</v>
@@ -25400,7 +25406,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25869,7 +25875,7 @@
         <v>1.71</v>
       </c>
       <c r="AS129">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT129">
         <v>1.3</v>
@@ -26164,7 +26170,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26546,7 +26552,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26737,7 +26743,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26928,7 +26934,7 @@
         <v>83</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27310,7 +27316,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27501,7 +27507,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -28265,7 +28271,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28456,7 +28462,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28647,7 +28653,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -29220,7 +29226,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29602,7 +29608,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30456,7 +30462,7 @@
         <v>1.9</v>
       </c>
       <c r="AT153">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU153">
         <v>1.98</v>
@@ -30939,7 +30945,7 @@
         <v>146</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31130,7 +31136,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -32554,7 +32560,7 @@
         <v>0.33</v>
       </c>
       <c r="AS164">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT164">
         <v>0.3</v>
@@ -32849,7 +32855,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33040,7 +33046,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33231,7 +33237,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33422,7 +33428,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33613,7 +33619,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33804,7 +33810,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33894,7 +33900,7 @@
         <v>0.27</v>
       </c>
       <c r="AT171">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU171">
         <v>1.61</v>
@@ -33995,7 +34001,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -34082,7 +34088,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT172">
         <v>0.9</v>
@@ -34568,7 +34574,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35141,7 +35147,7 @@
         <v>83</v>
       </c>
       <c r="P178" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35332,7 +35338,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q179">
         <v>12</v>
@@ -35714,7 +35720,7 @@
         <v>181</v>
       </c>
       <c r="P181" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -36478,7 +36484,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36568,7 +36574,7 @@
         <v>1.18</v>
       </c>
       <c r="AT185">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU185">
         <v>1.61</v>
@@ -36669,7 +36675,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36860,7 +36866,7 @@
         <v>213</v>
       </c>
       <c r="P187" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37433,7 +37439,7 @@
         <v>216</v>
       </c>
       <c r="P190" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q190">
         <v>10</v>
@@ -37575,6 +37581,197 @@
       </c>
       <c r="BK190">
         <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2433184</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44974.66666666666</v>
+      </c>
+      <c r="F191">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>69</v>
+      </c>
+      <c r="H191" t="s">
+        <v>66</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>217</v>
+      </c>
+      <c r="P191" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q191">
+        <v>5</v>
+      </c>
+      <c r="R191">
+        <v>4</v>
+      </c>
+      <c r="S191">
+        <v>9</v>
+      </c>
+      <c r="T191">
+        <v>2.8</v>
+      </c>
+      <c r="U191">
+        <v>2.25</v>
+      </c>
+      <c r="V191">
+        <v>3.6</v>
+      </c>
+      <c r="W191">
+        <v>1.36</v>
+      </c>
+      <c r="X191">
+        <v>3.2</v>
+      </c>
+      <c r="Y191">
+        <v>2.7</v>
+      </c>
+      <c r="Z191">
+        <v>1.47</v>
+      </c>
+      <c r="AA191">
+        <v>6.5</v>
+      </c>
+      <c r="AB191">
+        <v>1.1</v>
+      </c>
+      <c r="AC191">
+        <v>2.1</v>
+      </c>
+      <c r="AD191">
+        <v>3.66</v>
+      </c>
+      <c r="AE191">
+        <v>3.32</v>
+      </c>
+      <c r="AF191">
+        <v>1.04</v>
+      </c>
+      <c r="AG191">
+        <v>13</v>
+      </c>
+      <c r="AH191">
+        <v>1.24</v>
+      </c>
+      <c r="AI191">
+        <v>3.89</v>
+      </c>
+      <c r="AJ191">
+        <v>1.75</v>
+      </c>
+      <c r="AK191">
+        <v>1.95</v>
+      </c>
+      <c r="AL191">
+        <v>1.66</v>
+      </c>
+      <c r="AM191">
+        <v>2.2</v>
+      </c>
+      <c r="AN191">
+        <v>1.36</v>
+      </c>
+      <c r="AO191">
+        <v>1.25</v>
+      </c>
+      <c r="AP191">
+        <v>1.72</v>
+      </c>
+      <c r="AQ191">
+        <v>1.8</v>
+      </c>
+      <c r="AR191">
+        <v>1.4</v>
+      </c>
+      <c r="AS191">
+        <v>1.91</v>
+      </c>
+      <c r="AT191">
+        <v>1.27</v>
+      </c>
+      <c r="AU191">
+        <v>1.52</v>
+      </c>
+      <c r="AV191">
+        <v>1.29</v>
+      </c>
+      <c r="AW191">
+        <v>2.81</v>
+      </c>
+      <c r="AX191">
+        <v>1.68</v>
+      </c>
+      <c r="AY191">
+        <v>8</v>
+      </c>
+      <c r="AZ191">
+        <v>2.5</v>
+      </c>
+      <c r="BA191">
+        <v>1.17</v>
+      </c>
+      <c r="BB191">
+        <v>1.33</v>
+      </c>
+      <c r="BC191">
+        <v>1.54</v>
+      </c>
+      <c r="BD191">
+        <v>1.85</v>
+      </c>
+      <c r="BE191">
+        <v>2.3</v>
+      </c>
+      <c r="BF191">
+        <v>10</v>
+      </c>
+      <c r="BG191">
+        <v>6</v>
+      </c>
+      <c r="BH191">
+        <v>6</v>
+      </c>
+      <c r="BI191">
+        <v>3</v>
+      </c>
+      <c r="BJ191">
+        <v>16</v>
+      </c>
+      <c r="BK191">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,27 @@
     <t>['76', '86', '90']</t>
   </si>
   <si>
+    <t>['12', '68']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['45+2', '90']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['6', '16']</t>
+  </si>
+  <si>
+    <t>['33', '60']</t>
+  </si>
+  <si>
+    <t>['6', '27', '64', '84']</t>
+  </si>
+  <si>
     <t>['48', '51', '62']</t>
   </si>
   <si>
@@ -755,9 +776,6 @@
   </si>
   <si>
     <t>['2']</t>
-  </si>
-  <si>
-    <t>['12']</t>
   </si>
   <si>
     <t>['3', '19', '61', '85']</t>
@@ -926,6 +944,18 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['22', '65']</t>
+  </si>
+  <si>
+    <t>['41', '57']</t>
+  </si>
+  <si>
+    <t>['44', '73', '85']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1651,7 @@
         <v>1.27</v>
       </c>
       <c r="AT2">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1722,7 +1752,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1913,7 +1943,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -2000,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT4">
         <v>0.36</v>
@@ -2194,7 +2224,7 @@
         <v>2.55</v>
       </c>
       <c r="AT5">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2295,7 +2325,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2486,7 +2516,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2573,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT7">
         <v>0.64</v>
@@ -2677,7 +2707,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2958,7 +2988,7 @@
         <v>1.27</v>
       </c>
       <c r="AT9">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3250,7 +3280,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3337,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT11">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3441,7 +3471,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3528,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3719,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3823,7 +3853,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4101,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT15">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4205,7 +4235,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4292,10 +4322,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4483,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0.45</v>
@@ -4778,7 +4808,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4868,7 +4898,7 @@
         <v>2.09</v>
       </c>
       <c r="AT19">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4969,7 +4999,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5059,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="AT20">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU20">
         <v>1.23</v>
@@ -5160,7 +5190,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5351,7 +5381,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5629,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT23">
         <v>0.9</v>
@@ -6306,7 +6336,7 @@
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6393,10 +6423,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU27">
         <v>1.3</v>
@@ -6497,7 +6527,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6775,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT29">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU29">
         <v>2.62</v>
@@ -7070,7 +7100,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7157,7 +7187,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT31">
         <v>2.18</v>
@@ -7261,7 +7291,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7348,10 +7378,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT32">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU32">
         <v>1.54</v>
@@ -7539,10 +7569,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT33">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>2.03</v>
@@ -7643,7 +7673,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7730,10 +7760,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT34">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU34">
         <v>3.19</v>
@@ -8306,7 +8336,7 @@
         <v>1.9</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU37">
         <v>2.43</v>
@@ -8407,7 +8437,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8685,7 +8715,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8789,7 +8819,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8879,7 +8909,7 @@
         <v>2.64</v>
       </c>
       <c r="AT40">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU40">
         <v>1.94</v>
@@ -9171,7 +9201,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9258,7 +9288,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT42">
         <v>2.18</v>
@@ -9362,7 +9392,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9553,7 +9583,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9643,7 +9673,7 @@
         <v>1.18</v>
       </c>
       <c r="AT44">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU44">
         <v>1.58</v>
@@ -9834,7 +9864,7 @@
         <v>1.27</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU45">
         <v>1.85</v>
@@ -10022,10 +10052,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT46">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU46">
         <v>1.53</v>
@@ -10126,7 +10156,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10213,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT47">
         <v>0.9</v>
@@ -10595,10 +10625,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT49">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU49">
         <v>3.04</v>
@@ -10786,10 +10816,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT50">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU50">
         <v>1.36</v>
@@ -10977,10 +11007,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT51">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU51">
         <v>1.31</v>
@@ -11359,7 +11389,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT53">
         <v>0.45</v>
@@ -11463,7 +11493,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11553,7 +11583,7 @@
         <v>1.9</v>
       </c>
       <c r="AT54">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>2.99</v>
@@ -11741,10 +11771,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT55">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU55">
         <v>2.49</v>
@@ -11932,10 +11962,10 @@
         <v>1.67</v>
       </c>
       <c r="AS56">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU56">
         <v>1.41</v>
@@ -12036,7 +12066,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12418,7 +12448,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q59">
         <v>16</v>
@@ -12887,10 +12917,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -12991,7 +13021,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>13</v>
@@ -13182,7 +13212,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13272,7 +13302,7 @@
         <v>1.27</v>
       </c>
       <c r="AT63">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.61</v>
@@ -13373,7 +13403,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13651,10 +13681,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT65">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -13755,7 +13785,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13842,10 +13872,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT66">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU66">
         <v>1.22</v>
@@ -13946,7 +13976,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14033,7 +14063,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>0.9</v>
@@ -14227,7 +14257,7 @@
         <v>2.64</v>
       </c>
       <c r="AT68">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU68">
         <v>1.96</v>
@@ -14606,7 +14636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT70">
         <v>1.36</v>
@@ -14710,7 +14740,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14901,7 +14931,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14991,7 +15021,7 @@
         <v>1.91</v>
       </c>
       <c r="AT72">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -15182,7 +15212,7 @@
         <v>1.18</v>
       </c>
       <c r="AT73">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU73">
         <v>1.52</v>
@@ -15283,7 +15313,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15370,7 +15400,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT74">
         <v>0.73</v>
@@ -15474,7 +15504,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15561,7 +15591,7 @@
         <v>2.25</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT75">
         <v>2.18</v>
@@ -15665,7 +15695,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15755,7 +15785,7 @@
         <v>2.09</v>
       </c>
       <c r="AT76">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -16134,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16325,10 +16355,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT79">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>2.54</v>
@@ -16429,7 +16459,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16516,10 +16546,10 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT80">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU80">
         <v>1.61</v>
@@ -16710,7 +16740,7 @@
         <v>1.27</v>
       </c>
       <c r="AT81">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU81">
         <v>1.6</v>
@@ -16811,7 +16841,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17002,7 +17032,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17471,10 +17501,10 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU85">
         <v>1.74</v>
@@ -17575,7 +17605,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17662,10 +17692,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT86">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU86">
         <v>1.85</v>
@@ -17856,7 +17886,7 @@
         <v>2.09</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -18339,7 +18369,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -18530,7 +18560,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18617,7 +18647,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT91">
         <v>0.36</v>
@@ -18721,7 +18751,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18808,7 +18838,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT92">
         <v>1.27</v>
@@ -18912,7 +18942,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19193,7 +19223,7 @@
         <v>1</v>
       </c>
       <c r="AT94">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU94">
         <v>1.51</v>
@@ -19381,10 +19411,10 @@
         <v>3</v>
       </c>
       <c r="AS95">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT95">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU95">
         <v>1.62</v>
@@ -19485,7 +19515,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19572,10 +19602,10 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT96">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.71</v>
@@ -19676,7 +19706,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19763,10 +19793,10 @@
         <v>1.8</v>
       </c>
       <c r="AS97">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT97">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU97">
         <v>1.39</v>
@@ -19867,7 +19897,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20145,10 +20175,10 @@
         <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT99">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU99">
         <v>1.55</v>
@@ -20249,7 +20279,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20336,10 +20366,10 @@
         <v>1.2</v>
       </c>
       <c r="AS100">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT100">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU100">
         <v>1.83</v>
@@ -20440,7 +20470,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20631,7 +20661,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20822,7 +20852,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20909,7 +20939,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT103">
         <v>0.36</v>
@@ -21294,7 +21324,7 @@
         <v>2.55</v>
       </c>
       <c r="AT105">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU105">
         <v>2.62</v>
@@ -21777,7 +21807,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21864,10 +21894,10 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU108">
         <v>1.62</v>
@@ -21968,7 +21998,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22058,7 +22088,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU109">
         <v>1.56</v>
@@ -22249,7 +22279,7 @@
         <v>1.09</v>
       </c>
       <c r="AT110">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU110">
         <v>1.74</v>
@@ -22437,10 +22467,10 @@
         <v>1.5</v>
       </c>
       <c r="AS111">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT111">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU111">
         <v>1.49</v>
@@ -22628,7 +22658,7 @@
         <v>0.83</v>
       </c>
       <c r="AS112">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT112">
         <v>0.45</v>
@@ -22923,7 +22953,7 @@
         <v>83</v>
       </c>
       <c r="P114" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23010,7 +23040,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT114">
         <v>2.18</v>
@@ -23114,7 +23144,7 @@
         <v>105</v>
       </c>
       <c r="P115" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23201,10 +23231,10 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT115">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU115">
         <v>3.11</v>
@@ -23305,7 +23335,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23395,7 +23425,7 @@
         <v>1.91</v>
       </c>
       <c r="AT116">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU116">
         <v>1.66</v>
@@ -23496,7 +23526,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23583,10 +23613,10 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT117">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU117">
         <v>2.9</v>
@@ -23774,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -23878,7 +23908,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23968,7 +23998,7 @@
         <v>2.09</v>
       </c>
       <c r="AT119">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU119">
         <v>1.64</v>
@@ -24069,7 +24099,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24156,7 +24186,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT120">
         <v>1.36</v>
@@ -24260,7 +24290,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24451,7 +24481,7 @@
         <v>83</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24541,7 +24571,7 @@
         <v>2.55</v>
       </c>
       <c r="AT122">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU122">
         <v>2.51</v>
@@ -24833,7 +24863,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -24920,7 +24950,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT124">
         <v>1.27</v>
@@ -25302,7 +25332,7 @@
         <v>0.57</v>
       </c>
       <c r="AS126">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT126">
         <v>0.36</v>
@@ -25406,7 +25436,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25493,10 +25523,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT127">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU127">
         <v>1.81</v>
@@ -25687,7 +25717,7 @@
         <v>2.64</v>
       </c>
       <c r="AT128">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU128">
         <v>2.1</v>
@@ -25878,7 +25908,7 @@
         <v>1.91</v>
       </c>
       <c r="AT129">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU129">
         <v>1.71</v>
@@ -26069,7 +26099,7 @@
         <v>1.9</v>
       </c>
       <c r="AT130">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU130">
         <v>1.98</v>
@@ -26170,7 +26200,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26451,7 +26481,7 @@
         <v>2.55</v>
       </c>
       <c r="AT132">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU132">
         <v>2.35</v>
@@ -26552,7 +26582,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26639,7 +26669,7 @@
         <v>2.29</v>
       </c>
       <c r="AS133">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT133">
         <v>2.18</v>
@@ -26743,7 +26773,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26934,7 +26964,7 @@
         <v>83</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27021,7 +27051,7 @@
         <v>0.43</v>
       </c>
       <c r="AS135">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT135">
         <v>0.64</v>
@@ -27212,7 +27242,7 @@
         <v>0.71</v>
       </c>
       <c r="AS136">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT136">
         <v>0.45</v>
@@ -27316,7 +27346,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27403,7 +27433,7 @@
         <v>0.86</v>
       </c>
       <c r="AS137">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT137">
         <v>0.73</v>
@@ -27507,7 +27537,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27597,7 +27627,7 @@
         <v>1.27</v>
       </c>
       <c r="AT138">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU138">
         <v>1.63</v>
@@ -27785,10 +27815,10 @@
         <v>1.14</v>
       </c>
       <c r="AS139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT139">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>3.01</v>
@@ -28170,7 +28200,7 @@
         <v>1</v>
       </c>
       <c r="AT141">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU141">
         <v>1.59</v>
@@ -28271,7 +28301,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28361,7 +28391,7 @@
         <v>1.09</v>
       </c>
       <c r="AT142">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU142">
         <v>1.67</v>
@@ -28462,7 +28492,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28549,7 +28579,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT143">
         <v>1.36</v>
@@ -28653,7 +28683,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28740,7 +28770,7 @@
         <v>2.13</v>
       </c>
       <c r="AS144">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT144">
         <v>2.18</v>
@@ -29122,7 +29152,7 @@
         <v>0.75</v>
       </c>
       <c r="AS146">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT146">
         <v>0.64</v>
@@ -29226,7 +29256,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29316,7 +29346,7 @@
         <v>1.27</v>
       </c>
       <c r="AT147">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU147">
         <v>1.9</v>
@@ -29507,7 +29537,7 @@
         <v>2.55</v>
       </c>
       <c r="AT148">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU148">
         <v>2.29</v>
@@ -29608,7 +29638,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29695,10 +29725,10 @@
         <v>1.29</v>
       </c>
       <c r="AS149">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT149">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU149">
         <v>1.61</v>
@@ -30077,7 +30107,7 @@
         <v>2.13</v>
       </c>
       <c r="AS151">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT151">
         <v>2.18</v>
@@ -30653,7 +30683,7 @@
         <v>1.18</v>
       </c>
       <c r="AT154">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU154">
         <v>1.69</v>
@@ -30945,7 +30975,7 @@
         <v>146</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31032,10 +31062,10 @@
         <v>2.33</v>
       </c>
       <c r="AS156">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT156">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU156">
         <v>1.64</v>
@@ -31136,7 +31166,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31226,7 +31256,7 @@
         <v>1</v>
       </c>
       <c r="AT157">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU157">
         <v>1.74</v>
@@ -31417,7 +31447,7 @@
         <v>1.09</v>
       </c>
       <c r="AT158">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU158">
         <v>1.57</v>
@@ -31605,7 +31635,7 @@
         <v>0.44</v>
       </c>
       <c r="AS159">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT159">
         <v>0.36</v>
@@ -31796,10 +31826,10 @@
         <v>1.25</v>
       </c>
       <c r="AS160">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT160">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU160">
         <v>2.52</v>
@@ -31987,7 +32017,7 @@
         <v>0.75</v>
       </c>
       <c r="AS161">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT161">
         <v>1</v>
@@ -32178,7 +32208,7 @@
         <v>0.67</v>
       </c>
       <c r="AS162">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT162">
         <v>0.64</v>
@@ -32563,7 +32593,7 @@
         <v>1.91</v>
       </c>
       <c r="AT164">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU164">
         <v>1.62</v>
@@ -32754,7 +32784,7 @@
         <v>1.27</v>
       </c>
       <c r="AT165">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU165">
         <v>1.91</v>
@@ -32855,7 +32885,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -32945,7 +32975,7 @@
         <v>1.27</v>
       </c>
       <c r="AT166">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU166">
         <v>1.73</v>
@@ -33046,7 +33076,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33237,7 +33267,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33428,7 +33458,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33515,7 +33545,7 @@
         <v>2</v>
       </c>
       <c r="AS169">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT169">
         <v>2.18</v>
@@ -33619,7 +33649,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33706,7 +33736,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS170">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT170">
         <v>0.45</v>
@@ -33810,7 +33840,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33897,7 +33927,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT171">
         <v>1.27</v>
@@ -34001,7 +34031,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -34282,7 +34312,7 @@
         <v>1.09</v>
       </c>
       <c r="AT173">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU173">
         <v>1.6</v>
@@ -34470,10 +34500,10 @@
         <v>2.4</v>
       </c>
       <c r="AS174">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT174">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU174">
         <v>1.61</v>
@@ -34574,7 +34604,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34664,7 +34694,7 @@
         <v>1.18</v>
       </c>
       <c r="AT175">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU175">
         <v>1.63</v>
@@ -34852,10 +34882,10 @@
         <v>1.44</v>
       </c>
       <c r="AS176">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT176">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU176">
         <v>1.63</v>
@@ -35043,7 +35073,7 @@
         <v>0.78</v>
       </c>
       <c r="AS177">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT177">
         <v>0.73</v>
@@ -35147,7 +35177,7 @@
         <v>83</v>
       </c>
       <c r="P178" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35234,7 +35264,7 @@
         <v>2.1</v>
       </c>
       <c r="AS178">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AT178">
         <v>2.18</v>
@@ -35338,7 +35368,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q179">
         <v>12</v>
@@ -35425,10 +35455,10 @@
         <v>1.44</v>
       </c>
       <c r="AS179">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT179">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU179">
         <v>2.55</v>
@@ -35616,10 +35646,10 @@
         <v>1.11</v>
       </c>
       <c r="AS180">
+        <v>1.33</v>
+      </c>
+      <c r="AT180">
         <v>1.18</v>
-      </c>
-      <c r="AT180">
-        <v>1</v>
       </c>
       <c r="AU180">
         <v>1.61</v>
@@ -35720,7 +35750,7 @@
         <v>181</v>
       </c>
       <c r="P181" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -35807,10 +35837,10 @@
         <v>1.11</v>
       </c>
       <c r="AS181">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT181">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU181">
         <v>1.42</v>
@@ -36484,7 +36514,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36675,7 +36705,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36866,7 +36896,7 @@
         <v>213</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37439,7 +37469,7 @@
         <v>216</v>
       </c>
       <c r="P190" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q190">
         <v>10</v>
@@ -37526,7 +37556,7 @@
         <v>0.8</v>
       </c>
       <c r="AS190">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT190">
         <v>0.73</v>
@@ -37630,7 +37660,7 @@
         <v>217</v>
       </c>
       <c r="P191" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -37772,6 +37802,1534 @@
       </c>
       <c r="BK191">
         <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>2433181</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44975.52083333334</v>
+      </c>
+      <c r="F192">
+        <v>22</v>
+      </c>
+      <c r="G192" t="s">
+        <v>79</v>
+      </c>
+      <c r="H192" t="s">
+        <v>71</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>218</v>
+      </c>
+      <c r="P192" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q192">
+        <v>5</v>
+      </c>
+      <c r="R192">
+        <v>8</v>
+      </c>
+      <c r="S192">
+        <v>13</v>
+      </c>
+      <c r="T192">
+        <v>3.9</v>
+      </c>
+      <c r="U192">
+        <v>2.3</v>
+      </c>
+      <c r="V192">
+        <v>2.53</v>
+      </c>
+      <c r="W192">
+        <v>1.32</v>
+      </c>
+      <c r="X192">
+        <v>3.25</v>
+      </c>
+      <c r="Y192">
+        <v>2.48</v>
+      </c>
+      <c r="Z192">
+        <v>1.51</v>
+      </c>
+      <c r="AA192">
+        <v>5.85</v>
+      </c>
+      <c r="AB192">
+        <v>1.12</v>
+      </c>
+      <c r="AC192">
+        <v>3.25</v>
+      </c>
+      <c r="AD192">
+        <v>3.85</v>
+      </c>
+      <c r="AE192">
+        <v>2</v>
+      </c>
+      <c r="AF192">
+        <v>1.01</v>
+      </c>
+      <c r="AG192">
+        <v>10.25</v>
+      </c>
+      <c r="AH192">
+        <v>1.19</v>
+      </c>
+      <c r="AI192">
+        <v>4.05</v>
+      </c>
+      <c r="AJ192">
+        <v>1.58</v>
+      </c>
+      <c r="AK192">
+        <v>2.4</v>
+      </c>
+      <c r="AL192">
+        <v>1.6</v>
+      </c>
+      <c r="AM192">
+        <v>2.28</v>
+      </c>
+      <c r="AN192">
+        <v>1.75</v>
+      </c>
+      <c r="AO192">
+        <v>1.25</v>
+      </c>
+      <c r="AP192">
+        <v>1.3</v>
+      </c>
+      <c r="AQ192">
+        <v>1</v>
+      </c>
+      <c r="AR192">
+        <v>1.18</v>
+      </c>
+      <c r="AS192">
+        <v>1.18</v>
+      </c>
+      <c r="AT192">
+        <v>1.08</v>
+      </c>
+      <c r="AU192">
+        <v>1.56</v>
+      </c>
+      <c r="AV192">
+        <v>1.65</v>
+      </c>
+      <c r="AW192">
+        <v>3.21</v>
+      </c>
+      <c r="AX192">
+        <v>2.38</v>
+      </c>
+      <c r="AY192">
+        <v>8</v>
+      </c>
+      <c r="AZ192">
+        <v>1.75</v>
+      </c>
+      <c r="BA192">
+        <v>1.11</v>
+      </c>
+      <c r="BB192">
+        <v>1.33</v>
+      </c>
+      <c r="BC192">
+        <v>1.54</v>
+      </c>
+      <c r="BD192">
+        <v>1.84</v>
+      </c>
+      <c r="BE192">
+        <v>2.28</v>
+      </c>
+      <c r="BF192">
+        <v>4</v>
+      </c>
+      <c r="BG192">
+        <v>2</v>
+      </c>
+      <c r="BH192">
+        <v>4</v>
+      </c>
+      <c r="BI192">
+        <v>9</v>
+      </c>
+      <c r="BJ192">
+        <v>8</v>
+      </c>
+      <c r="BK192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2433179</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44975.61458333334</v>
+      </c>
+      <c r="F193">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>70</v>
+      </c>
+      <c r="H193" t="s">
+        <v>77</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>219</v>
+      </c>
+      <c r="P193" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q193">
+        <v>9</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>11</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
+        <v>2.16</v>
+      </c>
+      <c r="V193">
+        <v>3.85</v>
+      </c>
+      <c r="W193">
+        <v>1.42</v>
+      </c>
+      <c r="X193">
+        <v>2.65</v>
+      </c>
+      <c r="Y193">
+        <v>2.9</v>
+      </c>
+      <c r="Z193">
+        <v>1.37</v>
+      </c>
+      <c r="AA193">
+        <v>7.5</v>
+      </c>
+      <c r="AB193">
+        <v>1.07</v>
+      </c>
+      <c r="AC193">
+        <v>2.45</v>
+      </c>
+      <c r="AD193">
+        <v>3.34</v>
+      </c>
+      <c r="AE193">
+        <v>2.92</v>
+      </c>
+      <c r="AF193">
+        <v>1.06</v>
+      </c>
+      <c r="AG193">
+        <v>9.5</v>
+      </c>
+      <c r="AH193">
+        <v>1.37</v>
+      </c>
+      <c r="AI193">
+        <v>3.2</v>
+      </c>
+      <c r="AJ193">
+        <v>2.12</v>
+      </c>
+      <c r="AK193">
+        <v>1.73</v>
+      </c>
+      <c r="AL193">
+        <v>1.92</v>
+      </c>
+      <c r="AM193">
+        <v>1.87</v>
+      </c>
+      <c r="AN193">
+        <v>1.35</v>
+      </c>
+      <c r="AO193">
+        <v>1.35</v>
+      </c>
+      <c r="AP193">
+        <v>1.7</v>
+      </c>
+      <c r="AQ193">
+        <v>0.8</v>
+      </c>
+      <c r="AR193">
+        <v>0.3</v>
+      </c>
+      <c r="AS193">
+        <v>0.82</v>
+      </c>
+      <c r="AT193">
+        <v>0.36</v>
+      </c>
+      <c r="AU193">
+        <v>1.55</v>
+      </c>
+      <c r="AV193">
+        <v>1.24</v>
+      </c>
+      <c r="AW193">
+        <v>2.79</v>
+      </c>
+      <c r="AX193">
+        <v>1.7</v>
+      </c>
+      <c r="AY193">
+        <v>8</v>
+      </c>
+      <c r="AZ193">
+        <v>2.5</v>
+      </c>
+      <c r="BA193">
+        <v>1.26</v>
+      </c>
+      <c r="BB193">
+        <v>1.44</v>
+      </c>
+      <c r="BC193">
+        <v>1.7</v>
+      </c>
+      <c r="BD193">
+        <v>2.1</v>
+      </c>
+      <c r="BE193">
+        <v>2.7</v>
+      </c>
+      <c r="BF193">
+        <v>4</v>
+      </c>
+      <c r="BG193">
+        <v>4</v>
+      </c>
+      <c r="BH193">
+        <v>6</v>
+      </c>
+      <c r="BI193">
+        <v>2</v>
+      </c>
+      <c r="BJ193">
+        <v>10</v>
+      </c>
+      <c r="BK193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2433182</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44975.70833333334</v>
+      </c>
+      <c r="F194">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>78</v>
+      </c>
+      <c r="H194" t="s">
+        <v>73</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194" t="s">
+        <v>220</v>
+      </c>
+      <c r="P194" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q194">
+        <v>2</v>
+      </c>
+      <c r="R194">
+        <v>5</v>
+      </c>
+      <c r="S194">
+        <v>7</v>
+      </c>
+      <c r="T194">
+        <v>2.2</v>
+      </c>
+      <c r="U194">
+        <v>2.43</v>
+      </c>
+      <c r="V194">
+        <v>4.5</v>
+      </c>
+      <c r="W194">
+        <v>1.3</v>
+      </c>
+      <c r="X194">
+        <v>3.25</v>
+      </c>
+      <c r="Y194">
+        <v>2.45</v>
+      </c>
+      <c r="Z194">
+        <v>1.55</v>
+      </c>
+      <c r="AA194">
+        <v>6.1</v>
+      </c>
+      <c r="AB194">
+        <v>1.14</v>
+      </c>
+      <c r="AC194">
+        <v>1.74</v>
+      </c>
+      <c r="AD194">
+        <v>4.02</v>
+      </c>
+      <c r="AE194">
+        <v>4.32</v>
+      </c>
+      <c r="AF194">
+        <v>1.02</v>
+      </c>
+      <c r="AG194">
+        <v>14</v>
+      </c>
+      <c r="AH194">
+        <v>1.21</v>
+      </c>
+      <c r="AI194">
+        <v>4.35</v>
+      </c>
+      <c r="AJ194">
+        <v>1.74</v>
+      </c>
+      <c r="AK194">
+        <v>2.1</v>
+      </c>
+      <c r="AL194">
+        <v>1.74</v>
+      </c>
+      <c r="AM194">
+        <v>2.08</v>
+      </c>
+      <c r="AN194">
+        <v>1.23</v>
+      </c>
+      <c r="AO194">
+        <v>1.29</v>
+      </c>
+      <c r="AP194">
+        <v>2.08</v>
+      </c>
+      <c r="AQ194">
+        <v>2.2</v>
+      </c>
+      <c r="AR194">
+        <v>2.27</v>
+      </c>
+      <c r="AS194">
+        <v>2.27</v>
+      </c>
+      <c r="AT194">
+        <v>2.08</v>
+      </c>
+      <c r="AU194">
+        <v>2.66</v>
+      </c>
+      <c r="AV194">
+        <v>1.91</v>
+      </c>
+      <c r="AW194">
+        <v>4.57</v>
+      </c>
+      <c r="AX194">
+        <v>1.49</v>
+      </c>
+      <c r="AY194">
+        <v>8.5</v>
+      </c>
+      <c r="AZ194">
+        <v>3.1</v>
+      </c>
+      <c r="BA194">
+        <v>1.2</v>
+      </c>
+      <c r="BB194">
+        <v>1.34</v>
+      </c>
+      <c r="BC194">
+        <v>1.55</v>
+      </c>
+      <c r="BD194">
+        <v>1.85</v>
+      </c>
+      <c r="BE194">
+        <v>2.3</v>
+      </c>
+      <c r="BF194">
+        <v>4</v>
+      </c>
+      <c r="BG194">
+        <v>0</v>
+      </c>
+      <c r="BH194">
+        <v>10</v>
+      </c>
+      <c r="BI194">
+        <v>0</v>
+      </c>
+      <c r="BJ194">
+        <v>14</v>
+      </c>
+      <c r="BK194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2433185</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44976.34375</v>
+      </c>
+      <c r="F195">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>67</v>
+      </c>
+      <c r="H195" t="s">
+        <v>65</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>221</v>
+      </c>
+      <c r="P195" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q195">
+        <v>2</v>
+      </c>
+      <c r="R195">
+        <v>5</v>
+      </c>
+      <c r="S195">
+        <v>7</v>
+      </c>
+      <c r="T195">
+        <v>3.75</v>
+      </c>
+      <c r="U195">
+        <v>2.1</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.44</v>
+      </c>
+      <c r="X195">
+        <v>2.63</v>
+      </c>
+      <c r="Y195">
+        <v>3.25</v>
+      </c>
+      <c r="Z195">
+        <v>1.33</v>
+      </c>
+      <c r="AA195">
+        <v>9</v>
+      </c>
+      <c r="AB195">
+        <v>1.07</v>
+      </c>
+      <c r="AC195">
+        <v>3.05</v>
+      </c>
+      <c r="AD195">
+        <v>3.34</v>
+      </c>
+      <c r="AE195">
+        <v>2.36</v>
+      </c>
+      <c r="AF195">
+        <v>1.05</v>
+      </c>
+      <c r="AG195">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="AH195">
+        <v>1.34</v>
+      </c>
+      <c r="AI195">
+        <v>3.14</v>
+      </c>
+      <c r="AJ195">
+        <v>2.05</v>
+      </c>
+      <c r="AK195">
+        <v>1.7</v>
+      </c>
+      <c r="AL195">
+        <v>1.8</v>
+      </c>
+      <c r="AM195">
+        <v>1.95</v>
+      </c>
+      <c r="AN195">
+        <v>1.58</v>
+      </c>
+      <c r="AO195">
+        <v>1.33</v>
+      </c>
+      <c r="AP195">
+        <v>1.36</v>
+      </c>
+      <c r="AQ195">
+        <v>0.27</v>
+      </c>
+      <c r="AR195">
+        <v>1.3</v>
+      </c>
+      <c r="AS195">
+        <v>0.25</v>
+      </c>
+      <c r="AT195">
+        <v>1.45</v>
+      </c>
+      <c r="AU195">
+        <v>1.46</v>
+      </c>
+      <c r="AV195">
+        <v>1.44</v>
+      </c>
+      <c r="AW195">
+        <v>2.9</v>
+      </c>
+      <c r="AX195">
+        <v>2.14</v>
+      </c>
+      <c r="AY195">
+        <v>8</v>
+      </c>
+      <c r="AZ195">
+        <v>1.91</v>
+      </c>
+      <c r="BA195">
+        <v>1.23</v>
+      </c>
+      <c r="BB195">
+        <v>1.38</v>
+      </c>
+      <c r="BC195">
+        <v>1.63</v>
+      </c>
+      <c r="BD195">
+        <v>1.98</v>
+      </c>
+      <c r="BE195">
+        <v>2.5</v>
+      </c>
+      <c r="BF195">
+        <v>4</v>
+      </c>
+      <c r="BG195">
+        <v>5</v>
+      </c>
+      <c r="BH195">
+        <v>4</v>
+      </c>
+      <c r="BI195">
+        <v>6</v>
+      </c>
+      <c r="BJ195">
+        <v>8</v>
+      </c>
+      <c r="BK195">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2433183</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44976.4375</v>
+      </c>
+      <c r="F196">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>75</v>
+      </c>
+      <c r="H196" t="s">
+        <v>81</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>222</v>
+      </c>
+      <c r="P196" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>4</v>
+      </c>
+      <c r="S196">
+        <v>5</v>
+      </c>
+      <c r="T196">
+        <v>4.33</v>
+      </c>
+      <c r="U196">
+        <v>2.15</v>
+      </c>
+      <c r="V196">
+        <v>2.6</v>
+      </c>
+      <c r="W196">
+        <v>1.4</v>
+      </c>
+      <c r="X196">
+        <v>2.75</v>
+      </c>
+      <c r="Y196">
+        <v>2.75</v>
+      </c>
+      <c r="Z196">
+        <v>1.4</v>
+      </c>
+      <c r="AA196">
+        <v>8</v>
+      </c>
+      <c r="AB196">
+        <v>1.08</v>
+      </c>
+      <c r="AC196">
+        <v>3.8</v>
+      </c>
+      <c r="AD196">
+        <v>3.58</v>
+      </c>
+      <c r="AE196">
+        <v>1.97</v>
+      </c>
+      <c r="AF196">
+        <v>1.04</v>
+      </c>
+      <c r="AG196">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH196">
+        <v>1.31</v>
+      </c>
+      <c r="AI196">
+        <v>3.32</v>
+      </c>
+      <c r="AJ196">
+        <v>1.95</v>
+      </c>
+      <c r="AK196">
+        <v>1.8</v>
+      </c>
+      <c r="AL196">
+        <v>1.83</v>
+      </c>
+      <c r="AM196">
+        <v>1.96</v>
+      </c>
+      <c r="AN196">
+        <v>1.88</v>
+      </c>
+      <c r="AO196">
+        <v>1.26</v>
+      </c>
+      <c r="AP196">
+        <v>1.26</v>
+      </c>
+      <c r="AQ196">
+        <v>1.18</v>
+      </c>
+      <c r="AR196">
+        <v>1.1</v>
+      </c>
+      <c r="AS196">
+        <v>1.33</v>
+      </c>
+      <c r="AT196">
+        <v>1</v>
+      </c>
+      <c r="AU196">
+        <v>1.58</v>
+      </c>
+      <c r="AV196">
+        <v>1.71</v>
+      </c>
+      <c r="AW196">
+        <v>3.29</v>
+      </c>
+      <c r="AX196">
+        <v>2.48</v>
+      </c>
+      <c r="AY196">
+        <v>8</v>
+      </c>
+      <c r="AZ196">
+        <v>1.7</v>
+      </c>
+      <c r="BA196">
+        <v>1.22</v>
+      </c>
+      <c r="BB196">
+        <v>1.38</v>
+      </c>
+      <c r="BC196">
+        <v>1.62</v>
+      </c>
+      <c r="BD196">
+        <v>1.96</v>
+      </c>
+      <c r="BE196">
+        <v>2.48</v>
+      </c>
+      <c r="BF196">
+        <v>3</v>
+      </c>
+      <c r="BG196">
+        <v>0</v>
+      </c>
+      <c r="BH196">
+        <v>2</v>
+      </c>
+      <c r="BI196">
+        <v>4</v>
+      </c>
+      <c r="BJ196">
+        <v>5</v>
+      </c>
+      <c r="BK196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2433180</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44976.4375</v>
+      </c>
+      <c r="F197">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>76</v>
+      </c>
+      <c r="H197" t="s">
+        <v>68</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <v>4</v>
+      </c>
+      <c r="O197" t="s">
+        <v>223</v>
+      </c>
+      <c r="P197" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q197">
+        <v>2</v>
+      </c>
+      <c r="R197">
+        <v>5</v>
+      </c>
+      <c r="S197">
+        <v>7</v>
+      </c>
+      <c r="T197">
+        <v>4</v>
+      </c>
+      <c r="U197">
+        <v>2.5</v>
+      </c>
+      <c r="V197">
+        <v>2.28</v>
+      </c>
+      <c r="W197">
+        <v>1.28</v>
+      </c>
+      <c r="X197">
+        <v>3.45</v>
+      </c>
+      <c r="Y197">
+        <v>2.23</v>
+      </c>
+      <c r="Z197">
+        <v>1.58</v>
+      </c>
+      <c r="AA197">
+        <v>5.5</v>
+      </c>
+      <c r="AB197">
+        <v>1.16</v>
+      </c>
+      <c r="AC197">
+        <v>4.04</v>
+      </c>
+      <c r="AD197">
+        <v>4</v>
+      </c>
+      <c r="AE197">
+        <v>1.81</v>
+      </c>
+      <c r="AF197">
+        <v>1.03</v>
+      </c>
+      <c r="AG197">
+        <v>16.25</v>
+      </c>
+      <c r="AH197">
+        <v>1.2</v>
+      </c>
+      <c r="AI197">
+        <v>4.9</v>
+      </c>
+      <c r="AJ197">
+        <v>1.61</v>
+      </c>
+      <c r="AK197">
+        <v>2.2</v>
+      </c>
+      <c r="AL197">
+        <v>1.65</v>
+      </c>
+      <c r="AM197">
+        <v>2.23</v>
+      </c>
+      <c r="AN197">
+        <v>2</v>
+      </c>
+      <c r="AO197">
+        <v>1.27</v>
+      </c>
+      <c r="AP197">
+        <v>1.28</v>
+      </c>
+      <c r="AQ197">
+        <v>1.8</v>
+      </c>
+      <c r="AR197">
+        <v>1.4</v>
+      </c>
+      <c r="AS197">
+        <v>1.73</v>
+      </c>
+      <c r="AT197">
+        <v>1.36</v>
+      </c>
+      <c r="AU197">
+        <v>1.64</v>
+      </c>
+      <c r="AV197">
+        <v>2.09</v>
+      </c>
+      <c r="AW197">
+        <v>3.73</v>
+      </c>
+      <c r="AX197">
+        <v>2.63</v>
+      </c>
+      <c r="AY197">
+        <v>8</v>
+      </c>
+      <c r="AZ197">
+        <v>1.64</v>
+      </c>
+      <c r="BA197">
+        <v>1.16</v>
+      </c>
+      <c r="BB197">
+        <v>1.32</v>
+      </c>
+      <c r="BC197">
+        <v>1.52</v>
+      </c>
+      <c r="BD197">
+        <v>1.81</v>
+      </c>
+      <c r="BE197">
+        <v>2.23</v>
+      </c>
+      <c r="BF197">
+        <v>5</v>
+      </c>
+      <c r="BG197">
+        <v>9</v>
+      </c>
+      <c r="BH197">
+        <v>1</v>
+      </c>
+      <c r="BI197">
+        <v>6</v>
+      </c>
+      <c r="BJ197">
+        <v>6</v>
+      </c>
+      <c r="BK197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2433177</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44976.53125</v>
+      </c>
+      <c r="F198">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>80</v>
+      </c>
+      <c r="H198" t="s">
+        <v>82</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>4</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198" t="s">
+        <v>224</v>
+      </c>
+      <c r="P198" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q198">
+        <v>5</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>7</v>
+      </c>
+      <c r="T198">
+        <v>1.62</v>
+      </c>
+      <c r="U198">
+        <v>2.88</v>
+      </c>
+      <c r="V198">
+        <v>9</v>
+      </c>
+      <c r="W198">
+        <v>1.25</v>
+      </c>
+      <c r="X198">
+        <v>3.75</v>
+      </c>
+      <c r="Y198">
+        <v>2.1</v>
+      </c>
+      <c r="Z198">
+        <v>1.67</v>
+      </c>
+      <c r="AA198">
+        <v>4.5</v>
+      </c>
+      <c r="AB198">
+        <v>1.18</v>
+      </c>
+      <c r="AC198">
+        <v>1.24</v>
+      </c>
+      <c r="AD198">
+        <v>6.65</v>
+      </c>
+      <c r="AE198">
+        <v>11</v>
+      </c>
+      <c r="AF198">
+        <v>1.01</v>
+      </c>
+      <c r="AG198">
+        <v>16</v>
+      </c>
+      <c r="AH198">
+        <v>1.14</v>
+      </c>
+      <c r="AI198">
+        <v>5.25</v>
+      </c>
+      <c r="AJ198">
+        <v>1.43</v>
+      </c>
+      <c r="AK198">
+        <v>2.7</v>
+      </c>
+      <c r="AL198">
+        <v>2</v>
+      </c>
+      <c r="AM198">
+        <v>1.75</v>
+      </c>
+      <c r="AN198">
+        <v>1.04</v>
+      </c>
+      <c r="AO198">
+        <v>1.11</v>
+      </c>
+      <c r="AP198">
+        <v>4.33</v>
+      </c>
+      <c r="AQ198">
+        <v>1.9</v>
+      </c>
+      <c r="AR198">
+        <v>1.4</v>
+      </c>
+      <c r="AS198">
+        <v>2</v>
+      </c>
+      <c r="AT198">
+        <v>1.27</v>
+      </c>
+      <c r="AU198">
+        <v>2.78</v>
+      </c>
+      <c r="AV198">
+        <v>1.42</v>
+      </c>
+      <c r="AW198">
+        <v>4.2</v>
+      </c>
+      <c r="AX198">
+        <v>1.14</v>
+      </c>
+      <c r="AY198">
+        <v>14</v>
+      </c>
+      <c r="AZ198">
+        <v>8</v>
+      </c>
+      <c r="BA198">
+        <v>1.22</v>
+      </c>
+      <c r="BB198">
+        <v>1.37</v>
+      </c>
+      <c r="BC198">
+        <v>1.6</v>
+      </c>
+      <c r="BD198">
+        <v>1.92</v>
+      </c>
+      <c r="BE198">
+        <v>2.4</v>
+      </c>
+      <c r="BF198">
+        <v>13</v>
+      </c>
+      <c r="BG198">
+        <v>3</v>
+      </c>
+      <c r="BH198">
+        <v>6</v>
+      </c>
+      <c r="BI198">
+        <v>3</v>
+      </c>
+      <c r="BJ198">
+        <v>19</v>
+      </c>
+      <c r="BK198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2433178</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44976.66666666666</v>
+      </c>
+      <c r="F199">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>74</v>
+      </c>
+      <c r="H199" t="s">
+        <v>72</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>3</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>83</v>
+      </c>
+      <c r="P199" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q199">
+        <v>8</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>10</v>
+      </c>
+      <c r="T199">
+        <v>3.6</v>
+      </c>
+      <c r="U199">
+        <v>2.25</v>
+      </c>
+      <c r="V199">
+        <v>2.75</v>
+      </c>
+      <c r="W199">
+        <v>1.36</v>
+      </c>
+      <c r="X199">
+        <v>3</v>
+      </c>
+      <c r="Y199">
+        <v>2.63</v>
+      </c>
+      <c r="Z199">
+        <v>1.44</v>
+      </c>
+      <c r="AA199">
+        <v>7</v>
+      </c>
+      <c r="AB199">
+        <v>1.1</v>
+      </c>
+      <c r="AC199">
+        <v>2.49</v>
+      </c>
+      <c r="AD199">
+        <v>3.25</v>
+      </c>
+      <c r="AE199">
+        <v>2.7</v>
+      </c>
+      <c r="AF199">
+        <v>1.05</v>
+      </c>
+      <c r="AG199">
+        <v>13</v>
+      </c>
+      <c r="AH199">
+        <v>1.25</v>
+      </c>
+      <c r="AI199">
+        <v>4.02</v>
+      </c>
+      <c r="AJ199">
+        <v>1.81</v>
+      </c>
+      <c r="AK199">
+        <v>2.05</v>
+      </c>
+      <c r="AL199">
+        <v>1.62</v>
+      </c>
+      <c r="AM199">
+        <v>2.2</v>
+      </c>
+      <c r="AN199">
+        <v>1.62</v>
+      </c>
+      <c r="AO199">
+        <v>1.32</v>
+      </c>
+      <c r="AP199">
+        <v>1.35</v>
+      </c>
+      <c r="AQ199">
+        <v>1.6</v>
+      </c>
+      <c r="AR199">
+        <v>1</v>
+      </c>
+      <c r="AS199">
+        <v>1.45</v>
+      </c>
+      <c r="AT199">
+        <v>1.18</v>
+      </c>
+      <c r="AU199">
+        <v>1.48</v>
+      </c>
+      <c r="AV199">
+        <v>1.39</v>
+      </c>
+      <c r="AW199">
+        <v>2.87</v>
+      </c>
+      <c r="AX199">
+        <v>2.2</v>
+      </c>
+      <c r="AY199">
+        <v>8</v>
+      </c>
+      <c r="AZ199">
+        <v>1.86</v>
+      </c>
+      <c r="BA199">
+        <v>1.16</v>
+      </c>
+      <c r="BB199">
+        <v>1.36</v>
+      </c>
+      <c r="BC199">
+        <v>1.58</v>
+      </c>
+      <c r="BD199">
+        <v>1.91</v>
+      </c>
+      <c r="BE199">
+        <v>2.4</v>
+      </c>
+      <c r="BF199">
+        <v>5</v>
+      </c>
+      <c r="BG199">
+        <v>7</v>
+      </c>
+      <c r="BH199">
+        <v>4</v>
+      </c>
+      <c r="BI199">
+        <v>7</v>
+      </c>
+      <c r="BJ199">
+        <v>9</v>
+      </c>
+      <c r="BK199">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="315">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -957,6 +957,9 @@
   <si>
     <t>['44', '73', '85']</t>
   </si>
+  <si>
+    <t>['74', '88', '89']</t>
+  </si>
 </sst>
 </file>
 
@@ -1317,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2415,7 +2418,7 @@
         <v>1.91</v>
       </c>
       <c r="AT6">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -4895,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT19">
         <v>2.08</v>
@@ -5471,7 +5474,7 @@
         <v>1.18</v>
       </c>
       <c r="AT22">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU22">
         <v>1.48</v>
@@ -5850,7 +5853,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT24">
         <v>2.18</v>
@@ -8527,7 +8530,7 @@
         <v>1.09</v>
       </c>
       <c r="AT38">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU38">
         <v>1.65</v>
@@ -9097,7 +9100,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT41">
         <v>0.64</v>
@@ -12153,7 +12156,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT57">
         <v>0.45</v>
@@ -14639,7 +14642,7 @@
         <v>1.45</v>
       </c>
       <c r="AT70">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU70">
         <v>1.52</v>
@@ -15782,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT76">
         <v>0.36</v>
@@ -17883,7 +17886,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT87">
         <v>1.18</v>
@@ -18268,7 +18271,7 @@
         <v>2.55</v>
       </c>
       <c r="AT89">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU89">
         <v>2.84</v>
@@ -20560,7 +20563,7 @@
         <v>1.27</v>
       </c>
       <c r="AT101">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU101">
         <v>1.47</v>
@@ -20748,7 +20751,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT102">
         <v>1.27</v>
@@ -23995,7 +23998,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -24189,7 +24192,7 @@
         <v>1.18</v>
       </c>
       <c r="AT120">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -28006,7 +28009,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT140">
         <v>0.36</v>
@@ -28582,7 +28585,7 @@
         <v>1.33</v>
       </c>
       <c r="AT143">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU143">
         <v>1.65</v>
@@ -30301,7 +30304,7 @@
         <v>2.64</v>
       </c>
       <c r="AT152">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU152">
         <v>2.11</v>
@@ -30871,7 +30874,7 @@
         <v>0.75</v>
       </c>
       <c r="AS155">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT155">
         <v>0.73</v>
@@ -33166,7 +33169,7 @@
         <v>1.9</v>
       </c>
       <c r="AT167">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU167">
         <v>1.99</v>
@@ -36792,7 +36795,7 @@
         <v>1</v>
       </c>
       <c r="AS186">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT186">
         <v>0.9</v>
@@ -37177,7 +37180,7 @@
         <v>1</v>
       </c>
       <c r="AT188">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU188">
         <v>1.76</v>
@@ -39330,6 +39333,197 @@
       </c>
       <c r="BK199">
         <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2433193</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44981.66666666666</v>
+      </c>
+      <c r="F200">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>82</v>
+      </c>
+      <c r="H200" t="s">
+        <v>76</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>3</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>83</v>
+      </c>
+      <c r="P200" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>2</v>
+      </c>
+      <c r="S200">
+        <v>2</v>
+      </c>
+      <c r="T200">
+        <v>3.15</v>
+      </c>
+      <c r="U200">
+        <v>2.1</v>
+      </c>
+      <c r="V200">
+        <v>3.2</v>
+      </c>
+      <c r="W200">
+        <v>1.4</v>
+      </c>
+      <c r="X200">
+        <v>2.8</v>
+      </c>
+      <c r="Y200">
+        <v>2.75</v>
+      </c>
+      <c r="Z200">
+        <v>1.4</v>
+      </c>
+      <c r="AA200">
+        <v>7.5</v>
+      </c>
+      <c r="AB200">
+        <v>1.08</v>
+      </c>
+      <c r="AC200">
+        <v>2.45</v>
+      </c>
+      <c r="AD200">
+        <v>3.2</v>
+      </c>
+      <c r="AE200">
+        <v>2.45</v>
+      </c>
+      <c r="AF200">
+        <v>1.06</v>
+      </c>
+      <c r="AG200">
+        <v>11.5</v>
+      </c>
+      <c r="AH200">
+        <v>1.3</v>
+      </c>
+      <c r="AI200">
+        <v>3.57</v>
+      </c>
+      <c r="AJ200">
+        <v>1.85</v>
+      </c>
+      <c r="AK200">
+        <v>1.8</v>
+      </c>
+      <c r="AL200">
+        <v>1.72</v>
+      </c>
+      <c r="AM200">
+        <v>1.98</v>
+      </c>
+      <c r="AN200">
+        <v>1.48</v>
+      </c>
+      <c r="AO200">
+        <v>1.32</v>
+      </c>
+      <c r="AP200">
+        <v>1.5</v>
+      </c>
+      <c r="AQ200">
+        <v>2.09</v>
+      </c>
+      <c r="AR200">
+        <v>1.36</v>
+      </c>
+      <c r="AS200">
+        <v>1.92</v>
+      </c>
+      <c r="AT200">
+        <v>1.5</v>
+      </c>
+      <c r="AU200">
+        <v>1.65</v>
+      </c>
+      <c r="AV200">
+        <v>1.62</v>
+      </c>
+      <c r="AW200">
+        <v>3.27</v>
+      </c>
+      <c r="AX200">
+        <v>2</v>
+      </c>
+      <c r="AY200">
+        <v>8</v>
+      </c>
+      <c r="AZ200">
+        <v>2.02</v>
+      </c>
+      <c r="BA200">
+        <v>1.22</v>
+      </c>
+      <c r="BB200">
+        <v>1.38</v>
+      </c>
+      <c r="BC200">
+        <v>1.62</v>
+      </c>
+      <c r="BD200">
+        <v>1.96</v>
+      </c>
+      <c r="BE200">
+        <v>2.48</v>
+      </c>
+      <c r="BF200">
+        <v>2</v>
+      </c>
+      <c r="BG200">
+        <v>7</v>
+      </c>
+      <c r="BH200">
+        <v>13</v>
+      </c>
+      <c r="BI200">
+        <v>10</v>
+      </c>
+      <c r="BJ200">
+        <v>15</v>
+      </c>
+      <c r="BK200">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="322">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,10 +622,10 @@
     <t>['68']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['21', '55', '78']</t>
   </si>
   <si>
-    <t>['21', '55', '78']</t>
+    <t>['36']</t>
   </si>
   <si>
     <t>['31']</t>
@@ -661,10 +661,10 @@
     <t>['63', '90+4']</t>
   </si>
   <si>
-    <t>['16', '17', '20']</t>
+    <t>['50', '78', '81']</t>
   </si>
   <si>
-    <t>['50', '78', '81']</t>
+    <t>['16', '17', '20']</t>
   </si>
   <si>
     <t>['76', '86', '90']</t>
@@ -689,6 +689,18 @@
   </si>
   <si>
     <t>['6', '27', '64', '84']</t>
+  </si>
+  <si>
+    <t>['13', '50', '66']</t>
+  </si>
+  <si>
+    <t>['40', '73']</t>
+  </si>
+  <si>
+    <t>['58', '66', '90+1']</t>
+  </si>
+  <si>
+    <t>['48', '84']</t>
   </si>
   <si>
     <t>['48', '51', '62']</t>
@@ -910,10 +922,10 @@
     <t>['30']</t>
   </si>
   <si>
-    <t>['15', '45', '61', '83']</t>
+    <t>['50', '73']</t>
   </si>
   <si>
-    <t>['50', '73']</t>
+    <t>['15', '45', '61', '83']</t>
   </si>
   <si>
     <t>['75', '84']</t>
@@ -959,6 +971,15 @@
   </si>
   <si>
     <t>['74', '88', '89']</t>
+  </si>
+  <si>
+    <t>['61', '75', '77', '90+4']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['10', '16', '43', '63']</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT2">
         <v>1.27</v>
@@ -1755,7 +1776,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1842,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>2.18</v>
@@ -1946,7 +1967,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -2036,7 +2057,7 @@
         <v>0.25</v>
       </c>
       <c r="AT4">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2328,7 +2349,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2519,7 +2540,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2606,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2710,7 +2731,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2800,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2988,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -3179,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT10">
         <v>0.9</v>
@@ -3283,7 +3304,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3474,7 +3495,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3755,7 +3776,7 @@
         <v>1.73</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3856,7 +3877,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3946,7 +3967,7 @@
         <v>1.18</v>
       </c>
       <c r="AT14">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4238,7 +4259,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4811,7 +4832,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5002,7 +5023,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5193,7 +5214,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5280,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU21">
         <v>1.25</v>
@@ -5384,7 +5405,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5662,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT23">
         <v>0.9</v>
@@ -6047,7 +6068,7 @@
         <v>1.91</v>
       </c>
       <c r="AT25">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU25">
         <v>1.33</v>
@@ -6235,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT26">
         <v>0.45</v>
@@ -6339,7 +6360,7 @@
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6530,7 +6551,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6620,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU28">
         <v>1.02</v>
@@ -6999,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT30">
         <v>1.27</v>
@@ -7103,7 +7124,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7294,7 +7315,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7676,7 +7697,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7957,7 +7978,7 @@
         <v>2.55</v>
       </c>
       <c r="AT35">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU35">
         <v>1.82</v>
@@ -8148,7 +8169,7 @@
         <v>2.64</v>
       </c>
       <c r="AT36">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU36">
         <v>2.34</v>
@@ -8336,7 +8357,7 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>1.18</v>
@@ -8440,7 +8461,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8527,7 +8548,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT38">
         <v>1.5</v>
@@ -8721,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU39">
         <v>3.33</v>
@@ -8822,7 +8843,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9103,7 +9124,7 @@
         <v>1.92</v>
       </c>
       <c r="AT41">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU41">
         <v>1.12</v>
@@ -9204,7 +9225,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9294,7 +9315,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU42">
         <v>1.45</v>
@@ -9395,7 +9416,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9485,7 +9506,7 @@
         <v>1.91</v>
       </c>
       <c r="AT43">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU43">
         <v>1.3</v>
@@ -9586,7 +9607,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9864,7 +9885,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT45">
         <v>1.18</v>
@@ -10055,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT46">
         <v>1.08</v>
@@ -10159,7 +10180,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10437,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT48">
         <v>1.27</v>
@@ -11204,7 +11225,7 @@
         <v>2.55</v>
       </c>
       <c r="AT52">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU52">
         <v>2.55</v>
@@ -11496,7 +11517,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11583,7 +11604,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>1</v>
@@ -12069,7 +12090,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12350,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU58">
         <v>1.55</v>
@@ -12451,7 +12472,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>16</v>
@@ -12541,7 +12562,7 @@
         <v>1.91</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU59">
         <v>1.74</v>
@@ -12729,10 +12750,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU60">
         <v>1.75</v>
@@ -13024,7 +13045,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q62">
         <v>13</v>
@@ -13114,7 +13135,7 @@
         <v>2.55</v>
       </c>
       <c r="AT62">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU62">
         <v>2.81</v>
@@ -13215,7 +13236,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13302,7 +13323,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13493,7 +13514,7 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>2.18</v>
@@ -13788,7 +13809,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13875,7 +13896,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT66">
         <v>2.08</v>
@@ -13979,7 +14000,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14448,10 +14469,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT69">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU69">
         <v>1.7</v>
@@ -14743,7 +14764,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14830,10 +14851,10 @@
         <v>2.25</v>
       </c>
       <c r="AS71">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT71">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU71">
         <v>2.01</v>
@@ -14934,7 +14955,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15316,7 +15337,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15403,10 +15424,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT74">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU74">
         <v>1.26</v>
@@ -15507,7 +15528,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15698,7 +15719,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15976,10 +15997,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT77">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU77">
         <v>1.77</v>
@@ -16170,7 +16191,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -16462,7 +16483,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16740,7 +16761,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT81">
         <v>1.36</v>
@@ -16844,7 +16865,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17035,7 +17056,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17125,7 +17146,7 @@
         <v>1.18</v>
       </c>
       <c r="AT83">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU83">
         <v>1.55</v>
@@ -17313,10 +17334,10 @@
         <v>1.25</v>
       </c>
       <c r="AS84">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT84">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU84">
         <v>1.86</v>
@@ -17608,7 +17629,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18372,7 +18393,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -18459,10 +18480,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT90">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU90">
         <v>2.32</v>
@@ -18563,7 +18584,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18653,7 +18674,7 @@
         <v>2</v>
       </c>
       <c r="AT91">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU91">
         <v>2.88</v>
@@ -18754,7 +18775,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18945,7 +18966,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19518,7 +19539,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19709,7 +19730,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19796,7 +19817,7 @@
         <v>1.8</v>
       </c>
       <c r="AS97">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>1.36</v>
@@ -19900,7 +19921,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19987,7 +20008,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT98">
         <v>0.9</v>
@@ -20282,7 +20303,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20473,7 +20494,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20560,7 +20581,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT101">
         <v>1.5</v>
@@ -20664,7 +20685,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20855,7 +20876,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20945,7 +20966,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU103">
         <v>1.77</v>
@@ -21518,7 +21539,7 @@
         <v>2.64</v>
       </c>
       <c r="AT106">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU106">
         <v>2.11</v>
@@ -21706,10 +21727,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT107">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU107">
         <v>2.09</v>
@@ -21810,7 +21831,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22001,7 +22022,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22279,7 +22300,7 @@
         <v>0</v>
       </c>
       <c r="AS110">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT110">
         <v>0.36</v>
@@ -22956,7 +22977,7 @@
         <v>83</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23046,7 +23067,7 @@
         <v>1.18</v>
       </c>
       <c r="AT114">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU114">
         <v>1.8</v>
@@ -23147,7 +23168,7 @@
         <v>105</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23338,7 +23359,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23529,7 +23550,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23810,7 +23831,7 @@
         <v>2.27</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU118">
         <v>2.69</v>
@@ -23911,7 +23932,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24102,7 +24123,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24293,7 +24314,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24484,7 +24505,7 @@
         <v>83</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24762,10 +24783,10 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT123">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU123">
         <v>1.88</v>
@@ -24866,7 +24887,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -24953,7 +24974,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT124">
         <v>1.27</v>
@@ -25144,10 +25165,10 @@
         <v>0.83</v>
       </c>
       <c r="AS125">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU125">
         <v>1.59</v>
@@ -25338,7 +25359,7 @@
         <v>2.27</v>
       </c>
       <c r="AT126">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU126">
         <v>2.62</v>
@@ -25439,7 +25460,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -26099,7 +26120,7 @@
         <v>1.14</v>
       </c>
       <c r="AS130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT130">
         <v>1.08</v>
@@ -26203,7 +26224,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26290,7 +26311,7 @@
         <v>1</v>
       </c>
       <c r="AS131">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT131">
         <v>0.9</v>
@@ -26585,7 +26606,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26675,7 +26696,7 @@
         <v>1.73</v>
       </c>
       <c r="AT133">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU133">
         <v>1.59</v>
@@ -26776,7 +26797,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26863,7 +26884,7 @@
         <v>2.29</v>
       </c>
       <c r="AS134">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT134">
         <v>2.18</v>
@@ -26967,7 +26988,7 @@
         <v>83</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27057,7 +27078,7 @@
         <v>0.25</v>
       </c>
       <c r="AT135">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU135">
         <v>1.67</v>
@@ -27349,7 +27370,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27439,7 +27460,7 @@
         <v>1.18</v>
       </c>
       <c r="AT137">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU137">
         <v>1.6</v>
@@ -27540,7 +27561,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27627,7 +27648,7 @@
         <v>2.25</v>
       </c>
       <c r="AS138">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT138">
         <v>2.08</v>
@@ -28012,7 +28033,7 @@
         <v>1.92</v>
       </c>
       <c r="AT140">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU140">
         <v>1.58</v>
@@ -28304,7 +28325,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28391,7 +28412,7 @@
         <v>1.71</v>
       </c>
       <c r="AS142">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT142">
         <v>1.36</v>
@@ -28495,7 +28516,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28686,7 +28707,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28773,10 +28794,10 @@
         <v>2.13</v>
       </c>
       <c r="AS144">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT144">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU144">
         <v>1.44</v>
@@ -28967,7 +28988,7 @@
         <v>1.18</v>
       </c>
       <c r="AT145">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU145">
         <v>1.65</v>
@@ -29158,7 +29179,7 @@
         <v>1.45</v>
       </c>
       <c r="AT146">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU146">
         <v>1.41</v>
@@ -29259,7 +29280,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29346,7 +29367,7 @@
         <v>0.38</v>
       </c>
       <c r="AS147">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT147">
         <v>0.36</v>
@@ -29641,7 +29662,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29919,7 +29940,7 @@
         <v>0.63</v>
       </c>
       <c r="AS150">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT150">
         <v>0.45</v>
@@ -30492,7 +30513,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT153">
         <v>1.27</v>
@@ -30877,7 +30898,7 @@
         <v>1.92</v>
       </c>
       <c r="AT155">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU155">
         <v>1.61</v>
@@ -30978,7 +30999,7 @@
         <v>146</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31169,7 +31190,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31447,7 +31468,7 @@
         <v>1.63</v>
       </c>
       <c r="AS158">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT158">
         <v>1.45</v>
@@ -31641,7 +31662,7 @@
         <v>1.73</v>
       </c>
       <c r="AT159">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU159">
         <v>1.54</v>
@@ -32020,10 +32041,10 @@
         <v>0.75</v>
       </c>
       <c r="AS161">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT161">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU161">
         <v>1.38</v>
@@ -32214,7 +32235,7 @@
         <v>2</v>
       </c>
       <c r="AT162">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU162">
         <v>2.77</v>
@@ -32784,7 +32805,7 @@
         <v>1.5</v>
       </c>
       <c r="AS165">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT165">
         <v>1.27</v>
@@ -32888,7 +32909,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -32975,7 +32996,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT166">
         <v>1.08</v>
@@ -33079,7 +33100,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33166,7 +33187,7 @@
         <v>1.56</v>
       </c>
       <c r="AS167">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT167">
         <v>1.5</v>
@@ -33270,7 +33291,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33360,7 +33381,7 @@
         <v>2.64</v>
       </c>
       <c r="AT168">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU168">
         <v>2.1</v>
@@ -33419,7 +33440,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2433156</v>
+        <v>2433157</v>
       </c>
       <c r="C169" t="s">
         <v>63</v>
@@ -33434,25 +33455,25 @@
         <v>19</v>
       </c>
       <c r="G169" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H169" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
         <v>3</v>
       </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
       <c r="M169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N169">
         <v>5</v>
@@ -33461,148 +33482,148 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q169">
+        <v>5</v>
+      </c>
+      <c r="R169">
+        <v>3</v>
+      </c>
+      <c r="S169">
+        <v>8</v>
+      </c>
+      <c r="T169">
+        <v>3.1</v>
+      </c>
+      <c r="U169">
+        <v>2.15</v>
+      </c>
+      <c r="V169">
+        <v>3</v>
+      </c>
+      <c r="W169">
+        <v>1.31</v>
+      </c>
+      <c r="X169">
+        <v>3.1</v>
+      </c>
+      <c r="Y169">
+        <v>2.7</v>
+      </c>
+      <c r="Z169">
+        <v>1.45</v>
+      </c>
+      <c r="AA169">
         <v>6</v>
       </c>
-      <c r="R169">
-        <v>7</v>
-      </c>
-      <c r="S169">
-        <v>13</v>
-      </c>
-      <c r="T169">
-        <v>6.5</v>
-      </c>
-      <c r="U169">
-        <v>2.65</v>
-      </c>
-      <c r="V169">
+      <c r="AB169">
+        <v>1.09</v>
+      </c>
+      <c r="AC169">
+        <v>2.3</v>
+      </c>
+      <c r="AD169">
+        <v>3.4</v>
+      </c>
+      <c r="AE169">
+        <v>2.98</v>
+      </c>
+      <c r="AF169">
+        <v>1.04</v>
+      </c>
+      <c r="AG169">
+        <v>12</v>
+      </c>
+      <c r="AH169">
+        <v>1.26</v>
+      </c>
+      <c r="AI169">
+        <v>3.67</v>
+      </c>
+      <c r="AJ169">
+        <v>1.8</v>
+      </c>
+      <c r="AK169">
+        <v>1.95</v>
+      </c>
+      <c r="AL169">
+        <v>1.65</v>
+      </c>
+      <c r="AM169">
+        <v>2.2</v>
+      </c>
+      <c r="AN169">
+        <v>1.47</v>
+      </c>
+      <c r="AO169">
+        <v>1.31</v>
+      </c>
+      <c r="AP169">
+        <v>1.55</v>
+      </c>
+      <c r="AQ169">
+        <v>0.75</v>
+      </c>
+      <c r="AR169">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS169">
+        <v>1.18</v>
+      </c>
+      <c r="AT169">
+        <v>0.45</v>
+      </c>
+      <c r="AU169">
+        <v>1.63</v>
+      </c>
+      <c r="AV169">
+        <v>1.09</v>
+      </c>
+      <c r="AW169">
+        <v>2.72</v>
+      </c>
+      <c r="AX169">
+        <v>1.8</v>
+      </c>
+      <c r="AY169">
+        <v>8.1</v>
+      </c>
+      <c r="AZ169">
+        <v>2.45</v>
+      </c>
+      <c r="BA169">
+        <v>1.11</v>
+      </c>
+      <c r="BB169">
+        <v>1.25</v>
+      </c>
+      <c r="BC169">
+        <v>1.49</v>
+      </c>
+      <c r="BD169">
         <v>1.83</v>
       </c>
-      <c r="W169">
-        <v>1.28</v>
-      </c>
-      <c r="X169">
-        <v>3.75</v>
-      </c>
-      <c r="Y169">
-        <v>2.25</v>
-      </c>
-      <c r="Z169">
-        <v>1.63</v>
-      </c>
-      <c r="AA169">
-        <v>5</v>
-      </c>
-      <c r="AB169">
-        <v>1.16</v>
-      </c>
-      <c r="AC169">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="AD169">
-        <v>6.4</v>
-      </c>
-      <c r="AE169">
-        <v>1.24</v>
-      </c>
-      <c r="AF169">
-        <v>1.02</v>
-      </c>
-      <c r="AG169">
-        <v>19</v>
-      </c>
-      <c r="AH169">
-        <v>1.16</v>
-      </c>
-      <c r="AI169">
-        <v>4.93</v>
-      </c>
-      <c r="AJ169">
-        <v>1.35</v>
-      </c>
-      <c r="AK169">
-        <v>3.05</v>
-      </c>
-      <c r="AL169">
-        <v>1.78</v>
-      </c>
-      <c r="AM169">
-        <v>2</v>
-      </c>
-      <c r="AN169">
-        <v>3.1</v>
-      </c>
-      <c r="AO169">
-        <v>1.13</v>
-      </c>
-      <c r="AP169">
-        <v>1.06</v>
-      </c>
-      <c r="AQ169">
-        <v>1.88</v>
-      </c>
-      <c r="AR169">
-        <v>2</v>
-      </c>
-      <c r="AS169">
-        <v>1.45</v>
-      </c>
-      <c r="AT169">
-        <v>2.18</v>
-      </c>
-      <c r="AU169">
-        <v>1.49</v>
-      </c>
-      <c r="AV169">
-        <v>1.99</v>
-      </c>
-      <c r="AW169">
-        <v>3.48</v>
-      </c>
-      <c r="AX169">
-        <v>11.25</v>
-      </c>
-      <c r="AY169">
-        <v>15.5</v>
-      </c>
-      <c r="AZ169">
-        <v>1.07</v>
-      </c>
-      <c r="BA169">
-        <v>1.18</v>
-      </c>
-      <c r="BB169">
-        <v>1.38</v>
-      </c>
-      <c r="BC169">
-        <v>1.69</v>
-      </c>
-      <c r="BD169">
-        <v>2.11</v>
-      </c>
       <c r="BE169">
-        <v>2.78</v>
+        <v>2.32</v>
       </c>
       <c r="BF169">
         <v>5</v>
       </c>
       <c r="BG169">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BH169">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI169">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BJ169">
+        <v>13</v>
+      </c>
+      <c r="BK169">
         <v>12</v>
-      </c>
-      <c r="BK169">
-        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:63">
@@ -33610,7 +33631,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>2433157</v>
+        <v>2433156</v>
       </c>
       <c r="C170" t="s">
         <v>63</v>
@@ -33625,25 +33646,25 @@
         <v>19</v>
       </c>
       <c r="G170" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H170" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N170">
         <v>5</v>
@@ -33652,148 +33673,148 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q170">
+        <v>6</v>
+      </c>
+      <c r="R170">
+        <v>7</v>
+      </c>
+      <c r="S170">
+        <v>13</v>
+      </c>
+      <c r="T170">
+        <v>6.5</v>
+      </c>
+      <c r="U170">
+        <v>2.65</v>
+      </c>
+      <c r="V170">
+        <v>1.83</v>
+      </c>
+      <c r="W170">
+        <v>1.28</v>
+      </c>
+      <c r="X170">
+        <v>3.75</v>
+      </c>
+      <c r="Y170">
+        <v>2.25</v>
+      </c>
+      <c r="Z170">
+        <v>1.63</v>
+      </c>
+      <c r="AA170">
         <v>5</v>
       </c>
-      <c r="R170">
-        <v>3</v>
-      </c>
-      <c r="S170">
-        <v>8</v>
-      </c>
-      <c r="T170">
+      <c r="AB170">
+        <v>1.16</v>
+      </c>
+      <c r="AC170">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AD170">
+        <v>6.4</v>
+      </c>
+      <c r="AE170">
+        <v>1.24</v>
+      </c>
+      <c r="AF170">
+        <v>1.02</v>
+      </c>
+      <c r="AG170">
+        <v>19</v>
+      </c>
+      <c r="AH170">
+        <v>1.16</v>
+      </c>
+      <c r="AI170">
+        <v>4.93</v>
+      </c>
+      <c r="AJ170">
+        <v>1.35</v>
+      </c>
+      <c r="AK170">
+        <v>3.05</v>
+      </c>
+      <c r="AL170">
+        <v>1.78</v>
+      </c>
+      <c r="AM170">
+        <v>2</v>
+      </c>
+      <c r="AN170">
         <v>3.1</v>
       </c>
-      <c r="U170">
-        <v>2.15</v>
-      </c>
-      <c r="V170">
-        <v>3</v>
-      </c>
-      <c r="W170">
-        <v>1.31</v>
-      </c>
-      <c r="X170">
-        <v>3.1</v>
-      </c>
-      <c r="Y170">
-        <v>2.7</v>
-      </c>
-      <c r="Z170">
+      <c r="AO170">
+        <v>1.13</v>
+      </c>
+      <c r="AP170">
+        <v>1.06</v>
+      </c>
+      <c r="AQ170">
+        <v>1.88</v>
+      </c>
+      <c r="AR170">
+        <v>2</v>
+      </c>
+      <c r="AS170">
         <v>1.45</v>
       </c>
-      <c r="AA170">
-        <v>6</v>
-      </c>
-      <c r="AB170">
-        <v>1.09</v>
-      </c>
-      <c r="AC170">
-        <v>2.3</v>
-      </c>
-      <c r="AD170">
-        <v>3.4</v>
-      </c>
-      <c r="AE170">
-        <v>2.98</v>
-      </c>
-      <c r="AF170">
-        <v>1.04</v>
-      </c>
-      <c r="AG170">
-        <v>12</v>
-      </c>
-      <c r="AH170">
-        <v>1.26</v>
-      </c>
-      <c r="AI170">
-        <v>3.67</v>
-      </c>
-      <c r="AJ170">
-        <v>1.8</v>
-      </c>
-      <c r="AK170">
-        <v>1.95</v>
-      </c>
-      <c r="AL170">
-        <v>1.65</v>
-      </c>
-      <c r="AM170">
-        <v>2.2</v>
-      </c>
-      <c r="AN170">
-        <v>1.47</v>
-      </c>
-      <c r="AO170">
-        <v>1.31</v>
-      </c>
-      <c r="AP170">
-        <v>1.55</v>
-      </c>
-      <c r="AQ170">
-        <v>0.75</v>
-      </c>
-      <c r="AR170">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AS170">
+      <c r="AT170">
+        <v>2.18</v>
+      </c>
+      <c r="AU170">
+        <v>1.49</v>
+      </c>
+      <c r="AV170">
+        <v>1.99</v>
+      </c>
+      <c r="AW170">
+        <v>3.48</v>
+      </c>
+      <c r="AX170">
+        <v>11.25</v>
+      </c>
+      <c r="AY170">
+        <v>15.5</v>
+      </c>
+      <c r="AZ170">
+        <v>1.07</v>
+      </c>
+      <c r="BA170">
         <v>1.18</v>
       </c>
-      <c r="AT170">
-        <v>0.45</v>
-      </c>
-      <c r="AU170">
-        <v>1.63</v>
-      </c>
-      <c r="AV170">
-        <v>1.09</v>
-      </c>
-      <c r="AW170">
-        <v>2.72</v>
-      </c>
-      <c r="AX170">
-        <v>1.8</v>
-      </c>
-      <c r="AY170">
-        <v>8.1</v>
-      </c>
-      <c r="AZ170">
-        <v>2.45</v>
-      </c>
-      <c r="BA170">
-        <v>1.11</v>
-      </c>
       <c r="BB170">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="BC170">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="BD170">
-        <v>1.83</v>
+        <v>2.11</v>
       </c>
       <c r="BE170">
-        <v>2.32</v>
+        <v>2.78</v>
       </c>
       <c r="BF170">
         <v>5</v>
       </c>
       <c r="BG170">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BH170">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI170">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BJ170">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK170">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:63">
@@ -33843,7 +33864,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34034,7 +34055,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -34312,7 +34333,7 @@
         <v>1.44</v>
       </c>
       <c r="AS173">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT173">
         <v>1.27</v>
@@ -34607,7 +34628,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35079,7 +35100,7 @@
         <v>1.45</v>
       </c>
       <c r="AT177">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU177">
         <v>1.47</v>
@@ -35180,7 +35201,7 @@
         <v>83</v>
       </c>
       <c r="P178" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35371,7 +35392,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q179">
         <v>12</v>
@@ -35753,7 +35774,7 @@
         <v>181</v>
       </c>
       <c r="P181" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -35840,7 +35861,7 @@
         <v>1.11</v>
       </c>
       <c r="AS181">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT181">
         <v>1</v>
@@ -36031,10 +36052,10 @@
         <v>0.4</v>
       </c>
       <c r="AS182">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT182">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU182">
         <v>1.98</v>
@@ -36222,10 +36243,10 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT183">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU183">
         <v>2</v>
@@ -36517,7 +36538,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36708,7 +36729,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36899,7 +36920,7 @@
         <v>213</v>
       </c>
       <c r="P187" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -36986,10 +37007,10 @@
         <v>2.1</v>
       </c>
       <c r="AS187">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT187">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU187">
         <v>1.67</v>
@@ -37239,7 +37260,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>2433171</v>
+        <v>2433168</v>
       </c>
       <c r="C189" t="s">
         <v>63</v>
@@ -37254,175 +37275,175 @@
         <v>21</v>
       </c>
       <c r="G189" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H189" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L189">
         <v>3</v>
       </c>
       <c r="M189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O189" t="s">
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="Q189">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R189">
         <v>2</v>
       </c>
       <c r="S189">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T189">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="U189">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="V189">
-        <v>7.75</v>
+        <v>9.5</v>
       </c>
       <c r="W189">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="X189">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="Y189">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="Z189">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AA189">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AB189">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AC189">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AD189">
-        <v>6.3</v>
+        <v>8.9</v>
       </c>
       <c r="AE189">
-        <v>9.68</v>
+        <v>16.73</v>
       </c>
       <c r="AF189">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG189">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH189">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AI189">
-        <v>5.87</v>
+        <v>7.77</v>
       </c>
       <c r="AJ189">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AK189">
-        <v>2.7</v>
+        <v>3.47</v>
       </c>
       <c r="AL189">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AM189">
+        <v>1.73</v>
+      </c>
+      <c r="AN189">
+        <v>1.02</v>
+      </c>
+      <c r="AO189">
+        <v>1.06</v>
+      </c>
+      <c r="AP189">
+        <v>6</v>
+      </c>
+      <c r="AQ189">
         <v>1.78</v>
       </c>
-      <c r="AN189">
-        <v>1.05</v>
-      </c>
-      <c r="AO189">
-        <v>1.12</v>
-      </c>
-      <c r="AP189">
-        <v>4</v>
-      </c>
-      <c r="AQ189">
-        <v>2.6</v>
-      </c>
       <c r="AR189">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AS189">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="AT189">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="AU189">
-        <v>2.06</v>
+        <v>2.82</v>
       </c>
       <c r="AV189">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AW189">
-        <v>3.44</v>
+        <v>4.24</v>
       </c>
       <c r="AX189">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AY189">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ189">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BA189">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="BB189">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="BC189">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="BD189">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="BE189">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="BF189">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BG189">
         <v>4</v>
       </c>
       <c r="BH189">
+        <v>14</v>
+      </c>
+      <c r="BI189">
+        <v>4</v>
+      </c>
+      <c r="BJ189">
+        <v>19</v>
+      </c>
+      <c r="BK189">
         <v>8</v>
-      </c>
-      <c r="BI189">
-        <v>6</v>
-      </c>
-      <c r="BJ189">
-        <v>20</v>
-      </c>
-      <c r="BK189">
-        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:63">
@@ -37430,7 +37451,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>2433168</v>
+        <v>2433171</v>
       </c>
       <c r="C190" t="s">
         <v>63</v>
@@ -37445,175 +37466,175 @@
         <v>21</v>
       </c>
       <c r="G190" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H190" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L190">
         <v>3</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O190" t="s">
         <v>216</v>
       </c>
       <c r="P190" t="s">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="Q190">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R190">
         <v>2</v>
       </c>
       <c r="S190">
+        <v>11</v>
+      </c>
+      <c r="T190">
+        <v>1.61</v>
+      </c>
+      <c r="U190">
+        <v>2.75</v>
+      </c>
+      <c r="V190">
+        <v>7.75</v>
+      </c>
+      <c r="W190">
+        <v>1.23</v>
+      </c>
+      <c r="X190">
+        <v>3.75</v>
+      </c>
+      <c r="Y190">
+        <v>2.05</v>
+      </c>
+      <c r="Z190">
+        <v>1.68</v>
+      </c>
+      <c r="AA190">
+        <v>4.33</v>
+      </c>
+      <c r="AB190">
+        <v>1.19</v>
+      </c>
+      <c r="AC190">
+        <v>1.23</v>
+      </c>
+      <c r="AD190">
+        <v>6.3</v>
+      </c>
+      <c r="AE190">
+        <v>9.68</v>
+      </c>
+      <c r="AF190">
+        <v>1.01</v>
+      </c>
+      <c r="AG190">
+        <v>23</v>
+      </c>
+      <c r="AH190">
+        <v>1.12</v>
+      </c>
+      <c r="AI190">
+        <v>5.87</v>
+      </c>
+      <c r="AJ190">
+        <v>1.43</v>
+      </c>
+      <c r="AK190">
+        <v>2.7</v>
+      </c>
+      <c r="AL190">
+        <v>1.9</v>
+      </c>
+      <c r="AM190">
+        <v>1.78</v>
+      </c>
+      <c r="AN190">
+        <v>1.05</v>
+      </c>
+      <c r="AO190">
+        <v>1.12</v>
+      </c>
+      <c r="AP190">
+        <v>4</v>
+      </c>
+      <c r="AQ190">
+        <v>2.6</v>
+      </c>
+      <c r="AR190">
+        <v>0.7</v>
+      </c>
+      <c r="AS190">
+        <v>2.64</v>
+      </c>
+      <c r="AT190">
+        <v>0.58</v>
+      </c>
+      <c r="AU190">
+        <v>2.06</v>
+      </c>
+      <c r="AV190">
+        <v>1.38</v>
+      </c>
+      <c r="AW190">
+        <v>3.44</v>
+      </c>
+      <c r="AX190">
+        <v>1.19</v>
+      </c>
+      <c r="AY190">
+        <v>13</v>
+      </c>
+      <c r="AZ190">
+        <v>6.4</v>
+      </c>
+      <c r="BA190">
+        <v>1.12</v>
+      </c>
+      <c r="BB190">
+        <v>1.26</v>
+      </c>
+      <c r="BC190">
+        <v>1.43</v>
+      </c>
+      <c r="BD190">
+        <v>1.67</v>
+      </c>
+      <c r="BE190">
+        <v>2.02</v>
+      </c>
+      <c r="BF190">
         <v>12</v>
-      </c>
-      <c r="T190">
-        <v>1.42</v>
-      </c>
-      <c r="U190">
-        <v>3.3</v>
-      </c>
-      <c r="V190">
-        <v>9.5</v>
-      </c>
-      <c r="W190">
-        <v>1.17</v>
-      </c>
-      <c r="X190">
-        <v>4.6</v>
-      </c>
-      <c r="Y190">
-        <v>1.8</v>
-      </c>
-      <c r="Z190">
-        <v>1.88</v>
-      </c>
-      <c r="AA190">
-        <v>3.5</v>
-      </c>
-      <c r="AB190">
-        <v>1.26</v>
-      </c>
-      <c r="AC190">
-        <v>1.12</v>
-      </c>
-      <c r="AD190">
-        <v>8.9</v>
-      </c>
-      <c r="AE190">
-        <v>16.73</v>
-      </c>
-      <c r="AF190">
-        <v>1.02</v>
-      </c>
-      <c r="AG190">
-        <v>29</v>
-      </c>
-      <c r="AH190">
-        <v>1.07</v>
-      </c>
-      <c r="AI190">
-        <v>7.77</v>
-      </c>
-      <c r="AJ190">
-        <v>1.28</v>
-      </c>
-      <c r="AK190">
-        <v>3.47</v>
-      </c>
-      <c r="AL190">
-        <v>1.98</v>
-      </c>
-      <c r="AM190">
-        <v>1.73</v>
-      </c>
-      <c r="AN190">
-        <v>1.02</v>
-      </c>
-      <c r="AO190">
-        <v>1.06</v>
-      </c>
-      <c r="AP190">
-        <v>6</v>
-      </c>
-      <c r="AQ190">
-        <v>1.78</v>
-      </c>
-      <c r="AR190">
-        <v>0.8</v>
-      </c>
-      <c r="AS190">
-        <v>2</v>
-      </c>
-      <c r="AT190">
-        <v>0.73</v>
-      </c>
-      <c r="AU190">
-        <v>2.82</v>
-      </c>
-      <c r="AV190">
-        <v>1.42</v>
-      </c>
-      <c r="AW190">
-        <v>4.24</v>
-      </c>
-      <c r="AX190">
-        <v>1.14</v>
-      </c>
-      <c r="AY190">
-        <v>15</v>
-      </c>
-      <c r="AZ190">
-        <v>8</v>
-      </c>
-      <c r="BA190">
-        <v>1.11</v>
-      </c>
-      <c r="BB190">
-        <v>1.22</v>
-      </c>
-      <c r="BC190">
-        <v>1.35</v>
-      </c>
-      <c r="BD190">
-        <v>1.55</v>
-      </c>
-      <c r="BE190">
-        <v>1.83</v>
-      </c>
-      <c r="BF190">
-        <v>5</v>
       </c>
       <c r="BG190">
         <v>4</v>
       </c>
       <c r="BH190">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BI190">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ190">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BK190">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:63">
@@ -37663,7 +37684,7 @@
         <v>217</v>
       </c>
       <c r="P191" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -38045,7 +38066,7 @@
         <v>219</v>
       </c>
       <c r="P193" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38132,7 +38153,7 @@
         <v>0.3</v>
       </c>
       <c r="AS193">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT193">
         <v>0.36</v>
@@ -38236,7 +38257,7 @@
         <v>220</v>
       </c>
       <c r="P194" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38427,7 +38448,7 @@
         <v>221</v>
       </c>
       <c r="P195" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38809,7 +38830,7 @@
         <v>223</v>
       </c>
       <c r="P197" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39191,7 +39212,7 @@
         <v>83</v>
       </c>
       <c r="P199" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q199">
         <v>8</v>
@@ -39382,16 +39403,16 @@
         <v>83</v>
       </c>
       <c r="P200" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q200">
         <v>0</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T200">
         <v>3.15</v>
@@ -39524,6 +39545,961 @@
       </c>
       <c r="BK200">
         <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2433188</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44982.52083333334</v>
+      </c>
+      <c r="F201">
+        <v>23</v>
+      </c>
+      <c r="G201" t="s">
+        <v>70</v>
+      </c>
+      <c r="H201" t="s">
+        <v>74</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>225</v>
+      </c>
+      <c r="P201" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q201">
+        <v>3</v>
+      </c>
+      <c r="R201">
+        <v>1</v>
+      </c>
+      <c r="S201">
+        <v>4</v>
+      </c>
+      <c r="T201">
+        <v>2.4</v>
+      </c>
+      <c r="U201">
+        <v>2.2</v>
+      </c>
+      <c r="V201">
+        <v>4.33</v>
+      </c>
+      <c r="W201">
+        <v>1.33</v>
+      </c>
+      <c r="X201">
+        <v>3</v>
+      </c>
+      <c r="Y201">
+        <v>2.5</v>
+      </c>
+      <c r="Z201">
+        <v>1.48</v>
+      </c>
+      <c r="AA201">
+        <v>5.75</v>
+      </c>
+      <c r="AB201">
+        <v>1.1</v>
+      </c>
+      <c r="AC201">
+        <v>1.9</v>
+      </c>
+      <c r="AD201">
+        <v>3.4</v>
+      </c>
+      <c r="AE201">
+        <v>3.3</v>
+      </c>
+      <c r="AF201">
+        <v>1.02</v>
+      </c>
+      <c r="AG201">
+        <v>10</v>
+      </c>
+      <c r="AH201">
+        <v>1.25</v>
+      </c>
+      <c r="AI201">
+        <v>3.6</v>
+      </c>
+      <c r="AJ201">
+        <v>1.95</v>
+      </c>
+      <c r="AK201">
+        <v>1.91</v>
+      </c>
+      <c r="AL201">
+        <v>1.67</v>
+      </c>
+      <c r="AM201">
+        <v>2.1</v>
+      </c>
+      <c r="AN201">
+        <v>1.25</v>
+      </c>
+      <c r="AO201">
+        <v>1.29</v>
+      </c>
+      <c r="AP201">
+        <v>1.91</v>
+      </c>
+      <c r="AQ201">
+        <v>0.82</v>
+      </c>
+      <c r="AR201">
+        <v>0.36</v>
+      </c>
+      <c r="AS201">
+        <v>1</v>
+      </c>
+      <c r="AT201">
+        <v>0.33</v>
+      </c>
+      <c r="AU201">
+        <v>1.54</v>
+      </c>
+      <c r="AV201">
+        <v>1.04</v>
+      </c>
+      <c r="AW201">
+        <v>2.58</v>
+      </c>
+      <c r="AX201">
+        <v>1.61</v>
+      </c>
+      <c r="AY201">
+        <v>8.5</v>
+      </c>
+      <c r="AZ201">
+        <v>2.7</v>
+      </c>
+      <c r="BA201">
+        <v>1.2</v>
+      </c>
+      <c r="BB201">
+        <v>1.36</v>
+      </c>
+      <c r="BC201">
+        <v>1.58</v>
+      </c>
+      <c r="BD201">
+        <v>1.9</v>
+      </c>
+      <c r="BE201">
+        <v>2.38</v>
+      </c>
+      <c r="BF201">
+        <v>8</v>
+      </c>
+      <c r="BG201">
+        <v>0</v>
+      </c>
+      <c r="BH201">
+        <v>11</v>
+      </c>
+      <c r="BI201">
+        <v>4</v>
+      </c>
+      <c r="BJ201">
+        <v>19</v>
+      </c>
+      <c r="BK201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2433192</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44982.61458333334</v>
+      </c>
+      <c r="F202">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>65</v>
+      </c>
+      <c r="H202" t="s">
+        <v>69</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>4</v>
+      </c>
+      <c r="N202">
+        <v>5</v>
+      </c>
+      <c r="O202" t="s">
+        <v>209</v>
+      </c>
+      <c r="P202" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q202">
+        <v>5</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>5</v>
+      </c>
+      <c r="T202">
+        <v>2.41</v>
+      </c>
+      <c r="U202">
+        <v>2.22</v>
+      </c>
+      <c r="V202">
+        <v>4.66</v>
+      </c>
+      <c r="W202">
+        <v>1.35</v>
+      </c>
+      <c r="X202">
+        <v>2.9</v>
+      </c>
+      <c r="Y202">
+        <v>2.6</v>
+      </c>
+      <c r="Z202">
+        <v>1.43</v>
+      </c>
+      <c r="AA202">
+        <v>6.5</v>
+      </c>
+      <c r="AB202">
+        <v>1.1</v>
+      </c>
+      <c r="AC202">
+        <v>1.83</v>
+      </c>
+      <c r="AD202">
+        <v>3.35</v>
+      </c>
+      <c r="AE202">
+        <v>3.5</v>
+      </c>
+      <c r="AF202">
+        <v>1.04</v>
+      </c>
+      <c r="AG202">
+        <v>13</v>
+      </c>
+      <c r="AH202">
+        <v>1.26</v>
+      </c>
+      <c r="AI202">
+        <v>3.67</v>
+      </c>
+      <c r="AJ202">
+        <v>1.78</v>
+      </c>
+      <c r="AK202">
+        <v>1.86</v>
+      </c>
+      <c r="AL202">
+        <v>1.75</v>
+      </c>
+      <c r="AM202">
+        <v>1.95</v>
+      </c>
+      <c r="AN202">
+        <v>1.24</v>
+      </c>
+      <c r="AO202">
+        <v>1.27</v>
+      </c>
+      <c r="AP202">
+        <v>1.9</v>
+      </c>
+      <c r="AQ202">
+        <v>1.27</v>
+      </c>
+      <c r="AR202">
+        <v>0.73</v>
+      </c>
+      <c r="AS202">
+        <v>1.17</v>
+      </c>
+      <c r="AT202">
+        <v>0.92</v>
+      </c>
+      <c r="AU202">
+        <v>1.67</v>
+      </c>
+      <c r="AV202">
+        <v>1.37</v>
+      </c>
+      <c r="AW202">
+        <v>3.04</v>
+      </c>
+      <c r="AX202">
+        <v>1.55</v>
+      </c>
+      <c r="AY202">
+        <v>8.5</v>
+      </c>
+      <c r="AZ202">
+        <v>2.9</v>
+      </c>
+      <c r="BA202">
+        <v>1.22</v>
+      </c>
+      <c r="BB202">
+        <v>1.37</v>
+      </c>
+      <c r="BC202">
+        <v>1.61</v>
+      </c>
+      <c r="BD202">
+        <v>1.95</v>
+      </c>
+      <c r="BE202">
+        <v>2.45</v>
+      </c>
+      <c r="BF202">
+        <v>10</v>
+      </c>
+      <c r="BG202">
+        <v>5</v>
+      </c>
+      <c r="BH202">
+        <v>17</v>
+      </c>
+      <c r="BI202">
+        <v>4</v>
+      </c>
+      <c r="BJ202">
+        <v>27</v>
+      </c>
+      <c r="BK202">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2433186</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44982.66666666666</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>73</v>
+      </c>
+      <c r="H203" t="s">
+        <v>67</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>226</v>
+      </c>
+      <c r="P203" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q203">
+        <v>5</v>
+      </c>
+      <c r="R203">
+        <v>1</v>
+      </c>
+      <c r="S203">
+        <v>6</v>
+      </c>
+      <c r="T203">
+        <v>1.65</v>
+      </c>
+      <c r="U203">
+        <v>2.8</v>
+      </c>
+      <c r="V203">
+        <v>8.5</v>
+      </c>
+      <c r="W203">
+        <v>1.27</v>
+      </c>
+      <c r="X203">
+        <v>3.6</v>
+      </c>
+      <c r="Y203">
+        <v>2.18</v>
+      </c>
+      <c r="Z203">
+        <v>1.6</v>
+      </c>
+      <c r="AA203">
+        <v>5.4</v>
+      </c>
+      <c r="AB203">
+        <v>1.17</v>
+      </c>
+      <c r="AC203">
+        <v>1.26</v>
+      </c>
+      <c r="AD203">
+        <v>5.25</v>
+      </c>
+      <c r="AE203">
+        <v>8.25</v>
+      </c>
+      <c r="AF203">
+        <v>1.02</v>
+      </c>
+      <c r="AG203">
+        <v>19</v>
+      </c>
+      <c r="AH203">
+        <v>1.19</v>
+      </c>
+      <c r="AI203">
+        <v>5.1</v>
+      </c>
+      <c r="AJ203">
+        <v>1.53</v>
+      </c>
+      <c r="AK203">
+        <v>2.35</v>
+      </c>
+      <c r="AL203">
+        <v>2.17</v>
+      </c>
+      <c r="AM203">
+        <v>1.68</v>
+      </c>
+      <c r="AN203">
+        <v>1.07</v>
+      </c>
+      <c r="AO203">
+        <v>1.16</v>
+      </c>
+      <c r="AP203">
+        <v>3.85</v>
+      </c>
+      <c r="AQ203">
+        <v>1.9</v>
+      </c>
+      <c r="AR203">
+        <v>1</v>
+      </c>
+      <c r="AS203">
+        <v>2</v>
+      </c>
+      <c r="AT203">
+        <v>0.91</v>
+      </c>
+      <c r="AU203">
+        <v>2.06</v>
+      </c>
+      <c r="AV203">
+        <v>1.24</v>
+      </c>
+      <c r="AW203">
+        <v>3.3</v>
+      </c>
+      <c r="AX203">
+        <v>1.19</v>
+      </c>
+      <c r="AY203">
+        <v>12.5</v>
+      </c>
+      <c r="AZ203">
+        <v>6.25</v>
+      </c>
+      <c r="BA203">
+        <v>1.2</v>
+      </c>
+      <c r="BB203">
+        <v>1.33</v>
+      </c>
+      <c r="BC203">
+        <v>1.53</v>
+      </c>
+      <c r="BD203">
+        <v>1.83</v>
+      </c>
+      <c r="BE203">
+        <v>2.25</v>
+      </c>
+      <c r="BF203">
+        <v>8</v>
+      </c>
+      <c r="BG203">
+        <v>4</v>
+      </c>
+      <c r="BH203">
+        <v>7</v>
+      </c>
+      <c r="BI203">
+        <v>6</v>
+      </c>
+      <c r="BJ203">
+        <v>15</v>
+      </c>
+      <c r="BK203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2433190</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44982.70833333334</v>
+      </c>
+      <c r="F204">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>72</v>
+      </c>
+      <c r="H204" t="s">
+        <v>79</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204" t="s">
+        <v>227</v>
+      </c>
+      <c r="P204" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q204">
+        <v>6</v>
+      </c>
+      <c r="R204">
+        <v>1</v>
+      </c>
+      <c r="S204">
+        <v>7</v>
+      </c>
+      <c r="T204">
+        <v>2.1</v>
+      </c>
+      <c r="U204">
+        <v>2.3</v>
+      </c>
+      <c r="V204">
+        <v>4.8</v>
+      </c>
+      <c r="W204">
+        <v>1.32</v>
+      </c>
+      <c r="X204">
+        <v>3.1</v>
+      </c>
+      <c r="Y204">
+        <v>2.45</v>
+      </c>
+      <c r="Z204">
+        <v>1.47</v>
+      </c>
+      <c r="AA204">
+        <v>6</v>
+      </c>
+      <c r="AB204">
+        <v>1.11</v>
+      </c>
+      <c r="AC204">
+        <v>1.6</v>
+      </c>
+      <c r="AD204">
+        <v>4.1</v>
+      </c>
+      <c r="AE204">
+        <v>5.25</v>
+      </c>
+      <c r="AF204">
+        <v>1.01</v>
+      </c>
+      <c r="AG204">
+        <v>16</v>
+      </c>
+      <c r="AH204">
+        <v>1.22</v>
+      </c>
+      <c r="AI204">
+        <v>4.6</v>
+      </c>
+      <c r="AJ204">
+        <v>1.84</v>
+      </c>
+      <c r="AK204">
+        <v>1.97</v>
+      </c>
+      <c r="AL204">
+        <v>1.75</v>
+      </c>
+      <c r="AM204">
+        <v>1.95</v>
+      </c>
+      <c r="AN204">
+        <v>1.17</v>
+      </c>
+      <c r="AO204">
+        <v>1.22</v>
+      </c>
+      <c r="AP204">
+        <v>2.25</v>
+      </c>
+      <c r="AQ204">
+        <v>1.27</v>
+      </c>
+      <c r="AR204">
+        <v>0.64</v>
+      </c>
+      <c r="AS204">
+        <v>1.42</v>
+      </c>
+      <c r="AT204">
+        <v>0.58</v>
+      </c>
+      <c r="AU204">
+        <v>2.01</v>
+      </c>
+      <c r="AV204">
+        <v>1.36</v>
+      </c>
+      <c r="AW204">
+        <v>3.37</v>
+      </c>
+      <c r="AX204">
+        <v>1.4</v>
+      </c>
+      <c r="AY204">
+        <v>9</v>
+      </c>
+      <c r="AZ204">
+        <v>3.6</v>
+      </c>
+      <c r="BA204">
+        <v>1.14</v>
+      </c>
+      <c r="BB204">
+        <v>1.33</v>
+      </c>
+      <c r="BC204">
+        <v>1.53</v>
+      </c>
+      <c r="BD204">
+        <v>1.82</v>
+      </c>
+      <c r="BE204">
+        <v>2.25</v>
+      </c>
+      <c r="BF204">
+        <v>6</v>
+      </c>
+      <c r="BG204">
+        <v>8</v>
+      </c>
+      <c r="BH204">
+        <v>16</v>
+      </c>
+      <c r="BI204">
+        <v>5</v>
+      </c>
+      <c r="BJ204">
+        <v>22</v>
+      </c>
+      <c r="BK204">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2433189</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44983.34375</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>66</v>
+      </c>
+      <c r="H205" t="s">
+        <v>78</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>3</v>
+      </c>
+      <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>4</v>
+      </c>
+      <c r="N205">
+        <v>6</v>
+      </c>
+      <c r="O205" t="s">
+        <v>228</v>
+      </c>
+      <c r="P205" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>2</v>
+      </c>
+      <c r="T205">
+        <v>5.75</v>
+      </c>
+      <c r="U205">
+        <v>2.45</v>
+      </c>
+      <c r="V205">
+        <v>1.85</v>
+      </c>
+      <c r="W205">
+        <v>1.27</v>
+      </c>
+      <c r="X205">
+        <v>3.4</v>
+      </c>
+      <c r="Y205">
+        <v>2.2</v>
+      </c>
+      <c r="Z205">
+        <v>1.57</v>
+      </c>
+      <c r="AA205">
+        <v>5</v>
+      </c>
+      <c r="AB205">
+        <v>1.14</v>
+      </c>
+      <c r="AC205">
+        <v>7</v>
+      </c>
+      <c r="AD205">
+        <v>4.88</v>
+      </c>
+      <c r="AE205">
+        <v>1.42</v>
+      </c>
+      <c r="AF205">
+        <v>1.02</v>
+      </c>
+      <c r="AG205">
+        <v>19</v>
+      </c>
+      <c r="AH205">
+        <v>1.16</v>
+      </c>
+      <c r="AI205">
+        <v>4.87</v>
+      </c>
+      <c r="AJ205">
+        <v>1.53</v>
+      </c>
+      <c r="AK205">
+        <v>2.35</v>
+      </c>
+      <c r="AL205">
+        <v>1.75</v>
+      </c>
+      <c r="AM205">
+        <v>1.93</v>
+      </c>
+      <c r="AN205">
+        <v>2.8</v>
+      </c>
+      <c r="AO205">
+        <v>1.17</v>
+      </c>
+      <c r="AP205">
+        <v>1.11</v>
+      </c>
+      <c r="AQ205">
+        <v>1.09</v>
+      </c>
+      <c r="AR205">
+        <v>2.18</v>
+      </c>
+      <c r="AS205">
+        <v>1</v>
+      </c>
+      <c r="AT205">
+        <v>2.25</v>
+      </c>
+      <c r="AU205">
+        <v>1.61</v>
+      </c>
+      <c r="AV205">
+        <v>2.11</v>
+      </c>
+      <c r="AW205">
+        <v>3.72</v>
+      </c>
+      <c r="AX205">
+        <v>3.8</v>
+      </c>
+      <c r="AY205">
+        <v>9.5</v>
+      </c>
+      <c r="AZ205">
+        <v>1.36</v>
+      </c>
+      <c r="BA205">
+        <v>1.13</v>
+      </c>
+      <c r="BB205">
+        <v>1.3</v>
+      </c>
+      <c r="BC205">
+        <v>1.5</v>
+      </c>
+      <c r="BD205">
+        <v>1.78</v>
+      </c>
+      <c r="BE205">
+        <v>2.2</v>
+      </c>
+      <c r="BF205">
+        <v>0</v>
+      </c>
+      <c r="BG205">
+        <v>3</v>
+      </c>
+      <c r="BH205">
+        <v>2</v>
+      </c>
+      <c r="BI205">
+        <v>2</v>
+      </c>
+      <c r="BJ205">
+        <v>2</v>
+      </c>
+      <c r="BK205">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,15 @@
     <t>['48', '84']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['40', '90']</t>
+  </si>
+  <si>
+    <t>['9', '57', '74']</t>
+  </si>
+  <si>
     <t>['48', '51', '62']</t>
   </si>
   <si>
@@ -919,9 +928,6 @@
     <t>['12', '16', '41', '65', '80']</t>
   </si>
   <si>
-    <t>['30']</t>
-  </si>
-  <si>
     <t>['50', '73']</t>
   </si>
   <si>
@@ -980,6 +986,15 @@
   </si>
   <si>
     <t>['10', '16', '43', '63']</t>
+  </si>
+  <si>
+    <t>['32', '54']</t>
+  </si>
+  <si>
+    <t>['9', '61']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1776,7 +1791,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1866,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1967,7 +1982,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -2245,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT5">
         <v>0.36</v>
@@ -2349,7 +2364,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2540,7 +2555,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2731,7 +2746,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2818,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT8">
         <v>2.25</v>
@@ -3012,7 +3027,7 @@
         <v>1.42</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3203,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="AT10">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3304,7 +3319,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3495,7 +3510,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3877,7 +3892,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3964,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT14">
         <v>0.92</v>
@@ -4259,7 +4274,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4832,7 +4847,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5023,7 +5038,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5110,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT20">
         <v>1.45</v>
@@ -5214,7 +5229,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5405,7 +5420,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5492,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
         <v>1.5</v>
@@ -5686,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU23">
         <v>1.81</v>
@@ -5877,7 +5892,7 @@
         <v>1.92</v>
       </c>
       <c r="AT24">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU24">
         <v>1.06</v>
@@ -6360,7 +6375,7 @@
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6551,7 +6566,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6638,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT28">
         <v>0.92</v>
@@ -7124,7 +7139,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7214,7 +7229,7 @@
         <v>1.73</v>
       </c>
       <c r="AT31">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU31">
         <v>1.79</v>
@@ -7315,7 +7330,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7596,7 +7611,7 @@
         <v>1.18</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU33">
         <v>2.03</v>
@@ -7697,7 +7712,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7975,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT35">
         <v>0.58</v>
@@ -8461,7 +8476,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8843,7 +8858,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9225,7 +9240,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9416,7 +9431,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9607,7 +9622,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9694,7 +9709,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT44">
         <v>2.08</v>
@@ -10180,7 +10195,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10270,7 +10285,7 @@
         <v>1.18</v>
       </c>
       <c r="AT47">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU47">
         <v>1.81</v>
@@ -11222,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT52">
         <v>0.92</v>
@@ -11517,7 +11532,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11607,7 +11622,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU54">
         <v>2.99</v>
@@ -12090,7 +12105,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12368,7 +12383,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT58">
         <v>0.58</v>
@@ -12472,7 +12487,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q59">
         <v>16</v>
@@ -13045,7 +13060,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q62">
         <v>13</v>
@@ -13132,7 +13147,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT62">
         <v>2.25</v>
@@ -13236,7 +13251,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13326,7 +13341,7 @@
         <v>1.17</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU63">
         <v>1.61</v>
@@ -13517,7 +13532,7 @@
         <v>2</v>
       </c>
       <c r="AT64">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU64">
         <v>2.46</v>
@@ -13809,7 +13824,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -14000,7 +14015,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14090,7 +14105,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU67">
         <v>2.85</v>
@@ -14764,7 +14779,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14955,7 +14970,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15233,7 +15248,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT73">
         <v>1.45</v>
@@ -15337,7 +15352,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15528,7 +15543,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15618,7 +15633,7 @@
         <v>1.18</v>
       </c>
       <c r="AT75">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU75">
         <v>1.85</v>
@@ -15719,7 +15734,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16382,7 +16397,7 @@
         <v>2.27</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU79">
         <v>2.54</v>
@@ -16483,7 +16498,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16865,7 +16880,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16952,7 +16967,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT82">
         <v>1.27</v>
@@ -17056,7 +17071,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17143,7 +17158,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT83">
         <v>0.58</v>
@@ -17629,7 +17644,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18289,7 +18304,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT89">
         <v>1.5</v>
@@ -18393,7 +18408,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -18584,7 +18599,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18775,7 +18790,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18966,7 +18981,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19056,7 +19071,7 @@
         <v>1.91</v>
       </c>
       <c r="AT93">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU93">
         <v>1.68</v>
@@ -19244,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT94">
         <v>0.36</v>
@@ -19539,7 +19554,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19629,7 +19644,7 @@
         <v>0.25</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU96">
         <v>1.71</v>
@@ -19730,7 +19745,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19921,7 +19936,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20011,7 +20026,7 @@
         <v>1.42</v>
       </c>
       <c r="AT98">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU98">
         <v>1.88</v>
@@ -20303,7 +20318,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20494,7 +20509,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20685,7 +20700,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20876,7 +20891,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -21154,7 +21169,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT104">
         <v>0.45</v>
@@ -21345,7 +21360,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT105">
         <v>1.18</v>
@@ -21831,7 +21846,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22022,7 +22037,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22109,7 +22124,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT109">
         <v>1.27</v>
@@ -22876,7 +22891,7 @@
         <v>2.64</v>
       </c>
       <c r="AT113">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU113">
         <v>2.1</v>
@@ -22977,7 +22992,7 @@
         <v>83</v>
       </c>
       <c r="P114" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23168,7 +23183,7 @@
         <v>105</v>
       </c>
       <c r="P115" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23359,7 +23374,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23550,7 +23565,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23932,7 +23947,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24022,7 +24037,7 @@
         <v>1.92</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU119">
         <v>1.64</v>
@@ -24123,7 +24138,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24314,7 +24329,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24401,10 +24416,10 @@
         <v>2.5</v>
       </c>
       <c r="AS121">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT121">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU121">
         <v>1.65</v>
@@ -24505,7 +24520,7 @@
         <v>83</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24592,7 +24607,7 @@
         <v>2.14</v>
       </c>
       <c r="AS122">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT122">
         <v>2.08</v>
@@ -24887,7 +24902,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25460,7 +25475,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -26224,7 +26239,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26314,7 +26329,7 @@
         <v>1</v>
       </c>
       <c r="AT131">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU131">
         <v>1.73</v>
@@ -26502,7 +26517,7 @@
         <v>1.33</v>
       </c>
       <c r="AS132">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT132">
         <v>1.27</v>
@@ -26606,7 +26621,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26797,7 +26812,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26887,7 +26902,7 @@
         <v>1.42</v>
       </c>
       <c r="AT134">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU134">
         <v>2.06</v>
@@ -26988,7 +27003,7 @@
         <v>83</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27370,7 +27385,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27561,7 +27576,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27842,7 +27857,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU139">
         <v>3.01</v>
@@ -28221,7 +28236,7 @@
         <v>1.29</v>
       </c>
       <c r="AS141">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT141">
         <v>1.18</v>
@@ -28325,7 +28340,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28516,7 +28531,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28707,7 +28722,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28985,7 +29000,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT145">
         <v>0.91</v>
@@ -29280,7 +29295,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29558,7 +29573,7 @@
         <v>1.13</v>
       </c>
       <c r="AS148">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT148">
         <v>1.08</v>
@@ -29662,7 +29677,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30134,7 +30149,7 @@
         <v>2.27</v>
       </c>
       <c r="AT151">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU151">
         <v>2.65</v>
@@ -30704,7 +30719,7 @@
         <v>1.63</v>
       </c>
       <c r="AS154">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT154">
         <v>1.36</v>
@@ -30999,7 +31014,7 @@
         <v>146</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31190,7 +31205,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31277,10 +31292,10 @@
         <v>1.13</v>
       </c>
       <c r="AS157">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT157">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU157">
         <v>1.74</v>
@@ -32423,10 +32438,10 @@
         <v>1.29</v>
       </c>
       <c r="AS163">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT163">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU163">
         <v>2.27</v>
@@ -32909,7 +32924,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33100,7 +33115,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33291,7 +33306,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33482,7 +33497,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33673,7 +33688,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -33763,7 +33778,7 @@
         <v>1.45</v>
       </c>
       <c r="AT170">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU170">
         <v>1.49</v>
@@ -33864,7 +33879,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34055,7 +34070,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -34145,7 +34160,7 @@
         <v>1.91</v>
       </c>
       <c r="AT172">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU172">
         <v>1.57</v>
@@ -34628,7 +34643,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34715,7 +34730,7 @@
         <v>1.2</v>
       </c>
       <c r="AS175">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT175">
         <v>1.08</v>
@@ -35201,7 +35216,7 @@
         <v>83</v>
       </c>
       <c r="P178" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35291,7 +35306,7 @@
         <v>0.25</v>
       </c>
       <c r="AT178">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU178">
         <v>1.55</v>
@@ -35392,7 +35407,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q179">
         <v>12</v>
@@ -35774,7 +35789,7 @@
         <v>181</v>
       </c>
       <c r="P181" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -35864,7 +35879,7 @@
         <v>1</v>
       </c>
       <c r="AT181">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU181">
         <v>1.42</v>
@@ -36434,7 +36449,7 @@
         <v>0.5</v>
       </c>
       <c r="AS184">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT184">
         <v>0.45</v>
@@ -36538,7 +36553,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36625,7 +36640,7 @@
         <v>1.22</v>
       </c>
       <c r="AS185">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT185">
         <v>1.27</v>
@@ -36729,7 +36744,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36819,7 +36834,7 @@
         <v>1.92</v>
       </c>
       <c r="AT186">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU186">
         <v>1.59</v>
@@ -36920,7 +36935,7 @@
         <v>213</v>
       </c>
       <c r="P187" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37198,7 +37213,7 @@
         <v>1.5</v>
       </c>
       <c r="AS188">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT188">
         <v>1.5</v>
@@ -37302,7 +37317,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q189">
         <v>10</v>
@@ -37684,7 +37699,7 @@
         <v>217</v>
       </c>
       <c r="P191" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -38066,7 +38081,7 @@
         <v>219</v>
       </c>
       <c r="P193" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38257,7 +38272,7 @@
         <v>220</v>
       </c>
       <c r="P194" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38448,7 +38463,7 @@
         <v>221</v>
       </c>
       <c r="P195" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38729,7 +38744,7 @@
         <v>1.33</v>
       </c>
       <c r="AT196">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU196">
         <v>1.58</v>
@@ -38830,7 +38845,7 @@
         <v>223</v>
       </c>
       <c r="P197" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39212,7 +39227,7 @@
         <v>83</v>
       </c>
       <c r="P199" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q199">
         <v>8</v>
@@ -39403,7 +39418,7 @@
         <v>83</v>
       </c>
       <c r="P200" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q200">
         <v>0</v>
@@ -39785,7 +39800,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39976,7 +39991,7 @@
         <v>226</v>
       </c>
       <c r="P203" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40358,16 +40373,16 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S205">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="T205">
         <v>5.75</v>
@@ -40484,22 +40499,595 @@
         <v>2.2</v>
       </c>
       <c r="BF205">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG205">
+        <v>9</v>
+      </c>
+      <c r="BH205">
+        <v>7</v>
+      </c>
+      <c r="BI205">
+        <v>11</v>
+      </c>
+      <c r="BJ205">
+        <v>12</v>
+      </c>
+      <c r="BK205">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2433194</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44983.4375</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>71</v>
+      </c>
+      <c r="H206" t="s">
+        <v>80</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206">
         <v>3</v>
       </c>
-      <c r="BH205">
-        <v>2</v>
-      </c>
-      <c r="BI205">
-        <v>2</v>
-      </c>
-      <c r="BJ205">
-        <v>2</v>
-      </c>
-      <c r="BK205">
+      <c r="O206" t="s">
+        <v>229</v>
+      </c>
+      <c r="P206" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q206">
+        <v>6</v>
+      </c>
+      <c r="R206">
+        <v>4</v>
+      </c>
+      <c r="S206">
+        <v>10</v>
+      </c>
+      <c r="T206">
         <v>5</v>
+      </c>
+      <c r="U206">
+        <v>2.45</v>
+      </c>
+      <c r="V206">
+        <v>1.95</v>
+      </c>
+      <c r="W206">
+        <v>1.26</v>
+      </c>
+      <c r="X206">
+        <v>3.5</v>
+      </c>
+      <c r="Y206">
+        <v>2.25</v>
+      </c>
+      <c r="Z206">
+        <v>1.57</v>
+      </c>
+      <c r="AA206">
+        <v>5</v>
+      </c>
+      <c r="AB206">
+        <v>1.14</v>
+      </c>
+      <c r="AC206">
+        <v>5.5</v>
+      </c>
+      <c r="AD206">
+        <v>4.6</v>
+      </c>
+      <c r="AE206">
+        <v>1.47</v>
+      </c>
+      <c r="AF206">
+        <v>1.02</v>
+      </c>
+      <c r="AG206">
+        <v>19</v>
+      </c>
+      <c r="AH206">
+        <v>1.16</v>
+      </c>
+      <c r="AI206">
+        <v>4.87</v>
+      </c>
+      <c r="AJ206">
+        <v>1.55</v>
+      </c>
+      <c r="AK206">
+        <v>2.4</v>
+      </c>
+      <c r="AL206">
+        <v>1.66</v>
+      </c>
+      <c r="AM206">
+        <v>2.05</v>
+      </c>
+      <c r="AN206">
+        <v>2.5</v>
+      </c>
+      <c r="AO206">
+        <v>1.19</v>
+      </c>
+      <c r="AP206">
+        <v>1.15</v>
+      </c>
+      <c r="AQ206">
+        <v>1</v>
+      </c>
+      <c r="AR206">
+        <v>2.18</v>
+      </c>
+      <c r="AS206">
+        <v>0.91</v>
+      </c>
+      <c r="AT206">
+        <v>2.25</v>
+      </c>
+      <c r="AU206">
+        <v>1.73</v>
+      </c>
+      <c r="AV206">
+        <v>2.12</v>
+      </c>
+      <c r="AW206">
+        <v>3.85</v>
+      </c>
+      <c r="AX206">
+        <v>3.4</v>
+      </c>
+      <c r="AY206">
+        <v>8.5</v>
+      </c>
+      <c r="AZ206">
+        <v>1.43</v>
+      </c>
+      <c r="BA206">
+        <v>1.25</v>
+      </c>
+      <c r="BB206">
+        <v>1.42</v>
+      </c>
+      <c r="BC206">
+        <v>1.67</v>
+      </c>
+      <c r="BD206">
+        <v>2.05</v>
+      </c>
+      <c r="BE206">
+        <v>2.6</v>
+      </c>
+      <c r="BF206">
+        <v>6</v>
+      </c>
+      <c r="BG206">
+        <v>4</v>
+      </c>
+      <c r="BH206">
+        <v>7</v>
+      </c>
+      <c r="BI206">
+        <v>8</v>
+      </c>
+      <c r="BJ206">
+        <v>13</v>
+      </c>
+      <c r="BK206">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2433187</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44983.4375</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>77</v>
+      </c>
+      <c r="H207" t="s">
+        <v>75</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+      <c r="N207">
+        <v>4</v>
+      </c>
+      <c r="O207" t="s">
+        <v>230</v>
+      </c>
+      <c r="P207" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q207">
+        <v>3</v>
+      </c>
+      <c r="R207">
+        <v>4</v>
+      </c>
+      <c r="S207">
+        <v>7</v>
+      </c>
+      <c r="T207">
+        <v>2.9</v>
+      </c>
+      <c r="U207">
+        <v>2.05</v>
+      </c>
+      <c r="V207">
+        <v>3.5</v>
+      </c>
+      <c r="W207">
+        <v>1.42</v>
+      </c>
+      <c r="X207">
+        <v>2.6</v>
+      </c>
+      <c r="Y207">
+        <v>2.95</v>
+      </c>
+      <c r="Z207">
+        <v>1.34</v>
+      </c>
+      <c r="AA207">
+        <v>8</v>
+      </c>
+      <c r="AB207">
+        <v>1.07</v>
+      </c>
+      <c r="AC207">
+        <v>2.3</v>
+      </c>
+      <c r="AD207">
+        <v>3.3</v>
+      </c>
+      <c r="AE207">
+        <v>2.9</v>
+      </c>
+      <c r="AF207">
+        <v>1.05</v>
+      </c>
+      <c r="AG207">
+        <v>8.91</v>
+      </c>
+      <c r="AH207">
+        <v>1.38</v>
+      </c>
+      <c r="AI207">
+        <v>2.94</v>
+      </c>
+      <c r="AJ207">
+        <v>2</v>
+      </c>
+      <c r="AK207">
+        <v>1.81</v>
+      </c>
+      <c r="AL207">
+        <v>1.85</v>
+      </c>
+      <c r="AM207">
+        <v>1.83</v>
+      </c>
+      <c r="AN207">
+        <v>1.37</v>
+      </c>
+      <c r="AO207">
+        <v>1.31</v>
+      </c>
+      <c r="AP207">
+        <v>1.57</v>
+      </c>
+      <c r="AQ207">
+        <v>1.18</v>
+      </c>
+      <c r="AR207">
+        <v>0.9</v>
+      </c>
+      <c r="AS207">
+        <v>1.17</v>
+      </c>
+      <c r="AT207">
+        <v>0.91</v>
+      </c>
+      <c r="AU207">
+        <v>1.58</v>
+      </c>
+      <c r="AV207">
+        <v>1.27</v>
+      </c>
+      <c r="AW207">
+        <v>2.85</v>
+      </c>
+      <c r="AX207">
+        <v>1.74</v>
+      </c>
+      <c r="AY207">
+        <v>8</v>
+      </c>
+      <c r="AZ207">
+        <v>2.4</v>
+      </c>
+      <c r="BA207">
+        <v>1.25</v>
+      </c>
+      <c r="BB207">
+        <v>1.43</v>
+      </c>
+      <c r="BC207">
+        <v>1.68</v>
+      </c>
+      <c r="BD207">
+        <v>2.07</v>
+      </c>
+      <c r="BE207">
+        <v>2.63</v>
+      </c>
+      <c r="BF207">
+        <v>4</v>
+      </c>
+      <c r="BG207">
+        <v>5</v>
+      </c>
+      <c r="BH207">
+        <v>5</v>
+      </c>
+      <c r="BI207">
+        <v>4</v>
+      </c>
+      <c r="BJ207">
+        <v>9</v>
+      </c>
+      <c r="BK207">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2433191</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44983.53125</v>
+      </c>
+      <c r="F208">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>68</v>
+      </c>
+      <c r="H208" t="s">
+        <v>81</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>4</v>
+      </c>
+      <c r="O208" t="s">
+        <v>231</v>
+      </c>
+      <c r="P208" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q208">
+        <v>6</v>
+      </c>
+      <c r="R208">
+        <v>5</v>
+      </c>
+      <c r="S208">
+        <v>11</v>
+      </c>
+      <c r="T208">
+        <v>2.1</v>
+      </c>
+      <c r="U208">
+        <v>2.3</v>
+      </c>
+      <c r="V208">
+        <v>4.75</v>
+      </c>
+      <c r="W208">
+        <v>1.32</v>
+      </c>
+      <c r="X208">
+        <v>3.1</v>
+      </c>
+      <c r="Y208">
+        <v>2.5</v>
+      </c>
+      <c r="Z208">
+        <v>1.47</v>
+      </c>
+      <c r="AA208">
+        <v>6</v>
+      </c>
+      <c r="AB208">
+        <v>1.11</v>
+      </c>
+      <c r="AC208">
+        <v>1.57</v>
+      </c>
+      <c r="AD208">
+        <v>4.2</v>
+      </c>
+      <c r="AE208">
+        <v>5</v>
+      </c>
+      <c r="AF208">
+        <v>1.03</v>
+      </c>
+      <c r="AG208">
+        <v>15</v>
+      </c>
+      <c r="AH208">
+        <v>1.22</v>
+      </c>
+      <c r="AI208">
+        <v>4.08</v>
+      </c>
+      <c r="AJ208">
+        <v>1.62</v>
+      </c>
+      <c r="AK208">
+        <v>2.28</v>
+      </c>
+      <c r="AL208">
+        <v>1.77</v>
+      </c>
+      <c r="AM208">
+        <v>1.93</v>
+      </c>
+      <c r="AN208">
+        <v>1.17</v>
+      </c>
+      <c r="AO208">
+        <v>1.21</v>
+      </c>
+      <c r="AP208">
+        <v>2.25</v>
+      </c>
+      <c r="AQ208">
+        <v>2.55</v>
+      </c>
+      <c r="AR208">
+        <v>1</v>
+      </c>
+      <c r="AS208">
+        <v>2.58</v>
+      </c>
+      <c r="AT208">
+        <v>0.92</v>
+      </c>
+      <c r="AU208">
+        <v>2.39</v>
+      </c>
+      <c r="AV208">
+        <v>1.63</v>
+      </c>
+      <c r="AW208">
+        <v>4.02</v>
+      </c>
+      <c r="AX208">
+        <v>1.38</v>
+      </c>
+      <c r="AY208">
+        <v>9</v>
+      </c>
+      <c r="AZ208">
+        <v>3.65</v>
+      </c>
+      <c r="BA208">
+        <v>1.15</v>
+      </c>
+      <c r="BB208">
+        <v>1.34</v>
+      </c>
+      <c r="BC208">
+        <v>1.55</v>
+      </c>
+      <c r="BD208">
+        <v>1.87</v>
+      </c>
+      <c r="BE208">
+        <v>2.33</v>
+      </c>
+      <c r="BF208">
+        <v>10</v>
+      </c>
+      <c r="BG208">
+        <v>9</v>
+      </c>
+      <c r="BH208">
+        <v>5</v>
+      </c>
+      <c r="BI208">
+        <v>7</v>
+      </c>
+      <c r="BJ208">
+        <v>15</v>
+      </c>
+      <c r="BK208">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -996,6 +996,9 @@
   <si>
     <t>['47']</t>
   </si>
+  <si>
+    <t>['69', '87']</t>
+  </si>
 </sst>
 </file>
 
@@ -1356,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2833,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT8">
         <v>2.25</v>
@@ -3788,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT13">
         <v>0.91</v>
@@ -4746,7 +4749,7 @@
         <v>2.64</v>
       </c>
       <c r="AT18">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4937,7 +4940,7 @@
         <v>1.92</v>
       </c>
       <c r="AT19">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5125,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT20">
         <v>1.45</v>
@@ -6653,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT28">
         <v>0.92</v>
@@ -7038,7 +7041,7 @@
         <v>1.17</v>
       </c>
       <c r="AT30">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU30">
         <v>1.2</v>
@@ -7226,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT31">
         <v>2.25</v>
@@ -7802,7 +7805,7 @@
         <v>0.25</v>
       </c>
       <c r="AT34">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU34">
         <v>3.19</v>
@@ -9712,7 +9715,7 @@
         <v>1.17</v>
       </c>
       <c r="AT44">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU44">
         <v>1.58</v>
@@ -10476,7 +10479,7 @@
         <v>1.42</v>
       </c>
       <c r="AT48">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU48">
         <v>1.63</v>
@@ -11046,7 +11049,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT51">
         <v>1.08</v>
@@ -12001,7 +12004,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT56">
         <v>1.18</v>
@@ -12383,7 +12386,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT58">
         <v>0.58</v>
@@ -13914,7 +13917,7 @@
         <v>1</v>
       </c>
       <c r="AT66">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU66">
         <v>1.22</v>
@@ -16585,10 +16588,10 @@
         <v>3</v>
       </c>
       <c r="AS80">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT80">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU80">
         <v>1.61</v>
@@ -16967,10 +16970,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT82">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU82">
         <v>1.65</v>
@@ -18880,7 +18883,7 @@
         <v>2.27</v>
       </c>
       <c r="AT92">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU92">
         <v>2.48</v>
@@ -19259,7 +19262,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT94">
         <v>0.36</v>
@@ -19453,7 +19456,7 @@
         <v>1.45</v>
       </c>
       <c r="AT95">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU95">
         <v>1.62</v>
@@ -20214,7 +20217,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT99">
         <v>1.27</v>
@@ -20790,7 +20793,7 @@
         <v>1.92</v>
       </c>
       <c r="AT102">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU102">
         <v>1.56</v>
@@ -22124,7 +22127,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT109">
         <v>1.27</v>
@@ -22697,7 +22700,7 @@
         <v>0.83</v>
       </c>
       <c r="AS112">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT112">
         <v>0.45</v>
@@ -23464,7 +23467,7 @@
         <v>1.91</v>
       </c>
       <c r="AT116">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU116">
         <v>1.66</v>
@@ -24610,7 +24613,7 @@
         <v>2.58</v>
       </c>
       <c r="AT122">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU122">
         <v>2.51</v>
@@ -24992,7 +24995,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU124">
         <v>1.44</v>
@@ -26708,7 +26711,7 @@
         <v>2.29</v>
       </c>
       <c r="AS133">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT133">
         <v>2.25</v>
@@ -27666,7 +27669,7 @@
         <v>1.17</v>
       </c>
       <c r="AT138">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU138">
         <v>1.63</v>
@@ -28236,7 +28239,7 @@
         <v>1.29</v>
       </c>
       <c r="AS141">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT141">
         <v>1.18</v>
@@ -30531,7 +30534,7 @@
         <v>2</v>
       </c>
       <c r="AT153">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU153">
         <v>1.98</v>
@@ -31104,7 +31107,7 @@
         <v>1.33</v>
       </c>
       <c r="AT156">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU156">
         <v>1.64</v>
@@ -31292,7 +31295,7 @@
         <v>1.13</v>
       </c>
       <c r="AS157">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT157">
         <v>0.92</v>
@@ -31674,7 +31677,7 @@
         <v>0.44</v>
       </c>
       <c r="AS159">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT159">
         <v>0.33</v>
@@ -33969,7 +33972,7 @@
         <v>0.25</v>
       </c>
       <c r="AT171">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU171">
         <v>1.61</v>
@@ -34542,7 +34545,7 @@
         <v>1.18</v>
       </c>
       <c r="AT174">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU174">
         <v>1.61</v>
@@ -34921,7 +34924,7 @@
         <v>1.44</v>
       </c>
       <c r="AS176">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT176">
         <v>1.45</v>
@@ -36643,7 +36646,7 @@
         <v>1.17</v>
       </c>
       <c r="AT185">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU185">
         <v>1.61</v>
@@ -37213,7 +37216,7 @@
         <v>1.5</v>
       </c>
       <c r="AS188">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT188">
         <v>1.5</v>
@@ -37789,7 +37792,7 @@
         <v>1.91</v>
       </c>
       <c r="AT191">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU191">
         <v>1.52</v>
@@ -38362,7 +38365,7 @@
         <v>2.27</v>
       </c>
       <c r="AT194">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU194">
         <v>2.66</v>
@@ -38932,7 +38935,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT197">
         <v>1.36</v>
@@ -40651,7 +40654,7 @@
         <v>2.18</v>
       </c>
       <c r="AS206">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT206">
         <v>2.25</v>
@@ -41088,6 +41091,388 @@
       </c>
       <c r="BK208">
         <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2433198</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44988.66666666666</v>
+      </c>
+      <c r="F209">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>76</v>
+      </c>
+      <c r="H209" t="s">
+        <v>66</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209" t="s">
+        <v>141</v>
+      </c>
+      <c r="P209" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q209">
+        <v>3</v>
+      </c>
+      <c r="R209">
+        <v>1</v>
+      </c>
+      <c r="S209">
+        <v>4</v>
+      </c>
+      <c r="T209">
+        <v>2.05</v>
+      </c>
+      <c r="U209">
+        <v>2.3</v>
+      </c>
+      <c r="V209">
+        <v>5</v>
+      </c>
+      <c r="W209">
+        <v>1.31</v>
+      </c>
+      <c r="X209">
+        <v>3.2</v>
+      </c>
+      <c r="Y209">
+        <v>2.37</v>
+      </c>
+      <c r="Z209">
+        <v>1.51</v>
+      </c>
+      <c r="AA209">
+        <v>5.5</v>
+      </c>
+      <c r="AB209">
+        <v>1.12</v>
+      </c>
+      <c r="AC209">
+        <v>1.68</v>
+      </c>
+      <c r="AD209">
+        <v>4.08</v>
+      </c>
+      <c r="AE209">
+        <v>4.68</v>
+      </c>
+      <c r="AF209">
+        <v>1.03</v>
+      </c>
+      <c r="AG209">
+        <v>11</v>
+      </c>
+      <c r="AH209">
+        <v>1.22</v>
+      </c>
+      <c r="AI209">
+        <v>4</v>
+      </c>
+      <c r="AJ209">
+        <v>1.71</v>
+      </c>
+      <c r="AK209">
+        <v>2.14</v>
+      </c>
+      <c r="AL209">
+        <v>1.7</v>
+      </c>
+      <c r="AM209">
+        <v>2</v>
+      </c>
+      <c r="AN209">
+        <v>1.15</v>
+      </c>
+      <c r="AO209">
+        <v>1.22</v>
+      </c>
+      <c r="AP209">
+        <v>2.35</v>
+      </c>
+      <c r="AQ209">
+        <v>1.73</v>
+      </c>
+      <c r="AR209">
+        <v>1.27</v>
+      </c>
+      <c r="AS209">
+        <v>1.58</v>
+      </c>
+      <c r="AT209">
+        <v>1.42</v>
+      </c>
+      <c r="AU209">
+        <v>1.58</v>
+      </c>
+      <c r="AV209">
+        <v>1.3</v>
+      </c>
+      <c r="AW209">
+        <v>2.88</v>
+      </c>
+      <c r="AX209">
+        <v>1.3</v>
+      </c>
+      <c r="AY209">
+        <v>10</v>
+      </c>
+      <c r="AZ209">
+        <v>4.35</v>
+      </c>
+      <c r="BA209">
+        <v>1.12</v>
+      </c>
+      <c r="BB209">
+        <v>1.3</v>
+      </c>
+      <c r="BC209">
+        <v>1.48</v>
+      </c>
+      <c r="BD209">
+        <v>1.75</v>
+      </c>
+      <c r="BE209">
+        <v>2.15</v>
+      </c>
+      <c r="BF209">
+        <v>6</v>
+      </c>
+      <c r="BG209">
+        <v>6</v>
+      </c>
+      <c r="BH209">
+        <v>6</v>
+      </c>
+      <c r="BI209">
+        <v>3</v>
+      </c>
+      <c r="BJ209">
+        <v>12</v>
+      </c>
+      <c r="BK209">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2433203</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44988.66666666666</v>
+      </c>
+      <c r="F210">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s">
+        <v>71</v>
+      </c>
+      <c r="H210" t="s">
+        <v>73</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" t="s">
+        <v>83</v>
+      </c>
+      <c r="P210" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q210">
+        <v>4</v>
+      </c>
+      <c r="R210">
+        <v>6</v>
+      </c>
+      <c r="S210">
+        <v>10</v>
+      </c>
+      <c r="T210">
+        <v>3.65</v>
+      </c>
+      <c r="U210">
+        <v>2.4</v>
+      </c>
+      <c r="V210">
+        <v>2.5</v>
+      </c>
+      <c r="W210">
+        <v>1.3</v>
+      </c>
+      <c r="X210">
+        <v>3.3</v>
+      </c>
+      <c r="Y210">
+        <v>2.35</v>
+      </c>
+      <c r="Z210">
+        <v>1.53</v>
+      </c>
+      <c r="AA210">
+        <v>6.1</v>
+      </c>
+      <c r="AB210">
+        <v>1.14</v>
+      </c>
+      <c r="AC210">
+        <v>3.5</v>
+      </c>
+      <c r="AD210">
+        <v>3.72</v>
+      </c>
+      <c r="AE210">
+        <v>2.01</v>
+      </c>
+      <c r="AF210">
+        <v>1.02</v>
+      </c>
+      <c r="AG210">
+        <v>10</v>
+      </c>
+      <c r="AH210">
+        <v>1.22</v>
+      </c>
+      <c r="AI210">
+        <v>3.8</v>
+      </c>
+      <c r="AJ210">
+        <v>1.74</v>
+      </c>
+      <c r="AK210">
+        <v>2.1</v>
+      </c>
+      <c r="AL210">
+        <v>1.68</v>
+      </c>
+      <c r="AM210">
+        <v>2.16</v>
+      </c>
+      <c r="AN210">
+        <v>1.82</v>
+      </c>
+      <c r="AO210">
+        <v>1.29</v>
+      </c>
+      <c r="AP210">
+        <v>1.35</v>
+      </c>
+      <c r="AQ210">
+        <v>0.91</v>
+      </c>
+      <c r="AR210">
+        <v>2.08</v>
+      </c>
+      <c r="AS210">
+        <v>0.83</v>
+      </c>
+      <c r="AT210">
+        <v>2.15</v>
+      </c>
+      <c r="AU210">
+        <v>1.7</v>
+      </c>
+      <c r="AV210">
+        <v>1.77</v>
+      </c>
+      <c r="AW210">
+        <v>3.47</v>
+      </c>
+      <c r="AX210">
+        <v>2.35</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>1.77</v>
+      </c>
+      <c r="BA210">
+        <v>1.23</v>
+      </c>
+      <c r="BB210">
+        <v>1.38</v>
+      </c>
+      <c r="BC210">
+        <v>1.62</v>
+      </c>
+      <c r="BD210">
+        <v>1.98</v>
+      </c>
+      <c r="BE210">
+        <v>2.5</v>
+      </c>
+      <c r="BF210">
+        <v>2</v>
+      </c>
+      <c r="BG210">
+        <v>7</v>
+      </c>
+      <c r="BH210">
+        <v>6</v>
+      </c>
+      <c r="BI210">
+        <v>7</v>
+      </c>
+      <c r="BJ210">
+        <v>8</v>
+      </c>
+      <c r="BK210">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,15 @@
     <t>['9', '57', '74']</t>
   </si>
   <si>
+    <t>['67', '88', '90+2']</t>
+  </si>
+  <si>
+    <t>['34', '48', '55']</t>
+  </si>
+  <si>
+    <t>['13', '43', '57', '74']</t>
+  </si>
+  <si>
     <t>['48', '51', '62']</t>
   </si>
   <si>
@@ -998,6 +1007,15 @@
   </si>
   <si>
     <t>['69', '87']</t>
+  </si>
+  <si>
+    <t>['25', '59', '90']</t>
+  </si>
+  <si>
+    <t>['20', '49', '56', '60']</t>
+  </si>
+  <si>
+    <t>['25']</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1711,7 @@
         <v>1.17</v>
       </c>
       <c r="AT2">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1794,7 +1812,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1985,7 +2003,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -2072,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT4">
         <v>0.33</v>
@@ -2266,7 +2284,7 @@
         <v>2.58</v>
       </c>
       <c r="AT5">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2367,7 +2385,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2454,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT6">
         <v>1.5</v>
@@ -2558,7 +2576,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2749,7 +2767,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3221,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="AT10">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3322,7 +3340,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3409,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
         <v>1.08</v>
@@ -3513,7 +3531,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3603,7 +3621,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3895,7 +3913,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4173,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT15">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4277,7 +4295,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4364,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4555,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT17">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4746,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT18">
         <v>1.42</v>
@@ -4850,7 +4868,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5041,7 +5059,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5131,7 +5149,7 @@
         <v>0.83</v>
       </c>
       <c r="AT20">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU20">
         <v>1.23</v>
@@ -5232,7 +5250,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5423,7 +5441,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5704,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU23">
         <v>1.81</v>
@@ -6083,7 +6101,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT25">
         <v>2.25</v>
@@ -6277,7 +6295,7 @@
         <v>1.42</v>
       </c>
       <c r="AT26">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU26">
         <v>1.17</v>
@@ -6378,7 +6396,7 @@
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6468,7 +6486,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU27">
         <v>1.3</v>
@@ -6569,7 +6587,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6847,10 +6865,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT29">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU29">
         <v>2.62</v>
@@ -7142,7 +7160,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7333,7 +7351,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7420,10 +7438,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU32">
         <v>1.54</v>
@@ -7611,7 +7629,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
         <v>0.92</v>
@@ -7715,7 +7733,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7802,7 +7820,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT34">
         <v>2.15</v>
@@ -8184,7 +8202,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT36">
         <v>0.33</v>
@@ -8378,7 +8396,7 @@
         <v>2</v>
       </c>
       <c r="AT37">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU37">
         <v>2.43</v>
@@ -8479,7 +8497,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8757,7 +8775,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT39">
         <v>0.91</v>
@@ -8861,7 +8879,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8948,10 +8966,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT40">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
         <v>1.94</v>
@@ -9243,7 +9261,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9434,7 +9452,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9521,7 +9539,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT43">
         <v>0.33</v>
@@ -9625,7 +9643,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9906,7 +9924,7 @@
         <v>1.17</v>
       </c>
       <c r="AT45">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU45">
         <v>1.85</v>
@@ -10198,7 +10216,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10285,10 +10303,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT47">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU47">
         <v>1.81</v>
@@ -10667,10 +10685,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT49">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU49">
         <v>3.04</v>
@@ -10858,10 +10876,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU50">
         <v>1.36</v>
@@ -11431,10 +11449,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT53">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU53">
         <v>2.15</v>
@@ -11535,7 +11553,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11813,10 +11831,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT55">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU55">
         <v>2.49</v>
@@ -12007,7 +12025,7 @@
         <v>1.58</v>
       </c>
       <c r="AT56">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU56">
         <v>1.41</v>
@@ -12108,7 +12126,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12198,7 +12216,7 @@
         <v>1.92</v>
       </c>
       <c r="AT57">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -12490,7 +12508,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q59">
         <v>16</v>
@@ -12577,7 +12595,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT59">
         <v>0.91</v>
@@ -12962,7 +12980,7 @@
         <v>1.33</v>
       </c>
       <c r="AT61">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -13063,7 +13081,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q62">
         <v>13</v>
@@ -13254,7 +13272,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13723,10 +13741,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT65">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -13827,7 +13845,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -14018,7 +14036,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14105,10 +14123,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT67">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU67">
         <v>2.85</v>
@@ -14296,7 +14314,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT68">
         <v>1.08</v>
@@ -14678,7 +14696,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT70">
         <v>1.5</v>
@@ -14782,7 +14800,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14973,7 +14991,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15060,10 +15078,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT72">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -15254,7 +15272,7 @@
         <v>1.17</v>
       </c>
       <c r="AT73">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU73">
         <v>1.52</v>
@@ -15355,7 +15373,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15546,7 +15564,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15633,7 +15651,7 @@
         <v>2.25</v>
       </c>
       <c r="AS75">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT75">
         <v>2.25</v>
@@ -15737,7 +15755,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15827,7 +15845,7 @@
         <v>1.92</v>
       </c>
       <c r="AT76">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -16397,7 +16415,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT79">
         <v>0.92</v>
@@ -16501,7 +16519,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16782,7 +16800,7 @@
         <v>1.17</v>
       </c>
       <c r="AT81">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU81">
         <v>1.6</v>
@@ -16883,7 +16901,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17074,7 +17092,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17546,7 +17564,7 @@
         <v>1.33</v>
       </c>
       <c r="AT85">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU85">
         <v>1.74</v>
@@ -17647,7 +17665,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17734,7 +17752,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT86">
         <v>1.08</v>
@@ -17928,7 +17946,7 @@
         <v>1.92</v>
       </c>
       <c r="AT87">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -18116,10 +18134,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT88">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU88">
         <v>2.01</v>
@@ -18411,7 +18429,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -18602,7 +18620,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18689,7 +18707,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT91">
         <v>0.33</v>
@@ -18793,7 +18811,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18880,7 +18898,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT92">
         <v>1.42</v>
@@ -18984,7 +19002,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19071,7 +19089,7 @@
         <v>2.4</v>
       </c>
       <c r="AS93">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT93">
         <v>2.25</v>
@@ -19265,7 +19283,7 @@
         <v>0.83</v>
       </c>
       <c r="AT94">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU94">
         <v>1.51</v>
@@ -19453,7 +19471,7 @@
         <v>3</v>
       </c>
       <c r="AS95">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT95">
         <v>2.15</v>
@@ -19557,7 +19575,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19644,7 +19662,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT96">
         <v>0.92</v>
@@ -19748,7 +19766,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19838,7 +19856,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU97">
         <v>1.39</v>
@@ -19939,7 +19957,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20029,7 +20047,7 @@
         <v>1.42</v>
       </c>
       <c r="AT98">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU98">
         <v>1.88</v>
@@ -20220,7 +20238,7 @@
         <v>1.58</v>
       </c>
       <c r="AT99">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU99">
         <v>1.55</v>
@@ -20321,7 +20339,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20408,10 +20426,10 @@
         <v>1.2</v>
       </c>
       <c r="AS100">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU100">
         <v>1.83</v>
@@ -20512,7 +20530,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20703,7 +20721,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20894,7 +20912,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -21175,7 +21193,7 @@
         <v>1.17</v>
       </c>
       <c r="AT104">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU104">
         <v>1.63</v>
@@ -21366,7 +21384,7 @@
         <v>2.58</v>
       </c>
       <c r="AT105">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU105">
         <v>2.62</v>
@@ -21554,7 +21572,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT106">
         <v>0.92</v>
@@ -21849,7 +21867,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21936,10 +21954,10 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT108">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU108">
         <v>1.62</v>
@@ -22040,7 +22058,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22130,7 +22148,7 @@
         <v>0.83</v>
       </c>
       <c r="AT109">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU109">
         <v>1.56</v>
@@ -22321,7 +22339,7 @@
         <v>1</v>
       </c>
       <c r="AT110">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU110">
         <v>1.74</v>
@@ -22509,10 +22527,10 @@
         <v>1.5</v>
       </c>
       <c r="AS111">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT111">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU111">
         <v>1.49</v>
@@ -22703,7 +22721,7 @@
         <v>1.58</v>
       </c>
       <c r="AT112">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU112">
         <v>1.6</v>
@@ -22891,10 +22909,10 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT113">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU113">
         <v>2.1</v>
@@ -22995,7 +23013,7 @@
         <v>83</v>
       </c>
       <c r="P114" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23082,7 +23100,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT114">
         <v>2.25</v>
@@ -23186,7 +23204,7 @@
         <v>105</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23273,10 +23291,10 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT115">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU115">
         <v>3.11</v>
@@ -23377,7 +23395,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23464,7 +23482,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT116">
         <v>2.15</v>
@@ -23568,7 +23586,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23655,7 +23673,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT117">
         <v>1.08</v>
@@ -23846,7 +23864,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT118">
         <v>0.91</v>
@@ -23950,7 +23968,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24141,7 +24159,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24228,7 +24246,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
         <v>1.5</v>
@@ -24332,7 +24350,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24523,7 +24541,7 @@
         <v>83</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24905,7 +24923,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25374,7 +25392,7 @@
         <v>0.57</v>
       </c>
       <c r="AS126">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT126">
         <v>0.33</v>
@@ -25478,7 +25496,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25756,10 +25774,10 @@
         <v>0.43</v>
       </c>
       <c r="AS128">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT128">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU128">
         <v>2.1</v>
@@ -25947,10 +25965,10 @@
         <v>1.71</v>
       </c>
       <c r="AS129">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT129">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU129">
         <v>1.71</v>
@@ -26242,7 +26260,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26332,7 +26350,7 @@
         <v>1</v>
       </c>
       <c r="AT131">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU131">
         <v>1.73</v>
@@ -26523,7 +26541,7 @@
         <v>2.58</v>
       </c>
       <c r="AT132">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU132">
         <v>2.35</v>
@@ -26624,7 +26642,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26815,7 +26833,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -27006,7 +27024,7 @@
         <v>83</v>
       </c>
       <c r="P135" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27093,7 +27111,7 @@
         <v>0.43</v>
       </c>
       <c r="AS135">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT135">
         <v>0.58</v>
@@ -27284,10 +27302,10 @@
         <v>0.71</v>
       </c>
       <c r="AS136">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT136">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27388,7 +27406,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27475,7 +27493,7 @@
         <v>0.86</v>
       </c>
       <c r="AS137">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT137">
         <v>0.92</v>
@@ -27579,7 +27597,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27857,7 +27875,7 @@
         <v>1.14</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT139">
         <v>0.92</v>
@@ -28242,7 +28260,7 @@
         <v>0.83</v>
       </c>
       <c r="AT141">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU141">
         <v>1.59</v>
@@ -28343,7 +28361,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28433,7 +28451,7 @@
         <v>1</v>
       </c>
       <c r="AT142">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU142">
         <v>1.67</v>
@@ -28534,7 +28552,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28725,7 +28743,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -29194,7 +29212,7 @@
         <v>0.75</v>
       </c>
       <c r="AS146">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT146">
         <v>0.58</v>
@@ -29298,7 +29316,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29388,7 +29406,7 @@
         <v>1.42</v>
       </c>
       <c r="AT147">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU147">
         <v>1.9</v>
@@ -29680,7 +29698,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29767,10 +29785,10 @@
         <v>1.29</v>
       </c>
       <c r="AS149">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT149">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU149">
         <v>1.61</v>
@@ -29961,7 +29979,7 @@
         <v>1.17</v>
       </c>
       <c r="AT150">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU150">
         <v>1.68</v>
@@ -30149,7 +30167,7 @@
         <v>2.13</v>
       </c>
       <c r="AS151">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT151">
         <v>2.25</v>
@@ -30340,7 +30358,7 @@
         <v>1.75</v>
       </c>
       <c r="AS152">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT152">
         <v>1.5</v>
@@ -30725,7 +30743,7 @@
         <v>1.17</v>
       </c>
       <c r="AT154">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU154">
         <v>1.69</v>
@@ -31017,7 +31035,7 @@
         <v>146</v>
       </c>
       <c r="P156" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31208,7 +31226,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31489,7 +31507,7 @@
         <v>1</v>
       </c>
       <c r="AT158">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU158">
         <v>1.57</v>
@@ -31868,10 +31886,10 @@
         <v>1.25</v>
       </c>
       <c r="AS160">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT160">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU160">
         <v>2.52</v>
@@ -32250,7 +32268,7 @@
         <v>0.67</v>
       </c>
       <c r="AS162">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT162">
         <v>0.58</v>
@@ -32444,7 +32462,7 @@
         <v>2.58</v>
       </c>
       <c r="AT163">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU163">
         <v>2.27</v>
@@ -32632,10 +32650,10 @@
         <v>0.33</v>
       </c>
       <c r="AS164">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT164">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU164">
         <v>1.62</v>
@@ -32826,7 +32844,7 @@
         <v>1.42</v>
       </c>
       <c r="AT165">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU165">
         <v>1.91</v>
@@ -32927,7 +32945,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33118,7 +33136,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33396,7 +33414,7 @@
         <v>2.22</v>
       </c>
       <c r="AS168">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT168">
         <v>2.25</v>
@@ -33500,7 +33518,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33587,10 +33605,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS169">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT169">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -33691,7 +33709,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -33778,7 +33796,7 @@
         <v>2</v>
       </c>
       <c r="AS170">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
         <v>2.25</v>
@@ -33882,7 +33900,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33969,7 +33987,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT171">
         <v>1.42</v>
@@ -34073,7 +34091,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -34160,10 +34178,10 @@
         <v>1.13</v>
       </c>
       <c r="AS172">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT172">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU172">
         <v>1.57</v>
@@ -34354,7 +34372,7 @@
         <v>1</v>
       </c>
       <c r="AT173">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU173">
         <v>1.6</v>
@@ -34542,7 +34560,7 @@
         <v>2.4</v>
       </c>
       <c r="AS174">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT174">
         <v>2.15</v>
@@ -34646,7 +34664,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34927,7 +34945,7 @@
         <v>1.58</v>
       </c>
       <c r="AT176">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU176">
         <v>1.63</v>
@@ -35115,7 +35133,7 @@
         <v>0.78</v>
       </c>
       <c r="AS177">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT177">
         <v>0.92</v>
@@ -35219,7 +35237,7 @@
         <v>83</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35306,7 +35324,7 @@
         <v>2.1</v>
       </c>
       <c r="AS178">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT178">
         <v>2.25</v>
@@ -35410,7 +35428,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>12</v>
@@ -35497,10 +35515,10 @@
         <v>1.44</v>
       </c>
       <c r="AS179">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT179">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU179">
         <v>2.55</v>
@@ -35691,7 +35709,7 @@
         <v>1.33</v>
       </c>
       <c r="AT180">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU180">
         <v>1.61</v>
@@ -35792,7 +35810,7 @@
         <v>181</v>
       </c>
       <c r="P181" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -36455,7 +36473,7 @@
         <v>2.58</v>
       </c>
       <c r="AT184">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU184">
         <v>2.24</v>
@@ -36556,7 +36574,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36747,7 +36765,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36837,7 +36855,7 @@
         <v>1.92</v>
       </c>
       <c r="AT186">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU186">
         <v>1.59</v>
@@ -36938,7 +36956,7 @@
         <v>213</v>
       </c>
       <c r="P187" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37320,7 +37338,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q189">
         <v>10</v>
@@ -37407,7 +37425,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT189">
         <v>0.92</v>
@@ -37598,7 +37616,7 @@
         <v>0.7</v>
       </c>
       <c r="AS190">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT190">
         <v>0.58</v>
@@ -37702,7 +37720,7 @@
         <v>217</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -37789,7 +37807,7 @@
         <v>1.4</v>
       </c>
       <c r="AS191">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT191">
         <v>1.42</v>
@@ -37980,7 +37998,7 @@
         <v>1.18</v>
       </c>
       <c r="AS192">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT192">
         <v>1.08</v>
@@ -38084,7 +38102,7 @@
         <v>219</v>
       </c>
       <c r="P193" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38174,7 +38192,7 @@
         <v>1</v>
       </c>
       <c r="AT193">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU193">
         <v>1.55</v>
@@ -38275,7 +38293,7 @@
         <v>220</v>
       </c>
       <c r="P194" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38362,7 +38380,7 @@
         <v>2.27</v>
       </c>
       <c r="AS194">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT194">
         <v>2.15</v>
@@ -38466,7 +38484,7 @@
         <v>221</v>
       </c>
       <c r="P195" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38553,10 +38571,10 @@
         <v>1.3</v>
       </c>
       <c r="AS195">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="AT195">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU195">
         <v>1.46</v>
@@ -38848,7 +38866,7 @@
         <v>223</v>
       </c>
       <c r="P197" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -38938,7 +38956,7 @@
         <v>1.58</v>
       </c>
       <c r="AT197">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU197">
         <v>1.64</v>
@@ -39126,10 +39144,10 @@
         <v>1.4</v>
       </c>
       <c r="AS198">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT198">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU198">
         <v>2.78</v>
@@ -39230,7 +39248,7 @@
         <v>83</v>
       </c>
       <c r="P199" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q199">
         <v>8</v>
@@ -39317,10 +39335,10 @@
         <v>1</v>
       </c>
       <c r="AS199">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT199">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU199">
         <v>1.48</v>
@@ -39421,7 +39439,7 @@
         <v>83</v>
       </c>
       <c r="P200" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q200">
         <v>0</v>
@@ -39803,7 +39821,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39994,7 +40012,7 @@
         <v>226</v>
       </c>
       <c r="P203" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40376,7 +40394,7 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40567,7 +40585,7 @@
         <v>229</v>
       </c>
       <c r="P206" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40758,7 +40776,7 @@
         <v>230</v>
       </c>
       <c r="P207" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -40848,7 +40866,7 @@
         <v>1.17</v>
       </c>
       <c r="AT207">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU207">
         <v>1.58</v>
@@ -40949,7 +40967,7 @@
         <v>231</v>
       </c>
       <c r="P208" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q208">
         <v>6</v>
@@ -41140,7 +41158,7 @@
         <v>141</v>
       </c>
       <c r="P209" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41331,7 +41349,7 @@
         <v>83</v>
       </c>
       <c r="P210" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41473,6 +41491,1343 @@
       </c>
       <c r="BK210">
         <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2433199</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44989.61458333334</v>
+      </c>
+      <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>79</v>
+      </c>
+      <c r="H211" t="s">
+        <v>77</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="O211" t="s">
+        <v>232</v>
+      </c>
+      <c r="P211" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q211">
+        <v>9</v>
+      </c>
+      <c r="R211">
+        <v>3</v>
+      </c>
+      <c r="S211">
+        <v>12</v>
+      </c>
+      <c r="T211">
+        <v>3.2</v>
+      </c>
+      <c r="U211">
+        <v>2.2</v>
+      </c>
+      <c r="V211">
+        <v>3.25</v>
+      </c>
+      <c r="W211">
+        <v>1.38</v>
+      </c>
+      <c r="X211">
+        <v>3.1</v>
+      </c>
+      <c r="Y211">
+        <v>2.75</v>
+      </c>
+      <c r="Z211">
+        <v>1.44</v>
+      </c>
+      <c r="AA211">
+        <v>6.5</v>
+      </c>
+      <c r="AB211">
+        <v>1.1</v>
+      </c>
+      <c r="AC211">
+        <v>2.6</v>
+      </c>
+      <c r="AD211">
+        <v>3.25</v>
+      </c>
+      <c r="AE211">
+        <v>2.6</v>
+      </c>
+      <c r="AF211">
+        <v>1.04</v>
+      </c>
+      <c r="AG211">
+        <v>12</v>
+      </c>
+      <c r="AH211">
+        <v>1.26</v>
+      </c>
+      <c r="AI211">
+        <v>3.67</v>
+      </c>
+      <c r="AJ211">
+        <v>1.83</v>
+      </c>
+      <c r="AK211">
+        <v>1.84</v>
+      </c>
+      <c r="AL211">
+        <v>1.68</v>
+      </c>
+      <c r="AM211">
+        <v>2.2</v>
+      </c>
+      <c r="AN211">
+        <v>1.5</v>
+      </c>
+      <c r="AO211">
+        <v>1.26</v>
+      </c>
+      <c r="AP211">
+        <v>1.53</v>
+      </c>
+      <c r="AQ211">
+        <v>1.18</v>
+      </c>
+      <c r="AR211">
+        <v>0.36</v>
+      </c>
+      <c r="AS211">
+        <v>1.33</v>
+      </c>
+      <c r="AT211">
+        <v>0.33</v>
+      </c>
+      <c r="AU211">
+        <v>1.51</v>
+      </c>
+      <c r="AV211">
+        <v>1.21</v>
+      </c>
+      <c r="AW211">
+        <v>2.72</v>
+      </c>
+      <c r="AX211">
+        <v>1.98</v>
+      </c>
+      <c r="AY211">
+        <v>8</v>
+      </c>
+      <c r="AZ211">
+        <v>2.06</v>
+      </c>
+      <c r="BA211">
+        <v>1.22</v>
+      </c>
+      <c r="BB211">
+        <v>1.38</v>
+      </c>
+      <c r="BC211">
+        <v>1.61</v>
+      </c>
+      <c r="BD211">
+        <v>1.94</v>
+      </c>
+      <c r="BE211">
+        <v>2.45</v>
+      </c>
+      <c r="BF211">
+        <v>11</v>
+      </c>
+      <c r="BG211">
+        <v>8</v>
+      </c>
+      <c r="BH211">
+        <v>5</v>
+      </c>
+      <c r="BI211">
+        <v>8</v>
+      </c>
+      <c r="BJ211">
+        <v>16</v>
+      </c>
+      <c r="BK211">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2433200</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44989.66666666666</v>
+      </c>
+      <c r="F212">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s">
+        <v>78</v>
+      </c>
+      <c r="H212" t="s">
+        <v>70</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>100</v>
+      </c>
+      <c r="P212" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q212">
+        <v>14</v>
+      </c>
+      <c r="R212">
+        <v>3</v>
+      </c>
+      <c r="S212">
+        <v>17</v>
+      </c>
+      <c r="T212">
+        <v>1.53</v>
+      </c>
+      <c r="U212">
+        <v>3.1</v>
+      </c>
+      <c r="V212">
+        <v>10</v>
+      </c>
+      <c r="W212">
+        <v>1.23</v>
+      </c>
+      <c r="X212">
+        <v>4</v>
+      </c>
+      <c r="Y212">
+        <v>1.98</v>
+      </c>
+      <c r="Z212">
+        <v>1.72</v>
+      </c>
+      <c r="AA212">
+        <v>4.6</v>
+      </c>
+      <c r="AB212">
+        <v>1.21</v>
+      </c>
+      <c r="AC212">
+        <v>1.2</v>
+      </c>
+      <c r="AD212">
+        <v>7</v>
+      </c>
+      <c r="AE212">
+        <v>11</v>
+      </c>
+      <c r="AF212">
+        <v>1.01</v>
+      </c>
+      <c r="AG212">
+        <v>23</v>
+      </c>
+      <c r="AH212">
+        <v>1.12</v>
+      </c>
+      <c r="AI212">
+        <v>5.87</v>
+      </c>
+      <c r="AJ212">
+        <v>1.36</v>
+      </c>
+      <c r="AK212">
+        <v>2.81</v>
+      </c>
+      <c r="AL212">
+        <v>2.2</v>
+      </c>
+      <c r="AM212">
+        <v>1.67</v>
+      </c>
+      <c r="AN212">
+        <v>1.05</v>
+      </c>
+      <c r="AO212">
+        <v>1.08</v>
+      </c>
+      <c r="AP212">
+        <v>4.5</v>
+      </c>
+      <c r="AQ212">
+        <v>2.27</v>
+      </c>
+      <c r="AR212">
+        <v>0.45</v>
+      </c>
+      <c r="AS212">
+        <v>2.33</v>
+      </c>
+      <c r="AT212">
+        <v>0.42</v>
+      </c>
+      <c r="AU212">
+        <v>2.55</v>
+      </c>
+      <c r="AV212">
+        <v>1.08</v>
+      </c>
+      <c r="AW212">
+        <v>3.63</v>
+      </c>
+      <c r="AX212">
+        <v>1.14</v>
+      </c>
+      <c r="AY212">
+        <v>14</v>
+      </c>
+      <c r="AZ212">
+        <v>8</v>
+      </c>
+      <c r="BA212">
+        <v>1.11</v>
+      </c>
+      <c r="BB212">
+        <v>1.29</v>
+      </c>
+      <c r="BC212">
+        <v>1.48</v>
+      </c>
+      <c r="BD212">
+        <v>1.74</v>
+      </c>
+      <c r="BE212">
+        <v>2.12</v>
+      </c>
+      <c r="BF212">
+        <v>7</v>
+      </c>
+      <c r="BG212">
+        <v>0</v>
+      </c>
+      <c r="BH212">
+        <v>8</v>
+      </c>
+      <c r="BI212">
+        <v>4</v>
+      </c>
+      <c r="BJ212">
+        <v>15</v>
+      </c>
+      <c r="BK212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2433197</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44989.70833333334</v>
+      </c>
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>81</v>
+      </c>
+      <c r="H213" t="s">
+        <v>65</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>3</v>
+      </c>
+      <c r="M213">
+        <v>3</v>
+      </c>
+      <c r="N213">
+        <v>6</v>
+      </c>
+      <c r="O213" t="s">
+        <v>233</v>
+      </c>
+      <c r="P213" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q213">
+        <v>6</v>
+      </c>
+      <c r="R213">
+        <v>6</v>
+      </c>
+      <c r="S213">
+        <v>12</v>
+      </c>
+      <c r="T213">
+        <v>2.04</v>
+      </c>
+      <c r="U213">
+        <v>2.45</v>
+      </c>
+      <c r="V213">
+        <v>5.4</v>
+      </c>
+      <c r="W213">
+        <v>1.32</v>
+      </c>
+      <c r="X213">
+        <v>3.15</v>
+      </c>
+      <c r="Y213">
+        <v>2.45</v>
+      </c>
+      <c r="Z213">
+        <v>1.49</v>
+      </c>
+      <c r="AA213">
+        <v>6.5</v>
+      </c>
+      <c r="AB213">
+        <v>1.13</v>
+      </c>
+      <c r="AC213">
+        <v>1.55</v>
+      </c>
+      <c r="AD213">
+        <v>4.3</v>
+      </c>
+      <c r="AE213">
+        <v>5.5</v>
+      </c>
+      <c r="AF213">
+        <v>1.02</v>
+      </c>
+      <c r="AG213">
+        <v>14</v>
+      </c>
+      <c r="AH213">
+        <v>1.26</v>
+      </c>
+      <c r="AI213">
+        <v>4</v>
+      </c>
+      <c r="AJ213">
+        <v>1.74</v>
+      </c>
+      <c r="AK213">
+        <v>1.94</v>
+      </c>
+      <c r="AL213">
+        <v>1.8</v>
+      </c>
+      <c r="AM213">
+        <v>1.98</v>
+      </c>
+      <c r="AN213">
+        <v>1.18</v>
+      </c>
+      <c r="AO213">
+        <v>1.25</v>
+      </c>
+      <c r="AP213">
+        <v>2.43</v>
+      </c>
+      <c r="AQ213">
+        <v>2.64</v>
+      </c>
+      <c r="AR213">
+        <v>1.45</v>
+      </c>
+      <c r="AS213">
+        <v>2.5</v>
+      </c>
+      <c r="AT213">
+        <v>1.42</v>
+      </c>
+      <c r="AU213">
+        <v>2.11</v>
+      </c>
+      <c r="AV213">
+        <v>1.44</v>
+      </c>
+      <c r="AW213">
+        <v>3.55</v>
+      </c>
+      <c r="AX213">
+        <v>1.37</v>
+      </c>
+      <c r="AY213">
+        <v>9.5</v>
+      </c>
+      <c r="AZ213">
+        <v>3.75</v>
+      </c>
+      <c r="BA213">
+        <v>1.22</v>
+      </c>
+      <c r="BB213">
+        <v>1.36</v>
+      </c>
+      <c r="BC213">
+        <v>1.58</v>
+      </c>
+      <c r="BD213">
+        <v>1.91</v>
+      </c>
+      <c r="BE213">
+        <v>2.38</v>
+      </c>
+      <c r="BF213">
+        <v>6</v>
+      </c>
+      <c r="BG213">
+        <v>6</v>
+      </c>
+      <c r="BH213">
+        <v>9</v>
+      </c>
+      <c r="BI213">
+        <v>10</v>
+      </c>
+      <c r="BJ213">
+        <v>15</v>
+      </c>
+      <c r="BK213">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2433196</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44990.34375</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>74</v>
+      </c>
+      <c r="H214" t="s">
+        <v>82</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>4</v>
+      </c>
+      <c r="N214">
+        <v>5</v>
+      </c>
+      <c r="O214" t="s">
+        <v>133</v>
+      </c>
+      <c r="P214" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q214">
+        <v>5</v>
+      </c>
+      <c r="R214">
+        <v>4</v>
+      </c>
+      <c r="S214">
+        <v>9</v>
+      </c>
+      <c r="T214">
+        <v>3.6</v>
+      </c>
+      <c r="U214">
+        <v>2.2</v>
+      </c>
+      <c r="V214">
+        <v>2.88</v>
+      </c>
+      <c r="W214">
+        <v>1.4</v>
+      </c>
+      <c r="X214">
+        <v>2.75</v>
+      </c>
+      <c r="Y214">
+        <v>2.75</v>
+      </c>
+      <c r="Z214">
+        <v>1.4</v>
+      </c>
+      <c r="AA214">
+        <v>8</v>
+      </c>
+      <c r="AB214">
+        <v>1.08</v>
+      </c>
+      <c r="AC214">
+        <v>3.2</v>
+      </c>
+      <c r="AD214">
+        <v>3.35</v>
+      </c>
+      <c r="AE214">
+        <v>2.08</v>
+      </c>
+      <c r="AF214">
+        <v>1.05</v>
+      </c>
+      <c r="AG214">
+        <v>11</v>
+      </c>
+      <c r="AH214">
+        <v>1.3</v>
+      </c>
+      <c r="AI214">
+        <v>3.63</v>
+      </c>
+      <c r="AJ214">
+        <v>1.87</v>
+      </c>
+      <c r="AK214">
+        <v>1.8</v>
+      </c>
+      <c r="AL214">
+        <v>1.75</v>
+      </c>
+      <c r="AM214">
+        <v>2</v>
+      </c>
+      <c r="AN214">
+        <v>1.67</v>
+      </c>
+      <c r="AO214">
+        <v>1.32</v>
+      </c>
+      <c r="AP214">
+        <v>1.4</v>
+      </c>
+      <c r="AQ214">
+        <v>1.45</v>
+      </c>
+      <c r="AR214">
+        <v>1.27</v>
+      </c>
+      <c r="AS214">
+        <v>1.33</v>
+      </c>
+      <c r="AT214">
+        <v>1.42</v>
+      </c>
+      <c r="AU214">
+        <v>1.47</v>
+      </c>
+      <c r="AV214">
+        <v>1.37</v>
+      </c>
+      <c r="AW214">
+        <v>2.84</v>
+      </c>
+      <c r="AX214">
+        <v>2.17</v>
+      </c>
+      <c r="AY214">
+        <v>7.5</v>
+      </c>
+      <c r="AZ214">
+        <v>1.9</v>
+      </c>
+      <c r="BA214">
+        <v>1.23</v>
+      </c>
+      <c r="BB214">
+        <v>1.4</v>
+      </c>
+      <c r="BC214">
+        <v>1.64</v>
+      </c>
+      <c r="BD214">
+        <v>2</v>
+      </c>
+      <c r="BE214">
+        <v>2.55</v>
+      </c>
+      <c r="BF214">
+        <v>6</v>
+      </c>
+      <c r="BG214">
+        <v>7</v>
+      </c>
+      <c r="BH214">
+        <v>8</v>
+      </c>
+      <c r="BI214">
+        <v>3</v>
+      </c>
+      <c r="BJ214">
+        <v>14</v>
+      </c>
+      <c r="BK214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2433201</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44990.4375</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>69</v>
+      </c>
+      <c r="H215" t="s">
+        <v>68</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>83</v>
+      </c>
+      <c r="P215" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
+        <v>4</v>
+      </c>
+      <c r="S215">
+        <v>6</v>
+      </c>
+      <c r="T215">
+        <v>6</v>
+      </c>
+      <c r="U215">
+        <v>2.5</v>
+      </c>
+      <c r="V215">
+        <v>1.91</v>
+      </c>
+      <c r="W215">
+        <v>1.29</v>
+      </c>
+      <c r="X215">
+        <v>3.5</v>
+      </c>
+      <c r="Y215">
+        <v>2.25</v>
+      </c>
+      <c r="Z215">
+        <v>1.57</v>
+      </c>
+      <c r="AA215">
+        <v>5.5</v>
+      </c>
+      <c r="AB215">
+        <v>1.14</v>
+      </c>
+      <c r="AC215">
+        <v>5.93</v>
+      </c>
+      <c r="AD215">
+        <v>4.54</v>
+      </c>
+      <c r="AE215">
+        <v>1.47</v>
+      </c>
+      <c r="AF215">
+        <v>1.01</v>
+      </c>
+      <c r="AG215">
+        <v>13</v>
+      </c>
+      <c r="AH215">
+        <v>1.15</v>
+      </c>
+      <c r="AI215">
+        <v>5</v>
+      </c>
+      <c r="AJ215">
+        <v>1.52</v>
+      </c>
+      <c r="AK215">
+        <v>2.31</v>
+      </c>
+      <c r="AL215">
+        <v>1.75</v>
+      </c>
+      <c r="AM215">
+        <v>2</v>
+      </c>
+      <c r="AN215">
+        <v>2.75</v>
+      </c>
+      <c r="AO215">
+        <v>1.2</v>
+      </c>
+      <c r="AP215">
+        <v>1.05</v>
+      </c>
+      <c r="AQ215">
+        <v>1.91</v>
+      </c>
+      <c r="AR215">
+        <v>1.36</v>
+      </c>
+      <c r="AS215">
+        <v>1.75</v>
+      </c>
+      <c r="AT215">
+        <v>1.5</v>
+      </c>
+      <c r="AU215">
+        <v>1.57</v>
+      </c>
+      <c r="AV215">
+        <v>2.08</v>
+      </c>
+      <c r="AW215">
+        <v>3.65</v>
+      </c>
+      <c r="AX215">
+        <v>5</v>
+      </c>
+      <c r="AY215">
+        <v>10</v>
+      </c>
+      <c r="AZ215">
+        <v>1.28</v>
+      </c>
+      <c r="BA215">
+        <v>1.15</v>
+      </c>
+      <c r="BB215">
+        <v>1.31</v>
+      </c>
+      <c r="BC215">
+        <v>1.58</v>
+      </c>
+      <c r="BD215">
+        <v>1.99</v>
+      </c>
+      <c r="BE215">
+        <v>2.59</v>
+      </c>
+      <c r="BF215">
+        <v>4</v>
+      </c>
+      <c r="BG215">
+        <v>8</v>
+      </c>
+      <c r="BH215">
+        <v>6</v>
+      </c>
+      <c r="BI215">
+        <v>11</v>
+      </c>
+      <c r="BJ215">
+        <v>10</v>
+      </c>
+      <c r="BK215">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2433195</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44990.53125</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>80</v>
+      </c>
+      <c r="H216" t="s">
+        <v>72</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+      <c r="O216" t="s">
+        <v>180</v>
+      </c>
+      <c r="P216" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q216">
+        <v>10</v>
+      </c>
+      <c r="R216">
+        <v>2</v>
+      </c>
+      <c r="S216">
+        <v>12</v>
+      </c>
+      <c r="T216">
+        <v>1.62</v>
+      </c>
+      <c r="U216">
+        <v>2.88</v>
+      </c>
+      <c r="V216">
+        <v>9</v>
+      </c>
+      <c r="W216">
+        <v>1.22</v>
+      </c>
+      <c r="X216">
+        <v>4</v>
+      </c>
+      <c r="Y216">
+        <v>2.1</v>
+      </c>
+      <c r="Z216">
+        <v>1.67</v>
+      </c>
+      <c r="AA216">
+        <v>4.5</v>
+      </c>
+      <c r="AB216">
+        <v>1.18</v>
+      </c>
+      <c r="AC216">
+        <v>1.2</v>
+      </c>
+      <c r="AD216">
+        <v>6.69</v>
+      </c>
+      <c r="AE216">
+        <v>11.89</v>
+      </c>
+      <c r="AF216">
+        <v>1.01</v>
+      </c>
+      <c r="AG216">
+        <v>26</v>
+      </c>
+      <c r="AH216">
+        <v>1.1</v>
+      </c>
+      <c r="AI216">
+        <v>6.3</v>
+      </c>
+      <c r="AJ216">
+        <v>1.37</v>
+      </c>
+      <c r="AK216">
+        <v>2.79</v>
+      </c>
+      <c r="AL216">
+        <v>1.95</v>
+      </c>
+      <c r="AM216">
+        <v>1.8</v>
+      </c>
+      <c r="AN216">
+        <v>1.01</v>
+      </c>
+      <c r="AO216">
+        <v>1.1</v>
+      </c>
+      <c r="AP216">
+        <v>4</v>
+      </c>
+      <c r="AQ216">
+        <v>2</v>
+      </c>
+      <c r="AR216">
+        <v>1.18</v>
+      </c>
+      <c r="AS216">
+        <v>2.08</v>
+      </c>
+      <c r="AT216">
+        <v>1.08</v>
+      </c>
+      <c r="AU216">
+        <v>2.77</v>
+      </c>
+      <c r="AV216">
+        <v>1.42</v>
+      </c>
+      <c r="AW216">
+        <v>4.19</v>
+      </c>
+      <c r="AX216">
+        <v>1.03</v>
+      </c>
+      <c r="AY216">
+        <v>19</v>
+      </c>
+      <c r="AZ216">
+        <v>17</v>
+      </c>
+      <c r="BA216">
+        <v>1.12</v>
+      </c>
+      <c r="BB216">
+        <v>1.27</v>
+      </c>
+      <c r="BC216">
+        <v>1.52</v>
+      </c>
+      <c r="BD216">
+        <v>1.89</v>
+      </c>
+      <c r="BE216">
+        <v>2.42</v>
+      </c>
+      <c r="BF216">
+        <v>6</v>
+      </c>
+      <c r="BG216">
+        <v>2</v>
+      </c>
+      <c r="BH216">
+        <v>15</v>
+      </c>
+      <c r="BI216">
+        <v>4</v>
+      </c>
+      <c r="BJ216">
+        <v>21</v>
+      </c>
+      <c r="BK216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2433202</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44990.66666666666</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>67</v>
+      </c>
+      <c r="H217" t="s">
+        <v>75</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>3</v>
+      </c>
+      <c r="L217">
+        <v>4</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>5</v>
+      </c>
+      <c r="O217" t="s">
+        <v>234</v>
+      </c>
+      <c r="P217" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q217">
+        <v>4</v>
+      </c>
+      <c r="R217">
+        <v>6</v>
+      </c>
+      <c r="S217">
+        <v>10</v>
+      </c>
+      <c r="T217">
+        <v>3.4</v>
+      </c>
+      <c r="U217">
+        <v>2.1</v>
+      </c>
+      <c r="V217">
+        <v>3.1</v>
+      </c>
+      <c r="W217">
+        <v>1.4</v>
+      </c>
+      <c r="X217">
+        <v>2.75</v>
+      </c>
+      <c r="Y217">
+        <v>2.75</v>
+      </c>
+      <c r="Z217">
+        <v>1.4</v>
+      </c>
+      <c r="AA217">
+        <v>8</v>
+      </c>
+      <c r="AB217">
+        <v>1.08</v>
+      </c>
+      <c r="AC217">
+        <v>2.55</v>
+      </c>
+      <c r="AD217">
+        <v>3.55</v>
+      </c>
+      <c r="AE217">
+        <v>2.65</v>
+      </c>
+      <c r="AF217">
+        <v>1.04</v>
+      </c>
+      <c r="AG217">
+        <v>11.5</v>
+      </c>
+      <c r="AH217">
+        <v>1.3</v>
+      </c>
+      <c r="AI217">
+        <v>3.6</v>
+      </c>
+      <c r="AJ217">
+        <v>1.92</v>
+      </c>
+      <c r="AK217">
+        <v>1.88</v>
+      </c>
+      <c r="AL217">
+        <v>1.7</v>
+      </c>
+      <c r="AM217">
+        <v>2.05</v>
+      </c>
+      <c r="AN217">
+        <v>1.56</v>
+      </c>
+      <c r="AO217">
+        <v>1.33</v>
+      </c>
+      <c r="AP217">
+        <v>1.48</v>
+      </c>
+      <c r="AQ217">
+        <v>0.25</v>
+      </c>
+      <c r="AR217">
+        <v>0.91</v>
+      </c>
+      <c r="AS217">
+        <v>0.46</v>
+      </c>
+      <c r="AT217">
+        <v>0.83</v>
+      </c>
+      <c r="AU217">
+        <v>1.43</v>
+      </c>
+      <c r="AV217">
+        <v>1.26</v>
+      </c>
+      <c r="AW217">
+        <v>2.69</v>
+      </c>
+      <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>8</v>
+      </c>
+      <c r="AZ217">
+        <v>2.02</v>
+      </c>
+      <c r="BA217">
+        <v>1.24</v>
+      </c>
+      <c r="BB217">
+        <v>1.4</v>
+      </c>
+      <c r="BC217">
+        <v>1.64</v>
+      </c>
+      <c r="BD217">
+        <v>2</v>
+      </c>
+      <c r="BE217">
+        <v>2.55</v>
+      </c>
+      <c r="BF217">
+        <v>8</v>
+      </c>
+      <c r="BG217">
+        <v>4</v>
+      </c>
+      <c r="BH217">
+        <v>7</v>
+      </c>
+      <c r="BI217">
+        <v>11</v>
+      </c>
+      <c r="BJ217">
+        <v>15</v>
+      </c>
+      <c r="BK217">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,24 @@
     <t>['13', '43', '57', '74']</t>
   </si>
   <si>
+    <t>['63', '71']</t>
+  </si>
+  <si>
+    <t>['11', '45', '87']</t>
+  </si>
+  <si>
+    <t>['31', '48']</t>
+  </si>
+  <si>
+    <t>['42', '79']</t>
+  </si>
+  <si>
+    <t>['25', '54', '56', '65', '88']</t>
+  </si>
+  <si>
+    <t>['52', '74']</t>
+  </si>
+  <si>
     <t>['48', '51', '62']</t>
   </si>
   <si>
@@ -1016,6 +1034,21 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['67', '71', '77']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['63', '67']</t>
+  </si>
+  <si>
+    <t>['10', '16', '19', '52']</t>
+  </si>
+  <si>
+    <t>['22', '61']</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT2">
         <v>1.42</v>
@@ -1812,7 +1845,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1899,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT3">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2003,7 +2036,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -2093,7 +2126,7 @@
         <v>0.46</v>
       </c>
       <c r="AT4">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2281,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT5">
         <v>0.33</v>
@@ -2385,7 +2418,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2475,7 +2508,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2576,7 +2609,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2666,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2767,7 +2800,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3045,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT9">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3236,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT10">
         <v>0.83</v>
@@ -3340,7 +3373,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3430,7 +3463,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3531,7 +3564,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3812,7 +3845,7 @@
         <v>1.58</v>
       </c>
       <c r="AT13">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3913,7 +3946,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4000,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT14">
         <v>0.92</v>
@@ -4191,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT15">
         <v>1.42</v>
@@ -4295,7 +4328,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4576,7 +4609,7 @@
         <v>2.08</v>
       </c>
       <c r="AT17">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4868,7 +4901,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4955,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT19">
         <v>2.15</v>
@@ -5059,7 +5092,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5250,7 +5283,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5337,10 +5370,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT21">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU21">
         <v>1.25</v>
@@ -5441,7 +5474,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5528,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU22">
         <v>1.48</v>
@@ -5910,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU24">
         <v>1.06</v>
@@ -6292,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT26">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU26">
         <v>1.17</v>
@@ -6396,7 +6429,7 @@
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6587,7 +6620,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6865,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT29">
         <v>0.33</v>
@@ -7056,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT30">
         <v>1.42</v>
@@ -7160,7 +7193,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7250,7 +7283,7 @@
         <v>1.58</v>
       </c>
       <c r="AT31">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU31">
         <v>1.79</v>
@@ -7351,7 +7384,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7632,7 +7665,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU33">
         <v>2.03</v>
@@ -7733,7 +7766,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8011,10 +8044,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT35">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU35">
         <v>1.82</v>
@@ -8205,7 +8238,7 @@
         <v>2.5</v>
       </c>
       <c r="AT36">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU36">
         <v>2.34</v>
@@ -8393,7 +8426,7 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT37">
         <v>1.08</v>
@@ -8497,7 +8530,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8584,10 +8617,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT38">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU38">
         <v>1.65</v>
@@ -8778,7 +8811,7 @@
         <v>2.08</v>
       </c>
       <c r="AT39">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU39">
         <v>3.33</v>
@@ -8879,7 +8912,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9157,10 +9190,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT41">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU41">
         <v>1.12</v>
@@ -9261,7 +9294,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9452,7 +9485,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9542,7 +9575,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU43">
         <v>1.3</v>
@@ -9643,7 +9676,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9730,7 +9763,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT44">
         <v>2.15</v>
@@ -9921,7 +9954,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT45">
         <v>1.08</v>
@@ -10115,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="AT46">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>1.53</v>
@@ -10216,7 +10249,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10494,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
         <v>1.42</v>
@@ -11070,7 +11103,7 @@
         <v>1.58</v>
       </c>
       <c r="AT51">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU51">
         <v>1.31</v>
@@ -11258,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT52">
         <v>0.92</v>
@@ -11452,7 +11485,7 @@
         <v>0.46</v>
       </c>
       <c r="AT53">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU53">
         <v>2.15</v>
@@ -11553,7 +11586,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11640,10 +11673,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT54">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU54">
         <v>2.99</v>
@@ -11831,7 +11864,7 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT55">
         <v>1.42</v>
@@ -12126,7 +12159,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12213,10 +12246,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU57">
         <v>1.42</v>
@@ -12407,7 +12440,7 @@
         <v>0.83</v>
       </c>
       <c r="AT58">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU58">
         <v>1.55</v>
@@ -12508,7 +12541,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q59">
         <v>16</v>
@@ -12598,7 +12631,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU59">
         <v>1.74</v>
@@ -12786,10 +12819,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT60">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU60">
         <v>1.75</v>
@@ -13081,7 +13114,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q62">
         <v>13</v>
@@ -13168,7 +13201,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT62">
         <v>2.25</v>
@@ -13272,7 +13305,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13359,10 +13392,10 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT63">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU63">
         <v>1.61</v>
@@ -13550,10 +13583,10 @@
         <v>3</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT64">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU64">
         <v>2.46</v>
@@ -13845,7 +13878,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -14036,7 +14069,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14317,7 +14350,7 @@
         <v>2.5</v>
       </c>
       <c r="AT68">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.96</v>
@@ -14505,10 +14538,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT69">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU69">
         <v>1.7</v>
@@ -14699,7 +14732,7 @@
         <v>1.33</v>
       </c>
       <c r="AT70">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU70">
         <v>1.52</v>
@@ -14800,7 +14833,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14887,7 +14920,7 @@
         <v>2.25</v>
       </c>
       <c r="AS71">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT71">
         <v>2.25</v>
@@ -14991,7 +15024,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15269,7 +15302,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT73">
         <v>1.42</v>
@@ -15373,7 +15406,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15564,7 +15597,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15654,7 +15687,7 @@
         <v>1.33</v>
       </c>
       <c r="AT75">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU75">
         <v>1.85</v>
@@ -15755,7 +15788,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15842,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT76">
         <v>0.33</v>
@@ -16033,10 +16066,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT77">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU77">
         <v>1.77</v>
@@ -16227,7 +16260,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -16415,10 +16448,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT79">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU79">
         <v>2.54</v>
@@ -16519,7 +16552,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16797,7 +16830,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT81">
         <v>1.5</v>
@@ -16901,7 +16934,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17092,7 +17125,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17179,10 +17212,10 @@
         <v>0.4</v>
       </c>
       <c r="AS83">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT83">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU83">
         <v>1.55</v>
@@ -17370,7 +17403,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT84">
         <v>0.92</v>
@@ -17665,7 +17698,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17755,7 +17788,7 @@
         <v>0.46</v>
       </c>
       <c r="AT86">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.85</v>
@@ -17943,7 +17976,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT87">
         <v>1.08</v>
@@ -18137,7 +18170,7 @@
         <v>2.5</v>
       </c>
       <c r="AT88">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU88">
         <v>2.01</v>
@@ -18325,10 +18358,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT89">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU89">
         <v>2.84</v>
@@ -18429,7 +18462,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -18516,7 +18549,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT90">
         <v>2.25</v>
@@ -18620,7 +18653,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18710,7 +18743,7 @@
         <v>2.08</v>
       </c>
       <c r="AT91">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU91">
         <v>2.88</v>
@@ -18811,7 +18844,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -18898,7 +18931,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT92">
         <v>1.42</v>
@@ -19002,7 +19035,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19092,7 +19125,7 @@
         <v>1.75</v>
       </c>
       <c r="AT93">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU93">
         <v>1.68</v>
@@ -19575,7 +19608,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19665,7 +19698,7 @@
         <v>0.46</v>
       </c>
       <c r="AT96">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU96">
         <v>1.71</v>
@@ -19766,7 +19799,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19957,7 +19990,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -20044,7 +20077,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT98">
         <v>0.83</v>
@@ -20339,7 +20372,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20530,7 +20563,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20617,10 +20650,10 @@
         <v>1.4</v>
       </c>
       <c r="AS101">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT101">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU101">
         <v>1.47</v>
@@ -20721,7 +20754,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20808,7 +20841,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT102">
         <v>1.42</v>
@@ -20912,7 +20945,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -21002,7 +21035,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU103">
         <v>1.77</v>
@@ -21190,10 +21223,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT104">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU104">
         <v>1.63</v>
@@ -21381,7 +21414,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT105">
         <v>1.08</v>
@@ -21763,10 +21796,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT107">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU107">
         <v>2.09</v>
@@ -21867,7 +21900,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22058,7 +22091,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22336,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="AS110">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT110">
         <v>0.33</v>
@@ -22721,7 +22754,7 @@
         <v>1.58</v>
       </c>
       <c r="AT112">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU112">
         <v>1.6</v>
@@ -23013,7 +23046,7 @@
         <v>83</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23204,7 +23237,7 @@
         <v>105</v>
       </c>
       <c r="P115" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23395,7 +23428,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23586,7 +23619,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23676,7 +23709,7 @@
         <v>2.08</v>
       </c>
       <c r="AT117">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU117">
         <v>2.9</v>
@@ -23864,10 +23897,10 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT118">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU118">
         <v>2.69</v>
@@ -23968,7 +24001,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24055,10 +24088,10 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT119">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU119">
         <v>1.64</v>
@@ -24159,7 +24192,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24249,7 +24282,7 @@
         <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24350,7 +24383,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24437,10 +24470,10 @@
         <v>2.5</v>
       </c>
       <c r="AS121">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT121">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU121">
         <v>1.65</v>
@@ -24541,7 +24574,7 @@
         <v>83</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24628,7 +24661,7 @@
         <v>2.14</v>
       </c>
       <c r="AS122">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT122">
         <v>2.15</v>
@@ -24819,7 +24852,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT123">
         <v>0.92</v>
@@ -24923,7 +24956,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25201,10 +25234,10 @@
         <v>0.83</v>
       </c>
       <c r="AS125">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT125">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU125">
         <v>1.59</v>
@@ -25392,10 +25425,10 @@
         <v>0.57</v>
       </c>
       <c r="AS126">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT126">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU126">
         <v>2.62</v>
@@ -25496,7 +25529,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25586,7 +25619,7 @@
         <v>1.33</v>
       </c>
       <c r="AT127">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU127">
         <v>1.81</v>
@@ -26156,10 +26189,10 @@
         <v>1.14</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT130">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU130">
         <v>1.98</v>
@@ -26260,7 +26293,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26347,7 +26380,7 @@
         <v>1</v>
       </c>
       <c r="AS131">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT131">
         <v>0.83</v>
@@ -26538,7 +26571,7 @@
         <v>1.33</v>
       </c>
       <c r="AS132">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT132">
         <v>1.42</v>
@@ -26642,7 +26675,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26833,7 +26866,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26920,10 +26953,10 @@
         <v>2.29</v>
       </c>
       <c r="AS134">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT134">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU134">
         <v>2.06</v>
@@ -27024,7 +27057,7 @@
         <v>83</v>
       </c>
       <c r="P135" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27114,7 +27147,7 @@
         <v>0.46</v>
       </c>
       <c r="AT135">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU135">
         <v>1.67</v>
@@ -27305,7 +27338,7 @@
         <v>1.33</v>
       </c>
       <c r="AT136">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27406,7 +27439,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q137">
         <v>9</v>
@@ -27597,7 +27630,7 @@
         <v>83</v>
       </c>
       <c r="P138" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27684,7 +27717,7 @@
         <v>2.25</v>
       </c>
       <c r="AS138">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT138">
         <v>2.15</v>
@@ -27878,7 +27911,7 @@
         <v>2.08</v>
       </c>
       <c r="AT139">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU139">
         <v>3.01</v>
@@ -28066,10 +28099,10 @@
         <v>0.5</v>
       </c>
       <c r="AS140">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT140">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU140">
         <v>1.58</v>
@@ -28361,7 +28394,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28448,7 +28481,7 @@
         <v>1.71</v>
       </c>
       <c r="AS142">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT142">
         <v>1.5</v>
@@ -28552,7 +28585,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28642,7 +28675,7 @@
         <v>1.33</v>
       </c>
       <c r="AT143">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU143">
         <v>1.65</v>
@@ -28743,7 +28776,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -29021,10 +29054,10 @@
         <v>0.71</v>
       </c>
       <c r="AS145">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT145">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU145">
         <v>1.65</v>
@@ -29215,7 +29248,7 @@
         <v>1.33</v>
       </c>
       <c r="AT146">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU146">
         <v>1.41</v>
@@ -29316,7 +29349,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29403,7 +29436,7 @@
         <v>0.38</v>
       </c>
       <c r="AS147">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT147">
         <v>0.33</v>
@@ -29594,10 +29627,10 @@
         <v>1.13</v>
       </c>
       <c r="AS148">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT148">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>2.29</v>
@@ -29698,7 +29731,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29976,10 +30009,10 @@
         <v>0.63</v>
       </c>
       <c r="AS150">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT150">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU150">
         <v>1.68</v>
@@ -30167,10 +30200,10 @@
         <v>2.13</v>
       </c>
       <c r="AS151">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT151">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU151">
         <v>2.65</v>
@@ -30361,7 +30394,7 @@
         <v>2.5</v>
       </c>
       <c r="AT152">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU152">
         <v>2.11</v>
@@ -30549,7 +30582,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT153">
         <v>1.42</v>
@@ -30740,7 +30773,7 @@
         <v>1.63</v>
       </c>
       <c r="AS154">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT154">
         <v>1.5</v>
@@ -30931,7 +30964,7 @@
         <v>0.75</v>
       </c>
       <c r="AS155">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT155">
         <v>0.92</v>
@@ -31035,7 +31068,7 @@
         <v>146</v>
       </c>
       <c r="P156" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31226,7 +31259,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -31316,7 +31349,7 @@
         <v>0.83</v>
       </c>
       <c r="AT157">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU157">
         <v>1.74</v>
@@ -31504,7 +31537,7 @@
         <v>1.63</v>
       </c>
       <c r="AS158">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT158">
         <v>1.42</v>
@@ -31698,7 +31731,7 @@
         <v>1.58</v>
       </c>
       <c r="AT159">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU159">
         <v>1.54</v>
@@ -31886,7 +31919,7 @@
         <v>1.25</v>
       </c>
       <c r="AS160">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT160">
         <v>1.08</v>
@@ -32080,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="AT161">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU161">
         <v>1.38</v>
@@ -32271,7 +32304,7 @@
         <v>2.08</v>
       </c>
       <c r="AT162">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU162">
         <v>2.77</v>
@@ -32459,7 +32492,7 @@
         <v>1.29</v>
       </c>
       <c r="AS163">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT163">
         <v>0.83</v>
@@ -32841,7 +32874,7 @@
         <v>1.5</v>
       </c>
       <c r="AS165">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT165">
         <v>1.42</v>
@@ -32945,7 +32978,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33032,10 +33065,10 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT166">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>1.73</v>
@@ -33136,7 +33169,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33223,10 +33256,10 @@
         <v>1.56</v>
       </c>
       <c r="AS167">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT167">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU167">
         <v>1.99</v>
@@ -33518,7 +33551,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33608,7 +33641,7 @@
         <v>1.33</v>
       </c>
       <c r="AT169">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU169">
         <v>1.63</v>
@@ -33709,7 +33742,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -33799,7 +33832,7 @@
         <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU170">
         <v>1.49</v>
@@ -33900,7 +33933,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34091,7 +34124,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -34369,7 +34402,7 @@
         <v>1.44</v>
       </c>
       <c r="AS173">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT173">
         <v>1.42</v>
@@ -34664,7 +34697,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34751,10 +34784,10 @@
         <v>1.2</v>
       </c>
       <c r="AS175">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT175">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU175">
         <v>1.63</v>
@@ -35237,7 +35270,7 @@
         <v>83</v>
       </c>
       <c r="P178" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35327,7 +35360,7 @@
         <v>0.46</v>
       </c>
       <c r="AT178">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU178">
         <v>1.55</v>
@@ -35428,7 +35461,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q179">
         <v>12</v>
@@ -35515,7 +35548,7 @@
         <v>1.44</v>
       </c>
       <c r="AS179">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT179">
         <v>1.5</v>
@@ -35810,7 +35843,7 @@
         <v>181</v>
       </c>
       <c r="P181" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -35900,7 +35933,7 @@
         <v>1</v>
       </c>
       <c r="AT181">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU181">
         <v>1.42</v>
@@ -36088,10 +36121,10 @@
         <v>0.4</v>
       </c>
       <c r="AS182">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT182">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU182">
         <v>1.98</v>
@@ -36279,10 +36312,10 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT183">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU183">
         <v>2</v>
@@ -36470,10 +36503,10 @@
         <v>0.5</v>
       </c>
       <c r="AS184">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT184">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU184">
         <v>2.24</v>
@@ -36574,7 +36607,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36661,7 +36694,7 @@
         <v>1.22</v>
       </c>
       <c r="AS185">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT185">
         <v>1.42</v>
@@ -36765,7 +36798,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36852,7 +36885,7 @@
         <v>1</v>
       </c>
       <c r="AS186">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT186">
         <v>0.83</v>
@@ -36956,7 +36989,7 @@
         <v>213</v>
       </c>
       <c r="P187" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37043,7 +37076,7 @@
         <v>2.1</v>
       </c>
       <c r="AS187">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT187">
         <v>2.25</v>
@@ -37237,7 +37270,7 @@
         <v>0.83</v>
       </c>
       <c r="AT188">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU188">
         <v>1.76</v>
@@ -37338,7 +37371,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q189">
         <v>10</v>
@@ -37619,7 +37652,7 @@
         <v>2.5</v>
       </c>
       <c r="AT190">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU190">
         <v>2.06</v>
@@ -37720,7 +37753,7 @@
         <v>217</v>
       </c>
       <c r="P191" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -38001,7 +38034,7 @@
         <v>1.33</v>
       </c>
       <c r="AT192">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU192">
         <v>1.56</v>
@@ -38102,7 +38135,7 @@
         <v>219</v>
       </c>
       <c r="P193" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38293,7 +38326,7 @@
         <v>220</v>
       </c>
       <c r="P194" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38380,7 +38413,7 @@
         <v>2.27</v>
       </c>
       <c r="AS194">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT194">
         <v>2.15</v>
@@ -38484,7 +38517,7 @@
         <v>221</v>
       </c>
       <c r="P195" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38765,7 +38798,7 @@
         <v>1.33</v>
       </c>
       <c r="AT196">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU196">
         <v>1.58</v>
@@ -38866,7 +38899,7 @@
         <v>223</v>
       </c>
       <c r="P197" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39248,7 +39281,7 @@
         <v>83</v>
       </c>
       <c r="P199" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q199">
         <v>8</v>
@@ -39439,7 +39472,7 @@
         <v>83</v>
       </c>
       <c r="P200" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q200">
         <v>0</v>
@@ -39526,10 +39559,10 @@
         <v>1.36</v>
       </c>
       <c r="AS200">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT200">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU200">
         <v>1.65</v>
@@ -39720,7 +39753,7 @@
         <v>1</v>
       </c>
       <c r="AT201">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU201">
         <v>1.54</v>
@@ -39821,7 +39854,7 @@
         <v>209</v>
       </c>
       <c r="P202" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q202">
         <v>5</v>
@@ -39908,7 +39941,7 @@
         <v>0.73</v>
       </c>
       <c r="AS202">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT202">
         <v>0.92</v>
@@ -40012,7 +40045,7 @@
         <v>226</v>
       </c>
       <c r="P203" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40099,10 +40132,10 @@
         <v>1</v>
       </c>
       <c r="AS203">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT203">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU203">
         <v>2.06</v>
@@ -40290,10 +40323,10 @@
         <v>0.64</v>
       </c>
       <c r="AS204">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT204">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU204">
         <v>2.01</v>
@@ -40394,7 +40427,7 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40481,7 +40514,7 @@
         <v>2.18</v>
       </c>
       <c r="AS205">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT205">
         <v>2.25</v>
@@ -40585,7 +40618,7 @@
         <v>229</v>
       </c>
       <c r="P206" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40675,7 +40708,7 @@
         <v>0.83</v>
       </c>
       <c r="AT206">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU206">
         <v>1.73</v>
@@ -40776,7 +40809,7 @@
         <v>230</v>
       </c>
       <c r="P207" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q207">
         <v>3</v>
@@ -40863,7 +40896,7 @@
         <v>0.9</v>
       </c>
       <c r="AS207">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT207">
         <v>0.83</v>
@@ -40967,7 +41000,7 @@
         <v>231</v>
       </c>
       <c r="P208" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q208">
         <v>6</v>
@@ -41054,10 +41087,10 @@
         <v>1</v>
       </c>
       <c r="AS208">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT208">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU208">
         <v>2.39</v>
@@ -41158,7 +41191,7 @@
         <v>141</v>
       </c>
       <c r="P209" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41349,7 +41382,7 @@
         <v>83</v>
       </c>
       <c r="P210" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41818,10 +41851,10 @@
         <v>0.45</v>
       </c>
       <c r="AS212">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT212">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU212">
         <v>2.55</v>
@@ -41922,7 +41955,7 @@
         <v>233</v>
       </c>
       <c r="P213" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q213">
         <v>6</v>
@@ -42113,7 +42146,7 @@
         <v>133</v>
       </c>
       <c r="P214" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q214">
         <v>5</v>
@@ -42686,7 +42719,7 @@
         <v>234</v>
       </c>
       <c r="P217" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42828,6 +42861,1534 @@
       </c>
       <c r="BK217">
         <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2433205</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44996.52083333334</v>
+      </c>
+      <c r="F218">
+        <v>25</v>
+      </c>
+      <c r="G218" t="s">
+        <v>77</v>
+      </c>
+      <c r="H218" t="s">
+        <v>74</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>235</v>
+      </c>
+      <c r="P218" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q218">
+        <v>2</v>
+      </c>
+      <c r="R218">
+        <v>6</v>
+      </c>
+      <c r="S218">
+        <v>8</v>
+      </c>
+      <c r="T218">
+        <v>2.3</v>
+      </c>
+      <c r="U218">
+        <v>2.3</v>
+      </c>
+      <c r="V218">
+        <v>4.75</v>
+      </c>
+      <c r="W218">
+        <v>1.36</v>
+      </c>
+      <c r="X218">
+        <v>3.2</v>
+      </c>
+      <c r="Y218">
+        <v>2.7</v>
+      </c>
+      <c r="Z218">
+        <v>1.47</v>
+      </c>
+      <c r="AA218">
+        <v>6.5</v>
+      </c>
+      <c r="AB218">
+        <v>1.1</v>
+      </c>
+      <c r="AC218">
+        <v>1.8</v>
+      </c>
+      <c r="AD218">
+        <v>3.8</v>
+      </c>
+      <c r="AE218">
+        <v>4.4</v>
+      </c>
+      <c r="AF218">
+        <v>1.04</v>
+      </c>
+      <c r="AG218">
+        <v>13</v>
+      </c>
+      <c r="AH218">
+        <v>1.24</v>
+      </c>
+      <c r="AI218">
+        <v>3.89</v>
+      </c>
+      <c r="AJ218">
+        <v>1.7</v>
+      </c>
+      <c r="AK218">
+        <v>2</v>
+      </c>
+      <c r="AL218">
+        <v>1.75</v>
+      </c>
+      <c r="AM218">
+        <v>2.05</v>
+      </c>
+      <c r="AN218">
+        <v>1.2</v>
+      </c>
+      <c r="AO218">
+        <v>1.22</v>
+      </c>
+      <c r="AP218">
+        <v>2.15</v>
+      </c>
+      <c r="AQ218">
+        <v>1.17</v>
+      </c>
+      <c r="AR218">
+        <v>0.33</v>
+      </c>
+      <c r="AS218">
+        <v>1.31</v>
+      </c>
+      <c r="AT218">
+        <v>0.31</v>
+      </c>
+      <c r="AU218">
+        <v>1.54</v>
+      </c>
+      <c r="AV218">
+        <v>0.99</v>
+      </c>
+      <c r="AW218">
+        <v>2.53</v>
+      </c>
+      <c r="AX218">
+        <v>1.48</v>
+      </c>
+      <c r="AY218">
+        <v>9</v>
+      </c>
+      <c r="AZ218">
+        <v>3.15</v>
+      </c>
+      <c r="BA218">
+        <v>1.22</v>
+      </c>
+      <c r="BB218">
+        <v>1.34</v>
+      </c>
+      <c r="BC218">
+        <v>1.56</v>
+      </c>
+      <c r="BD218">
+        <v>1.88</v>
+      </c>
+      <c r="BE218">
+        <v>2.35</v>
+      </c>
+      <c r="BF218">
+        <v>5</v>
+      </c>
+      <c r="BG218">
+        <v>5</v>
+      </c>
+      <c r="BH218">
+        <v>5</v>
+      </c>
+      <c r="BI218">
+        <v>3</v>
+      </c>
+      <c r="BJ218">
+        <v>10</v>
+      </c>
+      <c r="BK218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2433207</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44996.61458333334</v>
+      </c>
+      <c r="F219">
+        <v>25</v>
+      </c>
+      <c r="G219" t="s">
+        <v>66</v>
+      </c>
+      <c r="H219" t="s">
+        <v>81</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>83</v>
+      </c>
+      <c r="P219" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>4</v>
+      </c>
+      <c r="S219">
+        <v>4</v>
+      </c>
+      <c r="T219">
+        <v>3.9</v>
+      </c>
+      <c r="U219">
+        <v>2.2</v>
+      </c>
+      <c r="V219">
+        <v>2.5</v>
+      </c>
+      <c r="W219">
+        <v>1.35</v>
+      </c>
+      <c r="X219">
+        <v>2.95</v>
+      </c>
+      <c r="Y219">
+        <v>2.6</v>
+      </c>
+      <c r="Z219">
+        <v>1.45</v>
+      </c>
+      <c r="AA219">
+        <v>6.75</v>
+      </c>
+      <c r="AB219">
+        <v>1.1</v>
+      </c>
+      <c r="AC219">
+        <v>3.55</v>
+      </c>
+      <c r="AD219">
+        <v>3.7</v>
+      </c>
+      <c r="AE219">
+        <v>2</v>
+      </c>
+      <c r="AF219">
+        <v>1.04</v>
+      </c>
+      <c r="AG219">
+        <v>13.5</v>
+      </c>
+      <c r="AH219">
+        <v>1.26</v>
+      </c>
+      <c r="AI219">
+        <v>3.93</v>
+      </c>
+      <c r="AJ219">
+        <v>1.75</v>
+      </c>
+      <c r="AK219">
+        <v>1.95</v>
+      </c>
+      <c r="AL219">
+        <v>1.68</v>
+      </c>
+      <c r="AM219">
+        <v>2.1</v>
+      </c>
+      <c r="AN219">
+        <v>1.78</v>
+      </c>
+      <c r="AO219">
+        <v>1.3</v>
+      </c>
+      <c r="AP219">
+        <v>1.3</v>
+      </c>
+      <c r="AQ219">
+        <v>1</v>
+      </c>
+      <c r="AR219">
+        <v>0.92</v>
+      </c>
+      <c r="AS219">
+        <v>0.92</v>
+      </c>
+      <c r="AT219">
+        <v>1.08</v>
+      </c>
+      <c r="AU219">
+        <v>1.58</v>
+      </c>
+      <c r="AV219">
+        <v>1.66</v>
+      </c>
+      <c r="AW219">
+        <v>3.24</v>
+      </c>
+      <c r="AX219">
+        <v>2.4</v>
+      </c>
+      <c r="AY219">
+        <v>8</v>
+      </c>
+      <c r="AZ219">
+        <v>1.74</v>
+      </c>
+      <c r="BA219">
+        <v>1.23</v>
+      </c>
+      <c r="BB219">
+        <v>1.38</v>
+      </c>
+      <c r="BC219">
+        <v>1.61</v>
+      </c>
+      <c r="BD219">
+        <v>1.95</v>
+      </c>
+      <c r="BE219">
+        <v>2.48</v>
+      </c>
+      <c r="BF219">
+        <v>4</v>
+      </c>
+      <c r="BG219">
+        <v>6</v>
+      </c>
+      <c r="BH219">
+        <v>2</v>
+      </c>
+      <c r="BI219">
+        <v>8</v>
+      </c>
+      <c r="BJ219">
+        <v>6</v>
+      </c>
+      <c r="BK219">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2433204</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44996.66666666666</v>
+      </c>
+      <c r="F220">
+        <v>25</v>
+      </c>
+      <c r="G220" t="s">
+        <v>73</v>
+      </c>
+      <c r="H220" t="s">
+        <v>70</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" t="s">
+        <v>170</v>
+      </c>
+      <c r="P220" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q220">
+        <v>5</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>7</v>
+      </c>
+      <c r="T220">
+        <v>1.78</v>
+      </c>
+      <c r="U220">
+        <v>2.45</v>
+      </c>
+      <c r="V220">
+        <v>6.75</v>
+      </c>
+      <c r="W220">
+        <v>1.3</v>
+      </c>
+      <c r="X220">
+        <v>3.2</v>
+      </c>
+      <c r="Y220">
+        <v>2.3</v>
+      </c>
+      <c r="Z220">
+        <v>1.53</v>
+      </c>
+      <c r="AA220">
+        <v>5.5</v>
+      </c>
+      <c r="AB220">
+        <v>1.13</v>
+      </c>
+      <c r="AC220">
+        <v>1.33</v>
+      </c>
+      <c r="AD220">
+        <v>4.8</v>
+      </c>
+      <c r="AE220">
+        <v>9</v>
+      </c>
+      <c r="AF220">
+        <v>1.03</v>
+      </c>
+      <c r="AG220">
+        <v>17</v>
+      </c>
+      <c r="AH220">
+        <v>1.19</v>
+      </c>
+      <c r="AI220">
+        <v>4.45</v>
+      </c>
+      <c r="AJ220">
+        <v>1.6</v>
+      </c>
+      <c r="AK220">
+        <v>2.2</v>
+      </c>
+      <c r="AL220">
+        <v>1.93</v>
+      </c>
+      <c r="AM220">
+        <v>1.75</v>
+      </c>
+      <c r="AN220">
+        <v>1.07</v>
+      </c>
+      <c r="AO220">
+        <v>1.16</v>
+      </c>
+      <c r="AP220">
+        <v>3.1</v>
+      </c>
+      <c r="AQ220">
+        <v>2</v>
+      </c>
+      <c r="AR220">
+        <v>0.42</v>
+      </c>
+      <c r="AS220">
+        <v>2.08</v>
+      </c>
+      <c r="AT220">
+        <v>0.38</v>
+      </c>
+      <c r="AU220">
+        <v>2.03</v>
+      </c>
+      <c r="AV220">
+        <v>1.02</v>
+      </c>
+      <c r="AW220">
+        <v>3.05</v>
+      </c>
+      <c r="AX220">
+        <v>1.25</v>
+      </c>
+      <c r="AY220">
+        <v>10</v>
+      </c>
+      <c r="AZ220">
+        <v>5.25</v>
+      </c>
+      <c r="BA220">
+        <v>1.3</v>
+      </c>
+      <c r="BB220">
+        <v>1.5</v>
+      </c>
+      <c r="BC220">
+        <v>1.81</v>
+      </c>
+      <c r="BD220">
+        <v>2.25</v>
+      </c>
+      <c r="BE220">
+        <v>2.9</v>
+      </c>
+      <c r="BF220">
+        <v>4</v>
+      </c>
+      <c r="BG220">
+        <v>3</v>
+      </c>
+      <c r="BH220">
+        <v>2</v>
+      </c>
+      <c r="BI220">
+        <v>5</v>
+      </c>
+      <c r="BJ220">
+        <v>6</v>
+      </c>
+      <c r="BK220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2433212</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F221">
+        <v>25</v>
+      </c>
+      <c r="G221" t="s">
+        <v>82</v>
+      </c>
+      <c r="H221" t="s">
+        <v>71</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>3</v>
+      </c>
+      <c r="L221">
+        <v>3</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>4</v>
+      </c>
+      <c r="O221" t="s">
+        <v>236</v>
+      </c>
+      <c r="P221" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q221">
+        <v>7</v>
+      </c>
+      <c r="R221">
+        <v>3</v>
+      </c>
+      <c r="S221">
+        <v>10</v>
+      </c>
+      <c r="T221">
+        <v>2.95</v>
+      </c>
+      <c r="U221">
+        <v>2.05</v>
+      </c>
+      <c r="V221">
+        <v>3.3</v>
+      </c>
+      <c r="W221">
+        <v>1.42</v>
+      </c>
+      <c r="X221">
+        <v>2.65</v>
+      </c>
+      <c r="Y221">
+        <v>3</v>
+      </c>
+      <c r="Z221">
+        <v>1.34</v>
+      </c>
+      <c r="AA221">
+        <v>8</v>
+      </c>
+      <c r="AB221">
+        <v>1.07</v>
+      </c>
+      <c r="AC221">
+        <v>2.45</v>
+      </c>
+      <c r="AD221">
+        <v>3.2</v>
+      </c>
+      <c r="AE221">
+        <v>2.9</v>
+      </c>
+      <c r="AF221">
+        <v>1.04</v>
+      </c>
+      <c r="AG221">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH221">
+        <v>1.34</v>
+      </c>
+      <c r="AI221">
+        <v>3.14</v>
+      </c>
+      <c r="AJ221">
+        <v>2.05</v>
+      </c>
+      <c r="AK221">
+        <v>1.67</v>
+      </c>
+      <c r="AL221">
+        <v>1.87</v>
+      </c>
+      <c r="AM221">
+        <v>1.82</v>
+      </c>
+      <c r="AN221">
+        <v>1.42</v>
+      </c>
+      <c r="AO221">
+        <v>1.3</v>
+      </c>
+      <c r="AP221">
+        <v>1.53</v>
+      </c>
+      <c r="AQ221">
+        <v>1.92</v>
+      </c>
+      <c r="AR221">
+        <v>1.08</v>
+      </c>
+      <c r="AS221">
+        <v>2</v>
+      </c>
+      <c r="AT221">
+        <v>1</v>
+      </c>
+      <c r="AU221">
+        <v>1.63</v>
+      </c>
+      <c r="AV221">
+        <v>1.62</v>
+      </c>
+      <c r="AW221">
+        <v>3.25</v>
+      </c>
+      <c r="AX221">
+        <v>2.08</v>
+      </c>
+      <c r="AY221">
+        <v>7.5</v>
+      </c>
+      <c r="AZ221">
+        <v>1.97</v>
+      </c>
+      <c r="BA221">
+        <v>1.23</v>
+      </c>
+      <c r="BB221">
+        <v>1.38</v>
+      </c>
+      <c r="BC221">
+        <v>1.64</v>
+      </c>
+      <c r="BD221">
+        <v>2</v>
+      </c>
+      <c r="BE221">
+        <v>2.55</v>
+      </c>
+      <c r="BF221">
+        <v>11</v>
+      </c>
+      <c r="BG221">
+        <v>3</v>
+      </c>
+      <c r="BH221">
+        <v>5</v>
+      </c>
+      <c r="BI221">
+        <v>5</v>
+      </c>
+      <c r="BJ221">
+        <v>16</v>
+      </c>
+      <c r="BK221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2433209</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44997.34375</v>
+      </c>
+      <c r="F222">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>72</v>
+      </c>
+      <c r="H222" t="s">
+        <v>76</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>4</v>
+      </c>
+      <c r="O222" t="s">
+        <v>237</v>
+      </c>
+      <c r="P222" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q222">
+        <v>3</v>
+      </c>
+      <c r="R222">
+        <v>7</v>
+      </c>
+      <c r="S222">
+        <v>10</v>
+      </c>
+      <c r="T222">
+        <v>3</v>
+      </c>
+      <c r="U222">
+        <v>2.05</v>
+      </c>
+      <c r="V222">
+        <v>3.3</v>
+      </c>
+      <c r="W222">
+        <v>1.39</v>
+      </c>
+      <c r="X222">
+        <v>2.75</v>
+      </c>
+      <c r="Y222">
+        <v>2.7</v>
+      </c>
+      <c r="Z222">
+        <v>1.41</v>
+      </c>
+      <c r="AA222">
+        <v>6.75</v>
+      </c>
+      <c r="AB222">
+        <v>1.09</v>
+      </c>
+      <c r="AC222">
+        <v>2.42</v>
+      </c>
+      <c r="AD222">
+        <v>3.3</v>
+      </c>
+      <c r="AE222">
+        <v>2.42</v>
+      </c>
+      <c r="AF222">
+        <v>1.05</v>
+      </c>
+      <c r="AG222">
+        <v>9</v>
+      </c>
+      <c r="AH222">
+        <v>1.27</v>
+      </c>
+      <c r="AI222">
+        <v>3.5</v>
+      </c>
+      <c r="AJ222">
+        <v>1.73</v>
+      </c>
+      <c r="AK222">
+        <v>1.98</v>
+      </c>
+      <c r="AL222">
+        <v>1.65</v>
+      </c>
+      <c r="AM222">
+        <v>2.1</v>
+      </c>
+      <c r="AN222">
+        <v>1.41</v>
+      </c>
+      <c r="AO222">
+        <v>1.32</v>
+      </c>
+      <c r="AP222">
+        <v>1.51</v>
+      </c>
+      <c r="AQ222">
+        <v>1.42</v>
+      </c>
+      <c r="AR222">
+        <v>1.5</v>
+      </c>
+      <c r="AS222">
+        <v>1.38</v>
+      </c>
+      <c r="AT222">
+        <v>1.46</v>
+      </c>
+      <c r="AU222">
+        <v>2.02</v>
+      </c>
+      <c r="AV222">
+        <v>1.64</v>
+      </c>
+      <c r="AW222">
+        <v>3.66</v>
+      </c>
+      <c r="AX222">
+        <v>1.84</v>
+      </c>
+      <c r="AY222">
+        <v>8</v>
+      </c>
+      <c r="AZ222">
+        <v>2.23</v>
+      </c>
+      <c r="BA222">
+        <v>1.22</v>
+      </c>
+      <c r="BB222">
+        <v>1.37</v>
+      </c>
+      <c r="BC222">
+        <v>1.61</v>
+      </c>
+      <c r="BD222">
+        <v>1.95</v>
+      </c>
+      <c r="BE222">
+        <v>2.45</v>
+      </c>
+      <c r="BF222">
+        <v>7</v>
+      </c>
+      <c r="BG222">
+        <v>7</v>
+      </c>
+      <c r="BH222">
+        <v>3</v>
+      </c>
+      <c r="BI222">
+        <v>2</v>
+      </c>
+      <c r="BJ222">
+        <v>10</v>
+      </c>
+      <c r="BK222">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2433211</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44997.4375</v>
+      </c>
+      <c r="F223">
+        <v>25</v>
+      </c>
+      <c r="G223" t="s">
+        <v>65</v>
+      </c>
+      <c r="H223" t="s">
+        <v>80</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>3</v>
+      </c>
+      <c r="K223">
+        <v>4</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>4</v>
+      </c>
+      <c r="N223">
+        <v>6</v>
+      </c>
+      <c r="O223" t="s">
+        <v>238</v>
+      </c>
+      <c r="P223" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q223">
+        <v>5</v>
+      </c>
+      <c r="R223">
+        <v>8</v>
+      </c>
+      <c r="S223">
+        <v>13</v>
+      </c>
+      <c r="T223">
+        <v>5.5</v>
+      </c>
+      <c r="U223">
+        <v>2.45</v>
+      </c>
+      <c r="V223">
+        <v>1.88</v>
+      </c>
+      <c r="W223">
+        <v>1.27</v>
+      </c>
+      <c r="X223">
+        <v>3.4</v>
+      </c>
+      <c r="Y223">
+        <v>2.25</v>
+      </c>
+      <c r="Z223">
+        <v>1.57</v>
+      </c>
+      <c r="AA223">
+        <v>5</v>
+      </c>
+      <c r="AB223">
+        <v>1.14</v>
+      </c>
+      <c r="AC223">
+        <v>6.7</v>
+      </c>
+      <c r="AD223">
+        <v>4.7</v>
+      </c>
+      <c r="AE223">
+        <v>1.3</v>
+      </c>
+      <c r="AF223">
+        <v>1.02</v>
+      </c>
+      <c r="AG223">
+        <v>14</v>
+      </c>
+      <c r="AH223">
+        <v>1.17</v>
+      </c>
+      <c r="AI223">
+        <v>4.6</v>
+      </c>
+      <c r="AJ223">
+        <v>1.62</v>
+      </c>
+      <c r="AK223">
+        <v>2.3</v>
+      </c>
+      <c r="AL223">
+        <v>1.72</v>
+      </c>
+      <c r="AM223">
+        <v>1.98</v>
+      </c>
+      <c r="AN223">
+        <v>2.7</v>
+      </c>
+      <c r="AO223">
+        <v>1.18</v>
+      </c>
+      <c r="AP223">
+        <v>1.11</v>
+      </c>
+      <c r="AQ223">
+        <v>1.17</v>
+      </c>
+      <c r="AR223">
+        <v>2.25</v>
+      </c>
+      <c r="AS223">
+        <v>1.08</v>
+      </c>
+      <c r="AT223">
+        <v>2.31</v>
+      </c>
+      <c r="AU223">
+        <v>1.78</v>
+      </c>
+      <c r="AV223">
+        <v>2.07</v>
+      </c>
+      <c r="AW223">
+        <v>3.85</v>
+      </c>
+      <c r="AX223">
+        <v>3.5</v>
+      </c>
+      <c r="AY223">
+        <v>9</v>
+      </c>
+      <c r="AZ223">
+        <v>1.42</v>
+      </c>
+      <c r="BA223">
+        <v>1.17</v>
+      </c>
+      <c r="BB223">
+        <v>1.36</v>
+      </c>
+      <c r="BC223">
+        <v>1.58</v>
+      </c>
+      <c r="BD223">
+        <v>1.9</v>
+      </c>
+      <c r="BE223">
+        <v>2.38</v>
+      </c>
+      <c r="BF223">
+        <v>5</v>
+      </c>
+      <c r="BG223">
+        <v>7</v>
+      </c>
+      <c r="BH223">
+        <v>1</v>
+      </c>
+      <c r="BI223">
+        <v>5</v>
+      </c>
+      <c r="BJ223">
+        <v>6</v>
+      </c>
+      <c r="BK223">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2433210</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44997.53125</v>
+      </c>
+      <c r="F224">
+        <v>25</v>
+      </c>
+      <c r="G224" t="s">
+        <v>68</v>
+      </c>
+      <c r="H224" t="s">
+        <v>67</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>2</v>
+      </c>
+      <c r="L224">
+        <v>5</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>7</v>
+      </c>
+      <c r="O224" t="s">
+        <v>239</v>
+      </c>
+      <c r="P224" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q224">
+        <v>6</v>
+      </c>
+      <c r="R224">
+        <v>5</v>
+      </c>
+      <c r="S224">
+        <v>11</v>
+      </c>
+      <c r="T224">
+        <v>1.45</v>
+      </c>
+      <c r="U224">
+        <v>3.51</v>
+      </c>
+      <c r="V224">
+        <v>12.81</v>
+      </c>
+      <c r="W224">
+        <v>1.22</v>
+      </c>
+      <c r="X224">
+        <v>3.9</v>
+      </c>
+      <c r="Y224">
+        <v>2</v>
+      </c>
+      <c r="Z224">
+        <v>1.85</v>
+      </c>
+      <c r="AA224">
+        <v>4.1</v>
+      </c>
+      <c r="AB224">
+        <v>1.2</v>
+      </c>
+      <c r="AC224">
+        <v>1.07</v>
+      </c>
+      <c r="AD224">
+        <v>8</v>
+      </c>
+      <c r="AE224">
+        <v>18</v>
+      </c>
+      <c r="AF224">
+        <v>1.01</v>
+      </c>
+      <c r="AG224">
+        <v>17.5</v>
+      </c>
+      <c r="AH224">
+        <v>1.12</v>
+      </c>
+      <c r="AI224">
+        <v>5.75</v>
+      </c>
+      <c r="AJ224">
+        <v>1.35</v>
+      </c>
+      <c r="AK224">
+        <v>3.04</v>
+      </c>
+      <c r="AL224">
+        <v>2.2</v>
+      </c>
+      <c r="AM224">
+        <v>1.58</v>
+      </c>
+      <c r="AN224">
+        <v>1.02</v>
+      </c>
+      <c r="AO224">
+        <v>1.08</v>
+      </c>
+      <c r="AP224">
+        <v>5.5</v>
+      </c>
+      <c r="AQ224">
+        <v>2.58</v>
+      </c>
+      <c r="AR224">
+        <v>0.91</v>
+      </c>
+      <c r="AS224">
+        <v>2.62</v>
+      </c>
+      <c r="AT224">
+        <v>0.83</v>
+      </c>
+      <c r="AU224">
+        <v>2.36</v>
+      </c>
+      <c r="AV224">
+        <v>1.23</v>
+      </c>
+      <c r="AW224">
+        <v>3.59</v>
+      </c>
+      <c r="AX224">
+        <v>1.11</v>
+      </c>
+      <c r="AY224">
+        <v>16</v>
+      </c>
+      <c r="AZ224">
+        <v>10</v>
+      </c>
+      <c r="BA224">
+        <v>1.11</v>
+      </c>
+      <c r="BB224">
+        <v>1.29</v>
+      </c>
+      <c r="BC224">
+        <v>1.48</v>
+      </c>
+      <c r="BD224">
+        <v>1.74</v>
+      </c>
+      <c r="BE224">
+        <v>2.12</v>
+      </c>
+      <c r="BF224">
+        <v>18</v>
+      </c>
+      <c r="BG224">
+        <v>6</v>
+      </c>
+      <c r="BH224">
+        <v>9</v>
+      </c>
+      <c r="BI224">
+        <v>7</v>
+      </c>
+      <c r="BJ224">
+        <v>27</v>
+      </c>
+      <c r="BK224">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2433206</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44997.66666666666</v>
+      </c>
+      <c r="F225">
+        <v>25</v>
+      </c>
+      <c r="G225" t="s">
+        <v>78</v>
+      </c>
+      <c r="H225" t="s">
+        <v>79</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>3</v>
+      </c>
+      <c r="O225" t="s">
+        <v>240</v>
+      </c>
+      <c r="P225" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q225">
+        <v>9</v>
+      </c>
+      <c r="R225">
+        <v>2</v>
+      </c>
+      <c r="S225">
+        <v>11</v>
+      </c>
+      <c r="T225">
+        <v>1.44</v>
+      </c>
+      <c r="U225">
+        <v>3.2</v>
+      </c>
+      <c r="V225">
+        <v>9.75</v>
+      </c>
+      <c r="W225">
+        <v>1.19</v>
+      </c>
+      <c r="X225">
+        <v>4.33</v>
+      </c>
+      <c r="Y225">
+        <v>1.87</v>
+      </c>
+      <c r="Z225">
+        <v>1.82</v>
+      </c>
+      <c r="AA225">
+        <v>3.75</v>
+      </c>
+      <c r="AB225">
+        <v>1.23</v>
+      </c>
+      <c r="AC225">
+        <v>1.08</v>
+      </c>
+      <c r="AD225">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE225">
+        <v>16</v>
+      </c>
+      <c r="AF225">
+        <v>1</v>
+      </c>
+      <c r="AG225">
+        <v>23</v>
+      </c>
+      <c r="AH225">
+        <v>1.09</v>
+      </c>
+      <c r="AI225">
+        <v>6.75</v>
+      </c>
+      <c r="AJ225">
+        <v>1.47</v>
+      </c>
+      <c r="AK225">
+        <v>2.45</v>
+      </c>
+      <c r="AL225">
+        <v>2.05</v>
+      </c>
+      <c r="AM225">
+        <v>1.68</v>
+      </c>
+      <c r="AN225">
+        <v>1.02</v>
+      </c>
+      <c r="AO225">
+        <v>1.06</v>
+      </c>
+      <c r="AP225">
+        <v>5.75</v>
+      </c>
+      <c r="AQ225">
+        <v>2.33</v>
+      </c>
+      <c r="AR225">
+        <v>0.58</v>
+      </c>
+      <c r="AS225">
+        <v>2.38</v>
+      </c>
+      <c r="AT225">
+        <v>0.54</v>
+      </c>
+      <c r="AU225">
+        <v>2.52</v>
+      </c>
+      <c r="AV225">
+        <v>1.37</v>
+      </c>
+      <c r="AW225">
+        <v>3.89</v>
+      </c>
+      <c r="AX225">
+        <v>1.09</v>
+      </c>
+      <c r="AY225">
+        <v>18</v>
+      </c>
+      <c r="AZ225">
+        <v>11.5</v>
+      </c>
+      <c r="BA225">
+        <v>1.13</v>
+      </c>
+      <c r="BB225">
+        <v>1.32</v>
+      </c>
+      <c r="BC225">
+        <v>1.5</v>
+      </c>
+      <c r="BD225">
+        <v>1.79</v>
+      </c>
+      <c r="BE225">
+        <v>2.2</v>
+      </c>
+      <c r="BF225">
+        <v>8</v>
+      </c>
+      <c r="BG225">
+        <v>0</v>
+      </c>
+      <c r="BH225">
+        <v>10</v>
+      </c>
+      <c r="BI225">
+        <v>8</v>
+      </c>
+      <c r="BJ225">
+        <v>18</v>
+      </c>
+      <c r="BK225">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -44062,10 +44062,10 @@
         <v>6</v>
       </c>
       <c r="R224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S224">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T224">
         <v>1.45</v>
@@ -44373,22 +44373,22 @@
         <v>2.2</v>
       </c>
       <c r="BF225">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH225">
         <v>10</v>
       </c>
       <c r="BI225">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ225">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BK225">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT6" t="n">
         <v>1.46</v>
@@ -2527,7 +2527,7 @@
         <v>2.08</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT13" t="n">
         <v>0.83</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT14" t="n">
         <v>0.92</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT22" t="n">
         <v>1.46</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT25" t="n">
         <v>2.25</v>
@@ -5978,7 +5978,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6587,7 +6587,7 @@
         <v>1.08</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU30" t="n">
         <v>1.2</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT31" t="n">
         <v>2.31</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT33" t="n">
         <v>1.08</v>
@@ -8008,7 +8008,7 @@
         <v>2.08</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT43" t="n">
         <v>0.31</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT44" t="n">
         <v>2.15</v>
@@ -9632,7 +9632,7 @@
         <v>1.08</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10241,7 +10241,7 @@
         <v>1.38</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>2.38</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU55" t="n">
         <v>2.49</v>
@@ -11862,10 +11862,10 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT59" t="n">
         <v>0.83</v>
@@ -14098,7 +14098,7 @@
         <v>2.08</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>2.85</v>
@@ -15110,10 +15110,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT73" t="n">
         <v>1.42</v>
@@ -15719,7 +15719,7 @@
         <v>2.25</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT75" t="n">
         <v>2.31</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT80" t="n">
         <v>2.15</v>
@@ -17143,7 +17143,7 @@
         <v>0.83</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -17343,7 +17343,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT83" t="n">
         <v>0.54</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -19173,7 +19173,7 @@
         <v>2.38</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU92" t="n">
         <v>2.48</v>
@@ -19373,7 +19373,7 @@
         <v>2.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT93" t="n">
         <v>2.31</v>
@@ -20391,7 +20391,7 @@
         <v>1.38</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -20591,10 +20591,10 @@
         <v>1.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20794,7 +20794,7 @@
         <v>1.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT100" t="n">
         <v>1.42</v>
@@ -21203,7 +21203,7 @@
         <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU102" t="n">
         <v>1.56</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT104" t="n">
         <v>0.38</v>
@@ -21812,7 +21812,7 @@
         <v>2.62</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU105" t="n">
         <v>2.62</v>
@@ -22421,7 +22421,7 @@
         <v>0.46</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22624,7 +22624,7 @@
         <v>0.83</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU109" t="n">
         <v>1.56</v>
@@ -23230,7 +23230,7 @@
         <v>0.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT112" t="n">
         <v>0.38</v>
@@ -23436,7 +23436,7 @@
         <v>2.5</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>2.1</v>
@@ -23636,7 +23636,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT114" t="n">
         <v>2.25</v>
@@ -24042,7 +24042,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT116" t="n">
         <v>2.15</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT120" t="n">
         <v>1.46</v>
@@ -25057,7 +25057,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT121" t="n">
         <v>2.31</v>
@@ -25669,7 +25669,7 @@
         <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU124" t="n">
         <v>1.44</v>
@@ -26681,7 +26681,7 @@
         <v>1.71</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT129" t="n">
         <v>1.42</v>
@@ -27090,7 +27090,7 @@
         <v>0.92</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.73</v>
@@ -27293,7 +27293,7 @@
         <v>2.62</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU132" t="n">
         <v>2.35</v>
@@ -27493,7 +27493,7 @@
         <v>2.29</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT133" t="n">
         <v>2.25</v>
@@ -28305,7 +28305,7 @@
         <v>0.86</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT137" t="n">
         <v>0.92</v>
@@ -29120,7 +29120,7 @@
         <v>0.83</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU141" t="n">
         <v>1.59</v>
@@ -29929,7 +29929,7 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT145" t="n">
         <v>0.83</v>
@@ -30744,7 +30744,7 @@
         <v>0.46</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU149" t="n">
         <v>1.61</v>
@@ -31556,7 +31556,7 @@
         <v>2.08</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU153" t="n">
         <v>1.98</v>
@@ -31756,7 +31756,7 @@
         <v>1.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT154" t="n">
         <v>1.5</v>
@@ -32771,7 +32771,7 @@
         <v>0.44</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT159" t="n">
         <v>0.31</v>
@@ -32977,7 +32977,7 @@
         <v>2.38</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU160" t="n">
         <v>2.52</v>
@@ -33586,7 +33586,7 @@
         <v>2.62</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>2.27</v>
@@ -33786,7 +33786,7 @@
         <v>0.33</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT164" t="n">
         <v>0.33</v>
@@ -33992,7 +33992,7 @@
         <v>1.38</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU165" t="n">
         <v>1.91</v>
@@ -34801,7 +34801,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT169" t="n">
         <v>0.38</v>
@@ -35210,7 +35210,7 @@
         <v>0.46</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU171" t="n">
         <v>1.61</v>
@@ -35410,10 +35410,10 @@
         <v>1.13</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.57</v>
@@ -35616,7 +35616,7 @@
         <v>0.92</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -35816,7 +35816,7 @@
         <v>2.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT174" t="n">
         <v>2.15</v>
@@ -36019,7 +36019,7 @@
         <v>1.2</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT175" t="n">
         <v>1</v>
@@ -36222,7 +36222,7 @@
         <v>1.44</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT176" t="n">
         <v>1.42</v>
@@ -37037,7 +37037,7 @@
         <v>1.33</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU180" t="n">
         <v>1.61</v>
@@ -38049,10 +38049,10 @@
         <v>1.22</v>
       </c>
       <c r="AS185" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT185" t="n">
         <v>1.31</v>
-      </c>
-      <c r="AT185" t="n">
-        <v>1.42</v>
       </c>
       <c r="AU185" t="n">
         <v>1.61</v>
@@ -38255,7 +38255,7 @@
         <v>2</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU186" t="n">
         <v>1.59</v>
@@ -39267,10 +39267,10 @@
         <v>1.4</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU191" t="n">
         <v>1.52</v>
@@ -39470,7 +39470,7 @@
         <v>1.18</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT192" t="n">
         <v>1</v>
@@ -40485,7 +40485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT197" t="n">
         <v>1.5</v>
@@ -40691,7 +40691,7 @@
         <v>2.08</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU198" t="n">
         <v>2.78</v>
@@ -40894,7 +40894,7 @@
         <v>1.33</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU199" t="n">
         <v>1.48</v>
@@ -42515,10 +42515,10 @@
         <v>0.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU207" t="n">
         <v>1.58</v>
@@ -42921,10 +42921,10 @@
         <v>1.27</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU209" t="n">
         <v>1.58</v>
@@ -43327,7 +43327,7 @@
         <v>0.36</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT211" t="n">
         <v>0.33</v>
@@ -43939,7 +43939,7 @@
         <v>1.33</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -44139,7 +44139,7 @@
         <v>1.36</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT215" t="n">
         <v>1.5</v>
@@ -44345,7 +44345,7 @@
         <v>2.08</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU216" t="n">
         <v>2.77</v>
@@ -44548,7 +44548,7 @@
         <v>0.46</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU217" t="n">
         <v>1.43</v>
@@ -44748,7 +44748,7 @@
         <v>0.33</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT218" t="n">
         <v>0.31</v>
@@ -46224,6 +46224,818 @@
       </c>
       <c r="BK225" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2433219</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45002.66666666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>26</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['42', '52']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>1</v>
+      </c>
+      <c r="R226" t="n">
+        <v>14</v>
+      </c>
+      <c r="S226" t="n">
+        <v>15</v>
+      </c>
+      <c r="T226" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V226" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2433218</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45003.52083333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>26</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>2</v>
+      </c>
+      <c r="N227" t="n">
+        <v>3</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['45+3', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>6</v>
+      </c>
+      <c r="R227" t="n">
+        <v>3</v>
+      </c>
+      <c r="S227" t="n">
+        <v>9</v>
+      </c>
+      <c r="T227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V227" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X227" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2433215</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45003.61458333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['44', '89']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>1</v>
+      </c>
+      <c r="R228" t="n">
+        <v>8</v>
+      </c>
+      <c r="S228" t="n">
+        <v>9</v>
+      </c>
+      <c r="T228" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V228" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2433220</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45003.70833333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>26</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>3</v>
+      </c>
+      <c r="K229" t="n">
+        <v>3</v>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="n">
+        <v>3</v>
+      </c>
+      <c r="N229" t="n">
+        <v>4</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['18', '26', '31']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>2</v>
+      </c>
+      <c r="R229" t="n">
+        <v>4</v>
+      </c>
+      <c r="S229" t="n">
+        <v>6</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X229" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.71</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT7" t="n">
         <v>0.57</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>2.36</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>1.5</v>
@@ -4963,7 +4963,7 @@
         <v>1.21</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
         <v>0.92</v>
@@ -8211,7 +8211,7 @@
         <v>1.07</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU38" t="n">
         <v>1.65</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT46" t="n">
         <v>0.93</v>
@@ -10038,7 +10038,7 @@
         <v>1.46</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>0.57</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT66" t="n">
         <v>2</v>
@@ -14098,7 +14098,7 @@
         <v>1.92</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU67" t="n">
         <v>2.85</v>
@@ -14707,7 +14707,7 @@
         <v>1.43</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU70" t="n">
         <v>1.52</v>
@@ -15516,7 +15516,7 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT74" t="n">
         <v>0.92</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT82" t="n">
         <v>1.31</v>
@@ -18564,7 +18564,7 @@
         <v>2.62</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU89" t="n">
         <v>2.84</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT94" t="n">
         <v>0.54</v>
@@ -20185,7 +20185,7 @@
         <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT97" t="n">
         <v>1.57</v>
@@ -20391,7 +20391,7 @@
         <v>1.29</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -21000,7 +21000,7 @@
         <v>1.08</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>1.54</v>
@@ -23436,7 +23436,7 @@
         <v>2.54</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU113" t="n">
         <v>2.1</v>
@@ -24857,7 +24857,7 @@
         <v>1.46</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU120" t="n">
         <v>1.66</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT124" t="n">
         <v>1.31</v>
@@ -27090,7 +27090,7 @@
         <v>1.07</v>
       </c>
       <c r="AT131" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU131" t="n">
         <v>1.73</v>
@@ -29117,7 +29117,7 @@
         <v>1.29</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT141" t="n">
         <v>1.23</v>
@@ -29526,7 +29526,7 @@
         <v>1.31</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU143" t="n">
         <v>1.65</v>
@@ -29726,7 +29726,7 @@
         <v>2.13</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT144" t="n">
         <v>2.36</v>
@@ -31353,7 +31353,7 @@
         <v>2.54</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU152" t="n">
         <v>2.11</v>
@@ -32365,7 +32365,7 @@
         <v>1.13</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT157" t="n">
         <v>1.07</v>
@@ -33177,7 +33177,7 @@
         <v>0.75</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT161" t="n">
         <v>0.77</v>
@@ -33586,7 +33586,7 @@
         <v>2.62</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU163" t="n">
         <v>2.27</v>
@@ -34398,7 +34398,7 @@
         <v>2</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU167" t="n">
         <v>1.99</v>
@@ -35413,7 +35413,7 @@
         <v>1.71</v>
       </c>
       <c r="AT172" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU172" t="n">
         <v>1.57</v>
@@ -37237,7 +37237,7 @@
         <v>1.11</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT181" t="n">
         <v>1.07</v>
@@ -38255,7 +38255,7 @@
         <v>1.86</v>
       </c>
       <c r="AT186" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU186" t="n">
         <v>1.59</v>
@@ -38658,10 +38658,10 @@
         <v>1.5</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU188" t="n">
         <v>1.76</v>
@@ -39673,7 +39673,7 @@
         <v>0.3</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT193" t="n">
         <v>0.54</v>
@@ -41097,7 +41097,7 @@
         <v>1.86</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU200" t="n">
         <v>1.65</v>
@@ -41297,7 +41297,7 @@
         <v>0.36</v>
       </c>
       <c r="AS201" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT201" t="n">
         <v>0.31</v>
@@ -42312,7 +42312,7 @@
         <v>2.18</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT206" t="n">
         <v>2.21</v>
@@ -42518,7 +42518,7 @@
         <v>1.21</v>
       </c>
       <c r="AT207" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU207" t="n">
         <v>1.58</v>
@@ -43124,7 +43124,7 @@
         <v>2.08</v>
       </c>
       <c r="AS210" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT210" t="n">
         <v>2</v>
@@ -44548,7 +44548,7 @@
         <v>0.43</v>
       </c>
       <c r="AT217" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU217" t="n">
         <v>1.43</v>
@@ -45563,7 +45563,7 @@
         <v>1.29</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU222" t="n">
         <v>2.02</v>
@@ -46578,7 +46578,7 @@
         <v>1.43</v>
       </c>
       <c r="AT227" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU227" t="n">
         <v>1.6</v>
@@ -47184,7 +47184,7 @@
         <v>1.42</v>
       </c>
       <c r="AS230" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT230" t="n">
         <v>1.5</v>
@@ -47793,7 +47793,7 @@
         <v>1.5</v>
       </c>
       <c r="AS233" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT233" t="n">
         <v>1.57</v>
@@ -49878,6 +49878,412 @@
       </c>
       <c r="BK243" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2433234</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F244" t="n">
+        <v>28</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>2</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>2</v>
+      </c>
+      <c r="N244" t="n">
+        <v>3</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['45+10']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['45+7', '76']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>2</v>
+      </c>
+      <c r="R244" t="n">
+        <v>7</v>
+      </c>
+      <c r="S244" t="n">
+        <v>9</v>
+      </c>
+      <c r="T244" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V244" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2433239</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45024.57291666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>28</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>2</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['21', '63']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>6</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2</v>
+      </c>
+      <c r="S245" t="n">
+        <v>8</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V245" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK245"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.43</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT5" t="n">
         <v>0.54</v>
@@ -1918,7 +1918,7 @@
         <v>0.86</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT10" t="n">
         <v>0.93</v>
@@ -3136,7 +3136,7 @@
         <v>1.43</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT15" t="n">
         <v>1.5</v>
@@ -3745,7 +3745,7 @@
         <v>1.46</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>0.36</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.07</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT22" t="n">
         <v>1.57</v>
@@ -5978,7 +5978,7 @@
         <v>1.31</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU28" t="n">
         <v>1.02</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT29" t="n">
         <v>0.54</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU30" t="n">
         <v>1.2</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU35" t="n">
         <v>1.82</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU36" t="n">
         <v>2.34</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8411,10 +8411,10 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU39" t="n">
         <v>3.33</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT40" t="n">
         <v>1.57</v>
@@ -8820,7 +8820,7 @@
         <v>1.86</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU41" t="n">
         <v>1.12</v>
@@ -9226,7 +9226,7 @@
         <v>1.71</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU43" t="n">
         <v>1.3</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT44" t="n">
         <v>2</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -10241,7 +10241,7 @@
         <v>1.29</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU52" t="n">
         <v>2.55</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT54" t="n">
         <v>1.07</v>
@@ -11659,10 +11659,10 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU55" t="n">
         <v>2.49</v>
@@ -11865,7 +11865,7 @@
         <v>1.43</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU58" t="n">
         <v>1.55</v>
@@ -12474,7 +12474,7 @@
         <v>1.71</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU59" t="n">
         <v>1.74</v>
@@ -12677,7 +12677,7 @@
         <v>1.07</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT62" t="n">
         <v>2.36</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT63" t="n">
         <v>1.07</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT64" t="n">
         <v>2.21</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT67" t="n">
         <v>0.93</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT68" t="n">
         <v>0.93</v>
@@ -14504,7 +14504,7 @@
         <v>1.07</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU69" t="n">
         <v>1.7</v>
@@ -15113,7 +15113,7 @@
         <v>1.71</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT73" t="n">
         <v>1.5</v>
@@ -15519,7 +15519,7 @@
         <v>0.86</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU74" t="n">
         <v>1.26</v>
@@ -16128,7 +16128,7 @@
         <v>1.29</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU77" t="n">
         <v>1.77</v>
@@ -16331,7 +16331,7 @@
         <v>1.31</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU78" t="n">
         <v>1.63</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT79" t="n">
         <v>1.07</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT81" t="n">
         <v>1.57</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -17343,10 +17343,10 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU83" t="n">
         <v>1.55</v>
@@ -17549,7 +17549,7 @@
         <v>1.07</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU84" t="n">
         <v>1.86</v>
@@ -18158,7 +18158,7 @@
         <v>1.86</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT88" t="n">
         <v>0.36</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT89" t="n">
         <v>1.57</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT90" t="n">
         <v>2.36</v>
@@ -18967,10 +18967,10 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU91" t="n">
         <v>2.88</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU92" t="n">
         <v>2.48</v>
@@ -20594,7 +20594,7 @@
         <v>1.43</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20997,7 +20997,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT101" t="n">
         <v>1.57</v>
@@ -21203,7 +21203,7 @@
         <v>1.86</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU102" t="n">
         <v>1.56</v>
@@ -21406,7 +21406,7 @@
         <v>1.31</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU103" t="n">
         <v>1.77</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT104" t="n">
         <v>0.36</v>
@@ -21809,10 +21809,10 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU105" t="n">
         <v>2.62</v>
@@ -22012,10 +22012,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU106" t="n">
         <v>2.11</v>
@@ -22215,10 +22215,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU107" t="n">
         <v>2.09</v>
@@ -22421,7 +22421,7 @@
         <v>0.43</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU109" t="n">
         <v>1.56</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT113" t="n">
         <v>0.93</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>1.57</v>
@@ -24245,7 +24245,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT117" t="n">
         <v>0.93</v>
@@ -24448,10 +24448,10 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU118" t="n">
         <v>2.69</v>
@@ -25057,7 +25057,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT121" t="n">
         <v>2.21</v>
@@ -25260,7 +25260,7 @@
         <v>2.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT122" t="n">
         <v>2</v>
@@ -25466,7 +25466,7 @@
         <v>1.29</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU123" t="n">
         <v>1.88</v>
@@ -25669,7 +25669,7 @@
         <v>0.86</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU124" t="n">
         <v>1.44</v>
@@ -25869,10 +25869,10 @@
         <v>0.83</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU125" t="n">
         <v>1.59</v>
@@ -26072,10 +26072,10 @@
         <v>0.57</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU126" t="n">
         <v>2.62</v>
@@ -26478,7 +26478,7 @@
         <v>0.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT128" t="n">
         <v>0.54</v>
@@ -26884,7 +26884,7 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT130" t="n">
         <v>0.93</v>
@@ -27290,10 +27290,10 @@
         <v>1.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU132" t="n">
         <v>2.35</v>
@@ -27902,7 +27902,7 @@
         <v>0.43</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -28308,7 +28308,7 @@
         <v>1.46</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU137" t="n">
         <v>1.6</v>
@@ -28508,7 +28508,7 @@
         <v>2.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT138" t="n">
         <v>2</v>
@@ -28711,7 +28711,7 @@
         <v>1.14</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT139" t="n">
         <v>1.07</v>
@@ -28917,7 +28917,7 @@
         <v>1.86</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU140" t="n">
         <v>1.58</v>
@@ -29120,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU141" t="n">
         <v>1.59</v>
@@ -29929,10 +29929,10 @@
         <v>0.71</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU145" t="n">
         <v>1.65</v>
@@ -30135,7 +30135,7 @@
         <v>1.43</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU146" t="n">
         <v>1.41</v>
@@ -30538,7 +30538,7 @@
         <v>1.13</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT148" t="n">
         <v>0.93</v>
@@ -30744,7 +30744,7 @@
         <v>0.43</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU149" t="n">
         <v>1.61</v>
@@ -30944,7 +30944,7 @@
         <v>0.63</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT150" t="n">
         <v>0.36</v>
@@ -31147,7 +31147,7 @@
         <v>2.13</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT151" t="n">
         <v>2.21</v>
@@ -31350,7 +31350,7 @@
         <v>1.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT152" t="n">
         <v>1.57</v>
@@ -31553,10 +31553,10 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU153" t="n">
         <v>1.98</v>
@@ -31756,7 +31756,7 @@
         <v>1.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT154" t="n">
         <v>1.57</v>
@@ -31962,7 +31962,7 @@
         <v>1.86</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU155" t="n">
         <v>1.61</v>
@@ -32774,7 +32774,7 @@
         <v>1.43</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU159" t="n">
         <v>1.54</v>
@@ -32974,10 +32974,10 @@
         <v>1.25</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU160" t="n">
         <v>2.52</v>
@@ -33180,7 +33180,7 @@
         <v>0.86</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU161" t="n">
         <v>1.38</v>
@@ -33380,10 +33380,10 @@
         <v>0.67</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU162" t="n">
         <v>2.77</v>
@@ -33583,7 +33583,7 @@
         <v>1.29</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT163" t="n">
         <v>0.93</v>
@@ -33992,7 +33992,7 @@
         <v>1.29</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU165" t="n">
         <v>1.91</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT166" t="n">
         <v>0.93</v>
@@ -34395,7 +34395,7 @@
         <v>1.56</v>
       </c>
       <c r="AS167" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT167" t="n">
         <v>1.57</v>
@@ -34598,7 +34598,7 @@
         <v>2.22</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT168" t="n">
         <v>2.36</v>
@@ -35210,7 +35210,7 @@
         <v>0.43</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU171" t="n">
         <v>1.61</v>
@@ -35616,7 +35616,7 @@
         <v>1.07</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -36019,7 +36019,7 @@
         <v>1.2</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT175" t="n">
         <v>0.93</v>
@@ -36428,7 +36428,7 @@
         <v>1.43</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU177" t="n">
         <v>1.47</v>
@@ -36831,7 +36831,7 @@
         <v>1.44</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT179" t="n">
         <v>1.57</v>
@@ -37037,7 +37037,7 @@
         <v>1.31</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU180" t="n">
         <v>1.61</v>
@@ -37440,10 +37440,10 @@
         <v>0.4</v>
       </c>
       <c r="AS182" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU182" t="n">
         <v>1.98</v>
@@ -37646,7 +37646,7 @@
         <v>1.29</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU183" t="n">
         <v>2</v>
@@ -37846,7 +37846,7 @@
         <v>0.5</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT184" t="n">
         <v>0.36</v>
@@ -38049,10 +38049,10 @@
         <v>1.22</v>
       </c>
       <c r="AS185" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT185" t="n">
         <v>1.21</v>
-      </c>
-      <c r="AT185" t="n">
-        <v>1.31</v>
       </c>
       <c r="AU185" t="n">
         <v>1.61</v>
@@ -38455,7 +38455,7 @@
         <v>2.1</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT187" t="n">
         <v>2.36</v>
@@ -38861,10 +38861,10 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU189" t="n">
         <v>2.82</v>
@@ -39064,10 +39064,10 @@
         <v>0.7</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU190" t="n">
         <v>2.06</v>
@@ -39270,7 +39270,7 @@
         <v>1.71</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU191" t="n">
         <v>1.52</v>
@@ -39876,7 +39876,7 @@
         <v>2.27</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT194" t="n">
         <v>2</v>
@@ -40688,10 +40688,10 @@
         <v>1.4</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU198" t="n">
         <v>2.78</v>
@@ -40894,7 +40894,7 @@
         <v>1.43</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU199" t="n">
         <v>1.48</v>
@@ -41300,7 +41300,7 @@
         <v>0.86</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU201" t="n">
         <v>1.54</v>
@@ -41500,10 +41500,10 @@
         <v>0.73</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU202" t="n">
         <v>1.67</v>
@@ -41703,10 +41703,10 @@
         <v>1</v>
       </c>
       <c r="AS203" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU203" t="n">
         <v>2.06</v>
@@ -41909,7 +41909,7 @@
         <v>1.29</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU204" t="n">
         <v>2.01</v>
@@ -42515,7 +42515,7 @@
         <v>0.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT207" t="n">
         <v>0.93</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT208" t="n">
         <v>1.07</v>
@@ -42924,7 +42924,7 @@
         <v>1.43</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU209" t="n">
         <v>1.58</v>
@@ -43530,7 +43530,7 @@
         <v>0.45</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT212" t="n">
         <v>0.36</v>
@@ -43733,7 +43733,7 @@
         <v>1.45</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT213" t="n">
         <v>1.5</v>
@@ -43939,7 +43939,7 @@
         <v>1.43</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -44342,10 +44342,10 @@
         <v>1.18</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU216" t="n">
         <v>2.77</v>
@@ -44748,10 +44748,10 @@
         <v>0.33</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU218" t="n">
         <v>1.54</v>
@@ -45154,7 +45154,7 @@
         <v>0.42</v>
       </c>
       <c r="AS220" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT220" t="n">
         <v>0.36</v>
@@ -45763,7 +45763,7 @@
         <v>2.25</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT223" t="n">
         <v>2.21</v>
@@ -45966,10 +45966,10 @@
         <v>0.91</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU224" t="n">
         <v>2.36</v>
@@ -46169,10 +46169,10 @@
         <v>0.58</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU225" t="n">
         <v>2.52</v>
@@ -46375,7 +46375,7 @@
         <v>1.46</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU226" t="n">
         <v>1.57</v>
@@ -46778,10 +46778,10 @@
         <v>1.42</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU228" t="n">
         <v>1.53</v>
@@ -46984,7 +46984,7 @@
         <v>1.71</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU229" t="n">
         <v>1.53</v>
@@ -47390,7 +47390,7 @@
         <v>1.43</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU231" t="n">
         <v>1.49</v>
@@ -47590,7 +47590,7 @@
         <v>2.25</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT232" t="n">
         <v>2.36</v>
@@ -47996,7 +47996,7 @@
         <v>2.15</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT234" t="n">
         <v>2</v>
@@ -48199,7 +48199,7 @@
         <v>1.54</v>
       </c>
       <c r="AS235" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT235" t="n">
         <v>1.5</v>
@@ -49623,7 +49623,7 @@
         <v>1.43</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU242" t="n">
         <v>1.59</v>
@@ -50268,22 +50268,1443 @@
         <v>2.45</v>
       </c>
       <c r="BF245" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BG245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH245" t="n">
         <v>5</v>
       </c>
       <c r="BI245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2433237</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45024.625</v>
+      </c>
+      <c r="F246" t="n">
+        <v>28</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>4</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>4</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['12', '78', '82', '87']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>7</v>
+      </c>
+      <c r="R246" t="n">
+        <v>1</v>
+      </c>
+      <c r="S246" t="n">
+        <v>8</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U246" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V246" t="n">
+        <v>11</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X246" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF246" t="n">
         <v>5</v>
       </c>
-      <c r="BJ245" t="n">
+      <c r="BG246" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2433232</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45024.625</v>
+      </c>
+      <c r="F247" t="n">
+        <v>28</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>4</v>
+      </c>
+      <c r="R247" t="n">
+        <v>4</v>
+      </c>
+      <c r="S247" t="n">
+        <v>8</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V247" t="n">
+        <v>6</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X247" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2433238</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45024.66666666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>28</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>2</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>3</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="n">
+        <v>3</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['6', '33']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>4</v>
+      </c>
+      <c r="R248" t="n">
+        <v>2</v>
+      </c>
+      <c r="S248" t="n">
+        <v>6</v>
+      </c>
+      <c r="T248" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V248" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X248" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2433235</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45025.30208333334</v>
+      </c>
+      <c r="F249" t="n">
+        <v>28</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>3</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>3</v>
+      </c>
+      <c r="L249" t="n">
+        <v>4</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>4</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['12', '28', '36', '77']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>7</v>
+      </c>
+      <c r="R249" t="n">
+        <v>2</v>
+      </c>
+      <c r="S249" t="n">
+        <v>9</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V249" t="n">
+        <v>9</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X249" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2433233</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45025.39583333334</v>
+      </c>
+      <c r="F250" t="n">
+        <v>28</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>2</v>
+      </c>
+      <c r="R250" t="n">
+        <v>5</v>
+      </c>
+      <c r="S250" t="n">
+        <v>7</v>
+      </c>
+      <c r="T250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V250" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2433231</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45025.48958333334</v>
+      </c>
+      <c r="F251" t="n">
+        <v>28</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>2</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>2</v>
+      </c>
+      <c r="L251" t="n">
+        <v>4</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>4</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['6', '27', '54', '86']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>17</v>
+      </c>
+      <c r="R251" t="n">
+        <v>4</v>
+      </c>
+      <c r="S251" t="n">
+        <v>21</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U251" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V251" t="n">
         <v>13</v>
       </c>
-      <c r="BK245" t="n">
-        <v>8</v>
+      <c r="W251" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X251" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2433236</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45025.625</v>
+      </c>
+      <c r="F252" t="n">
+        <v>28</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>3</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>3</v>
+      </c>
+      <c r="L252" t="n">
+        <v>5</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>6</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['29', '31', '39', '53', '61']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>7</v>
+      </c>
+      <c r="R252" t="n">
+        <v>4</v>
+      </c>
+      <c r="S252" t="n">
+        <v>11</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U252" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V252" t="n">
+        <v>10</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X252" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK252"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>1.86</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT11" t="n">
         <v>0.93</v>
@@ -5166,7 +5166,7 @@
         <v>0.86</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT32" t="n">
         <v>1.57</v>
@@ -10038,7 +10038,7 @@
         <v>1.46</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT50" t="n">
         <v>0.54</v>
@@ -14098,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU67" t="n">
         <v>2.85</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT70" t="n">
         <v>1.57</v>
@@ -19779,7 +19779,7 @@
         <v>3</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT95" t="n">
         <v>2</v>
@@ -20391,7 +20391,7 @@
         <v>1.29</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -23027,7 +23027,7 @@
         <v>1.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT111" t="n">
         <v>1.5</v>
@@ -23436,7 +23436,7 @@
         <v>2.57</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU113" t="n">
         <v>2.1</v>
@@ -27090,7 +27090,7 @@
         <v>1.07</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU131" t="n">
         <v>1.73</v>
@@ -28102,7 +28102,7 @@
         <v>0.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT136" t="n">
         <v>0.36</v>
@@ -30132,7 +30132,7 @@
         <v>0.75</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT146" t="n">
         <v>0.53</v>
@@ -33586,7 +33586,7 @@
         <v>2.64</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU163" t="n">
         <v>2.27</v>
@@ -35004,7 +35004,7 @@
         <v>2</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT170" t="n">
         <v>2.21</v>
@@ -35413,7 +35413,7 @@
         <v>1.71</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU172" t="n">
         <v>1.57</v>
@@ -36425,7 +36425,7 @@
         <v>0.78</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT177" t="n">
         <v>0.85</v>
@@ -38255,7 +38255,7 @@
         <v>1.86</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU186" t="n">
         <v>1.59</v>
@@ -40891,7 +40891,7 @@
         <v>1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT199" t="n">
         <v>1.21</v>
@@ -42518,7 +42518,7 @@
         <v>1.2</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU207" t="n">
         <v>1.58</v>
@@ -43936,7 +43936,7 @@
         <v>1.27</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT214" t="n">
         <v>1.64</v>
@@ -44548,7 +44548,7 @@
         <v>0.43</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU217" t="n">
         <v>1.43</v>
@@ -46578,7 +46578,7 @@
         <v>1.43</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU227" t="n">
         <v>1.6</v>
@@ -47387,7 +47387,7 @@
         <v>0.83</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT231" t="n">
         <v>0.71</v>
@@ -48402,7 +48402,7 @@
         <v>1.08</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT236" t="n">
         <v>1.07</v>
@@ -50232,7 +50232,7 @@
         <v>1</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU245" t="n">
         <v>1.59</v>
@@ -51705,6 +51705,209 @@
       </c>
       <c r="BK252" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2433241</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45030.625</v>
+      </c>
+      <c r="F253" t="n">
+        <v>29</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>2</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>3</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['54', '65']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>5</v>
+      </c>
+      <c r="R253" t="n">
+        <v>12</v>
+      </c>
+      <c r="S253" t="n">
+        <v>17</v>
+      </c>
+      <c r="T253" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V253" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X253" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>2.21</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT4" t="n">
         <v>0.29</v>
@@ -1512,7 +1512,7 @@
         <v>2.64</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT6" t="n">
         <v>1.57</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.53</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.31</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT13" t="n">
         <v>0.71</v>
@@ -3542,7 +3542,7 @@
         <v>2.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT16" t="n">
         <v>1.21</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>0.71</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT24" t="n">
         <v>2.21</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU25" t="n">
         <v>1.33</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU26" t="n">
         <v>1.17</v>
@@ -6384,7 +6384,7 @@
         <v>2.43</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>2.62</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT31" t="n">
         <v>2.21</v>
@@ -6993,7 +6993,7 @@
         <v>1.53</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU32" t="n">
         <v>1.54</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU34" t="n">
         <v>3.19</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>1.57</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT39" t="n">
         <v>0.71</v>
@@ -8617,7 +8617,7 @@
         <v>2.57</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.94</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT41" t="n">
         <v>0.53</v>
@@ -9023,7 +9023,7 @@
         <v>1.31</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU42" t="n">
         <v>1.45</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT43" t="n">
         <v>0.29</v>
@@ -9429,7 +9429,7 @@
         <v>1.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU44" t="n">
         <v>1.58</v>
@@ -9835,7 +9835,7 @@
         <v>0.86</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU46" t="n">
         <v>1.53</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT47" t="n">
         <v>0.87</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT48" t="n">
         <v>1.21</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU49" t="n">
         <v>3.04</v>
@@ -10647,7 +10647,7 @@
         <v>1.53</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.36</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU51" t="n">
         <v>1.31</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -11459,7 +11459,7 @@
         <v>1.86</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>2.99</v>
@@ -11862,7 +11862,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT56" t="n">
         <v>1.21</v>
@@ -12065,10 +12065,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT59" t="n">
         <v>0.71</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT60" t="n">
         <v>0.29</v>
@@ -12880,7 +12880,7 @@
         <v>1.31</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13083,7 +13083,7 @@
         <v>2.64</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU62" t="n">
         <v>2.81</v>
@@ -13286,7 +13286,7 @@
         <v>1.21</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.61</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU65" t="n">
         <v>2</v>
@@ -13895,7 +13895,7 @@
         <v>0.86</v>
       </c>
       <c r="AT66" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU66" t="n">
         <v>1.22</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT67" t="n">
         <v>0.87</v>
@@ -14301,7 +14301,7 @@
         <v>2.57</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU68" t="n">
         <v>1.96</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT69" t="n">
         <v>0.53</v>
@@ -14907,10 +14907,10 @@
         <v>2.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU71" t="n">
         <v>2.01</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT72" t="n">
         <v>1.64</v>
@@ -15316,7 +15316,7 @@
         <v>1.2</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU73" t="n">
         <v>1.52</v>
@@ -15719,7 +15719,7 @@
         <v>2.25</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT75" t="n">
         <v>2.21</v>
@@ -15922,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT77" t="n">
         <v>0.29</v>
@@ -16534,7 +16534,7 @@
         <v>2.43</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>2.54</v>
@@ -16734,10 +16734,10 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT80" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU80" t="n">
         <v>1.61</v>
@@ -16940,7 +16940,7 @@
         <v>1.21</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU81" t="n">
         <v>1.6</v>
@@ -17546,7 +17546,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT84" t="n">
         <v>0.85</v>
@@ -17752,7 +17752,7 @@
         <v>1.31</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU85" t="n">
         <v>1.74</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU86" t="n">
         <v>1.85</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT87" t="n">
         <v>1.21</v>
@@ -18361,7 +18361,7 @@
         <v>2.57</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU88" t="n">
         <v>2.01</v>
@@ -18767,7 +18767,7 @@
         <v>1.86</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU90" t="n">
         <v>2.32</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT91" t="n">
         <v>0.29</v>
@@ -19373,7 +19373,7 @@
         <v>2.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT93" t="n">
         <v>2.21</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU94" t="n">
         <v>1.51</v>
@@ -19782,7 +19782,7 @@
         <v>1.53</v>
       </c>
       <c r="AT95" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU95" t="n">
         <v>1.62</v>
@@ -19982,10 +19982,10 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.71</v>
@@ -20188,7 +20188,7 @@
         <v>0.86</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU97" t="n">
         <v>1.39</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT98" t="n">
         <v>0.87</v>
@@ -20591,7 +20591,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT99" t="n">
         <v>1.64</v>
@@ -20794,10 +20794,10 @@
         <v>1.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU100" t="n">
         <v>1.83</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT102" t="n">
         <v>1.21</v>
@@ -21609,7 +21609,7 @@
         <v>1.2</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU104" t="n">
         <v>1.63</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT108" t="n">
         <v>1.21</v>
@@ -22824,10 +22824,10 @@
         <v>0</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.74</v>
@@ -23030,7 +23030,7 @@
         <v>1.53</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU111" t="n">
         <v>1.49</v>
@@ -23230,10 +23230,10 @@
         <v>0.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU112" t="n">
         <v>1.6</v>
@@ -23636,10 +23636,10 @@
         <v>2.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU114" t="n">
         <v>1.8</v>
@@ -23839,10 +23839,10 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU115" t="n">
         <v>3.11</v>
@@ -24042,10 +24042,10 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT116" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU116" t="n">
         <v>1.66</v>
@@ -24245,10 +24245,10 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU117" t="n">
         <v>2.9</v>
@@ -24651,10 +24651,10 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.64</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT120" t="n">
         <v>1.57</v>
@@ -25263,7 +25263,7 @@
         <v>2.64</v>
       </c>
       <c r="AT122" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU122" t="n">
         <v>2.51</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT123" t="n">
         <v>0.85</v>
@@ -26278,7 +26278,7 @@
         <v>1.31</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26481,7 +26481,7 @@
         <v>2.57</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU128" t="n">
         <v>2.1</v>
@@ -26681,10 +26681,10 @@
         <v>1.71</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU129" t="n">
         <v>1.71</v>
@@ -26887,7 +26887,7 @@
         <v>1.86</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU130" t="n">
         <v>1.98</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT131" t="n">
         <v>0.87</v>
@@ -27493,10 +27493,10 @@
         <v>2.29</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU133" t="n">
         <v>1.59</v>
@@ -27696,7 +27696,7 @@
         <v>2.29</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT134" t="n">
         <v>2.21</v>
@@ -27899,7 +27899,7 @@
         <v>0.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT135" t="n">
         <v>0.53</v>
@@ -28105,7 +28105,7 @@
         <v>1.53</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU136" t="n">
         <v>1.5</v>
@@ -28305,7 +28305,7 @@
         <v>0.86</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT137" t="n">
         <v>0.85</v>
@@ -28511,7 +28511,7 @@
         <v>1.21</v>
       </c>
       <c r="AT138" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU138" t="n">
         <v>1.63</v>
@@ -28711,10 +28711,10 @@
         <v>1.14</v>
       </c>
       <c r="AS139" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>3.01</v>
@@ -28914,7 +28914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT140" t="n">
         <v>0.29</v>
@@ -29320,10 +29320,10 @@
         <v>1.71</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -29729,7 +29729,7 @@
         <v>0.86</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU144" t="n">
         <v>1.44</v>
@@ -30335,10 +30335,10 @@
         <v>0.38</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.9</v>
@@ -30541,7 +30541,7 @@
         <v>2.64</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU148" t="n">
         <v>2.29</v>
@@ -30741,7 +30741,7 @@
         <v>1.29</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT149" t="n">
         <v>1.64</v>
@@ -30947,7 +30947,7 @@
         <v>1.21</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU150" t="n">
         <v>1.68</v>
@@ -31759,7 +31759,7 @@
         <v>1.2</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU154" t="n">
         <v>1.69</v>
@@ -31959,7 +31959,7 @@
         <v>0.75</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT155" t="n">
         <v>0.85</v>
@@ -32165,7 +32165,7 @@
         <v>1.31</v>
       </c>
       <c r="AT156" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU156" t="n">
         <v>1.64</v>
@@ -32368,7 +32368,7 @@
         <v>1</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.74</v>
@@ -32568,10 +32568,10 @@
         <v>1.63</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU158" t="n">
         <v>1.57</v>
@@ -32771,7 +32771,7 @@
         <v>0.44</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT159" t="n">
         <v>0.29</v>
@@ -33380,7 +33380,7 @@
         <v>0.67</v>
       </c>
       <c r="AS162" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT162" t="n">
         <v>0.53</v>
@@ -33786,10 +33786,10 @@
         <v>0.33</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU164" t="n">
         <v>1.62</v>
@@ -33989,7 +33989,7 @@
         <v>1.5</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT165" t="n">
         <v>1.64</v>
@@ -34195,7 +34195,7 @@
         <v>1.21</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU166" t="n">
         <v>1.73</v>
@@ -34601,7 +34601,7 @@
         <v>2.57</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU168" t="n">
         <v>2.1</v>
@@ -34801,10 +34801,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU169" t="n">
         <v>1.63</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT171" t="n">
         <v>1.21</v>
@@ -35410,7 +35410,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT172" t="n">
         <v>0.87</v>
@@ -35613,7 +35613,7 @@
         <v>1.44</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT173" t="n">
         <v>1.64</v>
@@ -35816,10 +35816,10 @@
         <v>2.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT174" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU174" t="n">
         <v>1.61</v>
@@ -36022,7 +36022,7 @@
         <v>1.2</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU175" t="n">
         <v>1.63</v>
@@ -36222,10 +36222,10 @@
         <v>1.44</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU176" t="n">
         <v>1.63</v>
@@ -36628,7 +36628,7 @@
         <v>2.1</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT178" t="n">
         <v>2.21</v>
@@ -36834,7 +36834,7 @@
         <v>2.43</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU179" t="n">
         <v>2.55</v>
@@ -37240,7 +37240,7 @@
         <v>0.86</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU181" t="n">
         <v>1.42</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT183" t="n">
         <v>0.71</v>
@@ -37849,7 +37849,7 @@
         <v>2.64</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU184" t="n">
         <v>2.24</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT186" t="n">
         <v>0.87</v>
@@ -38458,7 +38458,7 @@
         <v>1.21</v>
       </c>
       <c r="AT187" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU187" t="n">
         <v>1.67</v>
@@ -38861,7 +38861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT189" t="n">
         <v>0.85</v>
@@ -39267,7 +39267,7 @@
         <v>1.4</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT191" t="n">
         <v>1.21</v>
@@ -39470,10 +39470,10 @@
         <v>1.18</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU192" t="n">
         <v>1.56</v>
@@ -39676,7 +39676,7 @@
         <v>0.86</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU193" t="n">
         <v>1.55</v>
@@ -39879,7 +39879,7 @@
         <v>2.43</v>
       </c>
       <c r="AT194" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU194" t="n">
         <v>2.66</v>
@@ -40079,10 +40079,10 @@
         <v>1.3</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU195" t="n">
         <v>1.46</v>
@@ -40285,7 +40285,7 @@
         <v>1.31</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU196" t="n">
         <v>1.58</v>
@@ -40485,10 +40485,10 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU197" t="n">
         <v>1.64</v>
@@ -40688,7 +40688,7 @@
         <v>1.4</v>
       </c>
       <c r="AS198" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT198" t="n">
         <v>1.64</v>
@@ -41094,7 +41094,7 @@
         <v>1.36</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT200" t="n">
         <v>1.57</v>
@@ -41906,7 +41906,7 @@
         <v>0.64</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT204" t="n">
         <v>0.53</v>
@@ -42109,10 +42109,10 @@
         <v>2.18</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU205" t="n">
         <v>1.61</v>
@@ -42721,7 +42721,7 @@
         <v>2.64</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU208" t="n">
         <v>2.39</v>
@@ -42921,7 +42921,7 @@
         <v>1.27</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT209" t="n">
         <v>1.21</v>
@@ -43127,7 +43127,7 @@
         <v>1</v>
       </c>
       <c r="AT210" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU210" t="n">
         <v>1.7</v>
@@ -43327,10 +43327,10 @@
         <v>0.36</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU211" t="n">
         <v>1.51</v>
@@ -43533,7 +43533,7 @@
         <v>2.43</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU212" t="n">
         <v>2.55</v>
@@ -43736,7 +43736,7 @@
         <v>2.57</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU213" t="n">
         <v>2.11</v>
@@ -44139,10 +44139,10 @@
         <v>1.36</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU215" t="n">
         <v>1.57</v>
@@ -44342,7 +44342,7 @@
         <v>1.18</v>
       </c>
       <c r="AS216" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT216" t="n">
         <v>1.21</v>
@@ -44545,7 +44545,7 @@
         <v>0.91</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT217" t="n">
         <v>0.87</v>
@@ -44951,10 +44951,10 @@
         <v>0.92</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU219" t="n">
         <v>1.58</v>
@@ -45157,7 +45157,7 @@
         <v>1.86</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU220" t="n">
         <v>2.03</v>
@@ -45357,10 +45357,10 @@
         <v>1.08</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU221" t="n">
         <v>1.63</v>
@@ -45560,7 +45560,7 @@
         <v>1.5</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT222" t="n">
         <v>1.57</v>
@@ -46372,7 +46372,7 @@
         <v>1.42</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT226" t="n">
         <v>1.21</v>
@@ -46575,7 +46575,7 @@
         <v>0.83</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT227" t="n">
         <v>0.87</v>
@@ -46981,7 +46981,7 @@
         <v>1.08</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT229" t="n">
         <v>1.21</v>
@@ -47187,7 +47187,7 @@
         <v>0.86</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU230" t="n">
         <v>1.59</v>
@@ -47590,10 +47590,10 @@
         <v>2.25</v>
       </c>
       <c r="AS232" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT232" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU232" t="n">
         <v>2.73</v>
@@ -47796,7 +47796,7 @@
         <v>1</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU233" t="n">
         <v>1.65</v>
@@ -47999,7 +47999,7 @@
         <v>2.57</v>
       </c>
       <c r="AT234" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AU234" t="n">
         <v>2.09</v>
@@ -48202,7 +48202,7 @@
         <v>1.86</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU235" t="n">
         <v>1.95</v>
@@ -48405,7 +48405,7 @@
         <v>1.53</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU236" t="n">
         <v>1.45</v>
@@ -48605,10 +48605,10 @@
         <v>0.33</v>
       </c>
       <c r="AS237" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU237" t="n">
         <v>1.45</v>
@@ -48808,10 +48808,10 @@
         <v>1.46</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU238" t="n">
         <v>1.98</v>
@@ -49011,10 +49011,10 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU239" t="n">
         <v>1.53</v>
@@ -49417,10 +49417,10 @@
         <v>2.31</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AU241" t="n">
         <v>1.68</v>
@@ -49620,7 +49620,7 @@
         <v>0.54</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT242" t="n">
         <v>0.53</v>
@@ -49823,10 +49823,10 @@
         <v>0.38</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU243" t="n">
         <v>1.53</v>
@@ -51447,7 +51447,7 @@
         <v>1.31</v>
       </c>
       <c r="AS251" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT251" t="n">
         <v>1.21</v>
@@ -51908,6 +51908,1630 @@
       </c>
       <c r="BK253" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2433246</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45031.57291666666</v>
+      </c>
+      <c r="F254" t="n">
+        <v>29</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>2</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="n">
+        <v>3</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['64', '86']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>3</v>
+      </c>
+      <c r="R254" t="n">
+        <v>2</v>
+      </c>
+      <c r="S254" t="n">
+        <v>5</v>
+      </c>
+      <c r="T254" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V254" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2433248</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45031.66666666666</v>
+      </c>
+      <c r="F255" t="n">
+        <v>29</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="n">
+        <v>4</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>4</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['39', '51', '68', '77']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>7</v>
+      </c>
+      <c r="R255" t="n">
+        <v>4</v>
+      </c>
+      <c r="S255" t="n">
+        <v>11</v>
+      </c>
+      <c r="T255" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V255" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2433245</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45032.30208333334</v>
+      </c>
+      <c r="F256" t="n">
+        <v>29</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>2</v>
+      </c>
+      <c r="K256" t="n">
+        <v>2</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="n">
+        <v>4</v>
+      </c>
+      <c r="N256" t="n">
+        <v>5</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['25', '28', '68', '83']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>7</v>
+      </c>
+      <c r="R256" t="n">
+        <v>6</v>
+      </c>
+      <c r="S256" t="n">
+        <v>13</v>
+      </c>
+      <c r="T256" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V256" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X256" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2433242</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45032.39583333334</v>
+      </c>
+      <c r="F257" t="n">
+        <v>29</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>4</v>
+      </c>
+      <c r="R257" t="n">
+        <v>8</v>
+      </c>
+      <c r="S257" t="n">
+        <v>12</v>
+      </c>
+      <c r="T257" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V257" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X257" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2433243</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45032.39583333334</v>
+      </c>
+      <c r="F258" t="n">
+        <v>29</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>2</v>
+      </c>
+      <c r="K258" t="n">
+        <v>2</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2</v>
+      </c>
+      <c r="M258" t="n">
+        <v>3</v>
+      </c>
+      <c r="N258" t="n">
+        <v>5</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['55', '61']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['33', '40', '58']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>3</v>
+      </c>
+      <c r="R258" t="n">
+        <v>2</v>
+      </c>
+      <c r="S258" t="n">
+        <v>5</v>
+      </c>
+      <c r="T258" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="V258" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X258" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2433247</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45032.48958333334</v>
+      </c>
+      <c r="F259" t="n">
+        <v>29</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>3</v>
+      </c>
+      <c r="N259" t="n">
+        <v>3</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['17', '51', '64']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>2</v>
+      </c>
+      <c r="R259" t="n">
+        <v>9</v>
+      </c>
+      <c r="S259" t="n">
+        <v>11</v>
+      </c>
+      <c r="T259" t="n">
+        <v>7</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V259" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X259" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2433240</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45032.625</v>
+      </c>
+      <c r="F260" t="n">
+        <v>29</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>2</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>2</v>
+      </c>
+      <c r="L260" t="n">
+        <v>3</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="n">
+        <v>4</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['22', '37', '79']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>13</v>
+      </c>
+      <c r="R260" t="n">
+        <v>5</v>
+      </c>
+      <c r="S260" t="n">
+        <v>18</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U260" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V260" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X260" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2433244</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45032.625</v>
+      </c>
+      <c r="F261" t="n">
+        <v>29</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>2</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>3</v>
+      </c>
+      <c r="N261" t="n">
+        <v>3</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['24', '42', '84']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>2</v>
+      </c>
+      <c r="R261" t="n">
+        <v>11</v>
+      </c>
+      <c r="S261" t="n">
+        <v>13</v>
+      </c>
+      <c r="T261" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V261" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X261" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK261"/>
+  <dimension ref="A1:BK262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT12" t="n">
         <v>1.67</v>
@@ -3339,7 +3339,7 @@
         <v>1.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT27" t="n">
         <v>1.64</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU28" t="n">
         <v>1.02</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT42" t="n">
         <v>2.4</v>
@@ -11053,7 +11053,7 @@
         <v>2.64</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU52" t="n">
         <v>2.55</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT61" t="n">
         <v>0.5</v>
@@ -15519,7 +15519,7 @@
         <v>0.86</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU74" t="n">
         <v>1.26</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT78" t="n">
         <v>0.71</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU84" t="n">
         <v>1.86</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT85" t="n">
         <v>1.4</v>
@@ -21403,7 +21403,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT103" t="n">
         <v>0.29</v>
@@ -22015,7 +22015,7 @@
         <v>2.57</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU106" t="n">
         <v>2.11</v>
@@ -25466,7 +25466,7 @@
         <v>1.2</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU123" t="n">
         <v>1.88</v>
@@ -26275,7 +26275,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT127" t="n">
         <v>1.07</v>
@@ -28308,7 +28308,7 @@
         <v>1.36</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU137" t="n">
         <v>1.6</v>
@@ -29523,7 +29523,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT143" t="n">
         <v>1.57</v>
@@ -31962,7 +31962,7 @@
         <v>1.93</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU155" t="n">
         <v>1.61</v>
@@ -32162,7 +32162,7 @@
         <v>2.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT156" t="n">
         <v>2.07</v>
@@ -36428,7 +36428,7 @@
         <v>1.53</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU177" t="n">
         <v>1.47</v>
@@ -37034,7 +37034,7 @@
         <v>1.11</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT180" t="n">
         <v>1.21</v>
@@ -38864,7 +38864,7 @@
         <v>2.07</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU189" t="n">
         <v>2.82</v>
@@ -40282,7 +40282,7 @@
         <v>1.1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT196" t="n">
         <v>1</v>
@@ -41503,7 +41503,7 @@
         <v>1.21</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU202" t="n">
         <v>1.67</v>
@@ -49214,7 +49214,7 @@
         <v>2.31</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT240" t="n">
         <v>2.21</v>
@@ -51653,7 +51653,7 @@
         <v>2.43</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU252" t="n">
         <v>2.53</v>
@@ -53532,6 +53532,209 @@
       </c>
       <c r="BK261" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2433208</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45035.57291666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>25</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>2</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>3</v>
+      </c>
+      <c r="L262" t="n">
+        <v>3</v>
+      </c>
+      <c r="M262" t="n">
+        <v>2</v>
+      </c>
+      <c r="N262" t="n">
+        <v>5</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['15', '23', '90+5']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['8', '55']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>10</v>
+      </c>
+      <c r="R262" t="n">
+        <v>1</v>
+      </c>
+      <c r="S262" t="n">
+        <v>11</v>
+      </c>
+      <c r="T262" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V262" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X262" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
